--- a/MUSCMammoHologic.xlsx
+++ b/MUSCMammoHologic.xlsx
@@ -7175,18 +7175,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="131" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="131" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="132" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="133" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="134" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="135" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="130" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="131" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="14" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="14" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="14" borderId="131" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="131" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="175" fontId="25" fillId="14" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7196,75 +7271,6 @@
     <xf numFmtId="175" fontId="25" fillId="14" borderId="131" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="14" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="14" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="14" borderId="131" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="132" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="133" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="134" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="135" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="130" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="131" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="131" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7274,6 +7280,27 @@
     <xf numFmtId="0" fontId="24" fillId="15" borderId="131" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="131" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="111" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="136" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="112" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7295,26 +7322,23 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="141" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="131" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="111" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="136" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="112" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="143" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7346,9 +7370,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="141" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="141" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="143" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7358,100 +7379,85 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="141" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7460,12 +7466,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7479,13 +7479,75 @@
   <dxfs count="94">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -7494,6 +7556,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8206,78 +8278,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -16590,40 +16590,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25">
-      <c r="A1" s="595" t="s">
+      <c r="A1" s="623" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="595"/>
-      <c r="C1" s="595"/>
-      <c r="D1" s="595"/>
-      <c r="E1" s="595"/>
-      <c r="F1" s="595"/>
-      <c r="G1" s="595"/>
-      <c r="H1" s="595"/>
-      <c r="I1" s="595"/>
-      <c r="J1" s="595"/>
-      <c r="K1" s="595"/>
-      <c r="L1" s="595"/>
-      <c r="M1" s="595"/>
-      <c r="N1" s="595"/>
+      <c r="B1" s="623"/>
+      <c r="C1" s="623"/>
+      <c r="D1" s="623"/>
+      <c r="E1" s="623"/>
+      <c r="F1" s="623"/>
+      <c r="G1" s="623"/>
+      <c r="H1" s="623"/>
+      <c r="I1" s="623"/>
+      <c r="J1" s="623"/>
+      <c r="K1" s="623"/>
+      <c r="L1" s="623"/>
+      <c r="M1" s="623"/>
+      <c r="N1" s="623"/>
     </row>
     <row r="2" spans="1:15" ht="26.25">
-      <c r="A2" s="595" t="s">
+      <c r="A2" s="623" t="s">
         <v>651</v>
       </c>
-      <c r="B2" s="595"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="595"/>
-      <c r="E2" s="595"/>
-      <c r="F2" s="595"/>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="595"/>
-      <c r="J2" s="595"/>
-      <c r="K2" s="595"/>
-      <c r="L2" s="595"/>
-      <c r="M2" s="595"/>
-      <c r="N2" s="595"/>
+      <c r="B2" s="623"/>
+      <c r="C2" s="623"/>
+      <c r="D2" s="623"/>
+      <c r="E2" s="623"/>
+      <c r="F2" s="623"/>
+      <c r="G2" s="623"/>
+      <c r="H2" s="623"/>
+      <c r="I2" s="623"/>
+      <c r="J2" s="623"/>
+      <c r="K2" s="623"/>
+      <c r="L2" s="623"/>
+      <c r="M2" s="623"/>
+      <c r="N2" s="623"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1">
       <c r="A3" s="471"/>
@@ -16646,43 +16646,43 @@
         <v>408</v>
       </c>
       <c r="B4" s="472"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
-      <c r="E4" s="597"/>
-      <c r="F4" s="597"/>
-      <c r="G4" s="597"/>
-      <c r="H4" s="598"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
+      <c r="E4" s="618"/>
+      <c r="F4" s="618"/>
+      <c r="G4" s="618"/>
+      <c r="H4" s="619"/>
       <c r="I4" s="473"/>
       <c r="J4" s="474" t="s">
         <v>409</v>
       </c>
-      <c r="K4" s="599"/>
-      <c r="L4" s="600"/>
-      <c r="M4" s="600"/>
-      <c r="N4" s="601"/>
+      <c r="K4" s="624"/>
+      <c r="L4" s="625"/>
+      <c r="M4" s="625"/>
+      <c r="N4" s="626"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
       <c r="A5" s="472" t="s">
         <v>410</v>
       </c>
       <c r="B5" s="472"/>
-      <c r="C5" s="596"/>
-      <c r="D5" s="597"/>
-      <c r="E5" s="597"/>
-      <c r="F5" s="597"/>
-      <c r="G5" s="597"/>
-      <c r="H5" s="598"/>
+      <c r="C5" s="617"/>
+      <c r="D5" s="618"/>
+      <c r="E5" s="618"/>
+      <c r="F5" s="618"/>
+      <c r="G5" s="618"/>
+      <c r="H5" s="619"/>
       <c r="I5" s="473"/>
       <c r="J5" s="474" t="s">
         <v>411</v>
       </c>
-      <c r="K5" s="599">
+      <c r="K5" s="624">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="600"/>
-      <c r="M5" s="600"/>
-      <c r="N5" s="601"/>
+      <c r="L5" s="625"/>
+      <c r="M5" s="625"/>
+      <c r="N5" s="626"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1">
       <c r="A6" s="472" t="s">
@@ -16690,21 +16690,21 @@
       </c>
       <c r="B6" s="472"/>
       <c r="C6" s="472"/>
-      <c r="D6" s="596" t="s">
+      <c r="D6" s="617" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="598"/>
+      <c r="E6" s="618"/>
+      <c r="F6" s="618"/>
+      <c r="G6" s="618"/>
+      <c r="H6" s="619"/>
       <c r="I6" s="473"/>
       <c r="J6" s="474" t="s">
         <v>413</v>
       </c>
-      <c r="K6" s="596"/>
-      <c r="L6" s="597"/>
-      <c r="M6" s="597"/>
-      <c r="N6" s="598"/>
+      <c r="K6" s="617"/>
+      <c r="L6" s="618"/>
+      <c r="M6" s="618"/>
+      <c r="N6" s="619"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="A7" s="472" t="s">
@@ -16712,21 +16712,21 @@
       </c>
       <c r="B7" s="472"/>
       <c r="C7" s="472"/>
-      <c r="D7" s="596" t="s">
+      <c r="D7" s="617" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="597"/>
-      <c r="F7" s="597"/>
-      <c r="G7" s="597"/>
-      <c r="H7" s="598"/>
+      <c r="E7" s="618"/>
+      <c r="F7" s="618"/>
+      <c r="G7" s="618"/>
+      <c r="H7" s="619"/>
       <c r="I7" s="473"/>
       <c r="J7" s="474" t="s">
         <v>416</v>
       </c>
-      <c r="K7" s="596"/>
-      <c r="L7" s="597"/>
-      <c r="M7" s="597"/>
-      <c r="N7" s="598"/>
+      <c r="K7" s="617"/>
+      <c r="L7" s="618"/>
+      <c r="M7" s="618"/>
+      <c r="N7" s="619"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1">
       <c r="A8" s="472" t="s">
@@ -16734,22 +16734,22 @@
       </c>
       <c r="B8" s="472"/>
       <c r="C8" s="472"/>
-      <c r="D8" s="602" t="str">
+      <c r="D8" s="620" t="str">
         <f>Sheet1!K16</f>
         <v/>
       </c>
-      <c r="E8" s="603"/>
-      <c r="F8" s="603"/>
-      <c r="G8" s="603"/>
-      <c r="H8" s="604"/>
+      <c r="E8" s="621"/>
+      <c r="F8" s="621"/>
+      <c r="G8" s="621"/>
+      <c r="H8" s="622"/>
       <c r="I8" s="473"/>
       <c r="J8" s="474" t="s">
         <v>418</v>
       </c>
-      <c r="K8" s="596"/>
-      <c r="L8" s="597"/>
-      <c r="M8" s="597"/>
-      <c r="N8" s="598"/>
+      <c r="K8" s="617"/>
+      <c r="L8" s="618"/>
+      <c r="M8" s="618"/>
+      <c r="N8" s="619"/>
     </row>
     <row r="9" spans="1:15" ht="11.25" customHeight="1">
       <c r="A9" s="475"/>
@@ -16763,11 +16763,11 @@
       <c r="A10" s="475" t="s">
         <v>652</v>
       </c>
-      <c r="D10" s="606"/>
-      <c r="E10" s="607"/>
-      <c r="F10" s="607"/>
-      <c r="G10" s="607"/>
-      <c r="H10" s="608"/>
+      <c r="D10" s="604"/>
+      <c r="E10" s="605"/>
+      <c r="F10" s="605"/>
+      <c r="G10" s="605"/>
+      <c r="H10" s="606"/>
       <c r="I10" s="477" t="s">
         <v>653</v>
       </c>
@@ -16793,25 +16793,25 @@
       </c>
       <c r="B12" s="472"/>
       <c r="C12" s="472"/>
-      <c r="D12" s="609" t="s">
+      <c r="D12" s="607" t="s">
         <v>421</v>
       </c>
-      <c r="E12" s="609"/>
-      <c r="F12" s="609"/>
-      <c r="G12" s="609" t="s">
+      <c r="E12" s="607"/>
+      <c r="F12" s="607"/>
+      <c r="G12" s="607" t="s">
         <v>416</v>
       </c>
-      <c r="H12" s="609"/>
-      <c r="I12" s="609" t="s">
+      <c r="H12" s="607"/>
+      <c r="I12" s="607" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="609"/>
-      <c r="K12" s="609" t="s">
+      <c r="J12" s="607"/>
+      <c r="K12" s="607" t="s">
         <v>419</v>
       </c>
-      <c r="L12" s="609"/>
-      <c r="M12" s="609"/>
-      <c r="N12" s="609"/>
+      <c r="L12" s="607"/>
+      <c r="M12" s="607"/>
+      <c r="N12" s="607"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="472"/>
@@ -16819,63 +16819,63 @@
       <c r="C13" s="479" t="s">
         <v>422</v>
       </c>
-      <c r="D13" s="610" t="s">
+      <c r="D13" s="608" t="s">
         <v>689</v>
       </c>
-      <c r="E13" s="611"/>
-      <c r="F13" s="612"/>
-      <c r="G13" s="610" t="s">
+      <c r="E13" s="609"/>
+      <c r="F13" s="610"/>
+      <c r="G13" s="608" t="s">
         <v>690</v>
       </c>
-      <c r="H13" s="612"/>
-      <c r="I13" s="613"/>
-      <c r="J13" s="614"/>
-      <c r="K13" s="610" t="s">
+      <c r="H13" s="610"/>
+      <c r="I13" s="611"/>
+      <c r="J13" s="612"/>
+      <c r="K13" s="608" t="s">
         <v>691</v>
       </c>
-      <c r="L13" s="611"/>
-      <c r="M13" s="611"/>
-      <c r="N13" s="612"/>
+      <c r="L13" s="609"/>
+      <c r="M13" s="609"/>
+      <c r="N13" s="610"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1">
       <c r="C14" s="479" t="s">
         <v>423</v>
       </c>
-      <c r="D14" s="615" t="s">
+      <c r="D14" s="613" t="s">
         <v>689</v>
       </c>
-      <c r="E14" s="616"/>
-      <c r="F14" s="617"/>
-      <c r="G14" s="615" t="s">
+      <c r="E14" s="614"/>
+      <c r="F14" s="615"/>
+      <c r="G14" s="613" t="s">
         <v>692</v>
       </c>
-      <c r="H14" s="617"/>
-      <c r="I14" s="606"/>
-      <c r="J14" s="608"/>
-      <c r="K14" s="615" t="s">
+      <c r="H14" s="615"/>
+      <c r="I14" s="604"/>
+      <c r="J14" s="606"/>
+      <c r="K14" s="613" t="s">
         <v>693</v>
       </c>
-      <c r="L14" s="616"/>
-      <c r="M14" s="616"/>
-      <c r="N14" s="617"/>
+      <c r="L14" s="614"/>
+      <c r="M14" s="614"/>
+      <c r="N14" s="615"/>
     </row>
     <row r="15" spans="1:15" s="480" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="618" t="s">
+      <c r="A15" s="616" t="s">
         <v>654</v>
       </c>
-      <c r="B15" s="618"/>
-      <c r="C15" s="618"/>
-      <c r="D15" s="618"/>
-      <c r="E15" s="618"/>
-      <c r="F15" s="618"/>
-      <c r="G15" s="618"/>
-      <c r="H15" s="618"/>
-      <c r="I15" s="618"/>
-      <c r="J15" s="618"/>
-      <c r="K15" s="618"/>
-      <c r="L15" s="618"/>
-      <c r="M15" s="618"/>
-      <c r="N15" s="618"/>
+      <c r="B15" s="616"/>
+      <c r="C15" s="616"/>
+      <c r="D15" s="616"/>
+      <c r="E15" s="616"/>
+      <c r="F15" s="616"/>
+      <c r="G15" s="616"/>
+      <c r="H15" s="616"/>
+      <c r="I15" s="616"/>
+      <c r="J15" s="616"/>
+      <c r="K15" s="616"/>
+      <c r="L15" s="616"/>
+      <c r="M15" s="616"/>
+      <c r="N15" s="616"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1">
       <c r="A16" s="475" t="s">
@@ -16937,46 +16937,46 @@
       <c r="L18" s="496"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="605" t="s">
+      <c r="A19" s="603" t="s">
         <v>426</v>
       </c>
-      <c r="B19" s="605"/>
-      <c r="C19" s="605"/>
-      <c r="D19" s="605"/>
-      <c r="E19" s="605"/>
-      <c r="F19" s="605"/>
-      <c r="G19" s="605"/>
-      <c r="H19" s="605"/>
-      <c r="I19" s="605"/>
-      <c r="J19" s="605"/>
-      <c r="K19" s="605"/>
-      <c r="L19" s="605"/>
-      <c r="M19" s="605"/>
-      <c r="N19" s="605"/>
+      <c r="B19" s="603"/>
+      <c r="C19" s="603"/>
+      <c r="D19" s="603"/>
+      <c r="E19" s="603"/>
+      <c r="F19" s="603"/>
+      <c r="G19" s="603"/>
+      <c r="H19" s="603"/>
+      <c r="I19" s="603"/>
+      <c r="J19" s="603"/>
+      <c r="K19" s="603"/>
+      <c r="L19" s="603"/>
+      <c r="M19" s="603"/>
+      <c r="N19" s="603"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="621" t="s">
+      <c r="A20" s="601" t="s">
         <v>427</v>
       </c>
-      <c r="B20" s="621"/>
-      <c r="C20" s="621"/>
-      <c r="D20" s="621"/>
-      <c r="E20" s="621"/>
-      <c r="F20" s="621"/>
-      <c r="G20" s="621"/>
-      <c r="H20" s="621"/>
-      <c r="I20" s="621"/>
-      <c r="J20" s="621"/>
-      <c r="K20" s="621"/>
-      <c r="L20" s="621"/>
-      <c r="M20" s="621"/>
-      <c r="N20" s="621"/>
+      <c r="B20" s="601"/>
+      <c r="C20" s="601"/>
+      <c r="D20" s="601"/>
+      <c r="E20" s="601"/>
+      <c r="F20" s="601"/>
+      <c r="G20" s="601"/>
+      <c r="H20" s="601"/>
+      <c r="I20" s="601"/>
+      <c r="J20" s="601"/>
+      <c r="K20" s="601"/>
+      <c r="L20" s="601"/>
+      <c r="M20" s="601"/>
+      <c r="N20" s="601"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
-      <c r="M21" s="622" t="s">
+      <c r="M21" s="602" t="s">
         <v>428</v>
       </c>
-      <c r="N21" s="622"/>
+      <c r="N21" s="602"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="497" t="s">
@@ -16993,8 +16993,8 @@
       <c r="J22" s="472"/>
       <c r="K22" s="472"/>
       <c r="L22" s="472"/>
-      <c r="M22" s="619"/>
-      <c r="N22" s="620"/>
+      <c r="M22" s="598"/>
+      <c r="N22" s="599"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="497" t="s">
@@ -17011,8 +17011,8 @@
       <c r="J23" s="472"/>
       <c r="K23" s="472"/>
       <c r="L23" s="472"/>
-      <c r="M23" s="619"/>
-      <c r="N23" s="620"/>
+      <c r="M23" s="598"/>
+      <c r="N23" s="599"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="497" t="s">
@@ -17029,8 +17029,8 @@
       <c r="J24" s="473"/>
       <c r="K24" s="473"/>
       <c r="L24" s="473"/>
-      <c r="M24" s="619"/>
-      <c r="N24" s="620"/>
+      <c r="M24" s="598"/>
+      <c r="N24" s="599"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="497" t="s">
@@ -17047,8 +17047,8 @@
       <c r="J25" s="472"/>
       <c r="K25" s="472"/>
       <c r="L25" s="472"/>
-      <c r="M25" s="619"/>
-      <c r="N25" s="620"/>
+      <c r="M25" s="598"/>
+      <c r="N25" s="599"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="497" t="s">
@@ -17065,8 +17065,8 @@
       <c r="J26" s="472"/>
       <c r="K26" s="472"/>
       <c r="L26" s="472"/>
-      <c r="M26" s="619"/>
-      <c r="N26" s="620"/>
+      <c r="M26" s="598"/>
+      <c r="N26" s="599"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="497" t="s">
@@ -17083,8 +17083,8 @@
       <c r="J27" s="472"/>
       <c r="K27" s="472"/>
       <c r="L27" s="472"/>
-      <c r="M27" s="619"/>
-      <c r="N27" s="620"/>
+      <c r="M27" s="598"/>
+      <c r="N27" s="599"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="497" t="s">
@@ -17101,8 +17101,8 @@
       <c r="J28" s="472"/>
       <c r="K28" s="472"/>
       <c r="L28" s="472"/>
-      <c r="M28" s="619"/>
-      <c r="N28" s="620"/>
+      <c r="M28" s="598"/>
+      <c r="N28" s="599"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="497" t="s">
@@ -17134,8 +17134,8 @@
       <c r="L30" s="502" t="s">
         <v>329</v>
       </c>
-      <c r="M30" s="619"/>
-      <c r="N30" s="620"/>
+      <c r="M30" s="598"/>
+      <c r="N30" s="599"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="472"/>
@@ -17157,8 +17157,8 @@
       <c r="L31" s="502" t="s">
         <v>329</v>
       </c>
-      <c r="M31" s="619"/>
-      <c r="N31" s="620"/>
+      <c r="M31" s="598"/>
+      <c r="N31" s="599"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="472" t="s">
@@ -17175,8 +17175,8 @@
       <c r="J32" s="472"/>
       <c r="K32" s="472"/>
       <c r="L32" s="472"/>
-      <c r="M32" s="619"/>
-      <c r="N32" s="620"/>
+      <c r="M32" s="598"/>
+      <c r="N32" s="599"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="472" t="s">
@@ -17221,8 +17221,8 @@
       </c>
       <c r="K34" s="476"/>
       <c r="L34" s="476"/>
-      <c r="M34" s="619"/>
-      <c r="N34" s="620"/>
+      <c r="M34" s="598"/>
+      <c r="N34" s="599"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="C35" s="503" t="s">
@@ -17244,8 +17244,8 @@
         <v>0</v>
       </c>
       <c r="L35" s="476"/>
-      <c r="M35" s="619"/>
-      <c r="N35" s="620"/>
+      <c r="M35" s="598"/>
+      <c r="N35" s="599"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="472" t="s">
@@ -17283,8 +17283,8 @@
       <c r="J37" s="508"/>
       <c r="K37" s="514"/>
       <c r="L37" s="514"/>
-      <c r="M37" s="619"/>
-      <c r="N37" s="620"/>
+      <c r="M37" s="598"/>
+      <c r="N37" s="599"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="472"/>
@@ -17324,8 +17324,8 @@
       <c r="J39" s="508"/>
       <c r="K39" s="514"/>
       <c r="L39" s="514"/>
-      <c r="M39" s="619"/>
-      <c r="N39" s="620"/>
+      <c r="M39" s="598"/>
+      <c r="N39" s="599"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="472" t="s">
@@ -17342,8 +17342,8 @@
       <c r="J40" s="472"/>
       <c r="K40" s="472"/>
       <c r="L40" s="472"/>
-      <c r="M40" s="619"/>
-      <c r="N40" s="620"/>
+      <c r="M40" s="598"/>
+      <c r="N40" s="599"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="472" t="s">
@@ -17360,8 +17360,8 @@
       <c r="J41" s="472"/>
       <c r="K41" s="472"/>
       <c r="L41" s="472"/>
-      <c r="M41" s="619"/>
-      <c r="N41" s="620"/>
+      <c r="M41" s="598"/>
+      <c r="N41" s="599"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="472" t="s">
@@ -17378,8 +17378,8 @@
       <c r="J42" s="472"/>
       <c r="K42" s="472"/>
       <c r="L42" s="472"/>
-      <c r="M42" s="619"/>
-      <c r="N42" s="620"/>
+      <c r="M42" s="598"/>
+      <c r="N42" s="599"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="497" t="s">
@@ -17396,8 +17396,8 @@
       <c r="J43" s="497"/>
       <c r="K43" s="497"/>
       <c r="L43" s="472"/>
-      <c r="M43" s="619"/>
-      <c r="N43" s="624"/>
+      <c r="M43" s="598"/>
+      <c r="N43" s="600"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="472" t="s">
@@ -17414,8 +17414,8 @@
       <c r="J44" s="472"/>
       <c r="K44" s="472"/>
       <c r="L44" s="472"/>
-      <c r="M44" s="619"/>
-      <c r="N44" s="620"/>
+      <c r="M44" s="598"/>
+      <c r="N44" s="599"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="472" t="s">
@@ -17432,8 +17432,8 @@
       <c r="J45" s="472"/>
       <c r="K45" s="472"/>
       <c r="L45" s="472"/>
-      <c r="M45" s="619"/>
-      <c r="N45" s="620"/>
+      <c r="M45" s="598"/>
+      <c r="N45" s="599"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="472" t="s">
@@ -17450,8 +17450,8 @@
       <c r="J46" s="472"/>
       <c r="K46" s="472"/>
       <c r="L46" s="472"/>
-      <c r="M46" s="619"/>
-      <c r="N46" s="620"/>
+      <c r="M46" s="598"/>
+      <c r="N46" s="599"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="472"/>
@@ -17470,49 +17470,37 @@
       <c r="N47" s="514"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="623" t="s">
+      <c r="A48" s="597" t="s">
         <v>676</v>
       </c>
-      <c r="B48" s="623"/>
-      <c r="C48" s="623"/>
-      <c r="D48" s="623"/>
-      <c r="E48" s="623"/>
-      <c r="F48" s="623"/>
-      <c r="G48" s="623"/>
-      <c r="H48" s="623"/>
-      <c r="I48" s="623"/>
-      <c r="J48" s="623"/>
-      <c r="K48" s="623"/>
-      <c r="L48" s="623"/>
-      <c r="M48" s="623"/>
-      <c r="N48" s="623"/>
+      <c r="B48" s="597"/>
+      <c r="C48" s="597"/>
+      <c r="D48" s="597"/>
+      <c r="E48" s="597"/>
+      <c r="F48" s="597"/>
+      <c r="G48" s="597"/>
+      <c r="H48" s="597"/>
+      <c r="I48" s="597"/>
+      <c r="J48" s="597"/>
+      <c r="K48" s="597"/>
+      <c r="L48" s="597"/>
+      <c r="M48" s="597"/>
+      <c r="N48" s="597"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="K8:N8"/>
     <mergeCell ref="A19:N19"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D12:F12"/>
@@ -17528,18 +17516,30 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="A15:N15"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
   </mergeCells>
   <conditionalFormatting sqref="M22:N28 M32:N32 M37:N37 M39:N40 M42:N42 M44:N45 M43">
     <cfRule type="cellIs" dxfId="93" priority="7" stopIfTrue="1" operator="equal">
@@ -17815,69 +17815,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="628" t="s">
+      <c r="A1" s="637" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="628"/>
-      <c r="C1" s="628"/>
-      <c r="D1" s="628"/>
-      <c r="E1" s="628"/>
-      <c r="F1" s="628"/>
-      <c r="G1" s="628"/>
-      <c r="H1" s="628"/>
-      <c r="I1" s="628"/>
-      <c r="J1" s="628"/>
-      <c r="K1" s="628"/>
-      <c r="L1" s="628"/>
+      <c r="B1" s="637"/>
+      <c r="C1" s="637"/>
+      <c r="D1" s="637"/>
+      <c r="E1" s="637"/>
+      <c r="F1" s="637"/>
+      <c r="G1" s="637"/>
+      <c r="H1" s="637"/>
+      <c r="I1" s="637"/>
+      <c r="J1" s="637"/>
+      <c r="K1" s="637"/>
+      <c r="L1" s="637"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="629" t="s">
+      <c r="A2" s="638" t="s">
         <v>677</v>
       </c>
-      <c r="B2" s="630"/>
-      <c r="C2" s="630"/>
-      <c r="D2" s="630"/>
-      <c r="E2" s="630"/>
-      <c r="F2" s="630"/>
-      <c r="G2" s="630"/>
-      <c r="H2" s="630"/>
-      <c r="I2" s="630"/>
-      <c r="J2" s="630"/>
-      <c r="K2" s="630"/>
-      <c r="L2" s="630"/>
+      <c r="B2" s="639"/>
+      <c r="C2" s="639"/>
+      <c r="D2" s="639"/>
+      <c r="E2" s="639"/>
+      <c r="F2" s="639"/>
+      <c r="G2" s="639"/>
+      <c r="H2" s="639"/>
+      <c r="I2" s="639"/>
+      <c r="J2" s="639"/>
+      <c r="K2" s="639"/>
+      <c r="L2" s="639"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:12" ht="24" customHeight="1">
-      <c r="A4" s="631" t="s">
+      <c r="A4" s="640" t="s">
         <v>442</v>
       </c>
-      <c r="B4" s="631"/>
-      <c r="C4" s="631"/>
-      <c r="D4" s="631"/>
-      <c r="E4" s="631"/>
-      <c r="F4" s="631"/>
-      <c r="G4" s="631"/>
-      <c r="H4" s="631"/>
-      <c r="I4" s="631"/>
-      <c r="J4" s="631"/>
-      <c r="K4" s="631"/>
-      <c r="L4" s="631"/>
+      <c r="B4" s="640"/>
+      <c r="C4" s="640"/>
+      <c r="D4" s="640"/>
+      <c r="E4" s="640"/>
+      <c r="F4" s="640"/>
+      <c r="G4" s="640"/>
+      <c r="H4" s="640"/>
+      <c r="I4" s="640"/>
+      <c r="J4" s="640"/>
+      <c r="K4" s="640"/>
+      <c r="L4" s="640"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="632" t="s">
+      <c r="A5" s="641" t="s">
         <v>678</v>
       </c>
-      <c r="B5" s="632"/>
-      <c r="C5" s="632"/>
-      <c r="D5" s="632"/>
-      <c r="E5" s="632"/>
-      <c r="F5" s="632"/>
-      <c r="G5" s="632"/>
-      <c r="H5" s="632"/>
-      <c r="I5" s="632"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="632"/>
-      <c r="L5" s="632"/>
+      <c r="B5" s="641"/>
+      <c r="C5" s="641"/>
+      <c r="D5" s="641"/>
+      <c r="E5" s="641"/>
+      <c r="F5" s="641"/>
+      <c r="G5" s="641"/>
+      <c r="H5" s="641"/>
+      <c r="I5" s="641"/>
+      <c r="J5" s="641"/>
+      <c r="K5" s="641"/>
+      <c r="L5" s="641"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="517" t="s">
@@ -17912,9 +17912,9 @@
       <c r="L7" s="524"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="633"/>
-      <c r="K8" s="633"/>
-      <c r="L8" s="633"/>
+      <c r="J8" s="642"/>
+      <c r="K8" s="642"/>
+      <c r="L8" s="642"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="476"/>
@@ -17923,11 +17923,11 @@
         <v>443</v>
       </c>
       <c r="I9" s="493"/>
-      <c r="J9" s="634" t="s">
+      <c r="J9" s="643" t="s">
         <v>428</v>
       </c>
-      <c r="K9" s="634"/>
-      <c r="L9" s="634"/>
+      <c r="K9" s="643"/>
+      <c r="L9" s="643"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="526" t="s">
@@ -17939,9 +17939,9 @@
       <c r="H10" s="528" t="s">
         <v>445</v>
       </c>
-      <c r="J10" s="625"/>
-      <c r="K10" s="626"/>
-      <c r="L10" s="627"/>
+      <c r="J10" s="627"/>
+      <c r="K10" s="628"/>
+      <c r="L10" s="629"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="529" t="s">
@@ -17953,9 +17953,9 @@
       <c r="H11" s="528" t="s">
         <v>445</v>
       </c>
-      <c r="J11" s="625"/>
-      <c r="K11" s="626"/>
-      <c r="L11" s="627"/>
+      <c r="J11" s="627"/>
+      <c r="K11" s="628"/>
+      <c r="L11" s="629"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="529" t="s">
@@ -17967,9 +17967,9 @@
       <c r="H12" s="528" t="s">
         <v>445</v>
       </c>
-      <c r="J12" s="625"/>
-      <c r="K12" s="626"/>
-      <c r="L12" s="627"/>
+      <c r="J12" s="627"/>
+      <c r="K12" s="628"/>
+      <c r="L12" s="629"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="529" t="s">
@@ -17981,9 +17981,9 @@
       <c r="H13" s="528" t="s">
         <v>445</v>
       </c>
-      <c r="J13" s="625"/>
-      <c r="K13" s="626"/>
-      <c r="L13" s="627"/>
+      <c r="J13" s="627"/>
+      <c r="K13" s="628"/>
+      <c r="L13" s="629"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="529" t="s">
@@ -17995,9 +17995,9 @@
       <c r="H14" s="528" t="s">
         <v>445</v>
       </c>
-      <c r="J14" s="625"/>
-      <c r="K14" s="626"/>
-      <c r="L14" s="627"/>
+      <c r="J14" s="627"/>
+      <c r="K14" s="628"/>
+      <c r="L14" s="629"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="529" t="s">
@@ -18009,9 +18009,9 @@
       <c r="H15" s="528" t="s">
         <v>445</v>
       </c>
-      <c r="J15" s="625"/>
-      <c r="K15" s="626"/>
-      <c r="L15" s="627"/>
+      <c r="J15" s="627"/>
+      <c r="K15" s="628"/>
+      <c r="L15" s="629"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="529" t="s">
@@ -18023,9 +18023,9 @@
       <c r="H16" s="528" t="s">
         <v>456</v>
       </c>
-      <c r="J16" s="625"/>
-      <c r="K16" s="626"/>
-      <c r="L16" s="627"/>
+      <c r="J16" s="627"/>
+      <c r="K16" s="628"/>
+      <c r="L16" s="629"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="529" t="s">
@@ -18037,9 +18037,9 @@
       <c r="H17" s="528" t="s">
         <v>459</v>
       </c>
-      <c r="J17" s="625"/>
-      <c r="K17" s="626"/>
-      <c r="L17" s="627"/>
+      <c r="J17" s="627"/>
+      <c r="K17" s="628"/>
+      <c r="L17" s="629"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="526" t="s">
@@ -18051,9 +18051,9 @@
       <c r="H18" s="528" t="s">
         <v>462</v>
       </c>
-      <c r="J18" s="625"/>
-      <c r="K18" s="626"/>
-      <c r="L18" s="627"/>
+      <c r="J18" s="627"/>
+      <c r="K18" s="628"/>
+      <c r="L18" s="629"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="526" t="s">
@@ -18065,9 +18065,9 @@
       <c r="H19" s="531" t="s">
         <v>465</v>
       </c>
-      <c r="J19" s="625"/>
-      <c r="K19" s="626"/>
-      <c r="L19" s="627"/>
+      <c r="J19" s="627"/>
+      <c r="K19" s="628"/>
+      <c r="L19" s="629"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="532" t="s">
@@ -18084,9 +18084,9 @@
       <c r="H20" s="533" t="s">
         <v>465</v>
       </c>
-      <c r="J20" s="625"/>
-      <c r="K20" s="626"/>
-      <c r="L20" s="627"/>
+      <c r="J20" s="627"/>
+      <c r="K20" s="628"/>
+      <c r="L20" s="629"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="526" t="s">
@@ -18098,9 +18098,9 @@
       <c r="H21" s="531" t="s">
         <v>684</v>
       </c>
-      <c r="J21" s="625"/>
-      <c r="K21" s="626"/>
-      <c r="L21" s="627"/>
+      <c r="J21" s="627"/>
+      <c r="K21" s="628"/>
+      <c r="L21" s="629"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="526" t="s">
@@ -18112,58 +18112,58 @@
       <c r="H22" s="528" t="s">
         <v>687</v>
       </c>
-      <c r="J22" s="625"/>
-      <c r="K22" s="626"/>
-      <c r="L22" s="627"/>
+      <c r="J22" s="627"/>
+      <c r="K22" s="628"/>
+      <c r="L22" s="629"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:12" ht="24" customHeight="1">
-      <c r="A24" s="635" t="s">
+      <c r="A24" s="630" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="635"/>
-      <c r="C24" s="635"/>
-      <c r="D24" s="635"/>
-      <c r="E24" s="635"/>
-      <c r="F24" s="635"/>
-      <c r="G24" s="635"/>
-      <c r="H24" s="635"/>
-      <c r="I24" s="635"/>
-      <c r="J24" s="635"/>
-      <c r="K24" s="635"/>
-      <c r="L24" s="635"/>
+      <c r="B24" s="630"/>
+      <c r="C24" s="630"/>
+      <c r="D24" s="630"/>
+      <c r="E24" s="630"/>
+      <c r="F24" s="630"/>
+      <c r="G24" s="630"/>
+      <c r="H24" s="630"/>
+      <c r="I24" s="630"/>
+      <c r="J24" s="630"/>
+      <c r="K24" s="630"/>
+      <c r="L24" s="630"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1"/>
     <row r="26" spans="1:12" ht="241.5" customHeight="1">
-      <c r="A26" s="636"/>
-      <c r="B26" s="637"/>
-      <c r="C26" s="637"/>
-      <c r="D26" s="637"/>
-      <c r="E26" s="637"/>
-      <c r="F26" s="637"/>
-      <c r="G26" s="637"/>
-      <c r="H26" s="637"/>
-      <c r="I26" s="637"/>
-      <c r="J26" s="637"/>
-      <c r="K26" s="637"/>
-      <c r="L26" s="638"/>
+      <c r="A26" s="631"/>
+      <c r="B26" s="632"/>
+      <c r="C26" s="632"/>
+      <c r="D26" s="632"/>
+      <c r="E26" s="632"/>
+      <c r="F26" s="632"/>
+      <c r="G26" s="632"/>
+      <c r="H26" s="632"/>
+      <c r="I26" s="632"/>
+      <c r="J26" s="632"/>
+      <c r="K26" s="632"/>
+      <c r="L26" s="633"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1"/>
     <row r="28" spans="1:12" ht="204.75" customHeight="1" thickBot="1">
-      <c r="A28" s="639" t="s">
+      <c r="A28" s="634" t="s">
         <v>688</v>
       </c>
-      <c r="B28" s="640"/>
-      <c r="C28" s="640"/>
-      <c r="D28" s="640"/>
-      <c r="E28" s="640"/>
-      <c r="F28" s="640"/>
-      <c r="G28" s="640"/>
-      <c r="H28" s="640"/>
-      <c r="I28" s="640"/>
-      <c r="J28" s="640"/>
-      <c r="K28" s="640"/>
-      <c r="L28" s="641"/>
+      <c r="B28" s="635"/>
+      <c r="C28" s="635"/>
+      <c r="D28" s="635"/>
+      <c r="E28" s="635"/>
+      <c r="F28" s="635"/>
+      <c r="G28" s="635"/>
+      <c r="H28" s="635"/>
+      <c r="I28" s="635"/>
+      <c r="J28" s="635"/>
+      <c r="K28" s="635"/>
+      <c r="L28" s="636"/>
     </row>
     <row r="33" spans="2:12" ht="18" customHeight="1">
       <c r="B33" s="472"/>
@@ -18180,16 +18180,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -18202,6 +18192,16 @@
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
   </mergeCells>
   <conditionalFormatting sqref="J22:L22 J20 J10:L19">
     <cfRule type="cellIs" dxfId="86" priority="2" stopIfTrue="1" operator="equal">
@@ -18756,13 +18756,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="657" t="s">
+      <c r="A1" s="646" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="658"/>
-      <c r="C1" s="658"/>
-      <c r="D1" s="658"/>
-      <c r="E1" s="658"/>
+      <c r="B1" s="647"/>
+      <c r="C1" s="647"/>
+      <c r="D1" s="647"/>
+      <c r="E1" s="647"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="534"/>
@@ -18775,23 +18775,23 @@
       <c r="A3" s="535" t="s">
         <v>470</v>
       </c>
-      <c r="B3" s="659">
+      <c r="B3" s="648">
         <f>'QC Test Summary-Hologic'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="659"/>
-      <c r="D3" s="659"/>
-      <c r="E3" s="659"/>
+      <c r="C3" s="648"/>
+      <c r="D3" s="648"/>
+      <c r="E3" s="648"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="535" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="660" t="str">
+      <c r="B4" s="649" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="660"/>
+      <c r="C4" s="649"/>
       <c r="D4" s="536" t="s">
         <v>23</v>
       </c>
@@ -18821,11 +18821,11 @@
       <c r="A6" s="535" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="660" t="str">
+      <c r="B6" s="649" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="660"/>
+      <c r="C6" s="649"/>
       <c r="D6" s="536" t="s">
         <v>475</v>
       </c>
@@ -18838,8 +18838,8 @@
       <c r="A7" s="535" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="660"/>
-      <c r="C7" s="660"/>
+      <c r="B7" s="649"/>
+      <c r="C7" s="649"/>
       <c r="D7" s="536" t="s">
         <v>477</v>
       </c>
@@ -18867,7 +18867,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="656" t="s">
+      <c r="A10" s="644" t="s">
         <v>482</v>
       </c>
       <c r="B10" s="543" t="s">
@@ -18882,7 +18882,7 @@
       <c r="E10" s="546"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="652"/>
+      <c r="A11" s="645"/>
       <c r="B11" s="547" t="s">
         <v>486</v>
       </c>
@@ -18895,7 +18895,7 @@
       <c r="E11" s="550"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="647" t="s">
+      <c r="A12" s="655" t="s">
         <v>488</v>
       </c>
       <c r="B12" s="551" t="s">
@@ -18910,7 +18910,7 @@
       <c r="E12" s="554"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="648"/>
+      <c r="A13" s="656"/>
       <c r="B13" s="555" t="s">
         <v>492</v>
       </c>
@@ -18923,7 +18923,7 @@
       <c r="E13" s="558"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="649"/>
+      <c r="A14" s="657"/>
       <c r="B14" s="559" t="s">
         <v>494</v>
       </c>
@@ -18936,7 +18936,7 @@
       <c r="E14" s="561"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="650" t="s">
+      <c r="A15" s="658" t="s">
         <v>496</v>
       </c>
       <c r="B15" s="562" t="s">
@@ -18951,7 +18951,7 @@
       <c r="E15" s="564"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="651"/>
+      <c r="A16" s="659"/>
       <c r="B16" s="547" t="s">
         <v>499</v>
       </c>
@@ -18964,7 +18964,7 @@
       <c r="E16" s="566"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="642" t="s">
+      <c r="A17" s="650" t="s">
         <v>502</v>
       </c>
       <c r="B17" s="567" t="s">
@@ -18979,7 +18979,7 @@
       <c r="E17" s="568"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="652"/>
+      <c r="A18" s="645"/>
       <c r="B18" s="569" t="s">
         <v>505</v>
       </c>
@@ -18992,7 +18992,7 @@
       <c r="E18" s="550"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="653" t="s">
+      <c r="A19" s="660" t="s">
         <v>507</v>
       </c>
       <c r="B19" s="567" t="s">
@@ -19007,7 +19007,7 @@
       <c r="E19" s="568"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="654"/>
+      <c r="A20" s="661"/>
       <c r="B20" s="571" t="s">
         <v>510</v>
       </c>
@@ -19020,7 +19020,7 @@
       <c r="E20" s="573"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="655"/>
+      <c r="A21" s="662"/>
       <c r="B21" s="569" t="s">
         <v>512</v>
       </c>
@@ -19033,7 +19033,7 @@
       <c r="E21" s="550"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="642" t="s">
+      <c r="A22" s="650" t="s">
         <v>514</v>
       </c>
       <c r="B22" s="567" t="s">
@@ -19048,7 +19048,7 @@
       <c r="E22" s="568"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="652"/>
+      <c r="A23" s="645"/>
       <c r="B23" s="547" t="s">
         <v>517</v>
       </c>
@@ -19061,7 +19061,7 @@
       <c r="E23" s="566"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="653" t="s">
+      <c r="A24" s="660" t="s">
         <v>519</v>
       </c>
       <c r="B24" s="567" t="s">
@@ -19076,7 +19076,7 @@
       <c r="E24" s="568"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="654"/>
+      <c r="A25" s="661"/>
       <c r="B25" s="571" t="s">
         <v>522</v>
       </c>
@@ -19089,7 +19089,7 @@
       <c r="E25" s="573"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="654"/>
+      <c r="A26" s="661"/>
       <c r="B26" s="574" t="s">
         <v>524</v>
       </c>
@@ -19102,7 +19102,7 @@
       <c r="E26" s="573"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="654"/>
+      <c r="A27" s="661"/>
       <c r="B27" s="574" t="s">
         <v>526</v>
       </c>
@@ -19115,7 +19115,7 @@
       <c r="E27" s="573"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="655"/>
+      <c r="A28" s="662"/>
       <c r="B28" s="575" t="s">
         <v>528</v>
       </c>
@@ -19128,7 +19128,7 @@
       <c r="E28" s="566"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="642" t="s">
+      <c r="A29" s="650" t="s">
         <v>530</v>
       </c>
       <c r="B29" s="576" t="s">
@@ -19143,7 +19143,7 @@
       <c r="E29" s="568"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="643"/>
+      <c r="A30" s="651"/>
       <c r="B30" s="574" t="s">
         <v>533</v>
       </c>
@@ -19156,7 +19156,7 @@
       <c r="E30" s="573"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="644"/>
+      <c r="A31" s="652"/>
       <c r="B31" s="575" t="s">
         <v>535</v>
       </c>
@@ -19169,7 +19169,7 @@
       <c r="E31" s="566"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="642" t="s">
+      <c r="A32" s="650" t="s">
         <v>537</v>
       </c>
       <c r="B32" s="576" t="s">
@@ -19184,7 +19184,7 @@
       <c r="E32" s="568"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="643"/>
+      <c r="A33" s="651"/>
       <c r="B33" s="574" t="s">
         <v>540</v>
       </c>
@@ -19197,7 +19197,7 @@
       <c r="E33" s="573"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="644"/>
+      <c r="A34" s="652"/>
       <c r="B34" s="575" t="s">
         <v>541</v>
       </c>
@@ -19285,13 +19285,13 @@
       <c r="E39" s="550"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="645" t="s">
+      <c r="A40" s="653" t="s">
         <v>701</v>
       </c>
-      <c r="B40" s="646"/>
-      <c r="C40" s="646"/>
-      <c r="D40" s="646"/>
-      <c r="E40" s="646"/>
+      <c r="B40" s="654"/>
+      <c r="C40" s="654"/>
+      <c r="D40" s="654"/>
+      <c r="E40" s="654"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="585"/>
@@ -19988,12 +19988,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -20003,6 +19997,12 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -22447,21 +22447,21 @@
       <c r="E10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="661" t="str">
+      <c r="F10" s="686" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="661"/>
+      <c r="G10" s="686"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="661" t="str">
+      <c r="K10" s="686" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="661"/>
+      <c r="L10" s="686"/>
       <c r="M10" s="42"/>
       <c r="N10" s="5"/>
       <c r="O10" s="13"/>
@@ -22531,21 +22531,21 @@
       <c r="E11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="662" t="str">
+      <c r="F11" s="688" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="662"/>
+      <c r="G11" s="688"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="661" t="str">
+      <c r="K11" s="686" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="661"/>
+      <c r="L11" s="686"/>
       <c r="M11" s="42"/>
       <c r="N11" s="5"/>
       <c r="O11" s="13"/>
@@ -22615,21 +22615,21 @@
       <c r="E12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="662" t="str">
+      <c r="F12" s="688" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="662"/>
+      <c r="G12" s="688"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="663" t="str">
+      <c r="K12" s="687" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="663"/>
+      <c r="L12" s="687"/>
       <c r="M12" s="42"/>
       <c r="N12" s="5"/>
       <c r="O12" s="13"/>
@@ -22699,21 +22699,21 @@
       <c r="E13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="662" t="str">
+      <c r="F13" s="688" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="662"/>
+      <c r="G13" s="688"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="661" t="str">
+      <c r="K13" s="686" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="661"/>
+      <c r="L13" s="686"/>
       <c r="M13" s="42"/>
       <c r="N13" s="5"/>
       <c r="O13" s="13"/>
@@ -22923,21 +22923,21 @@
       <c r="E16" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="661" t="str">
+      <c r="F16" s="686" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="661"/>
+      <c r="G16" s="686"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="663" t="str">
+      <c r="K16" s="687" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="663"/>
+      <c r="L16" s="687"/>
       <c r="M16" s="42"/>
       <c r="N16" s="5"/>
       <c r="O16" s="13"/>
@@ -22999,21 +22999,21 @@
       <c r="E17" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="661" t="str">
+      <c r="F17" s="686" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="661"/>
+      <c r="G17" s="686"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="661" t="str">
+      <c r="K17" s="686" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="661"/>
+      <c r="L17" s="686"/>
       <c r="M17" s="42"/>
       <c r="N17" s="5"/>
       <c r="O17" s="13"/>
@@ -23083,21 +23083,21 @@
       <c r="E18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="661" t="str">
+      <c r="F18" s="686" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="661"/>
+      <c r="G18" s="686"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="661" t="str">
+      <c r="K18" s="686" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="661"/>
+      <c r="L18" s="686"/>
       <c r="M18" s="42"/>
       <c r="N18" s="5"/>
       <c r="O18" s="13"/>
@@ -23301,21 +23301,21 @@
       <c r="E21" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="661" t="str">
+      <c r="F21" s="686" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="661"/>
+      <c r="G21" s="686"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="661" t="str">
+      <c r="K21" s="686" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="661"/>
+      <c r="L21" s="686"/>
       <c r="M21" s="42"/>
       <c r="N21" s="5"/>
       <c r="O21" s="13"/>
@@ -23382,19 +23382,19 @@
       <c r="E22" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="663" t="str">
+      <c r="F22" s="687" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="663"/>
+      <c r="G22" s="687"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="41"/>
-      <c r="K22" s="661" t="str">
+      <c r="K22" s="686" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="661"/>
+      <c r="L22" s="686"/>
       <c r="M22" s="42"/>
       <c r="N22" s="5"/>
       <c r="O22" s="13"/>
@@ -23469,11 +23469,11 @@
       <c r="J23" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="661" t="str">
+      <c r="K23" s="686" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="661"/>
+      <c r="L23" s="686"/>
       <c r="M23" s="42"/>
       <c r="N23" s="5"/>
       <c r="O23" s="13"/>
@@ -23538,19 +23538,19 @@
       <c r="E24" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="661" t="str">
+      <c r="F24" s="686" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="661"/>
+      <c r="G24" s="686"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="661" t="str">
+      <c r="K24" s="686" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="661"/>
+      <c r="L24" s="686"/>
       <c r="M24" s="42"/>
       <c r="N24" s="5"/>
       <c r="O24" s="13"/>
@@ -23617,11 +23617,11 @@
       <c r="E25" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="661" t="str">
+      <c r="F25" s="686" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="661"/>
+      <c r="G25" s="686"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="47"/>
@@ -23694,11 +23694,11 @@
       <c r="E26" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="661" t="str">
+      <c r="F26" s="686" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="661"/>
+      <c r="G26" s="686"/>
       <c r="H26" s="5"/>
       <c r="I26" s="45" t="s">
         <v>32</v>
@@ -23780,11 +23780,11 @@
       <c r="J27" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="661" t="str">
+      <c r="K27" s="686" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="661"/>
+      <c r="L27" s="686"/>
       <c r="M27" s="42"/>
       <c r="N27" s="5"/>
       <c r="O27" s="13"/>
@@ -23845,21 +23845,21 @@
       <c r="E28" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="661" t="str">
+      <c r="F28" s="686" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="661"/>
+      <c r="G28" s="686"/>
       <c r="H28" s="5"/>
       <c r="I28" s="47"/>
       <c r="J28" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="661" t="str">
+      <c r="K28" s="686" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="661"/>
+      <c r="L28" s="686"/>
       <c r="M28" s="42"/>
       <c r="N28" s="5"/>
       <c r="O28" s="13"/>
@@ -23926,11 +23926,11 @@
       <c r="E29" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="661" t="str">
+      <c r="F29" s="686" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="661"/>
+      <c r="G29" s="686"/>
       <c r="H29" s="5"/>
       <c r="I29" s="45" t="s">
         <v>36</v>
@@ -23938,11 +23938,11 @@
       <c r="J29" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="661" t="str">
+      <c r="K29" s="686" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="661"/>
+      <c r="L29" s="686"/>
       <c r="M29" s="42"/>
       <c r="N29" s="5"/>
       <c r="O29" s="13"/>
@@ -24012,21 +24012,21 @@
       <c r="E30" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="661" t="str">
+      <c r="F30" s="686" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="661"/>
+      <c r="G30" s="686"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="661" t="str">
+      <c r="K30" s="686" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="661"/>
+      <c r="L30" s="686"/>
       <c r="M30" s="42"/>
       <c r="N30" s="5"/>
       <c r="O30" s="13"/>
@@ -24309,7 +24309,9 @@
       <c r="L34" s="33"/>
       <c r="M34" s="35"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="51"/>
+      <c r="O34" s="51">
+        <v>1</v>
+      </c>
       <c r="P34" s="5" t="s">
         <v>40</v>
       </c>
@@ -24366,24 +24368,26 @@
       <c r="C35" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="664" t="s">
+      <c r="D35" s="683" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="664"/>
-      <c r="F35" s="664"/>
-      <c r="G35" s="665" t="s">
+      <c r="E35" s="683"/>
+      <c r="F35" s="683"/>
+      <c r="G35" s="684" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="665"/>
-      <c r="I35" s="665"/>
-      <c r="J35" s="664" t="s">
+      <c r="H35" s="684"/>
+      <c r="I35" s="684"/>
+      <c r="J35" s="683" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="664"/>
-      <c r="L35" s="664"/>
+      <c r="K35" s="683"/>
+      <c r="L35" s="683"/>
       <c r="M35" s="42"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="53"/>
+      <c r="O35" s="53">
+        <v>2</v>
+      </c>
       <c r="P35" s="21" t="s">
         <v>45</v>
       </c>
@@ -24440,15 +24444,15 @@
       <c r="C36" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="664"/>
-      <c r="E36" s="664"/>
-      <c r="F36" s="664"/>
-      <c r="G36" s="665"/>
-      <c r="H36" s="665"/>
-      <c r="I36" s="665"/>
-      <c r="J36" s="664"/>
-      <c r="K36" s="664"/>
-      <c r="L36" s="664"/>
+      <c r="D36" s="683"/>
+      <c r="E36" s="683"/>
+      <c r="F36" s="683"/>
+      <c r="G36" s="684"/>
+      <c r="H36" s="684"/>
+      <c r="I36" s="684"/>
+      <c r="J36" s="683"/>
+      <c r="K36" s="683"/>
+      <c r="L36" s="683"/>
       <c r="M36" s="42"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -25113,10 +25117,10 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="666" t="s">
+      <c r="L44" s="685" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="666"/>
+      <c r="M44" s="685"/>
       <c r="N44" s="5"/>
       <c r="O44" s="13"/>
       <c r="P44" s="5"/>
@@ -28896,21 +28900,21 @@
       <c r="O97" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="P97" s="664" t="s">
+      <c r="P97" s="683" t="s">
         <v>42</v>
       </c>
-      <c r="Q97" s="664"/>
-      <c r="R97" s="664"/>
-      <c r="S97" s="665" t="s">
+      <c r="Q97" s="683"/>
+      <c r="R97" s="683"/>
+      <c r="S97" s="684" t="s">
         <v>43</v>
       </c>
-      <c r="T97" s="665"/>
-      <c r="U97" s="665"/>
-      <c r="V97" s="664" t="s">
+      <c r="T97" s="684"/>
+      <c r="U97" s="684"/>
+      <c r="V97" s="683" t="s">
         <v>44</v>
       </c>
-      <c r="W97" s="664"/>
-      <c r="X97" s="664"/>
+      <c r="W97" s="683"/>
+      <c r="X97" s="683"/>
       <c r="Y97" s="15"/>
       <c r="AA97" s="177"/>
       <c r="AB97" s="177"/>
@@ -28968,15 +28972,15 @@
       <c r="O98" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="P98" s="664"/>
-      <c r="Q98" s="664"/>
-      <c r="R98" s="664"/>
-      <c r="S98" s="665"/>
-      <c r="T98" s="665"/>
-      <c r="U98" s="665"/>
-      <c r="V98" s="664"/>
-      <c r="W98" s="664"/>
-      <c r="X98" s="664"/>
+      <c r="P98" s="683"/>
+      <c r="Q98" s="683"/>
+      <c r="R98" s="683"/>
+      <c r="S98" s="684"/>
+      <c r="T98" s="684"/>
+      <c r="U98" s="684"/>
+      <c r="V98" s="683"/>
+      <c r="W98" s="683"/>
+      <c r="X98" s="683"/>
       <c r="Y98" s="15"/>
       <c r="AA98" s="45" t="s">
         <v>394</v>
@@ -29592,21 +29596,21 @@
       <c r="O105" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="P105" s="664" t="s">
+      <c r="P105" s="683" t="s">
         <v>42</v>
       </c>
-      <c r="Q105" s="664"/>
-      <c r="R105" s="664"/>
-      <c r="S105" s="665" t="s">
+      <c r="Q105" s="683"/>
+      <c r="R105" s="683"/>
+      <c r="S105" s="684" t="s">
         <v>43</v>
       </c>
-      <c r="T105" s="665"/>
-      <c r="U105" s="665"/>
-      <c r="V105" s="664" t="s">
+      <c r="T105" s="684"/>
+      <c r="U105" s="684"/>
+      <c r="V105" s="683" t="s">
         <v>44</v>
       </c>
-      <c r="W105" s="664"/>
-      <c r="X105" s="664"/>
+      <c r="W105" s="683"/>
+      <c r="X105" s="683"/>
       <c r="Y105" s="15"/>
       <c r="AA105" s="41" t="s">
         <v>274</v>
@@ -29664,15 +29668,15 @@
       <c r="O106" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="P106" s="664"/>
-      <c r="Q106" s="664"/>
-      <c r="R106" s="664"/>
-      <c r="S106" s="665"/>
-      <c r="T106" s="665"/>
-      <c r="U106" s="665"/>
-      <c r="V106" s="664"/>
-      <c r="W106" s="664"/>
-      <c r="X106" s="664"/>
+      <c r="P106" s="683"/>
+      <c r="Q106" s="683"/>
+      <c r="R106" s="683"/>
+      <c r="S106" s="684"/>
+      <c r="T106" s="684"/>
+      <c r="U106" s="684"/>
+      <c r="V106" s="683"/>
+      <c r="W106" s="683"/>
+      <c r="X106" s="683"/>
       <c r="Y106" s="15"/>
       <c r="AA106" s="41" t="s">
         <v>277</v>
@@ -32237,17 +32241,17 @@
       <c r="M150" s="42"/>
       <c r="N150" s="5"/>
       <c r="O150" s="13"/>
-      <c r="P150" s="667" t="s">
+      <c r="P150" s="672" t="s">
         <v>187</v>
       </c>
-      <c r="Q150" s="667"/>
-      <c r="R150" s="667"/>
-      <c r="S150" s="667"/>
+      <c r="Q150" s="672"/>
+      <c r="R150" s="672"/>
+      <c r="S150" s="672"/>
       <c r="T150" s="133"/>
-      <c r="U150" s="667" t="s">
+      <c r="U150" s="672" t="s">
         <v>188</v>
       </c>
-      <c r="V150" s="667"/>
+      <c r="V150" s="672"/>
       <c r="W150" s="5"/>
       <c r="X150" s="5"/>
       <c r="Y150" s="15"/>
@@ -32296,10 +32300,10 @@
         <v>192</v>
       </c>
       <c r="T151" s="133"/>
-      <c r="U151" s="668" t="s">
+      <c r="U151" s="681" t="s">
         <v>193</v>
       </c>
-      <c r="V151" s="668"/>
+      <c r="V151" s="681"/>
       <c r="W151" s="5"/>
       <c r="X151" s="5"/>
       <c r="Y151" s="15"/>
@@ -32339,11 +32343,11 @@
       <c r="R152" s="136"/>
       <c r="S152" s="137"/>
       <c r="T152" s="133"/>
-      <c r="U152" s="669" t="str">
+      <c r="U152" s="682" t="str">
         <f>IF(OR(R149=2,R149=3),"NA",IF(OR(P152="",Q152="",R152="",S152=""),"",AVERAGE(P152:S152)))</f>
         <v/>
       </c>
-      <c r="V152" s="669"/>
+      <c r="V152" s="682"/>
       <c r="W152" s="5"/>
       <c r="X152" s="41" t="s">
         <v>180</v>
@@ -32459,7 +32463,7 @@
       </c>
       <c r="P155" s="114">
         <f>IF($O$34=1,70,65)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
@@ -32489,18 +32493,18 @@
       <c r="M156" s="141"/>
       <c r="N156" s="5"/>
       <c r="O156" s="13"/>
-      <c r="P156" s="670" t="s">
+      <c r="P156" s="675" t="s">
         <v>196</v>
       </c>
-      <c r="Q156" s="671" t="s">
+      <c r="Q156" s="679" t="s">
         <v>197</v>
       </c>
-      <c r="R156" s="671"/>
-      <c r="S156" s="671"/>
+      <c r="R156" s="679"/>
+      <c r="S156" s="679"/>
       <c r="T156" s="142" t="s">
         <v>197</v>
       </c>
-      <c r="U156" s="672" t="s">
+      <c r="U156" s="677" t="s">
         <v>198</v>
       </c>
       <c r="V156" s="77"/>
@@ -32528,7 +32532,7 @@
       <c r="M157" s="42"/>
       <c r="N157" s="5"/>
       <c r="O157" s="13"/>
-      <c r="P157" s="670" t="s">
+      <c r="P157" s="675" t="s">
         <v>196</v>
       </c>
       <c r="Q157" s="142" t="s">
@@ -32543,7 +32547,7 @@
       <c r="T157" s="142" t="s">
         <v>202</v>
       </c>
-      <c r="U157" s="672" t="s">
+      <c r="U157" s="677" t="s">
         <v>196</v>
       </c>
       <c r="V157" s="77"/>
@@ -32893,14 +32897,14 @@
       <c r="M164" s="42"/>
       <c r="N164" s="5"/>
       <c r="O164" s="156"/>
-      <c r="P164" s="670" t="s">
+      <c r="P164" s="675" t="s">
         <v>209</v>
       </c>
-      <c r="Q164" s="670"/>
-      <c r="R164" s="670"/>
-      <c r="S164" s="670"/>
-      <c r="T164" s="670"/>
-      <c r="U164" s="670"/>
+      <c r="Q164" s="675"/>
+      <c r="R164" s="675"/>
+      <c r="S164" s="675"/>
+      <c r="T164" s="675"/>
+      <c r="U164" s="675"/>
       <c r="V164" s="77"/>
       <c r="W164" s="77"/>
       <c r="X164" s="77"/>
@@ -32944,18 +32948,18 @@
       <c r="M165" s="42"/>
       <c r="N165" s="5"/>
       <c r="O165" s="156"/>
-      <c r="P165" s="670" t="s">
+      <c r="P165" s="675" t="s">
         <v>196</v>
       </c>
-      <c r="Q165" s="673" t="s">
+      <c r="Q165" s="676" t="s">
         <v>197</v>
       </c>
-      <c r="R165" s="673"/>
-      <c r="S165" s="673"/>
+      <c r="R165" s="676"/>
+      <c r="S165" s="676"/>
       <c r="T165" s="143" t="s">
         <v>197</v>
       </c>
-      <c r="U165" s="672" t="s">
+      <c r="U165" s="677" t="s">
         <v>198</v>
       </c>
       <c r="V165" s="77"/>
@@ -32985,7 +32989,7 @@
       <c r="M166" s="42"/>
       <c r="N166" s="5"/>
       <c r="O166" s="156"/>
-      <c r="P166" s="670" t="s">
+      <c r="P166" s="675" t="s">
         <v>196</v>
       </c>
       <c r="Q166" s="143" t="s">
@@ -33000,7 +33004,7 @@
       <c r="T166" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="U166" s="672" t="s">
+      <c r="U166" s="677" t="s">
         <v>196</v>
       </c>
       <c r="V166" s="77"/>
@@ -33273,17 +33277,17 @@
       </c>
       <c r="B172" s="39"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="667" t="s">
+      <c r="D172" s="672" t="s">
         <v>187</v>
       </c>
-      <c r="E172" s="667"/>
-      <c r="F172" s="667"/>
-      <c r="G172" s="667"/>
+      <c r="E172" s="672"/>
+      <c r="F172" s="672"/>
+      <c r="G172" s="672"/>
       <c r="H172" s="133"/>
-      <c r="I172" s="667" t="s">
+      <c r="I172" s="672" t="s">
         <v>188</v>
       </c>
-      <c r="J172" s="667"/>
+      <c r="J172" s="672"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
       <c r="M172" s="42"/>
@@ -33339,10 +33343,10 @@
         <v>192</v>
       </c>
       <c r="H173" s="133"/>
-      <c r="I173" s="668" t="s">
+      <c r="I173" s="681" t="s">
         <v>193</v>
       </c>
-      <c r="J173" s="668"/>
+      <c r="J173" s="681"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
       <c r="M173" s="42"/>
@@ -33386,11 +33390,11 @@
         <v/>
       </c>
       <c r="H174" s="133"/>
-      <c r="I174" s="675" t="str">
+      <c r="I174" s="674" t="str">
         <f>IF(U152="","",U152)</f>
         <v/>
       </c>
-      <c r="J174" s="675"/>
+      <c r="J174" s="674"/>
       <c r="K174" s="5"/>
       <c r="L174" s="41" t="s">
         <v>180</v>
@@ -33533,18 +33537,18 @@
       <c r="M178" s="42"/>
       <c r="N178" s="5"/>
       <c r="O178" s="13"/>
-      <c r="P178" s="670" t="s">
+      <c r="P178" s="675" t="s">
         <v>196</v>
       </c>
-      <c r="Q178" s="673" t="s">
+      <c r="Q178" s="676" t="s">
         <v>197</v>
       </c>
-      <c r="R178" s="673"/>
-      <c r="S178" s="673"/>
+      <c r="R178" s="676"/>
+      <c r="S178" s="676"/>
       <c r="T178" s="143" t="s">
         <v>196</v>
       </c>
-      <c r="U178" s="672" t="s">
+      <c r="U178" s="677" t="s">
         <v>198</v>
       </c>
       <c r="V178" s="77"/>
@@ -33559,23 +33563,23 @@
       <c r="B179" s="39"/>
       <c r="C179" s="119">
         <f>IF(P155="","",P155)</f>
-        <v>65</v>
-      </c>
-      <c r="D179" s="676" t="s">
+        <v>70</v>
+      </c>
+      <c r="D179" s="678" t="s">
         <v>219</v>
       </c>
-      <c r="E179" s="676"/>
-      <c r="F179" s="676"/>
-      <c r="G179" s="676"/>
-      <c r="H179" s="676"/>
-      <c r="I179" s="676"/>
+      <c r="E179" s="678"/>
+      <c r="F179" s="678"/>
+      <c r="G179" s="678"/>
+      <c r="H179" s="678"/>
+      <c r="I179" s="678"/>
       <c r="J179" s="77"/>
       <c r="K179" s="77"/>
       <c r="L179" s="77"/>
       <c r="M179" s="42"/>
       <c r="N179" s="5"/>
       <c r="O179" s="13"/>
-      <c r="P179" s="670" t="s">
+      <c r="P179" s="675" t="s">
         <v>196</v>
       </c>
       <c r="Q179" s="143" t="s">
@@ -33590,7 +33594,7 @@
       <c r="T179" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="U179" s="672" t="s">
+      <c r="U179" s="677" t="s">
         <v>196</v>
       </c>
       <c r="V179" s="77"/>
@@ -33604,18 +33608,18 @@
       </c>
       <c r="B180" s="39"/>
       <c r="C180" s="47"/>
-      <c r="D180" s="670" t="s">
+      <c r="D180" s="675" t="s">
         <v>196</v>
       </c>
-      <c r="E180" s="671" t="s">
+      <c r="E180" s="679" t="s">
         <v>197</v>
       </c>
-      <c r="F180" s="671"/>
-      <c r="G180" s="671"/>
+      <c r="F180" s="679"/>
+      <c r="G180" s="679"/>
       <c r="H180" s="142" t="s">
         <v>196</v>
       </c>
-      <c r="I180" s="677" t="s">
+      <c r="I180" s="680" t="s">
         <v>198</v>
       </c>
       <c r="J180" s="77"/>
@@ -33643,7 +33647,7 @@
       </c>
       <c r="B181" s="39"/>
       <c r="C181" s="47"/>
-      <c r="D181" s="670" t="s">
+      <c r="D181" s="675" t="s">
         <v>196</v>
       </c>
       <c r="E181" s="142" t="s">
@@ -33658,7 +33662,7 @@
       <c r="H181" s="142" t="s">
         <v>202</v>
       </c>
-      <c r="I181" s="677" t="s">
+      <c r="I181" s="680" t="s">
         <v>202</v>
       </c>
       <c r="J181" s="77"/>
@@ -33971,14 +33975,14 @@
       <c r="M187" s="42"/>
       <c r="N187" s="5"/>
       <c r="O187" s="156"/>
-      <c r="P187" s="678" t="s">
+      <c r="P187" s="663" t="s">
         <v>209</v>
       </c>
-      <c r="Q187" s="678"/>
-      <c r="R187" s="678"/>
-      <c r="S187" s="678"/>
-      <c r="T187" s="678"/>
-      <c r="U187" s="678"/>
+      <c r="Q187" s="663"/>
+      <c r="R187" s="663"/>
+      <c r="S187" s="663"/>
+      <c r="T187" s="663"/>
+      <c r="U187" s="663"/>
       <c r="V187" s="77"/>
       <c r="W187" s="77"/>
       <c r="X187" s="77"/>
@@ -34022,18 +34026,18 @@
       <c r="M188" s="42"/>
       <c r="N188" s="5"/>
       <c r="O188" s="156"/>
-      <c r="P188" s="670" t="s">
+      <c r="P188" s="675" t="s">
         <v>196</v>
       </c>
-      <c r="Q188" s="673" t="s">
+      <c r="Q188" s="676" t="s">
         <v>197</v>
       </c>
-      <c r="R188" s="673"/>
-      <c r="S188" s="673"/>
+      <c r="R188" s="676"/>
+      <c r="S188" s="676"/>
       <c r="T188" s="143" t="s">
         <v>196</v>
       </c>
-      <c r="U188" s="672" t="s">
+      <c r="U188" s="677" t="s">
         <v>198</v>
       </c>
       <c r="V188" s="77"/>
@@ -34047,21 +34051,21 @@
       </c>
       <c r="B189" s="175"/>
       <c r="C189" s="47"/>
-      <c r="D189" s="676" t="s">
+      <c r="D189" s="678" t="s">
         <v>224</v>
       </c>
-      <c r="E189" s="676"/>
-      <c r="F189" s="676"/>
-      <c r="G189" s="676"/>
-      <c r="H189" s="676"/>
-      <c r="I189" s="676"/>
+      <c r="E189" s="678"/>
+      <c r="F189" s="678"/>
+      <c r="G189" s="678"/>
+      <c r="H189" s="678"/>
+      <c r="I189" s="678"/>
       <c r="J189" s="77"/>
       <c r="K189" s="77"/>
       <c r="L189" s="77"/>
       <c r="M189" s="78"/>
       <c r="N189" s="5"/>
       <c r="O189" s="156"/>
-      <c r="P189" s="670" t="s">
+      <c r="P189" s="675" t="s">
         <v>196</v>
       </c>
       <c r="Q189" s="143" t="s">
@@ -34076,7 +34080,7 @@
       <c r="T189" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="U189" s="672"/>
+      <c r="U189" s="677"/>
       <c r="V189" s="77"/>
       <c r="W189" s="77"/>
       <c r="X189" s="77"/>
@@ -36635,7 +36639,7 @@
         <v/>
       </c>
       <c r="V241" s="5"/>
-      <c r="W241" s="690" t="str">
+      <c r="W241" s="595" t="str">
         <f>IF(W234="","",IF(MAX(W234:W240)&gt;0.1,"Fail","Pass"))</f>
         <v/>
       </c>
@@ -36889,11 +36893,11 @@
       <c r="U246" s="47"/>
       <c r="V246" s="5"/>
       <c r="W246" s="5"/>
-      <c r="X246" s="674" t="str">
+      <c r="X246" s="673" t="str">
         <f>IF($O$34=1,AB246,Z246)</f>
-        <v>Selenia</v>
-      </c>
-      <c r="Y246" s="674"/>
+        <v>Selenia Dimensions</v>
+      </c>
+      <c r="Y246" s="673"/>
       <c r="Z246" s="435" t="s">
         <v>602</v>
       </c>
@@ -37015,11 +37019,11 @@
       <c r="W248" s="5"/>
       <c r="X248" s="216">
         <f t="shared" ref="X248:Y250" si="40">IF($O$34=1,AB248,Z248)</f>
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y248" s="217">
         <f t="shared" si="40"/>
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="Z248" s="435">
         <v>0.5</v>
@@ -37067,11 +37071,11 @@
       <c r="W249" s="5"/>
       <c r="X249" s="216">
         <f t="shared" si="40"/>
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="Y249" s="217">
         <f t="shared" si="40"/>
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Z249" s="435">
         <v>0.63</v>
@@ -37129,11 +37133,11 @@
       <c r="W250" s="5"/>
       <c r="X250" s="216">
         <f t="shared" si="40"/>
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="Y250" s="217">
         <f t="shared" si="40"/>
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="Z250" s="435">
         <v>0.77</v>
@@ -37253,11 +37257,11 @@
       <c r="W252" s="5"/>
       <c r="X252" s="216">
         <f t="shared" ref="X252:Y255" si="42">IF($O$34=1,AB252,Z252)</f>
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Y252" s="217">
         <f t="shared" si="42"/>
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="Z252" s="435">
         <v>1.04</v>
@@ -37323,7 +37327,7 @@
       <c r="W253" s="5"/>
       <c r="X253" s="216">
         <f t="shared" si="42"/>
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="Y253" s="217">
         <f t="shared" si="42"/>
@@ -37389,11 +37393,11 @@
       <c r="W254" s="5"/>
       <c r="X254" s="216">
         <f t="shared" si="42"/>
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="Y254" s="217">
         <f t="shared" si="42"/>
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="Z254" s="435">
         <v>1.31</v>
@@ -37455,11 +37459,11 @@
       <c r="W255" s="5"/>
       <c r="X255" s="216">
         <f t="shared" si="42"/>
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="Y255" s="217">
         <f t="shared" si="42"/>
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="Z255" s="435">
         <v>1.44</v>
@@ -37578,21 +37582,21 @@
       </c>
       <c r="B259" s="39"/>
       <c r="C259" s="5"/>
-      <c r="D259" s="681" t="s">
+      <c r="D259" s="668" t="s">
         <v>263</v>
       </c>
-      <c r="E259" s="681"/>
+      <c r="E259" s="668"/>
       <c r="F259" s="47"/>
-      <c r="G259" s="681" t="s">
+      <c r="G259" s="668" t="s">
         <v>264</v>
       </c>
-      <c r="H259" s="681"/>
+      <c r="H259" s="668"/>
       <c r="I259" s="5"/>
       <c r="J259" s="47"/>
-      <c r="K259" s="682" t="s">
+      <c r="K259" s="669" t="s">
         <v>265</v>
       </c>
-      <c r="L259" s="682"/>
+      <c r="L259" s="669"/>
       <c r="M259" s="78"/>
       <c r="N259" s="5"/>
       <c r="O259" s="110" t="s">
@@ -39870,14 +39874,14 @@
       <c r="B305" s="175"/>
       <c r="C305" s="77"/>
       <c r="D305" s="77"/>
-      <c r="E305" s="683" t="str">
+      <c r="E305" s="670" t="str">
         <f>O294&amp;" "&amp;P295&amp;" "&amp;Q295</f>
         <v xml:space="preserve">Combo Mode 2D Target/Filter: </v>
       </c>
-      <c r="F305" s="683"/>
-      <c r="G305" s="683"/>
-      <c r="H305" s="683"/>
-      <c r="I305" s="683"/>
+      <c r="F305" s="670"/>
+      <c r="G305" s="670"/>
+      <c r="H305" s="670"/>
+      <c r="I305" s="670"/>
       <c r="J305" s="77"/>
       <c r="K305" s="77"/>
       <c r="L305" s="77"/>
@@ -40438,14 +40442,14 @@
       <c r="B316" s="175"/>
       <c r="C316" s="77"/>
       <c r="D316" s="77"/>
-      <c r="E316" s="684" t="str">
+      <c r="E316" s="671" t="str">
         <f>O306&amp;" "&amp;P307&amp;" "&amp;Q307</f>
         <v xml:space="preserve">Combo Mode 3D Target/Filter: </v>
       </c>
-      <c r="F316" s="684"/>
-      <c r="G316" s="684"/>
-      <c r="H316" s="684"/>
-      <c r="I316" s="684"/>
+      <c r="F316" s="671"/>
+      <c r="G316" s="671"/>
+      <c r="H316" s="671"/>
+      <c r="I316" s="671"/>
       <c r="J316" s="77"/>
       <c r="K316" s="77"/>
       <c r="L316" s="77"/>
@@ -40725,10 +40729,10 @@
       <c r="S321" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="T321" s="685">
+      <c r="T321" s="665">
         <v>43014</v>
       </c>
-      <c r="U321" s="685"/>
+      <c r="U321" s="665"/>
       <c r="V321" s="5"/>
       <c r="W321" s="5"/>
       <c r="X321" s="5"/>
@@ -40782,10 +40786,10 @@
       <c r="S322" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="T322" s="685">
+      <c r="T322" s="665">
         <v>43744</v>
       </c>
-      <c r="U322" s="685"/>
+      <c r="U322" s="665"/>
       <c r="V322" s="5"/>
       <c r="W322" s="5"/>
       <c r="X322" s="5"/>
@@ -40881,13 +40885,13 @@
       <c r="Q324" s="5"/>
       <c r="R324" s="5"/>
       <c r="S324" s="5"/>
-      <c r="T324" s="678" t="s">
+      <c r="T324" s="663" t="s">
         <v>308</v>
       </c>
-      <c r="U324" s="678"/>
-      <c r="V324" s="678"/>
-      <c r="W324" s="678"/>
-      <c r="X324" s="678"/>
+      <c r="U324" s="663"/>
+      <c r="V324" s="663"/>
+      <c r="W324" s="663"/>
+      <c r="X324" s="663"/>
       <c r="Y324" s="15"/>
     </row>
     <row r="325" spans="1:25">
@@ -41492,13 +41496,13 @@
       <c r="Q335" s="5"/>
       <c r="R335" s="5"/>
       <c r="S335" s="41"/>
-      <c r="T335" s="678" t="s">
+      <c r="T335" s="663" t="s">
         <v>308</v>
       </c>
-      <c r="U335" s="678"/>
-      <c r="V335" s="678"/>
-      <c r="W335" s="678"/>
-      <c r="X335" s="678"/>
+      <c r="U335" s="663"/>
+      <c r="V335" s="663"/>
+      <c r="W335" s="663"/>
+      <c r="X335" s="663"/>
       <c r="Y335" s="15"/>
     </row>
     <row r="336" spans="1:25">
@@ -41840,11 +41844,11 @@
         <v/>
       </c>
       <c r="U341" s="211" t="str">
-        <f>IF(AN90="","",AVERAGE(AN90:AN91))</f>
+        <f>IF(AN90="","",AN90)</f>
         <v/>
       </c>
       <c r="V341" s="209" t="str">
-        <f>IF(AO90="","",AVERAGE(AO90:AO91))</f>
+        <f>IF(AO90="","",AO90)</f>
         <v/>
       </c>
       <c r="W341" s="237" t="str">
@@ -41901,11 +41905,11 @@
         <v/>
       </c>
       <c r="U342" s="211" t="str">
-        <f>IF(AN91="","",AVERAGE(AN91:AN92))</f>
+        <f>IF(AN91="","",AN91)</f>
         <v/>
       </c>
       <c r="V342" s="209" t="str">
-        <f>IF(AO91="","",AVERAGE(AO91:AO92))</f>
+        <f>IF(AO91="","",AO91)</f>
         <v/>
       </c>
       <c r="W342" s="237" t="str">
@@ -41936,11 +41940,11 @@
       <c r="H343" s="279" t="s">
         <v>305</v>
       </c>
-      <c r="I343" s="679">
+      <c r="I343" s="666">
         <f>IF(T321="","",T321)</f>
         <v>43014</v>
       </c>
-      <c r="J343" s="679"/>
+      <c r="J343" s="666"/>
       <c r="K343" s="33"/>
       <c r="L343" s="33"/>
       <c r="M343" s="35"/>
@@ -41979,11 +41983,11 @@
       <c r="H344" s="228" t="s">
         <v>307</v>
       </c>
-      <c r="I344" s="680">
+      <c r="I344" s="667">
         <f>IF(T322="","",T322)</f>
         <v>43744</v>
       </c>
-      <c r="J344" s="680"/>
+      <c r="J344" s="667"/>
       <c r="K344" s="47"/>
       <c r="L344" s="5"/>
       <c r="M344" s="42"/>
@@ -42024,13 +42028,13 @@
       <c r="Q345" s="5"/>
       <c r="R345" s="5"/>
       <c r="S345" s="41"/>
-      <c r="T345" s="678" t="s">
+      <c r="T345" s="663" t="s">
         <v>308</v>
       </c>
-      <c r="U345" s="678"/>
-      <c r="V345" s="678"/>
-      <c r="W345" s="678"/>
-      <c r="X345" s="678"/>
+      <c r="U345" s="663"/>
+      <c r="V345" s="663"/>
+      <c r="W345" s="663"/>
+      <c r="X345" s="663"/>
       <c r="Y345" s="15"/>
     </row>
     <row r="346" spans="1:25">
@@ -42145,15 +42149,15 @@
         <v>50</v>
       </c>
       <c r="T347" s="209" t="str">
-        <f>IF(AM92="","",AM92)</f>
+        <f>IF(AM92="","",AVERAGE(AM92:AM93))</f>
         <v/>
       </c>
       <c r="U347" s="211" t="str">
-        <f>IF(AN92="","",AN92)</f>
+        <f>IF(AN92="","",AVERAGE(AN92:AN93))</f>
         <v/>
       </c>
       <c r="V347" s="209" t="str">
-        <f>IF(AO92="","",AO92)</f>
+        <f>IF(AO92="","",AVERAGE(AO92:AO93))</f>
         <v/>
       </c>
       <c r="W347" s="237" t="str">
@@ -42216,15 +42220,15 @@
         <v>50</v>
       </c>
       <c r="T348" s="209" t="str">
-        <f>IF(AM100="","",AM100)</f>
+        <f>IF(AM100="","",AVERAGE(AM100:AM101))</f>
         <v/>
       </c>
       <c r="U348" s="211" t="str">
-        <f>IF(AN100="","",AN100)</f>
+        <f>IF(AN100="","",AVERAGE(AN100:AN101))</f>
         <v/>
       </c>
       <c r="V348" s="209" t="str">
-        <f>IF(AO100="","",AO100)</f>
+        <f>IF(AO100="","",AVERAGE(AO100:AO101))</f>
         <v/>
       </c>
       <c r="W348" s="237" t="str">
@@ -42284,15 +42288,15 @@
         <v>50</v>
       </c>
       <c r="T349" s="209" t="str">
-        <f>IF(AM108="","",AM108)</f>
+        <f>IF(AM108="","",AVERAGE(AM108:AM109))</f>
         <v/>
       </c>
       <c r="U349" s="211" t="str">
-        <f>IF(AN108="","",AN108)</f>
+        <f>IF(AN108="","",AVERAGE(AN108:AN109))</f>
         <v/>
       </c>
       <c r="V349" s="209" t="str">
-        <f>IF(AO108="","",AO108)</f>
+        <f>IF(AO108="","",AVERAGE(AO108:AO109))</f>
         <v/>
       </c>
       <c r="W349" s="237" t="str">
@@ -42358,15 +42362,15 @@
         <v>50</v>
       </c>
       <c r="T350" s="209" t="str">
-        <f>IF(AM116="","",AM116)</f>
+        <f>IF(AM116="","",AVERAGE(AM116:AM117))</f>
         <v/>
       </c>
       <c r="U350" s="211" t="str">
-        <f>IF(AN116="","",AN116)</f>
+        <f>IF(AN116="","",AVERAGE(AN116:AN117))</f>
         <v/>
       </c>
       <c r="V350" s="209" t="str">
-        <f>IF(AO116="","",AO116)</f>
+        <f>IF(AO116="","",AVERAGE(AO116:AO117))</f>
         <v/>
       </c>
       <c r="W350" s="237" t="str">
@@ -42441,15 +42445,15 @@
         <v>50</v>
       </c>
       <c r="T351" s="209" t="str">
-        <f>IF(AM124="","",AM124)</f>
+        <f>IF(AM124="","",AVERAGE(AM124:AM125))</f>
         <v/>
       </c>
       <c r="U351" s="211" t="str">
-        <f>IF(AN124="","",AN124)</f>
+        <f>IF(AN124="","",AVERAGE(AN124:AN125))</f>
         <v/>
       </c>
       <c r="V351" s="209" t="str">
-        <f>IF(AO124="","",AO124)</f>
+        <f>IF(AO124="","",AVERAGE(AO124:AO125))</f>
         <v/>
       </c>
       <c r="W351" s="237" t="str">
@@ -42732,13 +42736,13 @@
       <c r="Q356" s="5"/>
       <c r="R356" s="5"/>
       <c r="S356" s="41"/>
-      <c r="T356" s="678" t="s">
+      <c r="T356" s="663" t="s">
         <v>308</v>
       </c>
-      <c r="U356" s="678"/>
-      <c r="V356" s="678"/>
-      <c r="W356" s="678"/>
-      <c r="X356" s="678"/>
+      <c r="U356" s="663"/>
+      <c r="V356" s="663"/>
+      <c r="W356" s="663"/>
+      <c r="X356" s="663"/>
       <c r="Y356" s="15"/>
     </row>
     <row r="357" spans="1:25" ht="16.5" thickBot="1">
@@ -43225,7 +43229,7 @@
       </c>
       <c r="T365" s="288"/>
       <c r="U365" s="288"/>
-      <c r="V365" s="691"/>
+      <c r="V365" s="596"/>
       <c r="W365" s="591" t="str">
         <f>IF(AB87="","",AB87)</f>
         <v/>
@@ -43445,13 +43449,13 @@
       <c r="Q370" s="5"/>
       <c r="R370" s="5"/>
       <c r="S370" s="5"/>
-      <c r="T370" s="678" t="s">
+      <c r="T370" s="663" t="s">
         <v>308</v>
       </c>
-      <c r="U370" s="678"/>
-      <c r="V370" s="678"/>
-      <c r="W370" s="678"/>
-      <c r="X370" s="678"/>
+      <c r="U370" s="663"/>
+      <c r="V370" s="663"/>
+      <c r="W370" s="663"/>
+      <c r="X370" s="663"/>
       <c r="Y370" s="15"/>
     </row>
     <row r="371" spans="1:25">
@@ -44122,16 +44126,16 @@
       <c r="P383" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="Q383" s="686" t="s">
+      <c r="Q383" s="664" t="s">
         <v>341</v>
       </c>
-      <c r="R383" s="686"/>
-      <c r="S383" s="686"/>
-      <c r="T383" s="686"/>
-      <c r="U383" s="686"/>
-      <c r="V383" s="686"/>
-      <c r="W383" s="686"/>
-      <c r="X383" s="686"/>
+      <c r="R383" s="664"/>
+      <c r="S383" s="664"/>
+      <c r="T383" s="664"/>
+      <c r="U383" s="664"/>
+      <c r="V383" s="664"/>
+      <c r="W383" s="664"/>
+      <c r="X383" s="664"/>
       <c r="Y383" s="15"/>
     </row>
     <row r="384" spans="1:25">
@@ -44935,13 +44939,13 @@
       <c r="P396" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="Q396" s="686" t="s">
+      <c r="Q396" s="664" t="s">
         <v>341</v>
       </c>
-      <c r="R396" s="686"/>
-      <c r="S396" s="686"/>
-      <c r="T396" s="686"/>
-      <c r="U396" s="686"/>
+      <c r="R396" s="664"/>
+      <c r="S396" s="664"/>
+      <c r="T396" s="664"/>
+      <c r="U396" s="664"/>
       <c r="V396" s="77"/>
       <c r="W396" s="77"/>
       <c r="X396" s="77"/>
@@ -47491,22 +47495,58 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="T356:X356"/>
-    <mergeCell ref="T370:X370"/>
-    <mergeCell ref="Q383:X383"/>
-    <mergeCell ref="Q396:U396"/>
-    <mergeCell ref="T322:U322"/>
-    <mergeCell ref="T324:X324"/>
-    <mergeCell ref="T335:X335"/>
-    <mergeCell ref="I343:J343"/>
-    <mergeCell ref="I344:J344"/>
-    <mergeCell ref="T345:X345"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="K259:L259"/>
-    <mergeCell ref="E305:I305"/>
-    <mergeCell ref="E316:I316"/>
-    <mergeCell ref="T321:U321"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F36"/>
+    <mergeCell ref="G35:I36"/>
+    <mergeCell ref="J35:L36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P97:R98"/>
+    <mergeCell ref="V97:X98"/>
+    <mergeCell ref="P105:R106"/>
+    <mergeCell ref="S105:U106"/>
+    <mergeCell ref="V105:X106"/>
+    <mergeCell ref="P150:S150"/>
+    <mergeCell ref="U150:V150"/>
+    <mergeCell ref="S97:U98"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="U151:V151"/>
+    <mergeCell ref="U152:V152"/>
+    <mergeCell ref="P156:P157"/>
+    <mergeCell ref="Q156:S156"/>
+    <mergeCell ref="U156:U157"/>
+    <mergeCell ref="P164:U164"/>
+    <mergeCell ref="P165:P166"/>
+    <mergeCell ref="Q165:S165"/>
+    <mergeCell ref="U165:U166"/>
     <mergeCell ref="D172:G172"/>
     <mergeCell ref="I172:J172"/>
     <mergeCell ref="X246:Y246"/>
@@ -47523,401 +47563,365 @@
     <mergeCell ref="Q188:S188"/>
     <mergeCell ref="U188:U189"/>
     <mergeCell ref="D189:I189"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="U151:V151"/>
-    <mergeCell ref="U152:V152"/>
-    <mergeCell ref="P156:P157"/>
-    <mergeCell ref="Q156:S156"/>
-    <mergeCell ref="U156:U157"/>
-    <mergeCell ref="P164:U164"/>
-    <mergeCell ref="P165:P166"/>
-    <mergeCell ref="Q165:S165"/>
-    <mergeCell ref="U165:U166"/>
-    <mergeCell ref="V97:X98"/>
-    <mergeCell ref="P105:R106"/>
-    <mergeCell ref="S105:U106"/>
-    <mergeCell ref="V105:X106"/>
-    <mergeCell ref="P150:S150"/>
-    <mergeCell ref="U150:V150"/>
-    <mergeCell ref="S97:U98"/>
-    <mergeCell ref="D35:F36"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="J35:L36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P97:R98"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I343:J343"/>
+    <mergeCell ref="I344:J344"/>
+    <mergeCell ref="T345:X345"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="E305:I305"/>
+    <mergeCell ref="E316:I316"/>
+    <mergeCell ref="T321:U321"/>
+    <mergeCell ref="T356:X356"/>
+    <mergeCell ref="T370:X370"/>
+    <mergeCell ref="Q383:X383"/>
+    <mergeCell ref="Q396:U396"/>
+    <mergeCell ref="T322:U322"/>
+    <mergeCell ref="T324:X324"/>
+    <mergeCell ref="T335:X335"/>
   </mergeCells>
   <conditionalFormatting sqref="P171:U172">
-    <cfRule type="cellIs" dxfId="72" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="87" operator="lessThan">
       <formula>0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="88" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P190:U193">
-    <cfRule type="cellIs" dxfId="70" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="84" operator="between">
       <formula>0.02</formula>
       <formula>-0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="85" operator="lessThan">
       <formula>-0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="86" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P194:U194">
-    <cfRule type="cellIs" dxfId="67" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="81" operator="lessThan">
       <formula>-0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="82" operator="greaterThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="83" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="83" operator="between">
       <formula>-0.01</formula>
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W219:W226">
-    <cfRule type="cellIs" dxfId="64" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="79" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="80" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W234:W240">
-    <cfRule type="cellIs" dxfId="62" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="77" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="78" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U248">
-    <cfRule type="cellIs" dxfId="60" priority="76" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="between">
       <formula>$X$248</formula>
       <formula>$Y$248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U249">
-    <cfRule type="cellIs" dxfId="59" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="75" operator="between">
       <formula>$X$249</formula>
       <formula>$Y$249</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U250">
-    <cfRule type="cellIs" dxfId="58" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="between">
       <formula>$X$250</formula>
       <formula>$Y$250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U252">
-    <cfRule type="cellIs" dxfId="57" priority="73" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="73" operator="between">
       <formula>$X$252</formula>
       <formula>$Y$252</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U253">
-    <cfRule type="cellIs" dxfId="56" priority="72" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="between">
       <formula>$X$253</formula>
       <formula>$Y$253</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U254">
-    <cfRule type="cellIs" dxfId="55" priority="71" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="between">
       <formula>$X$254</formula>
       <formula>$Y$254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U255">
-    <cfRule type="cellIs" dxfId="54" priority="70" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="70" operator="between">
       <formula>$X$255</formula>
       <formula>$Y$255</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X266 X281 X301 X313">
-    <cfRule type="cellIs" dxfId="53" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="69" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X271 X286 X305 X317">
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="3" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="68" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X318">
-    <cfRule type="cellIs" dxfId="50" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T364:X364">
-    <cfRule type="cellIs" dxfId="49" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="64" operator="lessThan">
       <formula>-0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="66" operator="between">
       <formula>0.02</formula>
       <formula>-0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W376">
-    <cfRule type="cellIs" dxfId="46" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U410 P429 R429 Q420:R420 U420:V420">
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="47" operator="lessThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="48" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="48" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U411 Q421:R421 U421:V421 P430 R430">
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="45" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="46" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U412 Q422:R422 U422:V422 P431 R431">
-    <cfRule type="cellIs" dxfId="40" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="43" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="44" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T429">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T430:T431">
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="39" operator="lessThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="40" operator="greaterThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T441">
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="37" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="38" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V442">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="34" operator="lessThan">
       <formula>-0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="between">
       <formula>0.15</formula>
       <formula>-0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T326">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="between">
       <formula>$R$326*0.95</formula>
       <formula>$R$326*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T327">
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="between">
       <formula>$R$327*0.95</formula>
       <formula>$R$327*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T328">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="between">
       <formula>$R$328*0.95</formula>
       <formula>$R$328*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T329">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="between">
       <formula>$R$329*0.95</formula>
       <formula>$R$329*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T330">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="27" operator="between">
       <formula>$R$330*0.95</formula>
       <formula>$R$330*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T331">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="26" operator="between">
       <formula>$R$331*0.95</formula>
       <formula>$R$331*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T332">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="between">
       <formula>$R$332*0.95</formula>
       <formula>$R$332*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T337">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="24" operator="between">
       <formula>$R$337*0.95</formula>
       <formula>$R$337*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T338">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="between">
       <formula>$R$338*0.95</formula>
       <formula>$R$338*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T339">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="between">
       <formula>$R$339*0.95</formula>
       <formula>$R$339*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T340">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="between">
       <formula>$R$340*0.95</formula>
       <formula>$R$340*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T341">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="between">
       <formula>$R$341*0.95</formula>
       <formula>$R$341*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T342">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="between">
       <formula>$R$342*0.95</formula>
       <formula>$R$342*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T347">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="between">
       <formula>$R$347*0.95</formula>
       <formula>$R$347*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T348">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="between">
       <formula>$R$348*0.95</formula>
       <formula>$R$348*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T349">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="between">
       <formula>$R$349*0.95</formula>
       <formula>$R$349*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T350">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="15" operator="between">
       <formula>$R$350*0.95</formula>
       <formula>$R$350*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T351">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="between">
       <formula>$R$351*0.95</formula>
       <formula>$R$351*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R123:R130">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
       <formula>-0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="between">
       <formula>0.5</formula>
       <formula>-0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U152:V152">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="lessThan">
       <formula>160</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="greaterThan">
       <formula>160</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q142:V142">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q210:T210">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X266 X281 X301 X313 X318">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q390:X390 Q403:U403">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47955,39 +47959,39 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B2" s="689" t="s">
+      <c r="B2" s="691" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="689"/>
-      <c r="D2" s="689"/>
-      <c r="E2" s="689"/>
-      <c r="F2" s="689"/>
-      <c r="G2" s="689"/>
-      <c r="H2" s="689"/>
-      <c r="I2" s="689"/>
-      <c r="J2" s="689"/>
-      <c r="L2" s="689" t="s">
+      <c r="C2" s="691"/>
+      <c r="D2" s="691"/>
+      <c r="E2" s="691"/>
+      <c r="F2" s="691"/>
+      <c r="G2" s="691"/>
+      <c r="H2" s="691"/>
+      <c r="I2" s="691"/>
+      <c r="J2" s="691"/>
+      <c r="L2" s="691" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="689"/>
-      <c r="N2" s="689"/>
-      <c r="O2" s="689"/>
-      <c r="P2" s="689"/>
-      <c r="Q2" s="689"/>
-      <c r="R2" s="689"/>
-      <c r="S2" s="689"/>
-      <c r="T2" s="689"/>
-      <c r="V2" s="689" t="s">
+      <c r="M2" s="691"/>
+      <c r="N2" s="691"/>
+      <c r="O2" s="691"/>
+      <c r="P2" s="691"/>
+      <c r="Q2" s="691"/>
+      <c r="R2" s="691"/>
+      <c r="S2" s="691"/>
+      <c r="T2" s="691"/>
+      <c r="V2" s="691" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="689"/>
-      <c r="X2" s="689"/>
-      <c r="Y2" s="689"/>
-      <c r="Z2" s="689"/>
-      <c r="AA2" s="689"/>
-      <c r="AB2" s="689"/>
-      <c r="AC2" s="689"/>
-      <c r="AD2" s="689"/>
+      <c r="W2" s="691"/>
+      <c r="X2" s="691"/>
+      <c r="Y2" s="691"/>
+      <c r="Z2" s="691"/>
+      <c r="AA2" s="691"/>
+      <c r="AB2" s="691"/>
+      <c r="AC2" s="691"/>
+      <c r="AD2" s="691"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" thickTop="1">
       <c r="A3" s="424" t="s">
@@ -49448,36 +49452,36 @@
     </row>
     <row r="26" spans="1:30" ht="16.5" thickTop="1">
       <c r="A26" s="424"/>
-      <c r="B26" s="687" t="s">
+      <c r="B26" s="689" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="687"/>
-      <c r="D26" s="687"/>
-      <c r="E26" s="687"/>
-      <c r="F26" s="687"/>
-      <c r="G26" s="687"/>
-      <c r="H26" s="687"/>
-      <c r="I26" s="687"/>
-      <c r="J26" s="687"/>
-      <c r="K26" s="687"/>
-      <c r="L26" s="687"/>
-      <c r="M26" s="688"/>
+      <c r="C26" s="689"/>
+      <c r="D26" s="689"/>
+      <c r="E26" s="689"/>
+      <c r="F26" s="689"/>
+      <c r="G26" s="689"/>
+      <c r="H26" s="689"/>
+      <c r="I26" s="689"/>
+      <c r="J26" s="689"/>
+      <c r="K26" s="689"/>
+      <c r="L26" s="689"/>
+      <c r="M26" s="690"/>
       <c r="N26" s="424"/>
-      <c r="O26" s="687" t="s">
+      <c r="O26" s="689" t="s">
         <v>49</v>
       </c>
-      <c r="P26" s="687"/>
-      <c r="Q26" s="687"/>
-      <c r="R26" s="687"/>
-      <c r="S26" s="687"/>
-      <c r="T26" s="687"/>
-      <c r="U26" s="687"/>
-      <c r="V26" s="687"/>
-      <c r="W26" s="687"/>
-      <c r="X26" s="687"/>
-      <c r="Y26" s="687"/>
-      <c r="Z26" s="687"/>
-      <c r="AA26" s="688"/>
+      <c r="P26" s="689"/>
+      <c r="Q26" s="689"/>
+      <c r="R26" s="689"/>
+      <c r="S26" s="689"/>
+      <c r="T26" s="689"/>
+      <c r="U26" s="689"/>
+      <c r="V26" s="689"/>
+      <c r="W26" s="689"/>
+      <c r="X26" s="689"/>
+      <c r="Y26" s="689"/>
+      <c r="Z26" s="689"/>
+      <c r="AA26" s="690"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="427" t="s">
@@ -51313,33 +51317,33 @@
     </row>
     <row r="51" spans="1:26" ht="16.5" thickTop="1">
       <c r="A51" s="424"/>
-      <c r="B51" s="687" t="s">
+      <c r="B51" s="689" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="687"/>
-      <c r="D51" s="687"/>
-      <c r="E51" s="687"/>
-      <c r="F51" s="687"/>
-      <c r="G51" s="687"/>
-      <c r="H51" s="687"/>
-      <c r="I51" s="687"/>
-      <c r="J51" s="687"/>
-      <c r="K51" s="687"/>
-      <c r="L51" s="687"/>
-      <c r="M51" s="687"/>
-      <c r="N51" s="687"/>
-      <c r="O51" s="687"/>
-      <c r="P51" s="687"/>
-      <c r="Q51" s="687"/>
-      <c r="R51" s="687"/>
-      <c r="S51" s="687"/>
-      <c r="T51" s="687"/>
-      <c r="U51" s="687"/>
-      <c r="V51" s="687"/>
-      <c r="W51" s="687"/>
-      <c r="X51" s="687"/>
-      <c r="Y51" s="687"/>
-      <c r="Z51" s="688"/>
+      <c r="C51" s="689"/>
+      <c r="D51" s="689"/>
+      <c r="E51" s="689"/>
+      <c r="F51" s="689"/>
+      <c r="G51" s="689"/>
+      <c r="H51" s="689"/>
+      <c r="I51" s="689"/>
+      <c r="J51" s="689"/>
+      <c r="K51" s="689"/>
+      <c r="L51" s="689"/>
+      <c r="M51" s="689"/>
+      <c r="N51" s="689"/>
+      <c r="O51" s="689"/>
+      <c r="P51" s="689"/>
+      <c r="Q51" s="689"/>
+      <c r="R51" s="689"/>
+      <c r="S51" s="689"/>
+      <c r="T51" s="689"/>
+      <c r="U51" s="689"/>
+      <c r="V51" s="689"/>
+      <c r="W51" s="689"/>
+      <c r="X51" s="689"/>
+      <c r="Y51" s="689"/>
+      <c r="Z51" s="690"/>
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="427" t="s">
@@ -54048,11 +54052,11 @@
         <f>"DGN values (mrad/R) for "&amp;Sheet1!$T$260&amp;" kV and HVL="&amp;ROUND(Sheet1!$X$263,2)&amp;" mm Al"</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G100" s="689" t="s">
+      <c r="G100" s="691" t="s">
         <v>441</v>
       </c>
-      <c r="H100" s="689"/>
-      <c r="I100" s="689"/>
+      <c r="H100" s="691"/>
+      <c r="I100" s="691"/>
       <c r="T100" t="s">
         <v>604</v>
       </c>
@@ -60374,50 +60378,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="84" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>21.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
       <formula>24</formula>
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>21.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
       <formula>25.35</formula>
       <formula>31.55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="78" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>21.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
       <formula>24</formula>
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="75" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="lessThan">
       <formula>21.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="between">
       <formula>25.35</formula>
       <formula>31.55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MUSCMammoHologic.xlsx
+++ b/MUSCMammoHologic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8190" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8190" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QC Test Summary-Hologic" sheetId="11" r:id="rId1"/>
@@ -5467,7 +5467,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="692">
+  <cellXfs count="693">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7181,96 +7181,96 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="131" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="25" fillId="14" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="25" fillId="14" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="25" fillId="14" borderId="131" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="14" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="14" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="14" borderId="131" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="132" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="133" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="134" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="135" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="130" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="131" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="131" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="131" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="132" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="133" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="134" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="135" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="130" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="99" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="131" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="14" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="14" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="14" borderId="131" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="14" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="14" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="25" fillId="14" borderId="131" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7280,6 +7280,27 @@
     <xf numFmtId="0" fontId="24" fillId="15" borderId="131" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7301,33 +7322,51 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="112" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="143" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="141" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="14" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="143" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="141" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="143" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="141" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="141" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="143" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="141" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="141" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7340,124 +7379,85 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="143" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="141" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="143" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="141" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="143" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="141" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="143" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="141" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7466,6 +7466,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -16590,40 +16593,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25">
-      <c r="A1" s="623" t="s">
+      <c r="A1" s="597" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="623"/>
-      <c r="C1" s="623"/>
-      <c r="D1" s="623"/>
-      <c r="E1" s="623"/>
-      <c r="F1" s="623"/>
-      <c r="G1" s="623"/>
-      <c r="H1" s="623"/>
-      <c r="I1" s="623"/>
-      <c r="J1" s="623"/>
-      <c r="K1" s="623"/>
-      <c r="L1" s="623"/>
-      <c r="M1" s="623"/>
-      <c r="N1" s="623"/>
+      <c r="B1" s="597"/>
+      <c r="C1" s="597"/>
+      <c r="D1" s="597"/>
+      <c r="E1" s="597"/>
+      <c r="F1" s="597"/>
+      <c r="G1" s="597"/>
+      <c r="H1" s="597"/>
+      <c r="I1" s="597"/>
+      <c r="J1" s="597"/>
+      <c r="K1" s="597"/>
+      <c r="L1" s="597"/>
+      <c r="M1" s="597"/>
+      <c r="N1" s="597"/>
     </row>
     <row r="2" spans="1:15" ht="26.25">
-      <c r="A2" s="623" t="s">
+      <c r="A2" s="597" t="s">
         <v>651</v>
       </c>
-      <c r="B2" s="623"/>
-      <c r="C2" s="623"/>
-      <c r="D2" s="623"/>
-      <c r="E2" s="623"/>
-      <c r="F2" s="623"/>
-      <c r="G2" s="623"/>
-      <c r="H2" s="623"/>
-      <c r="I2" s="623"/>
-      <c r="J2" s="623"/>
-      <c r="K2" s="623"/>
-      <c r="L2" s="623"/>
-      <c r="M2" s="623"/>
-      <c r="N2" s="623"/>
+      <c r="B2" s="597"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="597"/>
+      <c r="F2" s="597"/>
+      <c r="G2" s="597"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="597"/>
+      <c r="J2" s="597"/>
+      <c r="K2" s="597"/>
+      <c r="L2" s="597"/>
+      <c r="M2" s="597"/>
+      <c r="N2" s="597"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1">
       <c r="A3" s="471"/>
@@ -16646,43 +16649,43 @@
         <v>408</v>
       </c>
       <c r="B4" s="472"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
-      <c r="E4" s="618"/>
-      <c r="F4" s="618"/>
-      <c r="G4" s="618"/>
-      <c r="H4" s="619"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
+      <c r="E4" s="599"/>
+      <c r="F4" s="599"/>
+      <c r="G4" s="599"/>
+      <c r="H4" s="600"/>
       <c r="I4" s="473"/>
       <c r="J4" s="474" t="s">
         <v>409</v>
       </c>
-      <c r="K4" s="624"/>
-      <c r="L4" s="625"/>
-      <c r="M4" s="625"/>
-      <c r="N4" s="626"/>
+      <c r="K4" s="601"/>
+      <c r="L4" s="602"/>
+      <c r="M4" s="602"/>
+      <c r="N4" s="603"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
       <c r="A5" s="472" t="s">
         <v>410</v>
       </c>
       <c r="B5" s="472"/>
-      <c r="C5" s="617"/>
-      <c r="D5" s="618"/>
-      <c r="E5" s="618"/>
-      <c r="F5" s="618"/>
-      <c r="G5" s="618"/>
-      <c r="H5" s="619"/>
+      <c r="C5" s="598"/>
+      <c r="D5" s="599"/>
+      <c r="E5" s="599"/>
+      <c r="F5" s="599"/>
+      <c r="G5" s="599"/>
+      <c r="H5" s="600"/>
       <c r="I5" s="473"/>
       <c r="J5" s="474" t="s">
         <v>411</v>
       </c>
-      <c r="K5" s="624">
+      <c r="K5" s="601">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="625"/>
-      <c r="M5" s="625"/>
-      <c r="N5" s="626"/>
+      <c r="L5" s="602"/>
+      <c r="M5" s="602"/>
+      <c r="N5" s="603"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1">
       <c r="A6" s="472" t="s">
@@ -16690,21 +16693,21 @@
       </c>
       <c r="B6" s="472"/>
       <c r="C6" s="472"/>
-      <c r="D6" s="617" t="s">
+      <c r="D6" s="598" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="618"/>
-      <c r="F6" s="618"/>
-      <c r="G6" s="618"/>
-      <c r="H6" s="619"/>
+      <c r="E6" s="599"/>
+      <c r="F6" s="599"/>
+      <c r="G6" s="599"/>
+      <c r="H6" s="600"/>
       <c r="I6" s="473"/>
       <c r="J6" s="474" t="s">
         <v>413</v>
       </c>
-      <c r="K6" s="617"/>
-      <c r="L6" s="618"/>
-      <c r="M6" s="618"/>
-      <c r="N6" s="619"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="599"/>
+      <c r="M6" s="599"/>
+      <c r="N6" s="600"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="A7" s="472" t="s">
@@ -16712,21 +16715,21 @@
       </c>
       <c r="B7" s="472"/>
       <c r="C7" s="472"/>
-      <c r="D7" s="617" t="s">
+      <c r="D7" s="598" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="618"/>
-      <c r="F7" s="618"/>
-      <c r="G7" s="618"/>
-      <c r="H7" s="619"/>
+      <c r="E7" s="599"/>
+      <c r="F7" s="599"/>
+      <c r="G7" s="599"/>
+      <c r="H7" s="600"/>
       <c r="I7" s="473"/>
       <c r="J7" s="474" t="s">
         <v>416</v>
       </c>
-      <c r="K7" s="617"/>
-      <c r="L7" s="618"/>
-      <c r="M7" s="618"/>
-      <c r="N7" s="619"/>
+      <c r="K7" s="598"/>
+      <c r="L7" s="599"/>
+      <c r="M7" s="599"/>
+      <c r="N7" s="600"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1">
       <c r="A8" s="472" t="s">
@@ -16734,22 +16737,22 @@
       </c>
       <c r="B8" s="472"/>
       <c r="C8" s="472"/>
-      <c r="D8" s="620" t="str">
+      <c r="D8" s="604" t="str">
         <f>Sheet1!K16</f>
         <v/>
       </c>
-      <c r="E8" s="621"/>
-      <c r="F8" s="621"/>
-      <c r="G8" s="621"/>
-      <c r="H8" s="622"/>
+      <c r="E8" s="605"/>
+      <c r="F8" s="605"/>
+      <c r="G8" s="605"/>
+      <c r="H8" s="606"/>
       <c r="I8" s="473"/>
       <c r="J8" s="474" t="s">
         <v>418</v>
       </c>
-      <c r="K8" s="617"/>
-      <c r="L8" s="618"/>
-      <c r="M8" s="618"/>
-      <c r="N8" s="619"/>
+      <c r="K8" s="598"/>
+      <c r="L8" s="599"/>
+      <c r="M8" s="599"/>
+      <c r="N8" s="600"/>
     </row>
     <row r="9" spans="1:15" ht="11.25" customHeight="1">
       <c r="A9" s="475"/>
@@ -16763,11 +16766,11 @@
       <c r="A10" s="475" t="s">
         <v>652</v>
       </c>
-      <c r="D10" s="604"/>
-      <c r="E10" s="605"/>
-      <c r="F10" s="605"/>
-      <c r="G10" s="605"/>
-      <c r="H10" s="606"/>
+      <c r="D10" s="608"/>
+      <c r="E10" s="609"/>
+      <c r="F10" s="609"/>
+      <c r="G10" s="609"/>
+      <c r="H10" s="610"/>
       <c r="I10" s="477" t="s">
         <v>653</v>
       </c>
@@ -16793,25 +16796,25 @@
       </c>
       <c r="B12" s="472"/>
       <c r="C12" s="472"/>
-      <c r="D12" s="607" t="s">
+      <c r="D12" s="611" t="s">
         <v>421</v>
       </c>
-      <c r="E12" s="607"/>
-      <c r="F12" s="607"/>
-      <c r="G12" s="607" t="s">
+      <c r="E12" s="611"/>
+      <c r="F12" s="611"/>
+      <c r="G12" s="611" t="s">
         <v>416</v>
       </c>
-      <c r="H12" s="607"/>
-      <c r="I12" s="607" t="s">
+      <c r="H12" s="611"/>
+      <c r="I12" s="611" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="607"/>
-      <c r="K12" s="607" t="s">
+      <c r="J12" s="611"/>
+      <c r="K12" s="611" t="s">
         <v>419</v>
       </c>
-      <c r="L12" s="607"/>
-      <c r="M12" s="607"/>
-      <c r="N12" s="607"/>
+      <c r="L12" s="611"/>
+      <c r="M12" s="611"/>
+      <c r="N12" s="611"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="472"/>
@@ -16819,63 +16822,63 @@
       <c r="C13" s="479" t="s">
         <v>422</v>
       </c>
-      <c r="D13" s="608" t="s">
+      <c r="D13" s="612" t="s">
         <v>689</v>
       </c>
-      <c r="E13" s="609"/>
-      <c r="F13" s="610"/>
-      <c r="G13" s="608" t="s">
+      <c r="E13" s="613"/>
+      <c r="F13" s="614"/>
+      <c r="G13" s="612" t="s">
         <v>690</v>
       </c>
-      <c r="H13" s="610"/>
-      <c r="I13" s="611"/>
-      <c r="J13" s="612"/>
-      <c r="K13" s="608" t="s">
+      <c r="H13" s="614"/>
+      <c r="I13" s="615"/>
+      <c r="J13" s="616"/>
+      <c r="K13" s="612" t="s">
         <v>691</v>
       </c>
-      <c r="L13" s="609"/>
-      <c r="M13" s="609"/>
-      <c r="N13" s="610"/>
+      <c r="L13" s="613"/>
+      <c r="M13" s="613"/>
+      <c r="N13" s="614"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1">
       <c r="C14" s="479" t="s">
         <v>423</v>
       </c>
-      <c r="D14" s="613" t="s">
+      <c r="D14" s="617" t="s">
         <v>689</v>
       </c>
-      <c r="E14" s="614"/>
-      <c r="F14" s="615"/>
-      <c r="G14" s="613" t="s">
+      <c r="E14" s="618"/>
+      <c r="F14" s="619"/>
+      <c r="G14" s="617" t="s">
         <v>692</v>
       </c>
-      <c r="H14" s="615"/>
-      <c r="I14" s="604"/>
-      <c r="J14" s="606"/>
-      <c r="K14" s="613" t="s">
+      <c r="H14" s="619"/>
+      <c r="I14" s="608"/>
+      <c r="J14" s="610"/>
+      <c r="K14" s="617" t="s">
         <v>693</v>
       </c>
-      <c r="L14" s="614"/>
-      <c r="M14" s="614"/>
-      <c r="N14" s="615"/>
+      <c r="L14" s="618"/>
+      <c r="M14" s="618"/>
+      <c r="N14" s="619"/>
     </row>
     <row r="15" spans="1:15" s="480" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="616" t="s">
+      <c r="A15" s="620" t="s">
         <v>654</v>
       </c>
-      <c r="B15" s="616"/>
-      <c r="C15" s="616"/>
-      <c r="D15" s="616"/>
-      <c r="E15" s="616"/>
-      <c r="F15" s="616"/>
-      <c r="G15" s="616"/>
-      <c r="H15" s="616"/>
-      <c r="I15" s="616"/>
-      <c r="J15" s="616"/>
-      <c r="K15" s="616"/>
-      <c r="L15" s="616"/>
-      <c r="M15" s="616"/>
-      <c r="N15" s="616"/>
+      <c r="B15" s="620"/>
+      <c r="C15" s="620"/>
+      <c r="D15" s="620"/>
+      <c r="E15" s="620"/>
+      <c r="F15" s="620"/>
+      <c r="G15" s="620"/>
+      <c r="H15" s="620"/>
+      <c r="I15" s="620"/>
+      <c r="J15" s="620"/>
+      <c r="K15" s="620"/>
+      <c r="L15" s="620"/>
+      <c r="M15" s="620"/>
+      <c r="N15" s="620"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1">
       <c r="A16" s="475" t="s">
@@ -16937,46 +16940,46 @@
       <c r="L18" s="496"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="603" t="s">
+      <c r="A19" s="607" t="s">
         <v>426</v>
       </c>
-      <c r="B19" s="603"/>
-      <c r="C19" s="603"/>
-      <c r="D19" s="603"/>
-      <c r="E19" s="603"/>
-      <c r="F19" s="603"/>
-      <c r="G19" s="603"/>
-      <c r="H19" s="603"/>
-      <c r="I19" s="603"/>
-      <c r="J19" s="603"/>
-      <c r="K19" s="603"/>
-      <c r="L19" s="603"/>
-      <c r="M19" s="603"/>
-      <c r="N19" s="603"/>
+      <c r="B19" s="607"/>
+      <c r="C19" s="607"/>
+      <c r="D19" s="607"/>
+      <c r="E19" s="607"/>
+      <c r="F19" s="607"/>
+      <c r="G19" s="607"/>
+      <c r="H19" s="607"/>
+      <c r="I19" s="607"/>
+      <c r="J19" s="607"/>
+      <c r="K19" s="607"/>
+      <c r="L19" s="607"/>
+      <c r="M19" s="607"/>
+      <c r="N19" s="607"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="601" t="s">
+      <c r="A20" s="623" t="s">
         <v>427</v>
       </c>
-      <c r="B20" s="601"/>
-      <c r="C20" s="601"/>
-      <c r="D20" s="601"/>
-      <c r="E20" s="601"/>
-      <c r="F20" s="601"/>
-      <c r="G20" s="601"/>
-      <c r="H20" s="601"/>
-      <c r="I20" s="601"/>
-      <c r="J20" s="601"/>
-      <c r="K20" s="601"/>
-      <c r="L20" s="601"/>
-      <c r="M20" s="601"/>
-      <c r="N20" s="601"/>
+      <c r="B20" s="623"/>
+      <c r="C20" s="623"/>
+      <c r="D20" s="623"/>
+      <c r="E20" s="623"/>
+      <c r="F20" s="623"/>
+      <c r="G20" s="623"/>
+      <c r="H20" s="623"/>
+      <c r="I20" s="623"/>
+      <c r="J20" s="623"/>
+      <c r="K20" s="623"/>
+      <c r="L20" s="623"/>
+      <c r="M20" s="623"/>
+      <c r="N20" s="623"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
-      <c r="M21" s="602" t="s">
+      <c r="M21" s="624" t="s">
         <v>428</v>
       </c>
-      <c r="N21" s="602"/>
+      <c r="N21" s="624"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="497" t="s">
@@ -16993,8 +16996,8 @@
       <c r="J22" s="472"/>
       <c r="K22" s="472"/>
       <c r="L22" s="472"/>
-      <c r="M22" s="598"/>
-      <c r="N22" s="599"/>
+      <c r="M22" s="621"/>
+      <c r="N22" s="622"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="497" t="s">
@@ -17011,8 +17014,8 @@
       <c r="J23" s="472"/>
       <c r="K23" s="472"/>
       <c r="L23" s="472"/>
-      <c r="M23" s="598"/>
-      <c r="N23" s="599"/>
+      <c r="M23" s="621"/>
+      <c r="N23" s="622"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="497" t="s">
@@ -17029,8 +17032,8 @@
       <c r="J24" s="473"/>
       <c r="K24" s="473"/>
       <c r="L24" s="473"/>
-      <c r="M24" s="598"/>
-      <c r="N24" s="599"/>
+      <c r="M24" s="621"/>
+      <c r="N24" s="622"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="497" t="s">
@@ -17047,8 +17050,8 @@
       <c r="J25" s="472"/>
       <c r="K25" s="472"/>
       <c r="L25" s="472"/>
-      <c r="M25" s="598"/>
-      <c r="N25" s="599"/>
+      <c r="M25" s="621"/>
+      <c r="N25" s="622"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="497" t="s">
@@ -17065,8 +17068,8 @@
       <c r="J26" s="472"/>
       <c r="K26" s="472"/>
       <c r="L26" s="472"/>
-      <c r="M26" s="598"/>
-      <c r="N26" s="599"/>
+      <c r="M26" s="621"/>
+      <c r="N26" s="622"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="497" t="s">
@@ -17083,8 +17086,8 @@
       <c r="J27" s="472"/>
       <c r="K27" s="472"/>
       <c r="L27" s="472"/>
-      <c r="M27" s="598"/>
-      <c r="N27" s="599"/>
+      <c r="M27" s="621"/>
+      <c r="N27" s="622"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="497" t="s">
@@ -17101,8 +17104,8 @@
       <c r="J28" s="472"/>
       <c r="K28" s="472"/>
       <c r="L28" s="472"/>
-      <c r="M28" s="598"/>
-      <c r="N28" s="599"/>
+      <c r="M28" s="621"/>
+      <c r="N28" s="622"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="497" t="s">
@@ -17134,8 +17137,8 @@
       <c r="L30" s="502" t="s">
         <v>329</v>
       </c>
-      <c r="M30" s="598"/>
-      <c r="N30" s="599"/>
+      <c r="M30" s="621"/>
+      <c r="N30" s="622"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="472"/>
@@ -17157,8 +17160,8 @@
       <c r="L31" s="502" t="s">
         <v>329</v>
       </c>
-      <c r="M31" s="598"/>
-      <c r="N31" s="599"/>
+      <c r="M31" s="621"/>
+      <c r="N31" s="622"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="472" t="s">
@@ -17175,8 +17178,8 @@
       <c r="J32" s="472"/>
       <c r="K32" s="472"/>
       <c r="L32" s="472"/>
-      <c r="M32" s="598"/>
-      <c r="N32" s="599"/>
+      <c r="M32" s="621"/>
+      <c r="N32" s="622"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="472" t="s">
@@ -17221,8 +17224,8 @@
       </c>
       <c r="K34" s="476"/>
       <c r="L34" s="476"/>
-      <c r="M34" s="598"/>
-      <c r="N34" s="599"/>
+      <c r="M34" s="621"/>
+      <c r="N34" s="622"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="C35" s="503" t="s">
@@ -17244,8 +17247,8 @@
         <v>0</v>
       </c>
       <c r="L35" s="476"/>
-      <c r="M35" s="598"/>
-      <c r="N35" s="599"/>
+      <c r="M35" s="621"/>
+      <c r="N35" s="622"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="472" t="s">
@@ -17283,8 +17286,8 @@
       <c r="J37" s="508"/>
       <c r="K37" s="514"/>
       <c r="L37" s="514"/>
-      <c r="M37" s="598"/>
-      <c r="N37" s="599"/>
+      <c r="M37" s="621"/>
+      <c r="N37" s="622"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="472"/>
@@ -17324,8 +17327,8 @@
       <c r="J39" s="508"/>
       <c r="K39" s="514"/>
       <c r="L39" s="514"/>
-      <c r="M39" s="598"/>
-      <c r="N39" s="599"/>
+      <c r="M39" s="621"/>
+      <c r="N39" s="622"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="472" t="s">
@@ -17342,8 +17345,8 @@
       <c r="J40" s="472"/>
       <c r="K40" s="472"/>
       <c r="L40" s="472"/>
-      <c r="M40" s="598"/>
-      <c r="N40" s="599"/>
+      <c r="M40" s="621"/>
+      <c r="N40" s="622"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="472" t="s">
@@ -17360,8 +17363,8 @@
       <c r="J41" s="472"/>
       <c r="K41" s="472"/>
       <c r="L41" s="472"/>
-      <c r="M41" s="598"/>
-      <c r="N41" s="599"/>
+      <c r="M41" s="621"/>
+      <c r="N41" s="622"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="472" t="s">
@@ -17378,8 +17381,8 @@
       <c r="J42" s="472"/>
       <c r="K42" s="472"/>
       <c r="L42" s="472"/>
-      <c r="M42" s="598"/>
-      <c r="N42" s="599"/>
+      <c r="M42" s="621"/>
+      <c r="N42" s="622"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="497" t="s">
@@ -17396,8 +17399,8 @@
       <c r="J43" s="497"/>
       <c r="K43" s="497"/>
       <c r="L43" s="472"/>
-      <c r="M43" s="598"/>
-      <c r="N43" s="600"/>
+      <c r="M43" s="621"/>
+      <c r="N43" s="626"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="472" t="s">
@@ -17414,8 +17417,8 @@
       <c r="J44" s="472"/>
       <c r="K44" s="472"/>
       <c r="L44" s="472"/>
-      <c r="M44" s="598"/>
-      <c r="N44" s="599"/>
+      <c r="M44" s="621"/>
+      <c r="N44" s="622"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="472" t="s">
@@ -17432,8 +17435,8 @@
       <c r="J45" s="472"/>
       <c r="K45" s="472"/>
       <c r="L45" s="472"/>
-      <c r="M45" s="598"/>
-      <c r="N45" s="599"/>
+      <c r="M45" s="621"/>
+      <c r="N45" s="622"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="472" t="s">
@@ -17450,8 +17453,8 @@
       <c r="J46" s="472"/>
       <c r="K46" s="472"/>
       <c r="L46" s="472"/>
-      <c r="M46" s="598"/>
-      <c r="N46" s="599"/>
+      <c r="M46" s="621"/>
+      <c r="N46" s="622"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="472"/>
@@ -17470,37 +17473,49 @@
       <c r="N47" s="514"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="597" t="s">
+      <c r="A48" s="625" t="s">
         <v>676</v>
       </c>
-      <c r="B48" s="597"/>
-      <c r="C48" s="597"/>
-      <c r="D48" s="597"/>
-      <c r="E48" s="597"/>
-      <c r="F48" s="597"/>
-      <c r="G48" s="597"/>
-      <c r="H48" s="597"/>
-      <c r="I48" s="597"/>
-      <c r="J48" s="597"/>
-      <c r="K48" s="597"/>
-      <c r="L48" s="597"/>
-      <c r="M48" s="597"/>
-      <c r="N48" s="597"/>
+      <c r="B48" s="625"/>
+      <c r="C48" s="625"/>
+      <c r="D48" s="625"/>
+      <c r="E48" s="625"/>
+      <c r="F48" s="625"/>
+      <c r="G48" s="625"/>
+      <c r="H48" s="625"/>
+      <c r="I48" s="625"/>
+      <c r="J48" s="625"/>
+      <c r="K48" s="625"/>
+      <c r="L48" s="625"/>
+      <c r="M48" s="625"/>
+      <c r="N48" s="625"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
     <mergeCell ref="A19:N19"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D12:F12"/>
@@ -17516,30 +17531,18 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="A15:N15"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="M22:N28 M32:N32 M37:N37 M39:N40 M42:N42 M44:N45 M43">
     <cfRule type="cellIs" dxfId="93" priority="7" stopIfTrue="1" operator="equal">
@@ -17815,69 +17818,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="637" t="s">
+      <c r="A1" s="630" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="637"/>
-      <c r="C1" s="637"/>
-      <c r="D1" s="637"/>
-      <c r="E1" s="637"/>
-      <c r="F1" s="637"/>
-      <c r="G1" s="637"/>
-      <c r="H1" s="637"/>
-      <c r="I1" s="637"/>
-      <c r="J1" s="637"/>
-      <c r="K1" s="637"/>
-      <c r="L1" s="637"/>
+      <c r="B1" s="630"/>
+      <c r="C1" s="630"/>
+      <c r="D1" s="630"/>
+      <c r="E1" s="630"/>
+      <c r="F1" s="630"/>
+      <c r="G1" s="630"/>
+      <c r="H1" s="630"/>
+      <c r="I1" s="630"/>
+      <c r="J1" s="630"/>
+      <c r="K1" s="630"/>
+      <c r="L1" s="630"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="638" t="s">
+      <c r="A2" s="631" t="s">
         <v>677</v>
       </c>
-      <c r="B2" s="639"/>
-      <c r="C2" s="639"/>
-      <c r="D2" s="639"/>
-      <c r="E2" s="639"/>
-      <c r="F2" s="639"/>
-      <c r="G2" s="639"/>
-      <c r="H2" s="639"/>
-      <c r="I2" s="639"/>
-      <c r="J2" s="639"/>
-      <c r="K2" s="639"/>
-      <c r="L2" s="639"/>
+      <c r="B2" s="632"/>
+      <c r="C2" s="632"/>
+      <c r="D2" s="632"/>
+      <c r="E2" s="632"/>
+      <c r="F2" s="632"/>
+      <c r="G2" s="632"/>
+      <c r="H2" s="632"/>
+      <c r="I2" s="632"/>
+      <c r="J2" s="632"/>
+      <c r="K2" s="632"/>
+      <c r="L2" s="632"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:12" ht="24" customHeight="1">
-      <c r="A4" s="640" t="s">
+      <c r="A4" s="633" t="s">
         <v>442</v>
       </c>
-      <c r="B4" s="640"/>
-      <c r="C4" s="640"/>
-      <c r="D4" s="640"/>
-      <c r="E4" s="640"/>
-      <c r="F4" s="640"/>
-      <c r="G4" s="640"/>
-      <c r="H4" s="640"/>
-      <c r="I4" s="640"/>
-      <c r="J4" s="640"/>
-      <c r="K4" s="640"/>
-      <c r="L4" s="640"/>
+      <c r="B4" s="633"/>
+      <c r="C4" s="633"/>
+      <c r="D4" s="633"/>
+      <c r="E4" s="633"/>
+      <c r="F4" s="633"/>
+      <c r="G4" s="633"/>
+      <c r="H4" s="633"/>
+      <c r="I4" s="633"/>
+      <c r="J4" s="633"/>
+      <c r="K4" s="633"/>
+      <c r="L4" s="633"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="641" t="s">
+      <c r="A5" s="634" t="s">
         <v>678</v>
       </c>
-      <c r="B5" s="641"/>
-      <c r="C5" s="641"/>
-      <c r="D5" s="641"/>
-      <c r="E5" s="641"/>
-      <c r="F5" s="641"/>
-      <c r="G5" s="641"/>
-      <c r="H5" s="641"/>
-      <c r="I5" s="641"/>
-      <c r="J5" s="641"/>
-      <c r="K5" s="641"/>
-      <c r="L5" s="641"/>
+      <c r="B5" s="634"/>
+      <c r="C5" s="634"/>
+      <c r="D5" s="634"/>
+      <c r="E5" s="634"/>
+      <c r="F5" s="634"/>
+      <c r="G5" s="634"/>
+      <c r="H5" s="634"/>
+      <c r="I5" s="634"/>
+      <c r="J5" s="634"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="634"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="517" t="s">
@@ -17912,9 +17915,9 @@
       <c r="L7" s="524"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="642"/>
-      <c r="K8" s="642"/>
-      <c r="L8" s="642"/>
+      <c r="J8" s="635"/>
+      <c r="K8" s="635"/>
+      <c r="L8" s="635"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="476"/>
@@ -17923,11 +17926,11 @@
         <v>443</v>
       </c>
       <c r="I9" s="493"/>
-      <c r="J9" s="643" t="s">
+      <c r="J9" s="636" t="s">
         <v>428</v>
       </c>
-      <c r="K9" s="643"/>
-      <c r="L9" s="643"/>
+      <c r="K9" s="636"/>
+      <c r="L9" s="636"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="526" t="s">
@@ -18118,52 +18121,52 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:12" ht="24" customHeight="1">
-      <c r="A24" s="630" t="s">
+      <c r="A24" s="637" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="630"/>
-      <c r="C24" s="630"/>
-      <c r="D24" s="630"/>
-      <c r="E24" s="630"/>
-      <c r="F24" s="630"/>
-      <c r="G24" s="630"/>
-      <c r="H24" s="630"/>
-      <c r="I24" s="630"/>
-      <c r="J24" s="630"/>
-      <c r="K24" s="630"/>
-      <c r="L24" s="630"/>
+      <c r="B24" s="637"/>
+      <c r="C24" s="637"/>
+      <c r="D24" s="637"/>
+      <c r="E24" s="637"/>
+      <c r="F24" s="637"/>
+      <c r="G24" s="637"/>
+      <c r="H24" s="637"/>
+      <c r="I24" s="637"/>
+      <c r="J24" s="637"/>
+      <c r="K24" s="637"/>
+      <c r="L24" s="637"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1"/>
     <row r="26" spans="1:12" ht="241.5" customHeight="1">
-      <c r="A26" s="631"/>
-      <c r="B26" s="632"/>
-      <c r="C26" s="632"/>
-      <c r="D26" s="632"/>
-      <c r="E26" s="632"/>
-      <c r="F26" s="632"/>
-      <c r="G26" s="632"/>
-      <c r="H26" s="632"/>
-      <c r="I26" s="632"/>
-      <c r="J26" s="632"/>
-      <c r="K26" s="632"/>
-      <c r="L26" s="633"/>
+      <c r="A26" s="638"/>
+      <c r="B26" s="639"/>
+      <c r="C26" s="639"/>
+      <c r="D26" s="639"/>
+      <c r="E26" s="639"/>
+      <c r="F26" s="639"/>
+      <c r="G26" s="639"/>
+      <c r="H26" s="639"/>
+      <c r="I26" s="639"/>
+      <c r="J26" s="639"/>
+      <c r="K26" s="639"/>
+      <c r="L26" s="640"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1"/>
     <row r="28" spans="1:12" ht="204.75" customHeight="1" thickBot="1">
-      <c r="A28" s="634" t="s">
+      <c r="A28" s="641" t="s">
         <v>688</v>
       </c>
-      <c r="B28" s="635"/>
-      <c r="C28" s="635"/>
-      <c r="D28" s="635"/>
-      <c r="E28" s="635"/>
-      <c r="F28" s="635"/>
-      <c r="G28" s="635"/>
-      <c r="H28" s="635"/>
-      <c r="I28" s="635"/>
-      <c r="J28" s="635"/>
-      <c r="K28" s="635"/>
-      <c r="L28" s="636"/>
+      <c r="B28" s="642"/>
+      <c r="C28" s="642"/>
+      <c r="D28" s="642"/>
+      <c r="E28" s="642"/>
+      <c r="F28" s="642"/>
+      <c r="G28" s="642"/>
+      <c r="H28" s="642"/>
+      <c r="I28" s="642"/>
+      <c r="J28" s="642"/>
+      <c r="K28" s="642"/>
+      <c r="L28" s="643"/>
     </row>
     <row r="33" spans="2:12" ht="18" customHeight="1">
       <c r="B33" s="472"/>
@@ -18180,6 +18183,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -18192,16 +18205,6 @@
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
   </mergeCells>
   <conditionalFormatting sqref="J22:L22 J20 J10:L19">
     <cfRule type="cellIs" dxfId="86" priority="2" stopIfTrue="1" operator="equal">
@@ -18756,13 +18759,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="646" t="s">
+      <c r="A1" s="659" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="647"/>
-      <c r="C1" s="647"/>
-      <c r="D1" s="647"/>
-      <c r="E1" s="647"/>
+      <c r="B1" s="660"/>
+      <c r="C1" s="660"/>
+      <c r="D1" s="660"/>
+      <c r="E1" s="660"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="534"/>
@@ -18775,23 +18778,23 @@
       <c r="A3" s="535" t="s">
         <v>470</v>
       </c>
-      <c r="B3" s="648">
+      <c r="B3" s="661">
         <f>'QC Test Summary-Hologic'!C4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="648"/>
-      <c r="D3" s="648"/>
-      <c r="E3" s="648"/>
+      <c r="C3" s="661"/>
+      <c r="D3" s="661"/>
+      <c r="E3" s="661"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="535" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="649" t="str">
+      <c r="B4" s="662" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="649"/>
+      <c r="C4" s="662"/>
       <c r="D4" s="536" t="s">
         <v>23</v>
       </c>
@@ -18821,11 +18824,11 @@
       <c r="A6" s="535" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="649" t="str">
+      <c r="B6" s="662" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="649"/>
+      <c r="C6" s="662"/>
       <c r="D6" s="536" t="s">
         <v>475</v>
       </c>
@@ -18838,8 +18841,8 @@
       <c r="A7" s="535" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="649"/>
-      <c r="C7" s="649"/>
+      <c r="B7" s="662"/>
+      <c r="C7" s="662"/>
       <c r="D7" s="536" t="s">
         <v>477</v>
       </c>
@@ -18867,7 +18870,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="644" t="s">
+      <c r="A10" s="658" t="s">
         <v>482</v>
       </c>
       <c r="B10" s="543" t="s">
@@ -18882,7 +18885,7 @@
       <c r="E10" s="546"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="645"/>
+      <c r="A11" s="654"/>
       <c r="B11" s="547" t="s">
         <v>486</v>
       </c>
@@ -18895,7 +18898,7 @@
       <c r="E11" s="550"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="655" t="s">
+      <c r="A12" s="649" t="s">
         <v>488</v>
       </c>
       <c r="B12" s="551" t="s">
@@ -18910,7 +18913,7 @@
       <c r="E12" s="554"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="656"/>
+      <c r="A13" s="650"/>
       <c r="B13" s="555" t="s">
         <v>492</v>
       </c>
@@ -18923,7 +18926,7 @@
       <c r="E13" s="558"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="657"/>
+      <c r="A14" s="651"/>
       <c r="B14" s="559" t="s">
         <v>494</v>
       </c>
@@ -18936,7 +18939,7 @@
       <c r="E14" s="561"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="658" t="s">
+      <c r="A15" s="652" t="s">
         <v>496</v>
       </c>
       <c r="B15" s="562" t="s">
@@ -18951,7 +18954,7 @@
       <c r="E15" s="564"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="659"/>
+      <c r="A16" s="653"/>
       <c r="B16" s="547" t="s">
         <v>499</v>
       </c>
@@ -18964,7 +18967,7 @@
       <c r="E16" s="566"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="650" t="s">
+      <c r="A17" s="644" t="s">
         <v>502</v>
       </c>
       <c r="B17" s="567" t="s">
@@ -18979,7 +18982,7 @@
       <c r="E17" s="568"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="645"/>
+      <c r="A18" s="654"/>
       <c r="B18" s="569" t="s">
         <v>505</v>
       </c>
@@ -18992,7 +18995,7 @@
       <c r="E18" s="550"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="660" t="s">
+      <c r="A19" s="655" t="s">
         <v>507</v>
       </c>
       <c r="B19" s="567" t="s">
@@ -19007,7 +19010,7 @@
       <c r="E19" s="568"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="661"/>
+      <c r="A20" s="656"/>
       <c r="B20" s="571" t="s">
         <v>510</v>
       </c>
@@ -19020,7 +19023,7 @@
       <c r="E20" s="573"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="662"/>
+      <c r="A21" s="657"/>
       <c r="B21" s="569" t="s">
         <v>512</v>
       </c>
@@ -19033,7 +19036,7 @@
       <c r="E21" s="550"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="650" t="s">
+      <c r="A22" s="644" t="s">
         <v>514</v>
       </c>
       <c r="B22" s="567" t="s">
@@ -19048,7 +19051,7 @@
       <c r="E22" s="568"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="645"/>
+      <c r="A23" s="654"/>
       <c r="B23" s="547" t="s">
         <v>517</v>
       </c>
@@ -19061,7 +19064,7 @@
       <c r="E23" s="566"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="660" t="s">
+      <c r="A24" s="655" t="s">
         <v>519</v>
       </c>
       <c r="B24" s="567" t="s">
@@ -19076,7 +19079,7 @@
       <c r="E24" s="568"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="661"/>
+      <c r="A25" s="656"/>
       <c r="B25" s="571" t="s">
         <v>522</v>
       </c>
@@ -19089,7 +19092,7 @@
       <c r="E25" s="573"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="661"/>
+      <c r="A26" s="656"/>
       <c r="B26" s="574" t="s">
         <v>524</v>
       </c>
@@ -19102,7 +19105,7 @@
       <c r="E26" s="573"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="661"/>
+      <c r="A27" s="656"/>
       <c r="B27" s="574" t="s">
         <v>526</v>
       </c>
@@ -19115,7 +19118,7 @@
       <c r="E27" s="573"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="662"/>
+      <c r="A28" s="657"/>
       <c r="B28" s="575" t="s">
         <v>528</v>
       </c>
@@ -19128,7 +19131,7 @@
       <c r="E28" s="566"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="650" t="s">
+      <c r="A29" s="644" t="s">
         <v>530</v>
       </c>
       <c r="B29" s="576" t="s">
@@ -19143,7 +19146,7 @@
       <c r="E29" s="568"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="651"/>
+      <c r="A30" s="645"/>
       <c r="B30" s="574" t="s">
         <v>533</v>
       </c>
@@ -19156,7 +19159,7 @@
       <c r="E30" s="573"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="652"/>
+      <c r="A31" s="646"/>
       <c r="B31" s="575" t="s">
         <v>535</v>
       </c>
@@ -19169,7 +19172,7 @@
       <c r="E31" s="566"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="650" t="s">
+      <c r="A32" s="644" t="s">
         <v>537</v>
       </c>
       <c r="B32" s="576" t="s">
@@ -19184,7 +19187,7 @@
       <c r="E32" s="568"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="651"/>
+      <c r="A33" s="645"/>
       <c r="B33" s="574" t="s">
         <v>540</v>
       </c>
@@ -19197,7 +19200,7 @@
       <c r="E33" s="573"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="652"/>
+      <c r="A34" s="646"/>
       <c r="B34" s="575" t="s">
         <v>541</v>
       </c>
@@ -19285,13 +19288,13 @@
       <c r="E39" s="550"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="653" t="s">
+      <c r="A40" s="647" t="s">
         <v>701</v>
       </c>
-      <c r="B40" s="654"/>
-      <c r="C40" s="654"/>
-      <c r="D40" s="654"/>
-      <c r="E40" s="654"/>
+      <c r="B40" s="648"/>
+      <c r="C40" s="648"/>
+      <c r="D40" s="648"/>
+      <c r="E40" s="648"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="585"/>
@@ -19988,6 +19991,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -19997,12 +20006,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -22015,7 +22018,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR465"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M362" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q386" sqref="Q386"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -22447,21 +22452,21 @@
       <c r="E10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="686" t="str">
+      <c r="F10" s="663" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="686"/>
+      <c r="G10" s="663"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="686" t="str">
+      <c r="K10" s="663" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="686"/>
+      <c r="L10" s="663"/>
       <c r="M10" s="42"/>
       <c r="N10" s="5"/>
       <c r="O10" s="13"/>
@@ -22531,21 +22536,21 @@
       <c r="E11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="688" t="str">
+      <c r="F11" s="664" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="688"/>
+      <c r="G11" s="664"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="686" t="str">
+      <c r="K11" s="663" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="686"/>
+      <c r="L11" s="663"/>
       <c r="M11" s="42"/>
       <c r="N11" s="5"/>
       <c r="O11" s="13"/>
@@ -22615,21 +22620,21 @@
       <c r="E12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="688" t="str">
+      <c r="F12" s="664" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="688"/>
+      <c r="G12" s="664"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="687" t="str">
+      <c r="K12" s="665" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="687"/>
+      <c r="L12" s="665"/>
       <c r="M12" s="42"/>
       <c r="N12" s="5"/>
       <c r="O12" s="13"/>
@@ -22699,21 +22704,21 @@
       <c r="E13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="688" t="str">
+      <c r="F13" s="664" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="688"/>
+      <c r="G13" s="664"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="686" t="str">
+      <c r="K13" s="663" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="686"/>
+      <c r="L13" s="663"/>
       <c r="M13" s="42"/>
       <c r="N13" s="5"/>
       <c r="O13" s="13"/>
@@ -22923,21 +22928,21 @@
       <c r="E16" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="686" t="str">
+      <c r="F16" s="663" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="686"/>
+      <c r="G16" s="663"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="687" t="str">
+      <c r="K16" s="665" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="687"/>
+      <c r="L16" s="665"/>
       <c r="M16" s="42"/>
       <c r="N16" s="5"/>
       <c r="O16" s="13"/>
@@ -22999,21 +23004,21 @@
       <c r="E17" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="686" t="str">
+      <c r="F17" s="663" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="686"/>
+      <c r="G17" s="663"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="686" t="str">
+      <c r="K17" s="663" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="686"/>
+      <c r="L17" s="663"/>
       <c r="M17" s="42"/>
       <c r="N17" s="5"/>
       <c r="O17" s="13"/>
@@ -23083,21 +23088,21 @@
       <c r="E18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="686" t="str">
+      <c r="F18" s="663" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="686"/>
+      <c r="G18" s="663"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="686" t="str">
+      <c r="K18" s="663" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="686"/>
+      <c r="L18" s="663"/>
       <c r="M18" s="42"/>
       <c r="N18" s="5"/>
       <c r="O18" s="13"/>
@@ -23301,21 +23306,21 @@
       <c r="E21" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="686" t="str">
+      <c r="F21" s="663" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="686"/>
+      <c r="G21" s="663"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="686" t="str">
+      <c r="K21" s="663" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="686"/>
+      <c r="L21" s="663"/>
       <c r="M21" s="42"/>
       <c r="N21" s="5"/>
       <c r="O21" s="13"/>
@@ -23382,19 +23387,19 @@
       <c r="E22" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="687" t="str">
+      <c r="F22" s="665" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="687"/>
+      <c r="G22" s="665"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="41"/>
-      <c r="K22" s="686" t="str">
+      <c r="K22" s="663" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="686"/>
+      <c r="L22" s="663"/>
       <c r="M22" s="42"/>
       <c r="N22" s="5"/>
       <c r="O22" s="13"/>
@@ -23469,11 +23474,11 @@
       <c r="J23" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="686" t="str">
+      <c r="K23" s="663" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="686"/>
+      <c r="L23" s="663"/>
       <c r="M23" s="42"/>
       <c r="N23" s="5"/>
       <c r="O23" s="13"/>
@@ -23538,19 +23543,19 @@
       <c r="E24" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="686" t="str">
+      <c r="F24" s="663" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="686"/>
+      <c r="G24" s="663"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="686" t="str">
+      <c r="K24" s="663" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="686"/>
+      <c r="L24" s="663"/>
       <c r="M24" s="42"/>
       <c r="N24" s="5"/>
       <c r="O24" s="13"/>
@@ -23617,11 +23622,11 @@
       <c r="E25" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="686" t="str">
+      <c r="F25" s="663" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="686"/>
+      <c r="G25" s="663"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="47"/>
@@ -23694,11 +23699,11 @@
       <c r="E26" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="686" t="str">
+      <c r="F26" s="663" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="686"/>
+      <c r="G26" s="663"/>
       <c r="H26" s="5"/>
       <c r="I26" s="45" t="s">
         <v>32</v>
@@ -23780,11 +23785,11 @@
       <c r="J27" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="686" t="str">
+      <c r="K27" s="663" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="686"/>
+      <c r="L27" s="663"/>
       <c r="M27" s="42"/>
       <c r="N27" s="5"/>
       <c r="O27" s="13"/>
@@ -23845,21 +23850,21 @@
       <c r="E28" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="686" t="str">
+      <c r="F28" s="663" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="686"/>
+      <c r="G28" s="663"/>
       <c r="H28" s="5"/>
       <c r="I28" s="47"/>
       <c r="J28" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="686" t="str">
+      <c r="K28" s="663" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="686"/>
+      <c r="L28" s="663"/>
       <c r="M28" s="42"/>
       <c r="N28" s="5"/>
       <c r="O28" s="13"/>
@@ -23926,11 +23931,11 @@
       <c r="E29" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="686" t="str">
+      <c r="F29" s="663" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="686"/>
+      <c r="G29" s="663"/>
       <c r="H29" s="5"/>
       <c r="I29" s="45" t="s">
         <v>36</v>
@@ -23938,11 +23943,11 @@
       <c r="J29" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="686" t="str">
+      <c r="K29" s="663" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="686"/>
+      <c r="L29" s="663"/>
       <c r="M29" s="42"/>
       <c r="N29" s="5"/>
       <c r="O29" s="13"/>
@@ -24012,21 +24017,21 @@
       <c r="E30" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="686" t="str">
+      <c r="F30" s="663" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="686"/>
+      <c r="G30" s="663"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="686" t="str">
+      <c r="K30" s="663" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="686"/>
+      <c r="L30" s="663"/>
       <c r="M30" s="42"/>
       <c r="N30" s="5"/>
       <c r="O30" s="13"/>
@@ -24368,21 +24373,21 @@
       <c r="C35" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="683" t="s">
+      <c r="D35" s="666" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="683"/>
-      <c r="F35" s="683"/>
-      <c r="G35" s="684" t="s">
+      <c r="E35" s="666"/>
+      <c r="F35" s="666"/>
+      <c r="G35" s="667" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="684"/>
-      <c r="I35" s="684"/>
-      <c r="J35" s="683" t="s">
+      <c r="H35" s="667"/>
+      <c r="I35" s="667"/>
+      <c r="J35" s="666" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="683"/>
-      <c r="L35" s="683"/>
+      <c r="K35" s="666"/>
+      <c r="L35" s="666"/>
       <c r="M35" s="42"/>
       <c r="N35" s="5"/>
       <c r="O35" s="53">
@@ -24444,15 +24449,15 @@
       <c r="C36" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="683"/>
-      <c r="E36" s="683"/>
-      <c r="F36" s="683"/>
-      <c r="G36" s="684"/>
-      <c r="H36" s="684"/>
-      <c r="I36" s="684"/>
-      <c r="J36" s="683"/>
-      <c r="K36" s="683"/>
-      <c r="L36" s="683"/>
+      <c r="D36" s="666"/>
+      <c r="E36" s="666"/>
+      <c r="F36" s="666"/>
+      <c r="G36" s="667"/>
+      <c r="H36" s="667"/>
+      <c r="I36" s="667"/>
+      <c r="J36" s="666"/>
+      <c r="K36" s="666"/>
+      <c r="L36" s="666"/>
       <c r="M36" s="42"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -25117,10 +25122,10 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="685" t="s">
+      <c r="L44" s="668" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="685"/>
+      <c r="M44" s="668"/>
       <c r="N44" s="5"/>
       <c r="O44" s="13"/>
       <c r="P44" s="5"/>
@@ -28900,21 +28905,21 @@
       <c r="O97" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="P97" s="683" t="s">
+      <c r="P97" s="666" t="s">
         <v>42</v>
       </c>
-      <c r="Q97" s="683"/>
-      <c r="R97" s="683"/>
-      <c r="S97" s="684" t="s">
+      <c r="Q97" s="666"/>
+      <c r="R97" s="666"/>
+      <c r="S97" s="667" t="s">
         <v>43</v>
       </c>
-      <c r="T97" s="684"/>
-      <c r="U97" s="684"/>
-      <c r="V97" s="683" t="s">
+      <c r="T97" s="667"/>
+      <c r="U97" s="667"/>
+      <c r="V97" s="666" t="s">
         <v>44</v>
       </c>
-      <c r="W97" s="683"/>
-      <c r="X97" s="683"/>
+      <c r="W97" s="666"/>
+      <c r="X97" s="666"/>
       <c r="Y97" s="15"/>
       <c r="AA97" s="177"/>
       <c r="AB97" s="177"/>
@@ -28972,15 +28977,15 @@
       <c r="O98" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="P98" s="683"/>
-      <c r="Q98" s="683"/>
-      <c r="R98" s="683"/>
-      <c r="S98" s="684"/>
-      <c r="T98" s="684"/>
-      <c r="U98" s="684"/>
-      <c r="V98" s="683"/>
-      <c r="W98" s="683"/>
-      <c r="X98" s="683"/>
+      <c r="P98" s="666"/>
+      <c r="Q98" s="666"/>
+      <c r="R98" s="666"/>
+      <c r="S98" s="667"/>
+      <c r="T98" s="667"/>
+      <c r="U98" s="667"/>
+      <c r="V98" s="666"/>
+      <c r="W98" s="666"/>
+      <c r="X98" s="666"/>
       <c r="Y98" s="15"/>
       <c r="AA98" s="45" t="s">
         <v>394</v>
@@ -29596,21 +29601,21 @@
       <c r="O105" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="P105" s="683" t="s">
+      <c r="P105" s="666" t="s">
         <v>42</v>
       </c>
-      <c r="Q105" s="683"/>
-      <c r="R105" s="683"/>
-      <c r="S105" s="684" t="s">
+      <c r="Q105" s="666"/>
+      <c r="R105" s="666"/>
+      <c r="S105" s="667" t="s">
         <v>43</v>
       </c>
-      <c r="T105" s="684"/>
-      <c r="U105" s="684"/>
-      <c r="V105" s="683" t="s">
+      <c r="T105" s="667"/>
+      <c r="U105" s="667"/>
+      <c r="V105" s="666" t="s">
         <v>44</v>
       </c>
-      <c r="W105" s="683"/>
-      <c r="X105" s="683"/>
+      <c r="W105" s="666"/>
+      <c r="X105" s="666"/>
       <c r="Y105" s="15"/>
       <c r="AA105" s="41" t="s">
         <v>274</v>
@@ -29668,15 +29673,15 @@
       <c r="O106" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="P106" s="683"/>
-      <c r="Q106" s="683"/>
-      <c r="R106" s="683"/>
-      <c r="S106" s="684"/>
-      <c r="T106" s="684"/>
-      <c r="U106" s="684"/>
-      <c r="V106" s="683"/>
-      <c r="W106" s="683"/>
-      <c r="X106" s="683"/>
+      <c r="P106" s="666"/>
+      <c r="Q106" s="666"/>
+      <c r="R106" s="666"/>
+      <c r="S106" s="667"/>
+      <c r="T106" s="667"/>
+      <c r="U106" s="667"/>
+      <c r="V106" s="666"/>
+      <c r="W106" s="666"/>
+      <c r="X106" s="666"/>
       <c r="Y106" s="15"/>
       <c r="AA106" s="41" t="s">
         <v>277</v>
@@ -32241,17 +32246,17 @@
       <c r="M150" s="42"/>
       <c r="N150" s="5"/>
       <c r="O150" s="13"/>
-      <c r="P150" s="672" t="s">
+      <c r="P150" s="669" t="s">
         <v>187</v>
       </c>
-      <c r="Q150" s="672"/>
-      <c r="R150" s="672"/>
-      <c r="S150" s="672"/>
+      <c r="Q150" s="669"/>
+      <c r="R150" s="669"/>
+      <c r="S150" s="669"/>
       <c r="T150" s="133"/>
-      <c r="U150" s="672" t="s">
+      <c r="U150" s="669" t="s">
         <v>188</v>
       </c>
-      <c r="V150" s="672"/>
+      <c r="V150" s="669"/>
       <c r="W150" s="5"/>
       <c r="X150" s="5"/>
       <c r="Y150" s="15"/>
@@ -32300,10 +32305,10 @@
         <v>192</v>
       </c>
       <c r="T151" s="133"/>
-      <c r="U151" s="681" t="s">
+      <c r="U151" s="670" t="s">
         <v>193</v>
       </c>
-      <c r="V151" s="681"/>
+      <c r="V151" s="670"/>
       <c r="W151" s="5"/>
       <c r="X151" s="5"/>
       <c r="Y151" s="15"/>
@@ -32343,11 +32348,11 @@
       <c r="R152" s="136"/>
       <c r="S152" s="137"/>
       <c r="T152" s="133"/>
-      <c r="U152" s="682" t="str">
+      <c r="U152" s="671" t="str">
         <f>IF(OR(R149=2,R149=3),"NA",IF(OR(P152="",Q152="",R152="",S152=""),"",AVERAGE(P152:S152)))</f>
         <v/>
       </c>
-      <c r="V152" s="682"/>
+      <c r="V152" s="671"/>
       <c r="W152" s="5"/>
       <c r="X152" s="41" t="s">
         <v>180</v>
@@ -32493,18 +32498,18 @@
       <c r="M156" s="141"/>
       <c r="N156" s="5"/>
       <c r="O156" s="13"/>
-      <c r="P156" s="675" t="s">
+      <c r="P156" s="672" t="s">
         <v>196</v>
       </c>
-      <c r="Q156" s="679" t="s">
+      <c r="Q156" s="673" t="s">
         <v>197</v>
       </c>
-      <c r="R156" s="679"/>
-      <c r="S156" s="679"/>
+      <c r="R156" s="673"/>
+      <c r="S156" s="673"/>
       <c r="T156" s="142" t="s">
         <v>197</v>
       </c>
-      <c r="U156" s="677" t="s">
+      <c r="U156" s="674" t="s">
         <v>198</v>
       </c>
       <c r="V156" s="77"/>
@@ -32532,7 +32537,7 @@
       <c r="M157" s="42"/>
       <c r="N157" s="5"/>
       <c r="O157" s="13"/>
-      <c r="P157" s="675" t="s">
+      <c r="P157" s="672" t="s">
         <v>196</v>
       </c>
       <c r="Q157" s="142" t="s">
@@ -32547,7 +32552,7 @@
       <c r="T157" s="142" t="s">
         <v>202</v>
       </c>
-      <c r="U157" s="677" t="s">
+      <c r="U157" s="674" t="s">
         <v>196</v>
       </c>
       <c r="V157" s="77"/>
@@ -32897,14 +32902,14 @@
       <c r="M164" s="42"/>
       <c r="N164" s="5"/>
       <c r="O164" s="156"/>
-      <c r="P164" s="675" t="s">
+      <c r="P164" s="672" t="s">
         <v>209</v>
       </c>
-      <c r="Q164" s="675"/>
-      <c r="R164" s="675"/>
-      <c r="S164" s="675"/>
-      <c r="T164" s="675"/>
-      <c r="U164" s="675"/>
+      <c r="Q164" s="672"/>
+      <c r="R164" s="672"/>
+      <c r="S164" s="672"/>
+      <c r="T164" s="672"/>
+      <c r="U164" s="672"/>
       <c r="V164" s="77"/>
       <c r="W164" s="77"/>
       <c r="X164" s="77"/>
@@ -32948,18 +32953,18 @@
       <c r="M165" s="42"/>
       <c r="N165" s="5"/>
       <c r="O165" s="156"/>
-      <c r="P165" s="675" t="s">
+      <c r="P165" s="672" t="s">
         <v>196</v>
       </c>
-      <c r="Q165" s="676" t="s">
+      <c r="Q165" s="675" t="s">
         <v>197</v>
       </c>
-      <c r="R165" s="676"/>
-      <c r="S165" s="676"/>
+      <c r="R165" s="675"/>
+      <c r="S165" s="675"/>
       <c r="T165" s="143" t="s">
         <v>197</v>
       </c>
-      <c r="U165" s="677" t="s">
+      <c r="U165" s="674" t="s">
         <v>198</v>
       </c>
       <c r="V165" s="77"/>
@@ -32989,7 +32994,7 @@
       <c r="M166" s="42"/>
       <c r="N166" s="5"/>
       <c r="O166" s="156"/>
-      <c r="P166" s="675" t="s">
+      <c r="P166" s="672" t="s">
         <v>196</v>
       </c>
       <c r="Q166" s="143" t="s">
@@ -33004,7 +33009,7 @@
       <c r="T166" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="U166" s="677" t="s">
+      <c r="U166" s="674" t="s">
         <v>196</v>
       </c>
       <c r="V166" s="77"/>
@@ -33277,17 +33282,17 @@
       </c>
       <c r="B172" s="39"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="672" t="s">
+      <c r="D172" s="669" t="s">
         <v>187</v>
       </c>
-      <c r="E172" s="672"/>
-      <c r="F172" s="672"/>
-      <c r="G172" s="672"/>
+      <c r="E172" s="669"/>
+      <c r="F172" s="669"/>
+      <c r="G172" s="669"/>
       <c r="H172" s="133"/>
-      <c r="I172" s="672" t="s">
+      <c r="I172" s="669" t="s">
         <v>188</v>
       </c>
-      <c r="J172" s="672"/>
+      <c r="J172" s="669"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
       <c r="M172" s="42"/>
@@ -33343,10 +33348,10 @@
         <v>192</v>
       </c>
       <c r="H173" s="133"/>
-      <c r="I173" s="681" t="s">
+      <c r="I173" s="670" t="s">
         <v>193</v>
       </c>
-      <c r="J173" s="681"/>
+      <c r="J173" s="670"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
       <c r="M173" s="42"/>
@@ -33390,11 +33395,11 @@
         <v/>
       </c>
       <c r="H174" s="133"/>
-      <c r="I174" s="674" t="str">
+      <c r="I174" s="677" t="str">
         <f>IF(U152="","",U152)</f>
         <v/>
       </c>
-      <c r="J174" s="674"/>
+      <c r="J174" s="677"/>
       <c r="K174" s="5"/>
       <c r="L174" s="41" t="s">
         <v>180</v>
@@ -33537,18 +33542,18 @@
       <c r="M178" s="42"/>
       <c r="N178" s="5"/>
       <c r="O178" s="13"/>
-      <c r="P178" s="675" t="s">
+      <c r="P178" s="672" t="s">
         <v>196</v>
       </c>
-      <c r="Q178" s="676" t="s">
+      <c r="Q178" s="675" t="s">
         <v>197</v>
       </c>
-      <c r="R178" s="676"/>
-      <c r="S178" s="676"/>
+      <c r="R178" s="675"/>
+      <c r="S178" s="675"/>
       <c r="T178" s="143" t="s">
         <v>196</v>
       </c>
-      <c r="U178" s="677" t="s">
+      <c r="U178" s="674" t="s">
         <v>198</v>
       </c>
       <c r="V178" s="77"/>
@@ -33579,7 +33584,7 @@
       <c r="M179" s="42"/>
       <c r="N179" s="5"/>
       <c r="O179" s="13"/>
-      <c r="P179" s="675" t="s">
+      <c r="P179" s="672" t="s">
         <v>196</v>
       </c>
       <c r="Q179" s="143" t="s">
@@ -33594,7 +33599,7 @@
       <c r="T179" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="U179" s="677" t="s">
+      <c r="U179" s="674" t="s">
         <v>196</v>
       </c>
       <c r="V179" s="77"/>
@@ -33608,18 +33613,18 @@
       </c>
       <c r="B180" s="39"/>
       <c r="C180" s="47"/>
-      <c r="D180" s="675" t="s">
+      <c r="D180" s="672" t="s">
         <v>196</v>
       </c>
-      <c r="E180" s="679" t="s">
+      <c r="E180" s="673" t="s">
         <v>197</v>
       </c>
-      <c r="F180" s="679"/>
-      <c r="G180" s="679"/>
+      <c r="F180" s="673"/>
+      <c r="G180" s="673"/>
       <c r="H180" s="142" t="s">
         <v>196</v>
       </c>
-      <c r="I180" s="680" t="s">
+      <c r="I180" s="679" t="s">
         <v>198</v>
       </c>
       <c r="J180" s="77"/>
@@ -33647,7 +33652,7 @@
       </c>
       <c r="B181" s="39"/>
       <c r="C181" s="47"/>
-      <c r="D181" s="675" t="s">
+      <c r="D181" s="672" t="s">
         <v>196</v>
       </c>
       <c r="E181" s="142" t="s">
@@ -33662,7 +33667,7 @@
       <c r="H181" s="142" t="s">
         <v>202</v>
       </c>
-      <c r="I181" s="680" t="s">
+      <c r="I181" s="679" t="s">
         <v>202</v>
       </c>
       <c r="J181" s="77"/>
@@ -33975,14 +33980,14 @@
       <c r="M187" s="42"/>
       <c r="N187" s="5"/>
       <c r="O187" s="156"/>
-      <c r="P187" s="663" t="s">
+      <c r="P187" s="680" t="s">
         <v>209</v>
       </c>
-      <c r="Q187" s="663"/>
-      <c r="R187" s="663"/>
-      <c r="S187" s="663"/>
-      <c r="T187" s="663"/>
-      <c r="U187" s="663"/>
+      <c r="Q187" s="680"/>
+      <c r="R187" s="680"/>
+      <c r="S187" s="680"/>
+      <c r="T187" s="680"/>
+      <c r="U187" s="680"/>
       <c r="V187" s="77"/>
       <c r="W187" s="77"/>
       <c r="X187" s="77"/>
@@ -34026,18 +34031,18 @@
       <c r="M188" s="42"/>
       <c r="N188" s="5"/>
       <c r="O188" s="156"/>
-      <c r="P188" s="675" t="s">
+      <c r="P188" s="672" t="s">
         <v>196</v>
       </c>
-      <c r="Q188" s="676" t="s">
+      <c r="Q188" s="675" t="s">
         <v>197</v>
       </c>
-      <c r="R188" s="676"/>
-      <c r="S188" s="676"/>
+      <c r="R188" s="675"/>
+      <c r="S188" s="675"/>
       <c r="T188" s="143" t="s">
         <v>196</v>
       </c>
-      <c r="U188" s="677" t="s">
+      <c r="U188" s="674" t="s">
         <v>198</v>
       </c>
       <c r="V188" s="77"/>
@@ -34065,7 +34070,7 @@
       <c r="M189" s="78"/>
       <c r="N189" s="5"/>
       <c r="O189" s="156"/>
-      <c r="P189" s="675" t="s">
+      <c r="P189" s="672" t="s">
         <v>196</v>
       </c>
       <c r="Q189" s="143" t="s">
@@ -34080,7 +34085,7 @@
       <c r="T189" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="U189" s="677"/>
+      <c r="U189" s="674"/>
       <c r="V189" s="77"/>
       <c r="W189" s="77"/>
       <c r="X189" s="77"/>
@@ -36893,11 +36898,11 @@
       <c r="U246" s="47"/>
       <c r="V246" s="5"/>
       <c r="W246" s="5"/>
-      <c r="X246" s="673" t="str">
+      <c r="X246" s="676" t="str">
         <f>IF($O$34=1,AB246,Z246)</f>
         <v>Selenia Dimensions</v>
       </c>
-      <c r="Y246" s="673"/>
+      <c r="Y246" s="676"/>
       <c r="Z246" s="435" t="s">
         <v>602</v>
       </c>
@@ -37582,21 +37587,21 @@
       </c>
       <c r="B259" s="39"/>
       <c r="C259" s="5"/>
-      <c r="D259" s="668" t="s">
+      <c r="D259" s="683" t="s">
         <v>263</v>
       </c>
-      <c r="E259" s="668"/>
+      <c r="E259" s="683"/>
       <c r="F259" s="47"/>
-      <c r="G259" s="668" t="s">
+      <c r="G259" s="683" t="s">
         <v>264</v>
       </c>
-      <c r="H259" s="668"/>
+      <c r="H259" s="683"/>
       <c r="I259" s="5"/>
       <c r="J259" s="47"/>
-      <c r="K259" s="669" t="s">
+      <c r="K259" s="684" t="s">
         <v>265</v>
       </c>
-      <c r="L259" s="669"/>
+      <c r="L259" s="684"/>
       <c r="M259" s="78"/>
       <c r="N259" s="5"/>
       <c r="O259" s="110" t="s">
@@ -39874,14 +39879,14 @@
       <c r="B305" s="175"/>
       <c r="C305" s="77"/>
       <c r="D305" s="77"/>
-      <c r="E305" s="670" t="str">
+      <c r="E305" s="685" t="str">
         <f>O294&amp;" "&amp;P295&amp;" "&amp;Q295</f>
         <v xml:space="preserve">Combo Mode 2D Target/Filter: </v>
       </c>
-      <c r="F305" s="670"/>
-      <c r="G305" s="670"/>
-      <c r="H305" s="670"/>
-      <c r="I305" s="670"/>
+      <c r="F305" s="685"/>
+      <c r="G305" s="685"/>
+      <c r="H305" s="685"/>
+      <c r="I305" s="685"/>
       <c r="J305" s="77"/>
       <c r="K305" s="77"/>
       <c r="L305" s="77"/>
@@ -40442,14 +40447,14 @@
       <c r="B316" s="175"/>
       <c r="C316" s="77"/>
       <c r="D316" s="77"/>
-      <c r="E316" s="671" t="str">
+      <c r="E316" s="686" t="str">
         <f>O306&amp;" "&amp;P307&amp;" "&amp;Q307</f>
         <v xml:space="preserve">Combo Mode 3D Target/Filter: </v>
       </c>
-      <c r="F316" s="671"/>
-      <c r="G316" s="671"/>
-      <c r="H316" s="671"/>
-      <c r="I316" s="671"/>
+      <c r="F316" s="686"/>
+      <c r="G316" s="686"/>
+      <c r="H316" s="686"/>
+      <c r="I316" s="686"/>
       <c r="J316" s="77"/>
       <c r="K316" s="77"/>
       <c r="L316" s="77"/>
@@ -40729,10 +40734,10 @@
       <c r="S321" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="T321" s="665">
+      <c r="T321" s="687">
         <v>43014</v>
       </c>
-      <c r="U321" s="665"/>
+      <c r="U321" s="687"/>
       <c r="V321" s="5"/>
       <c r="W321" s="5"/>
       <c r="X321" s="5"/>
@@ -40786,10 +40791,10 @@
       <c r="S322" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="T322" s="665">
+      <c r="T322" s="687">
         <v>43744</v>
       </c>
-      <c r="U322" s="665"/>
+      <c r="U322" s="687"/>
       <c r="V322" s="5"/>
       <c r="W322" s="5"/>
       <c r="X322" s="5"/>
@@ -40885,13 +40890,13 @@
       <c r="Q324" s="5"/>
       <c r="R324" s="5"/>
       <c r="S324" s="5"/>
-      <c r="T324" s="663" t="s">
+      <c r="T324" s="680" t="s">
         <v>308</v>
       </c>
-      <c r="U324" s="663"/>
-      <c r="V324" s="663"/>
-      <c r="W324" s="663"/>
-      <c r="X324" s="663"/>
+      <c r="U324" s="680"/>
+      <c r="V324" s="680"/>
+      <c r="W324" s="680"/>
+      <c r="X324" s="680"/>
       <c r="Y324" s="15"/>
     </row>
     <row r="325" spans="1:25">
@@ -41496,13 +41501,13 @@
       <c r="Q335" s="5"/>
       <c r="R335" s="5"/>
       <c r="S335" s="41"/>
-      <c r="T335" s="663" t="s">
+      <c r="T335" s="680" t="s">
         <v>308</v>
       </c>
-      <c r="U335" s="663"/>
-      <c r="V335" s="663"/>
-      <c r="W335" s="663"/>
-      <c r="X335" s="663"/>
+      <c r="U335" s="680"/>
+      <c r="V335" s="680"/>
+      <c r="W335" s="680"/>
+      <c r="X335" s="680"/>
       <c r="Y335" s="15"/>
     </row>
     <row r="336" spans="1:25">
@@ -41840,15 +41845,15 @@
         <v>50</v>
       </c>
       <c r="T341" s="209" t="str">
-        <f>IF(AM90="","",AM90)</f>
+        <f t="shared" ref="T341:V342" si="65">IF(AM90="","",AM90)</f>
         <v/>
       </c>
       <c r="U341" s="211" t="str">
-        <f>IF(AN90="","",AN90)</f>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="V341" s="209" t="str">
-        <f>IF(AO90="","",AO90)</f>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="W341" s="237" t="str">
@@ -41901,15 +41906,15 @@
         <v>50</v>
       </c>
       <c r="T342" s="209" t="str">
-        <f>IF(AM91="","",AM91)</f>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="U342" s="211" t="str">
-        <f>IF(AN91="","",AN91)</f>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="V342" s="209" t="str">
-        <f>IF(AO91="","",AO91)</f>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="W342" s="237" t="str">
@@ -41940,11 +41945,11 @@
       <c r="H343" s="279" t="s">
         <v>305</v>
       </c>
-      <c r="I343" s="666">
+      <c r="I343" s="681">
         <f>IF(T321="","",T321)</f>
         <v>43014</v>
       </c>
-      <c r="J343" s="666"/>
+      <c r="J343" s="681"/>
       <c r="K343" s="33"/>
       <c r="L343" s="33"/>
       <c r="M343" s="35"/>
@@ -41983,11 +41988,11 @@
       <c r="H344" s="228" t="s">
         <v>307</v>
       </c>
-      <c r="I344" s="667">
+      <c r="I344" s="682">
         <f>IF(T322="","",T322)</f>
         <v>43744</v>
       </c>
-      <c r="J344" s="667"/>
+      <c r="J344" s="682"/>
       <c r="K344" s="47"/>
       <c r="L344" s="5"/>
       <c r="M344" s="42"/>
@@ -42028,13 +42033,13 @@
       <c r="Q345" s="5"/>
       <c r="R345" s="5"/>
       <c r="S345" s="41"/>
-      <c r="T345" s="663" t="s">
+      <c r="T345" s="680" t="s">
         <v>308</v>
       </c>
-      <c r="U345" s="663"/>
-      <c r="V345" s="663"/>
-      <c r="W345" s="663"/>
-      <c r="X345" s="663"/>
+      <c r="U345" s="680"/>
+      <c r="V345" s="680"/>
+      <c r="W345" s="680"/>
+      <c r="X345" s="680"/>
       <c r="Y345" s="15"/>
     </row>
     <row r="346" spans="1:25">
@@ -42389,28 +42394,28 @@
       </c>
       <c r="B351" s="39"/>
       <c r="C351" s="121">
-        <f t="shared" ref="C351:C357" si="65">IF(R326="","",R326)</f>
+        <f t="shared" ref="C351:C357" si="66">IF(R326="","",R326)</f>
         <v>24</v>
       </c>
       <c r="D351" s="209" t="str">
-        <f t="shared" ref="D351:D357" si="66">IF(T326="","",T326)</f>
+        <f t="shared" ref="D351:D357" si="67">IF(T326="","",T326)</f>
         <v/>
       </c>
       <c r="E351" s="286" t="str">
-        <f t="shared" ref="E351:E357" si="67">IF(OR(C351="",D351=""),"",IF(AND(C351&gt;0,D351&gt;0),(D351-C351)/C351,""))</f>
+        <f t="shared" ref="E351:E357" si="68">IF(OR(C351="",D351=""),"",IF(AND(C351&gt;0,D351&gt;0),(D351-C351)/C351,""))</f>
         <v/>
       </c>
       <c r="F351" s="5"/>
       <c r="G351" s="121">
-        <f t="shared" ref="G351:G356" si="68">IF(R337="","",R337)</f>
+        <f t="shared" ref="G351:G356" si="69">IF(R337="","",R337)</f>
         <v>28</v>
       </c>
       <c r="H351" s="209" t="str">
-        <f t="shared" ref="H351:H356" si="69">IF(T337="","",T337)</f>
+        <f t="shared" ref="H351:H356" si="70">IF(T337="","",T337)</f>
         <v/>
       </c>
       <c r="I351" s="286" t="str">
-        <f t="shared" ref="I351:I356" si="70">IF(OR(G351="",H351=""),"",IF(AND(G351&gt;0,H351&gt;0),(H351-G351)/G351,""))</f>
+        <f t="shared" ref="I351:I356" si="71">IF(OR(G351="",H351=""),"",IF(AND(G351&gt;0,H351&gt;0),(H351-G351)/G351,""))</f>
         <v/>
       </c>
       <c r="J351" s="77"/>
@@ -42472,28 +42477,28 @@
       </c>
       <c r="B352" s="39"/>
       <c r="C352" s="121">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>25</v>
       </c>
       <c r="D352" s="209" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="E352" s="286" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="F352" s="5"/>
       <c r="G352" s="121">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>30</v>
       </c>
       <c r="H352" s="209" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="I352" s="286" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="J352" s="77"/>
@@ -42532,28 +42537,28 @@
       </c>
       <c r="B353" s="39"/>
       <c r="C353" s="121">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>26</v>
       </c>
       <c r="D353" s="209" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="E353" s="286" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="F353" s="5"/>
       <c r="G353" s="121">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>32</v>
       </c>
       <c r="H353" s="209" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="I353" s="286" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="J353" s="77"/>
@@ -42588,28 +42593,28 @@
       </c>
       <c r="B354" s="39"/>
       <c r="C354" s="121">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>28</v>
       </c>
       <c r="D354" s="209" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="E354" s="286" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="F354" s="5"/>
       <c r="G354" s="121">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>34</v>
       </c>
       <c r="H354" s="209" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="I354" s="286" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="J354" s="77"/>
@@ -42646,28 +42651,28 @@
       </c>
       <c r="B355" s="39"/>
       <c r="C355" s="121">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>30</v>
       </c>
       <c r="D355" s="209" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="E355" s="286" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="F355" s="5"/>
       <c r="G355" s="121">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>36</v>
       </c>
       <c r="H355" s="209" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="I355" s="286" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="J355" s="77"/>
@@ -42702,28 +42707,28 @@
       </c>
       <c r="B356" s="39"/>
       <c r="C356" s="121">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>32</v>
       </c>
       <c r="D356" s="209" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="E356" s="286" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="F356" s="5"/>
       <c r="G356" s="121">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>38</v>
       </c>
       <c r="H356" s="209" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="I356" s="286" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="J356" s="77"/>
@@ -42736,13 +42741,13 @@
       <c r="Q356" s="5"/>
       <c r="R356" s="5"/>
       <c r="S356" s="41"/>
-      <c r="T356" s="663" t="s">
+      <c r="T356" s="680" t="s">
         <v>308</v>
       </c>
-      <c r="U356" s="663"/>
-      <c r="V356" s="663"/>
-      <c r="W356" s="663"/>
-      <c r="X356" s="663"/>
+      <c r="U356" s="680"/>
+      <c r="V356" s="680"/>
+      <c r="W356" s="680"/>
+      <c r="X356" s="680"/>
       <c r="Y356" s="15"/>
     </row>
     <row r="357" spans="1:25" ht="16.5" thickBot="1">
@@ -42751,15 +42756,15 @@
       </c>
       <c r="B357" s="39"/>
       <c r="C357" s="121">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>34</v>
       </c>
       <c r="D357" s="209" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="E357" s="286" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="F357" s="5"/>
@@ -42843,11 +42848,11 @@
         <v/>
       </c>
       <c r="R358" s="121">
-        <f t="shared" ref="R358:S361" si="71">IF(AH28="","",AH28)</f>
+        <f t="shared" ref="R358:S361" si="72">IF(AH28="","",AH28)</f>
         <v>28</v>
       </c>
       <c r="S358" s="121">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>50</v>
       </c>
       <c r="T358" s="209" t="str">
@@ -42855,11 +42860,11 @@
         <v/>
       </c>
       <c r="U358" s="211" t="str">
-        <f t="shared" ref="U358:V361" si="72">IF(AN28="","",AN28)</f>
+        <f t="shared" ref="U358:V361" si="73">IF(AN28="","",AN28)</f>
         <v/>
       </c>
       <c r="V358" s="209" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="W358" s="237" t="str">
@@ -42899,23 +42904,23 @@
         <v/>
       </c>
       <c r="R359" s="121">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>28</v>
       </c>
       <c r="S359" s="121">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>50</v>
       </c>
       <c r="T359" s="209" t="str">
-        <f t="shared" ref="T359:T361" si="73">IF(AM29="","",AM29)</f>
+        <f t="shared" ref="T359:T361" si="74">IF(AM29="","",AM29)</f>
         <v/>
       </c>
       <c r="U359" s="211" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="V359" s="209" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="W359" s="237" t="str">
@@ -42959,23 +42964,23 @@
         <v/>
       </c>
       <c r="R360" s="121">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>28</v>
       </c>
       <c r="S360" s="121">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>50</v>
       </c>
       <c r="T360" s="209" t="str">
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
+      <c r="U360" s="211" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="U360" s="211" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
       <c r="V360" s="209" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="W360" s="237" t="str">
@@ -43015,23 +43020,23 @@
         <v/>
       </c>
       <c r="R361" s="121">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>28</v>
       </c>
       <c r="S361" s="121">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>50</v>
       </c>
       <c r="T361" s="588" t="str">
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
+      <c r="U361" s="589" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="U361" s="589" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
       <c r="V361" s="588" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="W361" s="590" t="str">
@@ -43293,19 +43298,19 @@
         <v>28</v>
       </c>
       <c r="D367" s="209" t="str">
-        <f t="shared" ref="D367:D373" si="74">IF(T358="","",T358)</f>
+        <f t="shared" ref="D367:D373" si="75">IF(T358="","",T358)</f>
         <v/>
       </c>
       <c r="E367" s="209" t="str">
-        <f t="shared" ref="E367:G373" si="75">IF(V358="","",V358)</f>
+        <f t="shared" ref="E367:G373" si="76">IF(V358="","",V358)</f>
         <v/>
       </c>
       <c r="F367" s="237" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="G367" s="209" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="H367" s="5"/>
@@ -43336,19 +43341,19 @@
       <c r="B368" s="39"/>
       <c r="C368" s="5"/>
       <c r="D368" s="209" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="E368" s="209" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="F368" s="237" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="G368" s="209" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="H368" s="5"/>
@@ -43379,19 +43384,19 @@
       <c r="B369" s="39"/>
       <c r="C369" s="5"/>
       <c r="D369" s="209" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="E369" s="209" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="F369" s="237" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="G369" s="209" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="H369" s="5"/>
@@ -43422,19 +43427,19 @@
       <c r="B370" s="39"/>
       <c r="C370" s="5"/>
       <c r="D370" s="209" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="E370" s="209" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="F370" s="237" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="G370" s="209" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="H370" s="5"/>
@@ -43449,13 +43454,13 @@
       <c r="Q370" s="5"/>
       <c r="R370" s="5"/>
       <c r="S370" s="5"/>
-      <c r="T370" s="663" t="s">
+      <c r="T370" s="680" t="s">
         <v>308</v>
       </c>
-      <c r="U370" s="663"/>
-      <c r="V370" s="663"/>
-      <c r="W370" s="663"/>
-      <c r="X370" s="663"/>
+      <c r="U370" s="680"/>
+      <c r="V370" s="680"/>
+      <c r="W370" s="680"/>
+      <c r="X370" s="680"/>
       <c r="Y370" s="15"/>
     </row>
     <row r="371" spans="1:25">
@@ -43467,19 +43472,19 @@
         <v>169</v>
       </c>
       <c r="D371" s="209" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="E371" s="209" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="F371" s="237" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="G371" s="209" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="H371" s="5"/>
@@ -43528,19 +43533,19 @@
         <v>328</v>
       </c>
       <c r="D372" s="209" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="E372" s="209" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="F372" s="237" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="G372" s="209" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="H372" s="5"/>
@@ -43598,19 +43603,19 @@
         <v>291</v>
       </c>
       <c r="D373" s="286" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="E373" s="286" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="F373" s="286" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="G373" s="286" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="H373" s="5"/>
@@ -43708,15 +43713,15 @@
         <v>100</v>
       </c>
       <c r="T374" s="209" t="str">
-        <f t="shared" ref="T374:V375" si="76">IF(AM38="","",AM38)</f>
+        <f t="shared" ref="T374:V375" si="77">IF(AM38="","",AM38)</f>
         <v/>
       </c>
       <c r="U374" s="211" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="V374" s="209" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="W374" s="237" t="str">
@@ -43768,15 +43773,15 @@
         <v>300</v>
       </c>
       <c r="T375" s="209" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U375" s="211" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="V375" s="209" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="W375" s="237" t="str">
@@ -44096,23 +44101,23 @@
       </c>
       <c r="B383" s="39"/>
       <c r="C383" s="121">
-        <f t="shared" ref="C383:D386" si="77">IF(S372="","",S372)</f>
+        <f t="shared" ref="C383:D386" si="78">IF(S372="","",S372)</f>
         <v>20</v>
       </c>
       <c r="D383" s="209" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E383" s="209" t="str">
-        <f t="shared" ref="E383:G386" si="78">IF(V372="","",V372)</f>
+        <f t="shared" ref="E383:G386" si="79">IF(V372="","",V372)</f>
         <v/>
       </c>
       <c r="F383" s="237" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="G383" s="209" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="H383" s="5"/>
@@ -44126,16 +44131,16 @@
       <c r="P383" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="Q383" s="664" t="s">
+      <c r="Q383" s="688" t="s">
         <v>341</v>
       </c>
-      <c r="R383" s="664"/>
-      <c r="S383" s="664"/>
-      <c r="T383" s="664"/>
-      <c r="U383" s="664"/>
-      <c r="V383" s="664"/>
-      <c r="W383" s="664"/>
-      <c r="X383" s="664"/>
+      <c r="R383" s="688"/>
+      <c r="S383" s="688"/>
+      <c r="T383" s="688"/>
+      <c r="U383" s="688"/>
+      <c r="V383" s="688"/>
+      <c r="W383" s="688"/>
+      <c r="X383" s="688"/>
       <c r="Y383" s="15"/>
     </row>
     <row r="384" spans="1:25">
@@ -44144,23 +44149,23 @@
       </c>
       <c r="B384" s="39"/>
       <c r="C384" s="121">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>50</v>
       </c>
       <c r="D384" s="209" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E384" s="209" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F384" s="237" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="G384" s="209" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="H384" s="5"/>
@@ -44214,23 +44219,23 @@
       </c>
       <c r="B385" s="39"/>
       <c r="C385" s="121">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>100</v>
       </c>
       <c r="D385" s="209" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E385" s="209" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F385" s="237" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="G385" s="209" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="H385" s="5"/>
@@ -44284,23 +44289,23 @@
       </c>
       <c r="B386" s="39"/>
       <c r="C386" s="121">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>300</v>
       </c>
       <c r="D386" s="209" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E386" s="209" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F386" s="237" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="G386" s="209" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="H386" s="5"/>
@@ -44375,35 +44380,35 @@
         <v>343</v>
       </c>
       <c r="Q387" s="461" t="str">
-        <f t="shared" ref="Q387:X387" si="79">IF(OR(Q384="",Q385=""),"",ABS(Q385-Q384)/Q384)</f>
+        <f t="shared" ref="Q387:X387" si="80">IF(OR(Q384="",Q385=""),"",ABS(Q385-Q384)/Q384)</f>
         <v/>
       </c>
       <c r="R387" s="461" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="S387" s="461" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="T387" s="461" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="U387" s="461" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="V387" s="461" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="W387" s="461" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="X387" s="462" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="Y387" s="15"/>
@@ -44434,35 +44439,35 @@
         <v>344</v>
       </c>
       <c r="Q388" s="311">
-        <f t="shared" ref="Q388:X388" si="80">IF($Q$380=1,Q382/100+0.03,Q382/100)</f>
+        <f t="shared" ref="Q388:X388" si="81">IF($Q$380=1,Q382/100+0.03,Q382/100)</f>
         <v>0.27</v>
       </c>
       <c r="R388" s="311">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="S388" s="311">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="T388" s="311">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.35</v>
       </c>
       <c r="U388" s="311">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="V388" s="311">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="W388" s="311">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.35</v>
       </c>
       <c r="X388" s="312">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.37</v>
       </c>
       <c r="Y388" s="15"/>
@@ -44641,35 +44646,35 @@
         <v>240</v>
       </c>
       <c r="D392" s="65">
-        <f t="shared" ref="D392:K392" si="81">Q382</f>
+        <f t="shared" ref="D392:K392" si="82">Q382</f>
         <v>24</v>
       </c>
       <c r="E392" s="65">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>25</v>
       </c>
       <c r="F392" s="65">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>28</v>
       </c>
       <c r="G392" s="65">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>32</v>
       </c>
       <c r="H392" s="65">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>28</v>
       </c>
       <c r="I392" s="65">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>30</v>
       </c>
       <c r="J392" s="65">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>32</v>
       </c>
       <c r="K392" s="65">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>34</v>
       </c>
       <c r="L392" s="5"/>
@@ -44700,35 +44705,35 @@
         <v>342</v>
       </c>
       <c r="D393" s="318" t="str">
-        <f t="shared" ref="D393:K394" si="82">IF(Q386="","",Q386)</f>
+        <f t="shared" ref="D393:K394" si="83">IF(Q386="","",Q386)</f>
         <v/>
       </c>
       <c r="E393" s="318" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="F393" s="318" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G393" s="318" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="H393" s="318" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="I393" s="318" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J393" s="318" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="K393" s="219" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="L393" s="5"/>
@@ -44757,35 +44762,35 @@
         <v>343</v>
       </c>
       <c r="D394" s="448" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="E394" s="448" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="F394" s="448" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="G394" s="448" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="H394" s="448" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="I394" s="448" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J394" s="448" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="K394" s="450" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="L394" s="5"/>
@@ -44829,35 +44834,35 @@
         <v>344</v>
       </c>
       <c r="D395" s="318">
-        <f t="shared" ref="D395:K397" si="83">Q388</f>
+        <f t="shared" ref="D395:K397" si="84">Q388</f>
         <v>0.27</v>
       </c>
       <c r="E395" s="318">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="F395" s="318">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="G395" s="318">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.35</v>
       </c>
       <c r="H395" s="318">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="I395" s="318">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="J395" s="318">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.35</v>
       </c>
       <c r="K395" s="219">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.37</v>
       </c>
       <c r="L395" s="5"/>
@@ -44901,35 +44906,35 @@
         <v>345</v>
       </c>
       <c r="D396" s="214">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.36</v>
       </c>
       <c r="E396" s="214">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.37</v>
       </c>
       <c r="F396" s="214">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.4</v>
       </c>
       <c r="G396" s="214">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.44</v>
       </c>
       <c r="H396" s="214">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.47000000000000003</v>
       </c>
       <c r="I396" s="214">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.49</v>
       </c>
       <c r="J396" s="214">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.51</v>
       </c>
       <c r="K396" s="225">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.53</v>
       </c>
       <c r="L396" s="5"/>
@@ -44939,13 +44944,13 @@
       <c r="P396" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="Q396" s="664" t="s">
+      <c r="Q396" s="688" t="s">
         <v>341</v>
       </c>
-      <c r="R396" s="664"/>
-      <c r="S396" s="664"/>
-      <c r="T396" s="664"/>
-      <c r="U396" s="664"/>
+      <c r="R396" s="688"/>
+      <c r="S396" s="688"/>
+      <c r="T396" s="688"/>
+      <c r="U396" s="688"/>
       <c r="V396" s="77"/>
       <c r="W396" s="77"/>
       <c r="X396" s="77"/>
@@ -44960,35 +44965,35 @@
         <v>180</v>
       </c>
       <c r="D397" s="171" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="E397" s="172" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="F397" s="172" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="G397" s="172" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="H397" s="172" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="I397" s="172" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="J397" s="172" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="K397" s="174" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="L397" s="5"/>
@@ -45204,23 +45209,23 @@
         <v>342</v>
       </c>
       <c r="D401" s="318" t="str">
-        <f t="shared" ref="D401:H404" si="84">IF(Q399="","",Q399)</f>
+        <f t="shared" ref="D401:H404" si="85">IF(Q399="","",Q399)</f>
         <v/>
       </c>
       <c r="E401" s="318" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="F401" s="318" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="G401" s="318" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="H401" s="318" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I401" s="5"/>
@@ -45267,23 +45272,23 @@
         <v>343</v>
       </c>
       <c r="D402" s="448" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="E402" s="448" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="F402" s="448" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="G402" s="448" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="H402" s="448" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I402" s="5"/>
@@ -45330,23 +45335,23 @@
         <v>344</v>
       </c>
       <c r="D403" s="318">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="E403" s="318">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="F403" s="318">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.35</v>
       </c>
       <c r="G403" s="318">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.37</v>
       </c>
       <c r="H403" s="318">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="I403" s="5"/>
@@ -45391,23 +45396,23 @@
         <v>345</v>
       </c>
       <c r="D404" s="214">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.4</v>
       </c>
       <c r="E404" s="214">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.42</v>
       </c>
       <c r="F404" s="214">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.44</v>
       </c>
       <c r="G404" s="214">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.46</v>
       </c>
       <c r="H404" s="214">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="I404" s="5"/>
@@ -45657,7 +45662,7 @@
         <v>0</v>
       </c>
       <c r="R410" s="186" t="str">
-        <f t="shared" ref="R410:R415" si="85">IF(AB99="","",AB99)</f>
+        <f t="shared" ref="R410:R415" si="86">IF(AB99="","",AB99)</f>
         <v/>
       </c>
       <c r="S410" s="5"/>
@@ -45697,7 +45702,7 @@
         <v>0</v>
       </c>
       <c r="R411" s="186" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="S411" s="5"/>
@@ -45734,7 +45739,7 @@
       </c>
       <c r="Q412" s="111"/>
       <c r="R412" s="186" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="S412" s="5"/>
@@ -45771,7 +45776,7 @@
       </c>
       <c r="Q413" s="111"/>
       <c r="R413" s="186" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="S413" s="5"/>
@@ -45808,7 +45813,7 @@
       </c>
       <c r="Q414" s="111"/>
       <c r="R414" s="186" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="S414" s="5"/>
@@ -45843,7 +45848,7 @@
         <v/>
       </c>
       <c r="R415" s="186" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="S415" s="5"/>
@@ -46187,17 +46192,17 @@
         <v>0</v>
       </c>
       <c r="Q426" s="332" t="str">
-        <f t="shared" ref="Q426:Q431" si="86">IF(AB109="","",AB109)</f>
+        <f t="shared" ref="Q426:Q431" si="87">IF(AB109="","",AB109)</f>
         <v/>
       </c>
       <c r="R426" s="198"/>
       <c r="S426" s="332" t="str">
-        <f t="shared" ref="S426:S431" si="87">IF(AB115="","",AB115)</f>
+        <f t="shared" ref="S426:S431" si="88">IF(AB115="","",AB115)</f>
         <v/>
       </c>
       <c r="T426" s="198"/>
       <c r="U426" s="332" t="str">
-        <f t="shared" ref="U426:U431" si="88">IF(AB121="","",AB121)</f>
+        <f t="shared" ref="U426:U431" si="89">IF(AB121="","",AB121)</f>
         <v/>
       </c>
       <c r="V426" s="77"/>
@@ -46228,17 +46233,17 @@
         <v>0</v>
       </c>
       <c r="Q427" s="332" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="R427" s="198"/>
       <c r="S427" s="332" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T427" s="198"/>
       <c r="U427" s="332" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V427" s="77"/>
@@ -46269,17 +46274,17 @@
         <v>0</v>
       </c>
       <c r="Q428" s="332" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="R428" s="198"/>
       <c r="S428" s="332" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T428" s="198"/>
       <c r="U428" s="332" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V428" s="77"/>
@@ -46307,17 +46312,17 @@
       </c>
       <c r="P429" s="198"/>
       <c r="Q429" s="332" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="R429" s="198"/>
       <c r="S429" s="332" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T429" s="198"/>
       <c r="U429" s="332" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V429" s="77"/>
@@ -46345,17 +46350,17 @@
       </c>
       <c r="P430" s="198"/>
       <c r="Q430" s="332" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="R430" s="198"/>
       <c r="S430" s="332" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T430" s="198"/>
       <c r="U430" s="332" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V430" s="77"/>
@@ -46383,17 +46388,17 @@
       </c>
       <c r="P431" s="202"/>
       <c r="Q431" s="333" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="R431" s="202"/>
       <c r="S431" s="333" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="T431" s="202"/>
       <c r="U431" s="333" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V431" s="77"/>
@@ -47495,58 +47500,22 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F36"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="J35:L36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P97:R98"/>
-    <mergeCell ref="V97:X98"/>
-    <mergeCell ref="P105:R106"/>
-    <mergeCell ref="S105:U106"/>
-    <mergeCell ref="V105:X106"/>
-    <mergeCell ref="P150:S150"/>
-    <mergeCell ref="U150:V150"/>
-    <mergeCell ref="S97:U98"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="U151:V151"/>
-    <mergeCell ref="U152:V152"/>
-    <mergeCell ref="P156:P157"/>
-    <mergeCell ref="Q156:S156"/>
-    <mergeCell ref="U156:U157"/>
-    <mergeCell ref="P164:U164"/>
-    <mergeCell ref="P165:P166"/>
-    <mergeCell ref="Q165:S165"/>
-    <mergeCell ref="U165:U166"/>
+    <mergeCell ref="T356:X356"/>
+    <mergeCell ref="T370:X370"/>
+    <mergeCell ref="Q383:X383"/>
+    <mergeCell ref="Q396:U396"/>
+    <mergeCell ref="T322:U322"/>
+    <mergeCell ref="T324:X324"/>
+    <mergeCell ref="T335:X335"/>
+    <mergeCell ref="I343:J343"/>
+    <mergeCell ref="I344:J344"/>
+    <mergeCell ref="T345:X345"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="E305:I305"/>
+    <mergeCell ref="E316:I316"/>
+    <mergeCell ref="T321:U321"/>
     <mergeCell ref="D172:G172"/>
     <mergeCell ref="I172:J172"/>
     <mergeCell ref="X246:Y246"/>
@@ -47563,22 +47532,58 @@
     <mergeCell ref="Q188:S188"/>
     <mergeCell ref="U188:U189"/>
     <mergeCell ref="D189:I189"/>
-    <mergeCell ref="I343:J343"/>
-    <mergeCell ref="I344:J344"/>
-    <mergeCell ref="T345:X345"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="K259:L259"/>
-    <mergeCell ref="E305:I305"/>
-    <mergeCell ref="E316:I316"/>
-    <mergeCell ref="T321:U321"/>
-    <mergeCell ref="T356:X356"/>
-    <mergeCell ref="T370:X370"/>
-    <mergeCell ref="Q383:X383"/>
-    <mergeCell ref="Q396:U396"/>
-    <mergeCell ref="T322:U322"/>
-    <mergeCell ref="T324:X324"/>
-    <mergeCell ref="T335:X335"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="U151:V151"/>
+    <mergeCell ref="U152:V152"/>
+    <mergeCell ref="P156:P157"/>
+    <mergeCell ref="Q156:S156"/>
+    <mergeCell ref="U156:U157"/>
+    <mergeCell ref="P164:U164"/>
+    <mergeCell ref="P165:P166"/>
+    <mergeCell ref="Q165:S165"/>
+    <mergeCell ref="U165:U166"/>
+    <mergeCell ref="V97:X98"/>
+    <mergeCell ref="P105:R106"/>
+    <mergeCell ref="S105:U106"/>
+    <mergeCell ref="V105:X106"/>
+    <mergeCell ref="P150:S150"/>
+    <mergeCell ref="U150:V150"/>
+    <mergeCell ref="S97:U98"/>
+    <mergeCell ref="D35:F36"/>
+    <mergeCell ref="G35:I36"/>
+    <mergeCell ref="J35:L36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P97:R98"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <conditionalFormatting sqref="P171:U172">
     <cfRule type="cellIs" dxfId="84" priority="87" operator="lessThan">
@@ -47941,9 +47946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD196"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
@@ -53515,9 +53518,9 @@
       <c r="B85">
         <v>24</v>
       </c>
-      <c r="C85" s="433" t="e">
-        <f>AVERAGE(Sheet1!AQ10:AQ11)</f>
-        <v>#DIV/0!</v>
+      <c r="C85" s="433" t="str">
+        <f>Sheet1!Q386</f>
+        <v/>
       </c>
       <c r="D85" t="str">
         <f>G73</f>
@@ -53526,9 +53529,9 @@
       <c r="E85">
         <v>28</v>
       </c>
-      <c r="F85" s="433" t="e">
-        <f>AVERAGE(Sheet1!AQ58:AQ59)</f>
-        <v>#DIV/0!</v>
+      <c r="F85" s="433" t="str">
+        <f>Sheet1!U386</f>
+        <v/>
       </c>
       <c r="G85" t="str">
         <f>M73</f>
@@ -53567,9 +53570,9 @@
       <c r="B86">
         <v>25</v>
       </c>
-      <c r="C86" s="433" t="e">
-        <f>AVERAGE(Sheet1!AQ18:AQ19)</f>
-        <v>#DIV/0!</v>
+      <c r="C86" s="433" t="str">
+        <f>Sheet1!R386</f>
+        <v/>
       </c>
       <c r="D86" t="s">
         <v>239</v>
@@ -53577,9 +53580,9 @@
       <c r="E86">
         <v>30</v>
       </c>
-      <c r="F86" s="433" t="e">
-        <f>AVERAGE(Sheet1!AQ66:AQ67)</f>
-        <v>#DIV/0!</v>
+      <c r="F86" s="433" t="str">
+        <f>Sheet1!V386</f>
+        <v/>
       </c>
       <c r="G86" t="s">
         <v>239</v>
@@ -53629,9 +53632,9 @@
       <c r="E87">
         <v>32</v>
       </c>
-      <c r="F87" s="433" t="e">
-        <f>AVERAGE(Sheet1!AQ74:AQ75)</f>
-        <v>#DIV/0!</v>
+      <c r="F87" s="433" t="str">
+        <f>Sheet1!W386</f>
+        <v/>
       </c>
       <c r="G87" t="str">
         <f>M75</f>
@@ -53667,16 +53670,16 @@
       <c r="B88">
         <v>28</v>
       </c>
-      <c r="C88" s="433" t="e">
-        <f>AVERAGE(Sheet1!AQ27:AQ31)</f>
-        <v>#DIV/0!</v>
+      <c r="C88" s="433" t="str">
+        <f>Sheet1!S386</f>
+        <v/>
       </c>
       <c r="E88">
         <v>34</v>
       </c>
-      <c r="F88" s="433" t="e">
-        <f>AVERAGE(Sheet1!AQ82:AQ83)</f>
-        <v>#DIV/0!</v>
+      <c r="F88" s="433" t="str">
+        <f>Sheet1!X386</f>
+        <v/>
       </c>
       <c r="H88">
         <v>34</v>
@@ -53749,9 +53752,9 @@
       <c r="B90">
         <v>32</v>
       </c>
-      <c r="C90" s="433" t="e">
-        <f>AVERAGE(Sheet1!AQ42:AQ43)</f>
-        <v>#DIV/0!</v>
+      <c r="C90" s="433" t="str">
+        <f>Sheet1!T386</f>
+        <v/>
       </c>
       <c r="E90">
         <v>38</v>
@@ -53784,9 +53787,9 @@
       <c r="E92" t="s">
         <v>608</v>
       </c>
-      <c r="F92" t="e">
+      <c r="F92">
         <f>SLOPE(F85:F90,E85:E90)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>608</v>
@@ -53825,9 +53828,9 @@
       <c r="E93" t="s">
         <v>609</v>
       </c>
-      <c r="F93" t="e">
+      <c r="F93">
         <f>INTERCEPT(F85:F90,E85:E90)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
         <v>609</v>
@@ -53897,13 +53900,13 @@
       </c>
     </row>
     <row r="95" spans="1:25">
-      <c r="A95" t="s">
+      <c r="A95" s="692" t="s">
         <v>405</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="692" t="s">
         <v>239</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="692" t="s">
         <v>611</v>
       </c>
       <c r="E95" t="s">
@@ -53932,13 +53935,13 @@
       </c>
     </row>
     <row r="96" spans="1:25">
-      <c r="A96" t="s">
+      <c r="A96" s="692" t="s">
         <v>614</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="692" t="s">
         <v>614</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="692">
         <v>0.12</v>
       </c>
       <c r="F96" t="s">
@@ -53964,13 +53967,13 @@
       </c>
     </row>
     <row r="97" spans="1:25">
-      <c r="A97" t="s">
+      <c r="A97" s="692" t="s">
         <v>614</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="692" t="s">
         <v>616</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="692">
         <v>0.19</v>
       </c>
       <c r="F97" t="s">
@@ -53996,13 +53999,13 @@
       </c>
     </row>
     <row r="98" spans="1:25">
-      <c r="A98" t="s">
+      <c r="A98" s="692" t="s">
         <v>616</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="692" t="s">
         <v>616</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="692">
         <v>0.22</v>
       </c>
       <c r="T98" t="s">

--- a/MUSCMammoHologic.xlsx
+++ b/MUSCMammoHologic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8190" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QC Test Summary-Hologic" sheetId="11" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="718">
   <si>
     <t>Medical University of South Carolina</t>
   </si>
@@ -3026,6 +3026,15 @@
   </si>
   <si>
     <t>Maximum detector uniformity deviation is &lt;= 7%</t>
+  </si>
+  <si>
+    <t>HCC Breast Imaging Program</t>
+  </si>
+  <si>
+    <t>86 Jonathan Lucas St, Charleston, SC</t>
+  </si>
+  <si>
+    <t>MAN-03706 Rev 007</t>
   </si>
 </sst>
 </file>
@@ -7513,6 +7522,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7522,15 +7537,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7538,6 +7544,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1">
@@ -16694,7 +16703,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:H10"/>
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16769,7 +16778,9 @@
         <v>408</v>
       </c>
       <c r="B4" s="469"/>
-      <c r="C4" s="614"/>
+      <c r="C4" s="614" t="s">
+        <v>715</v>
+      </c>
       <c r="D4" s="615"/>
       <c r="E4" s="615"/>
       <c r="F4" s="615"/>
@@ -16789,7 +16800,9 @@
         <v>410</v>
       </c>
       <c r="B5" s="469"/>
-      <c r="C5" s="614"/>
+      <c r="C5" s="614" t="s">
+        <v>716</v>
+      </c>
       <c r="D5" s="615"/>
       <c r="E5" s="615"/>
       <c r="F5" s="615"/>
@@ -16846,7 +16859,9 @@
       <c r="J7" s="471" t="s">
         <v>416</v>
       </c>
-      <c r="K7" s="614"/>
+      <c r="K7" s="614" t="s">
+        <v>645</v>
+      </c>
       <c r="L7" s="615"/>
       <c r="M7" s="615"/>
       <c r="N7" s="616"/>
@@ -16869,7 +16884,10 @@
       <c r="J8" s="471" t="s">
         <v>418</v>
       </c>
-      <c r="K8" s="614"/>
+      <c r="K8" s="614" t="str">
+        <f>Sheet1!R14</f>
+        <v/>
+      </c>
       <c r="L8" s="615"/>
       <c r="M8" s="615"/>
       <c r="N8" s="616"/>
@@ -16886,7 +16904,9 @@
       <c r="A10" s="472" t="s">
         <v>652</v>
       </c>
-      <c r="D10" s="624"/>
+      <c r="D10" s="624" t="s">
+        <v>717</v>
+      </c>
       <c r="E10" s="625"/>
       <c r="F10" s="625"/>
       <c r="G10" s="625"/>
@@ -17718,7 +17738,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H34:I35">
       <formula1>SpeckMassList</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="D37 D38"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="D37:D38"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
@@ -18898,9 +18918,9 @@
       <c r="A3" s="532" t="s">
         <v>470</v>
       </c>
-      <c r="B3" s="677">
+      <c r="B3" s="677" t="str">
         <f>'QC Test Summary-Hologic'!C4</f>
-        <v>0</v>
+        <v>HCC Breast Imaging Program</v>
       </c>
       <c r="C3" s="677"/>
       <c r="D3" s="677"/>
@@ -22138,9 +22158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q136" sqref="Q136:S137"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -22149,6 +22167,7 @@
     <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="16.5" thickTop="1">
@@ -31868,7 +31887,9 @@
       <c r="X139" s="5"/>
       <c r="Y139" s="15"/>
       <c r="AA139" s="79"/>
-      <c r="AB139" s="361"/>
+      <c r="AB139" s="361" t="s">
+        <v>604</v>
+      </c>
       <c r="AC139" s="362" t="str">
         <f>IF(AB139&lt;&gt;AD139,"Change","")</f>
         <v/>
@@ -31966,7 +31987,9 @@
       <c r="X141" s="5"/>
       <c r="Y141" s="15"/>
       <c r="AA141" s="79"/>
-      <c r="AB141" s="361"/>
+      <c r="AB141" s="361" t="s">
+        <v>604</v>
+      </c>
       <c r="AC141" s="362" t="str">
         <f>IF(AB141&lt;&gt;AD141,"Change","")</f>
         <v/>
@@ -32063,7 +32086,9 @@
       <c r="X143" s="5"/>
       <c r="Y143" s="15"/>
       <c r="AA143" s="79"/>
-      <c r="AB143" s="361"/>
+      <c r="AB143" s="361" t="s">
+        <v>604</v>
+      </c>
       <c r="AC143" s="362" t="str">
         <f>IF(AB143&lt;&gt;AD143,"Change","")</f>
         <v/>
@@ -32157,7 +32182,9 @@
       </c>
       <c r="Y145" s="15"/>
       <c r="AA145" s="79"/>
-      <c r="AB145" s="361"/>
+      <c r="AB145" s="361" t="s">
+        <v>604</v>
+      </c>
       <c r="AC145" s="362" t="str">
         <f>IF(AB145&lt;&gt;AD145,"Change","")</f>
         <v/>
@@ -32281,7 +32308,9 @@
       </c>
       <c r="Y147" s="15"/>
       <c r="AA147" s="79"/>
-      <c r="AB147" s="361"/>
+      <c r="AB147" s="361" t="s">
+        <v>604</v>
+      </c>
       <c r="AC147" s="362" t="str">
         <f>IF(AB147&lt;&gt;AD147,"Change","")</f>
         <v/>
@@ -33600,11 +33629,11 @@
         <v/>
       </c>
       <c r="H174" s="133"/>
-      <c r="I174" s="695" t="str">
+      <c r="I174" s="697" t="str">
         <f>IF(U169="","",U169)</f>
         <v/>
       </c>
-      <c r="J174" s="695"/>
+      <c r="J174" s="697"/>
       <c r="K174" s="5"/>
       <c r="L174" s="41" t="s">
         <v>180</v>
@@ -33781,14 +33810,14 @@
         <f>IF(P172="","",P172)</f>
         <v>70</v>
       </c>
-      <c r="D179" s="696" t="s">
+      <c r="D179" s="698" t="s">
         <v>219</v>
       </c>
-      <c r="E179" s="696"/>
-      <c r="F179" s="696"/>
-      <c r="G179" s="696"/>
-      <c r="H179" s="696"/>
-      <c r="I179" s="696"/>
+      <c r="E179" s="698"/>
+      <c r="F179" s="698"/>
+      <c r="G179" s="698"/>
+      <c r="H179" s="698"/>
+      <c r="I179" s="698"/>
       <c r="J179" s="77"/>
       <c r="K179" s="77"/>
       <c r="L179" s="77"/>
@@ -33825,7 +33854,7 @@
       <c r="H180" s="142" t="s">
         <v>196</v>
       </c>
-      <c r="I180" s="697" t="s">
+      <c r="I180" s="699" t="s">
         <v>198</v>
       </c>
       <c r="J180" s="77"/>
@@ -33866,7 +33895,7 @@
       <c r="H181" s="142" t="s">
         <v>202</v>
       </c>
-      <c r="I181" s="697" t="s">
+      <c r="I181" s="699" t="s">
         <v>202</v>
       </c>
       <c r="J181" s="77"/>
@@ -34357,14 +34386,14 @@
       </c>
       <c r="B189" s="173"/>
       <c r="C189" s="47"/>
-      <c r="D189" s="696" t="s">
+      <c r="D189" s="698" t="s">
         <v>224</v>
       </c>
-      <c r="E189" s="696"/>
-      <c r="F189" s="696"/>
-      <c r="G189" s="696"/>
-      <c r="H189" s="696"/>
-      <c r="I189" s="696"/>
+      <c r="E189" s="698"/>
+      <c r="F189" s="698"/>
+      <c r="G189" s="698"/>
+      <c r="H189" s="698"/>
+      <c r="I189" s="698"/>
       <c r="J189" s="77"/>
       <c r="K189" s="77"/>
       <c r="L189" s="77"/>
@@ -37831,21 +37860,21 @@
       </c>
       <c r="B259" s="39"/>
       <c r="C259" s="5"/>
-      <c r="D259" s="700" t="s">
+      <c r="D259" s="696" t="s">
         <v>263</v>
       </c>
-      <c r="E259" s="700"/>
+      <c r="E259" s="696"/>
       <c r="F259" s="47"/>
-      <c r="G259" s="700" t="s">
+      <c r="G259" s="696" t="s">
         <v>264</v>
       </c>
-      <c r="H259" s="700"/>
+      <c r="H259" s="696"/>
       <c r="I259" s="5"/>
       <c r="J259" s="47"/>
-      <c r="K259" s="701" t="s">
+      <c r="K259" s="700" t="s">
         <v>265</v>
       </c>
-      <c r="L259" s="701"/>
+      <c r="L259" s="700"/>
       <c r="M259" s="78"/>
       <c r="N259" s="5"/>
       <c r="O259" s="13"/>
@@ -40133,14 +40162,14 @@
       <c r="B305" s="173"/>
       <c r="C305" s="77"/>
       <c r="D305" s="77"/>
-      <c r="E305" s="702" t="str">
+      <c r="E305" s="701" t="str">
         <f>O311&amp;" "&amp;P312&amp;" "&amp;Q312</f>
         <v xml:space="preserve">Combo Mode 2D Target/Filter: </v>
       </c>
-      <c r="F305" s="702"/>
-      <c r="G305" s="702"/>
-      <c r="H305" s="702"/>
-      <c r="I305" s="702"/>
+      <c r="F305" s="701"/>
+      <c r="G305" s="701"/>
+      <c r="H305" s="701"/>
+      <c r="I305" s="701"/>
       <c r="J305" s="77"/>
       <c r="K305" s="77"/>
       <c r="L305" s="77"/>
@@ -40639,14 +40668,14 @@
       <c r="B316" s="173"/>
       <c r="C316" s="77"/>
       <c r="D316" s="77"/>
-      <c r="E316" s="703" t="str">
+      <c r="E316" s="702" t="str">
         <f>O323&amp;" "&amp;P324&amp;" "&amp;Q324</f>
         <v xml:space="preserve">Combo Mode 3D Target/Filter: </v>
       </c>
-      <c r="F316" s="703"/>
-      <c r="G316" s="703"/>
-      <c r="H316" s="703"/>
-      <c r="I316" s="703"/>
+      <c r="F316" s="702"/>
+      <c r="G316" s="702"/>
+      <c r="H316" s="702"/>
+      <c r="I316" s="702"/>
       <c r="J316" s="77"/>
       <c r="K316" s="77"/>
       <c r="L316" s="77"/>
@@ -41943,11 +41972,11 @@
       <c r="H343" s="277" t="s">
         <v>305</v>
       </c>
-      <c r="I343" s="698">
+      <c r="I343" s="703">
         <f>IF(T338="","",T338)</f>
         <v>43014</v>
       </c>
-      <c r="J343" s="698"/>
+      <c r="J343" s="703"/>
       <c r="K343" s="33"/>
       <c r="L343" s="33"/>
       <c r="M343" s="35"/>
@@ -42009,11 +42038,11 @@
       <c r="H344" s="226" t="s">
         <v>307</v>
       </c>
-      <c r="I344" s="699">
+      <c r="I344" s="695">
         <f>IF(T339="","",T339)</f>
         <v>43744</v>
       </c>
-      <c r="J344" s="699"/>
+      <c r="J344" s="695"/>
       <c r="K344" s="47"/>
       <c r="L344" s="5"/>
       <c r="M344" s="42"/>

--- a/MUSCMammoHologic.xlsx
+++ b/MUSCMammoHologic.xlsx
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="715">
   <si>
     <t>Medical University of South Carolina</t>
   </si>
@@ -3019,6 +3019,12 @@
   </si>
   <si>
     <t>24x29</t>
+  </si>
+  <si>
+    <t>Bkg</t>
+  </si>
+  <si>
+    <t>Disk</t>
   </si>
 </sst>
 </file>
@@ -7229,18 +7235,87 @@
     <xf numFmtId="2" fontId="37" fillId="15" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="127" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="128" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="129" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="130" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="126" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="127" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="127" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="173" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7250,75 +7325,6 @@
     <xf numFmtId="173" fontId="8" fillId="10" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="10" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="10" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="128" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="129" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="130" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="126" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="127" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7328,6 +7334,27 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="109" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="132" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="110" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7349,26 +7376,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="137" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="109" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="132" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="110" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="139" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7400,9 +7424,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="137" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="137" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="139" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7412,20 +7433,68 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="137" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="37" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7439,73 +7508,10 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7527,885 +7533,78 @@
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
-  <dxfs count="378">
+  <dxfs count="111">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -9048,6 +8247,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -9278,1843 +8484,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -19432,40 +16801,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25">
-      <c r="A1" s="605" t="s">
+      <c r="A1" s="631" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="605"/>
-      <c r="C1" s="605"/>
-      <c r="D1" s="605"/>
-      <c r="E1" s="605"/>
-      <c r="F1" s="605"/>
-      <c r="G1" s="605"/>
-      <c r="H1" s="605"/>
-      <c r="I1" s="605"/>
-      <c r="J1" s="605"/>
-      <c r="K1" s="605"/>
-      <c r="L1" s="605"/>
-      <c r="M1" s="605"/>
-      <c r="N1" s="605"/>
+      <c r="B1" s="631"/>
+      <c r="C1" s="631"/>
+      <c r="D1" s="631"/>
+      <c r="E1" s="631"/>
+      <c r="F1" s="631"/>
+      <c r="G1" s="631"/>
+      <c r="H1" s="631"/>
+      <c r="I1" s="631"/>
+      <c r="J1" s="631"/>
+      <c r="K1" s="631"/>
+      <c r="L1" s="631"/>
+      <c r="M1" s="631"/>
+      <c r="N1" s="631"/>
     </row>
     <row r="2" spans="1:15" ht="26.25">
-      <c r="A2" s="605" t="s">
+      <c r="A2" s="631" t="s">
         <v>645</v>
       </c>
-      <c r="B2" s="605"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="605"/>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="605"/>
-      <c r="J2" s="605"/>
-      <c r="K2" s="605"/>
-      <c r="L2" s="605"/>
-      <c r="M2" s="605"/>
-      <c r="N2" s="605"/>
+      <c r="B2" s="631"/>
+      <c r="C2" s="631"/>
+      <c r="D2" s="631"/>
+      <c r="E2" s="631"/>
+      <c r="F2" s="631"/>
+      <c r="G2" s="631"/>
+      <c r="H2" s="631"/>
+      <c r="I2" s="631"/>
+      <c r="J2" s="631"/>
+      <c r="K2" s="631"/>
+      <c r="L2" s="631"/>
+      <c r="M2" s="631"/>
+      <c r="N2" s="631"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1">
       <c r="A3" s="32"/>
@@ -19488,47 +16857,47 @@
         <v>408</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" s="606" t="s">
+      <c r="C4" s="625" t="s">
         <v>709</v>
       </c>
-      <c r="D4" s="607"/>
-      <c r="E4" s="607"/>
-      <c r="F4" s="607"/>
-      <c r="G4" s="607"/>
-      <c r="H4" s="608"/>
+      <c r="D4" s="626"/>
+      <c r="E4" s="626"/>
+      <c r="F4" s="626"/>
+      <c r="G4" s="626"/>
+      <c r="H4" s="627"/>
       <c r="I4" s="34"/>
       <c r="J4" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="K4" s="609"/>
-      <c r="L4" s="610"/>
-      <c r="M4" s="610"/>
-      <c r="N4" s="611"/>
+      <c r="K4" s="632"/>
+      <c r="L4" s="633"/>
+      <c r="M4" s="633"/>
+      <c r="N4" s="634"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>410</v>
       </c>
       <c r="B5" s="33"/>
-      <c r="C5" s="606" t="s">
+      <c r="C5" s="625" t="s">
         <v>710</v>
       </c>
-      <c r="D5" s="607"/>
-      <c r="E5" s="607"/>
-      <c r="F5" s="607"/>
-      <c r="G5" s="607"/>
-      <c r="H5" s="608"/>
+      <c r="D5" s="626"/>
+      <c r="E5" s="626"/>
+      <c r="F5" s="626"/>
+      <c r="G5" s="626"/>
+      <c r="H5" s="627"/>
       <c r="I5" s="34"/>
       <c r="J5" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="K5" s="609">
+      <c r="K5" s="632">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="610"/>
-      <c r="M5" s="610"/>
-      <c r="N5" s="611"/>
+      <c r="L5" s="633"/>
+      <c r="M5" s="633"/>
+      <c r="N5" s="634"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1">
       <c r="A6" s="33" t="s">
@@ -19536,21 +16905,21 @@
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="606" t="s">
+      <c r="D6" s="625" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="607"/>
-      <c r="F6" s="607"/>
-      <c r="G6" s="607"/>
-      <c r="H6" s="608"/>
+      <c r="E6" s="626"/>
+      <c r="F6" s="626"/>
+      <c r="G6" s="626"/>
+      <c r="H6" s="627"/>
       <c r="I6" s="34"/>
       <c r="J6" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="K6" s="606"/>
-      <c r="L6" s="607"/>
-      <c r="M6" s="607"/>
-      <c r="N6" s="608"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="626"/>
+      <c r="M6" s="626"/>
+      <c r="N6" s="627"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="A7" s="33" t="s">
@@ -19558,23 +16927,23 @@
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="606" t="s">
+      <c r="D7" s="625" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="607"/>
-      <c r="F7" s="607"/>
-      <c r="G7" s="607"/>
-      <c r="H7" s="608"/>
+      <c r="E7" s="626"/>
+      <c r="F7" s="626"/>
+      <c r="G7" s="626"/>
+      <c r="H7" s="627"/>
       <c r="I7" s="34"/>
       <c r="J7" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="K7" s="606" t="s">
+      <c r="K7" s="625" t="s">
         <v>639</v>
       </c>
-      <c r="L7" s="607"/>
-      <c r="M7" s="607"/>
-      <c r="N7" s="608"/>
+      <c r="L7" s="626"/>
+      <c r="M7" s="626"/>
+      <c r="N7" s="627"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1">
       <c r="A8" s="33" t="s">
@@ -19582,25 +16951,25 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="612" t="str">
+      <c r="D8" s="628" t="str">
         <f>Sheet1!K16</f>
         <v/>
       </c>
-      <c r="E8" s="613"/>
-      <c r="F8" s="613"/>
-      <c r="G8" s="613"/>
-      <c r="H8" s="614"/>
+      <c r="E8" s="629"/>
+      <c r="F8" s="629"/>
+      <c r="G8" s="629"/>
+      <c r="H8" s="630"/>
       <c r="I8" s="34"/>
       <c r="J8" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="K8" s="606" t="str">
+      <c r="K8" s="625" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="L8" s="607"/>
-      <c r="M8" s="607"/>
-      <c r="N8" s="608"/>
+      <c r="L8" s="626"/>
+      <c r="M8" s="626"/>
+      <c r="N8" s="627"/>
     </row>
     <row r="9" spans="1:15" ht="11.25" customHeight="1">
       <c r="A9" s="36"/>
@@ -19614,13 +16983,13 @@
       <c r="A10" s="36" t="s">
         <v>646</v>
       </c>
-      <c r="D10" s="616" t="s">
+      <c r="D10" s="612" t="s">
         <v>711</v>
       </c>
-      <c r="E10" s="617"/>
-      <c r="F10" s="617"/>
-      <c r="G10" s="617"/>
-      <c r="H10" s="618"/>
+      <c r="E10" s="613"/>
+      <c r="F10" s="613"/>
+      <c r="G10" s="613"/>
+      <c r="H10" s="614"/>
       <c r="I10" s="38" t="s">
         <v>647</v>
       </c>
@@ -19646,25 +17015,25 @@
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="619" t="s">
+      <c r="D12" s="615" t="s">
         <v>421</v>
       </c>
-      <c r="E12" s="619"/>
-      <c r="F12" s="619"/>
-      <c r="G12" s="619" t="s">
+      <c r="E12" s="615"/>
+      <c r="F12" s="615"/>
+      <c r="G12" s="615" t="s">
         <v>416</v>
       </c>
-      <c r="H12" s="619"/>
-      <c r="I12" s="619" t="s">
+      <c r="H12" s="615"/>
+      <c r="I12" s="615" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="619"/>
-      <c r="K12" s="619" t="s">
+      <c r="J12" s="615"/>
+      <c r="K12" s="615" t="s">
         <v>419</v>
       </c>
-      <c r="L12" s="619"/>
-      <c r="M12" s="619"/>
-      <c r="N12" s="619"/>
+      <c r="L12" s="615"/>
+      <c r="M12" s="615"/>
+      <c r="N12" s="615"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="33"/>
@@ -19672,63 +17041,63 @@
       <c r="C13" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="D13" s="620" t="s">
+      <c r="D13" s="616" t="s">
         <v>683</v>
       </c>
-      <c r="E13" s="621"/>
-      <c r="F13" s="622"/>
-      <c r="G13" s="620" t="s">
+      <c r="E13" s="617"/>
+      <c r="F13" s="618"/>
+      <c r="G13" s="616" t="s">
         <v>684</v>
       </c>
-      <c r="H13" s="622"/>
-      <c r="I13" s="623"/>
-      <c r="J13" s="624"/>
-      <c r="K13" s="620" t="s">
+      <c r="H13" s="618"/>
+      <c r="I13" s="619"/>
+      <c r="J13" s="620"/>
+      <c r="K13" s="616" t="s">
         <v>685</v>
       </c>
-      <c r="L13" s="621"/>
-      <c r="M13" s="621"/>
-      <c r="N13" s="622"/>
+      <c r="L13" s="617"/>
+      <c r="M13" s="617"/>
+      <c r="N13" s="618"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1">
       <c r="C14" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="D14" s="625" t="s">
+      <c r="D14" s="621" t="s">
         <v>683</v>
       </c>
-      <c r="E14" s="626"/>
-      <c r="F14" s="627"/>
-      <c r="G14" s="625" t="s">
+      <c r="E14" s="622"/>
+      <c r="F14" s="623"/>
+      <c r="G14" s="621" t="s">
         <v>686</v>
       </c>
-      <c r="H14" s="627"/>
-      <c r="I14" s="616"/>
-      <c r="J14" s="618"/>
-      <c r="K14" s="625" t="s">
+      <c r="H14" s="623"/>
+      <c r="I14" s="612"/>
+      <c r="J14" s="614"/>
+      <c r="K14" s="621" t="s">
         <v>687</v>
       </c>
-      <c r="L14" s="626"/>
-      <c r="M14" s="626"/>
-      <c r="N14" s="627"/>
+      <c r="L14" s="622"/>
+      <c r="M14" s="622"/>
+      <c r="N14" s="623"/>
     </row>
     <row r="15" spans="1:15" s="41" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="628" t="s">
+      <c r="A15" s="624" t="s">
         <v>648</v>
       </c>
-      <c r="B15" s="628"/>
-      <c r="C15" s="628"/>
-      <c r="D15" s="628"/>
-      <c r="E15" s="628"/>
-      <c r="F15" s="628"/>
-      <c r="G15" s="628"/>
-      <c r="H15" s="628"/>
-      <c r="I15" s="628"/>
-      <c r="J15" s="628"/>
-      <c r="K15" s="628"/>
-      <c r="L15" s="628"/>
-      <c r="M15" s="628"/>
-      <c r="N15" s="628"/>
+      <c r="B15" s="624"/>
+      <c r="C15" s="624"/>
+      <c r="D15" s="624"/>
+      <c r="E15" s="624"/>
+      <c r="F15" s="624"/>
+      <c r="G15" s="624"/>
+      <c r="H15" s="624"/>
+      <c r="I15" s="624"/>
+      <c r="J15" s="624"/>
+      <c r="K15" s="624"/>
+      <c r="L15" s="624"/>
+      <c r="M15" s="624"/>
+      <c r="N15" s="624"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1">
       <c r="A16" s="36" t="s">
@@ -19790,46 +17159,46 @@
       <c r="L18" s="57"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="615" t="s">
+      <c r="A19" s="611" t="s">
         <v>426</v>
       </c>
-      <c r="B19" s="615"/>
-      <c r="C19" s="615"/>
-      <c r="D19" s="615"/>
-      <c r="E19" s="615"/>
-      <c r="F19" s="615"/>
-      <c r="G19" s="615"/>
-      <c r="H19" s="615"/>
-      <c r="I19" s="615"/>
-      <c r="J19" s="615"/>
-      <c r="K19" s="615"/>
-      <c r="L19" s="615"/>
-      <c r="M19" s="615"/>
-      <c r="N19" s="615"/>
+      <c r="B19" s="611"/>
+      <c r="C19" s="611"/>
+      <c r="D19" s="611"/>
+      <c r="E19" s="611"/>
+      <c r="F19" s="611"/>
+      <c r="G19" s="611"/>
+      <c r="H19" s="611"/>
+      <c r="I19" s="611"/>
+      <c r="J19" s="611"/>
+      <c r="K19" s="611"/>
+      <c r="L19" s="611"/>
+      <c r="M19" s="611"/>
+      <c r="N19" s="611"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="631" t="s">
+      <c r="A20" s="609" t="s">
         <v>427</v>
       </c>
-      <c r="B20" s="631"/>
-      <c r="C20" s="631"/>
-      <c r="D20" s="631"/>
-      <c r="E20" s="631"/>
-      <c r="F20" s="631"/>
-      <c r="G20" s="631"/>
-      <c r="H20" s="631"/>
-      <c r="I20" s="631"/>
-      <c r="J20" s="631"/>
-      <c r="K20" s="631"/>
-      <c r="L20" s="631"/>
-      <c r="M20" s="631"/>
-      <c r="N20" s="631"/>
+      <c r="B20" s="609"/>
+      <c r="C20" s="609"/>
+      <c r="D20" s="609"/>
+      <c r="E20" s="609"/>
+      <c r="F20" s="609"/>
+      <c r="G20" s="609"/>
+      <c r="H20" s="609"/>
+      <c r="I20" s="609"/>
+      <c r="J20" s="609"/>
+      <c r="K20" s="609"/>
+      <c r="L20" s="609"/>
+      <c r="M20" s="609"/>
+      <c r="N20" s="609"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
-      <c r="M21" s="632" t="s">
+      <c r="M21" s="610" t="s">
         <v>428</v>
       </c>
-      <c r="N21" s="632"/>
+      <c r="N21" s="610"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="58" t="s">
@@ -19846,8 +17215,8 @@
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="629"/>
-      <c r="N22" s="630"/>
+      <c r="M22" s="606"/>
+      <c r="N22" s="607"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="58" t="s">
@@ -19864,8 +17233,8 @@
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
-      <c r="M23" s="629"/>
-      <c r="N23" s="630"/>
+      <c r="M23" s="606"/>
+      <c r="N23" s="607"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="58" t="s">
@@ -19882,8 +17251,8 @@
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
-      <c r="M24" s="629"/>
-      <c r="N24" s="630"/>
+      <c r="M24" s="606"/>
+      <c r="N24" s="607"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="58" t="s">
@@ -19900,8 +17269,8 @@
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
-      <c r="M25" s="629"/>
-      <c r="N25" s="630"/>
+      <c r="M25" s="606"/>
+      <c r="N25" s="607"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="58" t="s">
@@ -19918,8 +17287,8 @@
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
-      <c r="M26" s="629"/>
-      <c r="N26" s="630"/>
+      <c r="M26" s="606"/>
+      <c r="N26" s="607"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="58" t="s">
@@ -19936,8 +17305,8 @@
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
-      <c r="M27" s="629"/>
-      <c r="N27" s="630"/>
+      <c r="M27" s="606"/>
+      <c r="N27" s="607"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="58" t="s">
@@ -19954,8 +17323,8 @@
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
-      <c r="M28" s="629"/>
-      <c r="N28" s="630"/>
+      <c r="M28" s="606"/>
+      <c r="N28" s="607"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="58" t="s">
@@ -19987,8 +17356,8 @@
       <c r="L30" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="M30" s="629"/>
-      <c r="N30" s="630"/>
+      <c r="M30" s="606"/>
+      <c r="N30" s="607"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="33"/>
@@ -20010,8 +17379,8 @@
       <c r="L31" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="M31" s="629"/>
-      <c r="N31" s="630"/>
+      <c r="M31" s="606"/>
+      <c r="N31" s="607"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
@@ -20028,8 +17397,8 @@
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
-      <c r="M32" s="629"/>
-      <c r="N32" s="630"/>
+      <c r="M32" s="606"/>
+      <c r="N32" s="607"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="33" t="s">
@@ -20074,8 +17443,8 @@
       </c>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
-      <c r="M34" s="629"/>
-      <c r="N34" s="630"/>
+      <c r="M34" s="606"/>
+      <c r="N34" s="607"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="C35" s="63" t="s">
@@ -20097,8 +17466,8 @@
         <v/>
       </c>
       <c r="L35" s="37"/>
-      <c r="M35" s="629"/>
-      <c r="N35" s="630"/>
+      <c r="M35" s="606"/>
+      <c r="N35" s="607"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="33" t="s">
@@ -20124,9 +17493,9 @@
       <c r="C37" s="42" t="s">
         <v>659</v>
       </c>
-      <c r="D37" s="147" t="str">
+      <c r="D37" s="147" t="e">
         <f>Sheet1!T458</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="59"/>
@@ -20136,8 +17505,8 @@
       <c r="J37" s="67"/>
       <c r="K37" s="72"/>
       <c r="L37" s="72"/>
-      <c r="M37" s="629"/>
-      <c r="N37" s="630"/>
+      <c r="M37" s="606"/>
+      <c r="N37" s="607"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="33"/>
@@ -20145,9 +17514,9 @@
       <c r="C38" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="D38" s="147" t="str">
+      <c r="D38" s="147" t="e">
         <f>Sheet1!T459</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E38" s="73" t="s">
         <v>661</v>
@@ -20177,8 +17546,8 @@
       <c r="J39" s="67"/>
       <c r="K39" s="72"/>
       <c r="L39" s="72"/>
-      <c r="M39" s="629"/>
-      <c r="N39" s="630"/>
+      <c r="M39" s="606"/>
+      <c r="N39" s="607"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="33" t="s">
@@ -20195,8 +17564,8 @@
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
-      <c r="M40" s="629"/>
-      <c r="N40" s="630"/>
+      <c r="M40" s="606"/>
+      <c r="N40" s="607"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="33" t="s">
@@ -20213,8 +17582,8 @@
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
-      <c r="M41" s="629"/>
-      <c r="N41" s="630"/>
+      <c r="M41" s="606"/>
+      <c r="N41" s="607"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="33" t="s">
@@ -20231,8 +17600,8 @@
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
-      <c r="M42" s="629"/>
-      <c r="N42" s="630"/>
+      <c r="M42" s="606"/>
+      <c r="N42" s="607"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="58" t="s">
@@ -20249,8 +17618,8 @@
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
       <c r="L43" s="33"/>
-      <c r="M43" s="629"/>
-      <c r="N43" s="634"/>
+      <c r="M43" s="606"/>
+      <c r="N43" s="608"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="33" t="s">
@@ -20267,8 +17636,8 @@
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
-      <c r="M44" s="629"/>
-      <c r="N44" s="630"/>
+      <c r="M44" s="606"/>
+      <c r="N44" s="607"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="33" t="s">
@@ -20285,8 +17654,8 @@
       <c r="J45" s="33"/>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
-      <c r="M45" s="629"/>
-      <c r="N45" s="630"/>
+      <c r="M45" s="606"/>
+      <c r="N45" s="607"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="33" t="s">
@@ -20303,8 +17672,8 @@
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
       <c r="L46" s="33"/>
-      <c r="M46" s="629"/>
-      <c r="N46" s="630"/>
+      <c r="M46" s="606"/>
+      <c r="N46" s="607"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="33"/>
@@ -20323,49 +17692,37 @@
       <c r="N47" s="72"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="633" t="s">
+      <c r="A48" s="605" t="s">
         <v>670</v>
       </c>
-      <c r="B48" s="633"/>
-      <c r="C48" s="633"/>
-      <c r="D48" s="633"/>
-      <c r="E48" s="633"/>
-      <c r="F48" s="633"/>
-      <c r="G48" s="633"/>
-      <c r="H48" s="633"/>
-      <c r="I48" s="633"/>
-      <c r="J48" s="633"/>
-      <c r="K48" s="633"/>
-      <c r="L48" s="633"/>
-      <c r="M48" s="633"/>
-      <c r="N48" s="633"/>
+      <c r="B48" s="605"/>
+      <c r="C48" s="605"/>
+      <c r="D48" s="605"/>
+      <c r="E48" s="605"/>
+      <c r="F48" s="605"/>
+      <c r="G48" s="605"/>
+      <c r="H48" s="605"/>
+      <c r="I48" s="605"/>
+      <c r="J48" s="605"/>
+      <c r="K48" s="605"/>
+      <c r="L48" s="605"/>
+      <c r="M48" s="605"/>
+      <c r="N48" s="605"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="K8:N8"/>
     <mergeCell ref="A19:N19"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D12:F12"/>
@@ -20381,51 +17738,63 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="A15:N15"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
   </mergeCells>
   <conditionalFormatting sqref="M22:N28 M32:N32 M37:N37 M39:N40 M42:N42 M44:N45 M43">
-    <cfRule type="cellIs" dxfId="377" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41">
-    <cfRule type="cellIs" dxfId="376" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:N34">
-    <cfRule type="cellIs" dxfId="375" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:N31">
-    <cfRule type="cellIs" dxfId="374" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:N35">
-    <cfRule type="cellIs" dxfId="373" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:N30">
-    <cfRule type="cellIs" dxfId="372" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46:N46">
-    <cfRule type="cellIs" dxfId="371" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20668,69 +18037,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="638" t="s">
+      <c r="A1" s="645" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="638"/>
-      <c r="C1" s="638"/>
-      <c r="D1" s="638"/>
-      <c r="E1" s="638"/>
-      <c r="F1" s="638"/>
-      <c r="G1" s="638"/>
-      <c r="H1" s="638"/>
-      <c r="I1" s="638"/>
-      <c r="J1" s="638"/>
-      <c r="K1" s="638"/>
-      <c r="L1" s="638"/>
+      <c r="B1" s="645"/>
+      <c r="C1" s="645"/>
+      <c r="D1" s="645"/>
+      <c r="E1" s="645"/>
+      <c r="F1" s="645"/>
+      <c r="G1" s="645"/>
+      <c r="H1" s="645"/>
+      <c r="I1" s="645"/>
+      <c r="J1" s="645"/>
+      <c r="K1" s="645"/>
+      <c r="L1" s="645"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="639" t="s">
+      <c r="A2" s="646" t="s">
         <v>671</v>
       </c>
-      <c r="B2" s="640"/>
-      <c r="C2" s="640"/>
-      <c r="D2" s="640"/>
-      <c r="E2" s="640"/>
-      <c r="F2" s="640"/>
-      <c r="G2" s="640"/>
-      <c r="H2" s="640"/>
-      <c r="I2" s="640"/>
-      <c r="J2" s="640"/>
-      <c r="K2" s="640"/>
-      <c r="L2" s="640"/>
+      <c r="B2" s="647"/>
+      <c r="C2" s="647"/>
+      <c r="D2" s="647"/>
+      <c r="E2" s="647"/>
+      <c r="F2" s="647"/>
+      <c r="G2" s="647"/>
+      <c r="H2" s="647"/>
+      <c r="I2" s="647"/>
+      <c r="J2" s="647"/>
+      <c r="K2" s="647"/>
+      <c r="L2" s="647"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:12" ht="24" customHeight="1">
-      <c r="A4" s="641" t="s">
+      <c r="A4" s="648" t="s">
         <v>442</v>
       </c>
-      <c r="B4" s="641"/>
-      <c r="C4" s="641"/>
-      <c r="D4" s="641"/>
-      <c r="E4" s="641"/>
-      <c r="F4" s="641"/>
-      <c r="G4" s="641"/>
-      <c r="H4" s="641"/>
-      <c r="I4" s="641"/>
-      <c r="J4" s="641"/>
-      <c r="K4" s="641"/>
-      <c r="L4" s="641"/>
+      <c r="B4" s="648"/>
+      <c r="C4" s="648"/>
+      <c r="D4" s="648"/>
+      <c r="E4" s="648"/>
+      <c r="F4" s="648"/>
+      <c r="G4" s="648"/>
+      <c r="H4" s="648"/>
+      <c r="I4" s="648"/>
+      <c r="J4" s="648"/>
+      <c r="K4" s="648"/>
+      <c r="L4" s="648"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="642" t="s">
+      <c r="A5" s="649" t="s">
         <v>672</v>
       </c>
-      <c r="B5" s="642"/>
-      <c r="C5" s="642"/>
-      <c r="D5" s="642"/>
-      <c r="E5" s="642"/>
-      <c r="F5" s="642"/>
-      <c r="G5" s="642"/>
-      <c r="H5" s="642"/>
-      <c r="I5" s="642"/>
-      <c r="J5" s="642"/>
-      <c r="K5" s="642"/>
-      <c r="L5" s="642"/>
+      <c r="B5" s="649"/>
+      <c r="C5" s="649"/>
+      <c r="D5" s="649"/>
+      <c r="E5" s="649"/>
+      <c r="F5" s="649"/>
+      <c r="G5" s="649"/>
+      <c r="H5" s="649"/>
+      <c r="I5" s="649"/>
+      <c r="J5" s="649"/>
+      <c r="K5" s="649"/>
+      <c r="L5" s="649"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="75" t="s">
@@ -20765,9 +18134,9 @@
       <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="643"/>
-      <c r="K8" s="643"/>
-      <c r="L8" s="643"/>
+      <c r="J8" s="650"/>
+      <c r="K8" s="650"/>
+      <c r="L8" s="650"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="37"/>
@@ -20776,11 +18145,11 @@
         <v>443</v>
       </c>
       <c r="I9" s="54"/>
-      <c r="J9" s="644" t="s">
+      <c r="J9" s="651" t="s">
         <v>428</v>
       </c>
-      <c r="K9" s="644"/>
-      <c r="L9" s="644"/>
+      <c r="K9" s="651"/>
+      <c r="L9" s="651"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="84" t="s">
@@ -20971,52 +18340,52 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:12" ht="24" customHeight="1">
-      <c r="A24" s="645" t="s">
+      <c r="A24" s="638" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="645"/>
-      <c r="C24" s="645"/>
-      <c r="D24" s="645"/>
-      <c r="E24" s="645"/>
-      <c r="F24" s="645"/>
-      <c r="G24" s="645"/>
-      <c r="H24" s="645"/>
-      <c r="I24" s="645"/>
-      <c r="J24" s="645"/>
-      <c r="K24" s="645"/>
-      <c r="L24" s="645"/>
+      <c r="B24" s="638"/>
+      <c r="C24" s="638"/>
+      <c r="D24" s="638"/>
+      <c r="E24" s="638"/>
+      <c r="F24" s="638"/>
+      <c r="G24" s="638"/>
+      <c r="H24" s="638"/>
+      <c r="I24" s="638"/>
+      <c r="J24" s="638"/>
+      <c r="K24" s="638"/>
+      <c r="L24" s="638"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1"/>
     <row r="26" spans="1:12" ht="241.5" customHeight="1">
-      <c r="A26" s="646"/>
-      <c r="B26" s="647"/>
-      <c r="C26" s="647"/>
-      <c r="D26" s="647"/>
-      <c r="E26" s="647"/>
-      <c r="F26" s="647"/>
-      <c r="G26" s="647"/>
-      <c r="H26" s="647"/>
-      <c r="I26" s="647"/>
-      <c r="J26" s="647"/>
-      <c r="K26" s="647"/>
-      <c r="L26" s="648"/>
+      <c r="A26" s="639"/>
+      <c r="B26" s="640"/>
+      <c r="C26" s="640"/>
+      <c r="D26" s="640"/>
+      <c r="E26" s="640"/>
+      <c r="F26" s="640"/>
+      <c r="G26" s="640"/>
+      <c r="H26" s="640"/>
+      <c r="I26" s="640"/>
+      <c r="J26" s="640"/>
+      <c r="K26" s="640"/>
+      <c r="L26" s="641"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1"/>
     <row r="28" spans="1:12" ht="204.75" customHeight="1" thickBot="1">
-      <c r="A28" s="649" t="s">
+      <c r="A28" s="642" t="s">
         <v>682</v>
       </c>
-      <c r="B28" s="650"/>
-      <c r="C28" s="650"/>
-      <c r="D28" s="650"/>
-      <c r="E28" s="650"/>
-      <c r="F28" s="650"/>
-      <c r="G28" s="650"/>
-      <c r="H28" s="650"/>
-      <c r="I28" s="650"/>
-      <c r="J28" s="650"/>
-      <c r="K28" s="650"/>
-      <c r="L28" s="651"/>
+      <c r="B28" s="643"/>
+      <c r="C28" s="643"/>
+      <c r="D28" s="643"/>
+      <c r="E28" s="643"/>
+      <c r="F28" s="643"/>
+      <c r="G28" s="643"/>
+      <c r="H28" s="643"/>
+      <c r="I28" s="643"/>
+      <c r="J28" s="643"/>
+      <c r="K28" s="643"/>
+      <c r="L28" s="644"/>
     </row>
     <row r="33" spans="2:12" ht="18" customHeight="1">
       <c r="B33" s="33"/>
@@ -21033,16 +18402,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -21055,14 +18414,24 @@
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
   </mergeCells>
   <conditionalFormatting sqref="J22:L22 J20 J10:L19">
-    <cfRule type="cellIs" dxfId="370" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:L21">
-    <cfRule type="cellIs" dxfId="369" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21609,13 +18978,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="667" t="s">
+      <c r="A1" s="654" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="668"/>
-      <c r="C1" s="668"/>
-      <c r="D1" s="668"/>
-      <c r="E1" s="668"/>
+      <c r="B1" s="655"/>
+      <c r="C1" s="655"/>
+      <c r="D1" s="655"/>
+      <c r="E1" s="655"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="92"/>
@@ -21628,23 +18997,23 @@
       <c r="A3" s="93" t="s">
         <v>470</v>
       </c>
-      <c r="B3" s="669" t="str">
+      <c r="B3" s="656" t="str">
         <f>'QC Test Summary-Hologic'!C4</f>
         <v>HCC Breast Imaging Program</v>
       </c>
-      <c r="C3" s="669"/>
-      <c r="D3" s="669"/>
-      <c r="E3" s="669"/>
+      <c r="C3" s="656"/>
+      <c r="D3" s="656"/>
+      <c r="E3" s="656"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="93" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="670" t="str">
+      <c r="B4" s="657" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="670"/>
+      <c r="C4" s="657"/>
       <c r="D4" s="94" t="s">
         <v>23</v>
       </c>
@@ -21674,11 +19043,11 @@
       <c r="A6" s="93" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="670" t="str">
+      <c r="B6" s="657" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="670"/>
+      <c r="C6" s="657"/>
       <c r="D6" s="94" t="s">
         <v>475</v>
       </c>
@@ -21691,8 +19060,8 @@
       <c r="A7" s="93" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="670"/>
-      <c r="C7" s="670"/>
+      <c r="B7" s="657"/>
+      <c r="C7" s="657"/>
       <c r="D7" s="94" t="s">
         <v>477</v>
       </c>
@@ -21720,7 +19089,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="666" t="s">
+      <c r="A10" s="652" t="s">
         <v>482</v>
       </c>
       <c r="B10" s="101" t="s">
@@ -21735,7 +19104,7 @@
       <c r="E10" s="104"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="662"/>
+      <c r="A11" s="653"/>
       <c r="B11" s="105" t="s">
         <v>486</v>
       </c>
@@ -21748,7 +19117,7 @@
       <c r="E11" s="108"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="657" t="s">
+      <c r="A12" s="663" t="s">
         <v>488</v>
       </c>
       <c r="B12" s="109" t="s">
@@ -21763,7 +19132,7 @@
       <c r="E12" s="112"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="658"/>
+      <c r="A13" s="664"/>
       <c r="B13" s="113" t="s">
         <v>492</v>
       </c>
@@ -21776,7 +19145,7 @@
       <c r="E13" s="116"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="659"/>
+      <c r="A14" s="665"/>
       <c r="B14" s="117" t="s">
         <v>494</v>
       </c>
@@ -21789,7 +19158,7 @@
       <c r="E14" s="119"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="660" t="s">
+      <c r="A15" s="666" t="s">
         <v>496</v>
       </c>
       <c r="B15" s="120" t="s">
@@ -21804,7 +19173,7 @@
       <c r="E15" s="122"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="661"/>
+      <c r="A16" s="667"/>
       <c r="B16" s="105" t="s">
         <v>499</v>
       </c>
@@ -21817,7 +19186,7 @@
       <c r="E16" s="124"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="652" t="s">
+      <c r="A17" s="658" t="s">
         <v>502</v>
       </c>
       <c r="B17" s="125" t="s">
@@ -21832,7 +19201,7 @@
       <c r="E17" s="126"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="662"/>
+      <c r="A18" s="653"/>
       <c r="B18" s="127" t="s">
         <v>505</v>
       </c>
@@ -21845,7 +19214,7 @@
       <c r="E18" s="108"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="663" t="s">
+      <c r="A19" s="668" t="s">
         <v>507</v>
       </c>
       <c r="B19" s="125" t="s">
@@ -21860,7 +19229,7 @@
       <c r="E19" s="126"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="664"/>
+      <c r="A20" s="669"/>
       <c r="B20" s="129" t="s">
         <v>510</v>
       </c>
@@ -21873,7 +19242,7 @@
       <c r="E20" s="131"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="665"/>
+      <c r="A21" s="670"/>
       <c r="B21" s="127" t="s">
         <v>512</v>
       </c>
@@ -21886,7 +19255,7 @@
       <c r="E21" s="108"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="652" t="s">
+      <c r="A22" s="658" t="s">
         <v>514</v>
       </c>
       <c r="B22" s="125" t="s">
@@ -21901,7 +19270,7 @@
       <c r="E22" s="126"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="662"/>
+      <c r="A23" s="653"/>
       <c r="B23" s="105" t="s">
         <v>517</v>
       </c>
@@ -21914,7 +19283,7 @@
       <c r="E23" s="124"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="663" t="s">
+      <c r="A24" s="668" t="s">
         <v>519</v>
       </c>
       <c r="B24" s="125" t="s">
@@ -21929,7 +19298,7 @@
       <c r="E24" s="126"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="664"/>
+      <c r="A25" s="669"/>
       <c r="B25" s="129" t="s">
         <v>522</v>
       </c>
@@ -21942,7 +19311,7 @@
       <c r="E25" s="131"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="664"/>
+      <c r="A26" s="669"/>
       <c r="B26" s="132" t="s">
         <v>524</v>
       </c>
@@ -21955,7 +19324,7 @@
       <c r="E26" s="131"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="664"/>
+      <c r="A27" s="669"/>
       <c r="B27" s="132" t="s">
         <v>526</v>
       </c>
@@ -21968,7 +19337,7 @@
       <c r="E27" s="131"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="665"/>
+      <c r="A28" s="670"/>
       <c r="B28" s="133" t="s">
         <v>528</v>
       </c>
@@ -21981,7 +19350,7 @@
       <c r="E28" s="124"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="652" t="s">
+      <c r="A29" s="658" t="s">
         <v>530</v>
       </c>
       <c r="B29" s="134" t="s">
@@ -21996,7 +19365,7 @@
       <c r="E29" s="126"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="653"/>
+      <c r="A30" s="659"/>
       <c r="B30" s="132" t="s">
         <v>533</v>
       </c>
@@ -22009,7 +19378,7 @@
       <c r="E30" s="131"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="654"/>
+      <c r="A31" s="660"/>
       <c r="B31" s="133" t="s">
         <v>535</v>
       </c>
@@ -22022,7 +19391,7 @@
       <c r="E31" s="124"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="652" t="s">
+      <c r="A32" s="658" t="s">
         <v>537</v>
       </c>
       <c r="B32" s="134" t="s">
@@ -22037,7 +19406,7 @@
       <c r="E32" s="126"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="653"/>
+      <c r="A33" s="659"/>
       <c r="B33" s="132" t="s">
         <v>540</v>
       </c>
@@ -22050,7 +19419,7 @@
       <c r="E33" s="131"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="654"/>
+      <c r="A34" s="660"/>
       <c r="B34" s="133" t="s">
         <v>541</v>
       </c>
@@ -22138,13 +19507,13 @@
       <c r="E39" s="108"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="655" t="s">
+      <c r="A40" s="661" t="s">
         <v>695</v>
       </c>
-      <c r="B40" s="656"/>
-      <c r="C40" s="656"/>
-      <c r="D40" s="656"/>
-      <c r="E40" s="656"/>
+      <c r="B40" s="662"/>
+      <c r="C40" s="662"/>
+      <c r="D40" s="662"/>
+      <c r="E40" s="662"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="143"/>
@@ -22841,12 +20210,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -22856,6 +20219,12 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -25306,21 +22675,21 @@
       <c r="E10" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="679" t="str">
+      <c r="F10" s="689" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="679"/>
+      <c r="G10" s="689"/>
       <c r="H10" s="155"/>
       <c r="I10" s="155"/>
       <c r="J10" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="679" t="str">
+      <c r="K10" s="689" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="679"/>
+      <c r="L10" s="689"/>
       <c r="M10" s="205"/>
       <c r="N10" s="155"/>
       <c r="O10" s="165"/>
@@ -25390,21 +22759,21 @@
       <c r="E11" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="680" t="str">
+      <c r="F11" s="691" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="680"/>
+      <c r="G11" s="691"/>
       <c r="H11" s="155"/>
       <c r="I11" s="155"/>
       <c r="J11" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="679" t="str">
+      <c r="K11" s="689" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="679"/>
+      <c r="L11" s="689"/>
       <c r="M11" s="205"/>
       <c r="N11" s="155"/>
       <c r="O11" s="165"/>
@@ -25474,21 +22843,21 @@
       <c r="E12" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="680" t="str">
+      <c r="F12" s="691" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="680"/>
+      <c r="G12" s="691"/>
       <c r="H12" s="155"/>
       <c r="I12" s="155"/>
       <c r="J12" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="681" t="str">
+      <c r="K12" s="690" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="681"/>
+      <c r="L12" s="690"/>
       <c r="M12" s="205"/>
       <c r="N12" s="155"/>
       <c r="O12" s="165"/>
@@ -25558,21 +22927,21 @@
       <c r="E13" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="680" t="str">
+      <c r="F13" s="691" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="680"/>
+      <c r="G13" s="691"/>
       <c r="H13" s="155"/>
       <c r="I13" s="155"/>
       <c r="J13" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="679" t="str">
+      <c r="K13" s="689" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="679"/>
+      <c r="L13" s="689"/>
       <c r="M13" s="205"/>
       <c r="N13" s="155"/>
       <c r="O13" s="165"/>
@@ -25782,21 +23151,21 @@
       <c r="E16" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="679" t="str">
+      <c r="F16" s="689" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="679"/>
+      <c r="G16" s="689"/>
       <c r="H16" s="155"/>
       <c r="I16" s="155"/>
       <c r="J16" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="681" t="str">
+      <c r="K16" s="690" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="681"/>
+      <c r="L16" s="690"/>
       <c r="M16" s="205"/>
       <c r="N16" s="155"/>
       <c r="O16" s="165"/>
@@ -25858,21 +23227,21 @@
       <c r="E17" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="679" t="str">
+      <c r="F17" s="689" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="679"/>
+      <c r="G17" s="689"/>
       <c r="H17" s="155"/>
       <c r="I17" s="155"/>
       <c r="J17" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="679" t="str">
+      <c r="K17" s="689" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="679"/>
+      <c r="L17" s="689"/>
       <c r="M17" s="205"/>
       <c r="N17" s="155"/>
       <c r="O17" s="165"/>
@@ -25942,21 +23311,21 @@
       <c r="E18" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="679" t="str">
+      <c r="F18" s="689" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="679"/>
+      <c r="G18" s="689"/>
       <c r="H18" s="155"/>
       <c r="I18" s="155"/>
       <c r="J18" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="679" t="str">
+      <c r="K18" s="689" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="679"/>
+      <c r="L18" s="689"/>
       <c r="M18" s="205"/>
       <c r="N18" s="155"/>
       <c r="O18" s="165"/>
@@ -26160,21 +23529,21 @@
       <c r="E21" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="679" t="str">
+      <c r="F21" s="689" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="679"/>
+      <c r="G21" s="689"/>
       <c r="H21" s="155"/>
       <c r="I21" s="155"/>
       <c r="J21" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="679" t="str">
+      <c r="K21" s="689" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="679"/>
+      <c r="L21" s="689"/>
       <c r="M21" s="205"/>
       <c r="N21" s="155"/>
       <c r="O21" s="165"/>
@@ -26241,19 +23610,19 @@
       <c r="E22" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="681" t="str">
+      <c r="F22" s="690" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="681"/>
+      <c r="G22" s="690"/>
       <c r="H22" s="155"/>
       <c r="I22" s="155"/>
       <c r="J22" s="171"/>
-      <c r="K22" s="679" t="str">
+      <c r="K22" s="689" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="679"/>
+      <c r="L22" s="689"/>
       <c r="M22" s="205"/>
       <c r="N22" s="155"/>
       <c r="O22" s="165"/>
@@ -26328,11 +23697,11 @@
       <c r="J23" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="679" t="str">
+      <c r="K23" s="689" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="679"/>
+      <c r="L23" s="689"/>
       <c r="M23" s="205"/>
       <c r="N23" s="155"/>
       <c r="O23" s="165"/>
@@ -26397,19 +23766,19 @@
       <c r="E24" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="679" t="str">
+      <c r="F24" s="689" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="679"/>
+      <c r="G24" s="689"/>
       <c r="H24" s="155"/>
       <c r="I24" s="155"/>
       <c r="J24" s="155"/>
-      <c r="K24" s="679" t="str">
+      <c r="K24" s="689" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="679"/>
+      <c r="L24" s="689"/>
       <c r="M24" s="205"/>
       <c r="N24" s="155"/>
       <c r="O24" s="165"/>
@@ -26476,19 +23845,19 @@
       <c r="E25" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="679" t="str">
+      <c r="F25" s="689" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="679"/>
+      <c r="G25" s="689"/>
       <c r="H25" s="155"/>
       <c r="I25" s="155"/>
       <c r="J25" s="220"/>
-      <c r="K25" s="679" t="str">
+      <c r="K25" s="689" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="679"/>
+      <c r="L25" s="689"/>
       <c r="M25" s="205"/>
       <c r="N25" s="155"/>
       <c r="O25" s="165"/>
@@ -26556,11 +23925,11 @@
       <c r="E26" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="679" t="str">
+      <c r="F26" s="689" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="679"/>
+      <c r="G26" s="689"/>
       <c r="H26" s="155"/>
       <c r="I26" s="212" t="s">
         <v>32</v>
@@ -26642,11 +24011,11 @@
       <c r="J27" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="679" t="str">
+      <c r="K27" s="689" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="679"/>
+      <c r="L27" s="689"/>
       <c r="M27" s="205"/>
       <c r="N27" s="155"/>
       <c r="O27" s="165"/>
@@ -26707,21 +24076,21 @@
       <c r="E28" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="679" t="str">
+      <c r="F28" s="689" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="679"/>
+      <c r="G28" s="689"/>
       <c r="H28" s="155"/>
       <c r="I28" s="220"/>
       <c r="J28" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="679" t="str">
+      <c r="K28" s="689" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="679"/>
+      <c r="L28" s="689"/>
       <c r="M28" s="205"/>
       <c r="N28" s="155"/>
       <c r="O28" s="165"/>
@@ -26788,11 +24157,11 @@
       <c r="E29" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="679" t="str">
+      <c r="F29" s="689" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="679"/>
+      <c r="G29" s="689"/>
       <c r="H29" s="155"/>
       <c r="I29" s="212" t="s">
         <v>36</v>
@@ -26800,11 +24169,11 @@
       <c r="J29" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="679" t="str">
+      <c r="K29" s="689" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="679"/>
+      <c r="L29" s="689"/>
       <c r="M29" s="205"/>
       <c r="N29" s="155"/>
       <c r="O29" s="165"/>
@@ -26874,21 +24243,21 @@
       <c r="E30" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="679" t="str">
+      <c r="F30" s="689" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="679"/>
+      <c r="G30" s="689"/>
       <c r="H30" s="155"/>
       <c r="I30" s="155"/>
       <c r="J30" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="679" t="str">
+      <c r="K30" s="689" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="679"/>
+      <c r="L30" s="689"/>
       <c r="M30" s="205"/>
       <c r="N30" s="155"/>
       <c r="O30" s="165"/>
@@ -27228,21 +24597,21 @@
       <c r="C35" s="225" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="682" t="s">
+      <c r="D35" s="686" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="682"/>
-      <c r="F35" s="682"/>
-      <c r="G35" s="683" t="s">
+      <c r="E35" s="686"/>
+      <c r="F35" s="686"/>
+      <c r="G35" s="687" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="683"/>
-      <c r="I35" s="683"/>
-      <c r="J35" s="682" t="s">
+      <c r="H35" s="687"/>
+      <c r="I35" s="687"/>
+      <c r="J35" s="686" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="682"/>
-      <c r="L35" s="682"/>
+      <c r="K35" s="686"/>
+      <c r="L35" s="686"/>
       <c r="M35" s="205"/>
       <c r="N35" s="155"/>
       <c r="O35" s="226"/>
@@ -27302,15 +24671,15 @@
       <c r="C36" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="682"/>
-      <c r="E36" s="682"/>
-      <c r="F36" s="682"/>
-      <c r="G36" s="683"/>
-      <c r="H36" s="683"/>
-      <c r="I36" s="683"/>
-      <c r="J36" s="682"/>
-      <c r="K36" s="682"/>
-      <c r="L36" s="682"/>
+      <c r="D36" s="686"/>
+      <c r="E36" s="686"/>
+      <c r="F36" s="686"/>
+      <c r="G36" s="687"/>
+      <c r="H36" s="687"/>
+      <c r="I36" s="687"/>
+      <c r="J36" s="686"/>
+      <c r="K36" s="686"/>
+      <c r="L36" s="686"/>
       <c r="M36" s="205"/>
       <c r="N36" s="155"/>
       <c r="O36" s="155"/>
@@ -27976,10 +25345,10 @@
       <c r="I44" s="155"/>
       <c r="J44" s="155"/>
       <c r="K44" s="155"/>
-      <c r="L44" s="684" t="s">
+      <c r="L44" s="688" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="684"/>
+      <c r="M44" s="688"/>
       <c r="N44" s="155"/>
       <c r="O44" s="165"/>
       <c r="P44" s="155"/>
@@ -31074,21 +28443,21 @@
       <c r="O97" s="225" t="s">
         <v>41</v>
       </c>
-      <c r="P97" s="682" t="s">
+      <c r="P97" s="686" t="s">
         <v>42</v>
       </c>
-      <c r="Q97" s="682"/>
-      <c r="R97" s="682"/>
-      <c r="S97" s="683" t="s">
+      <c r="Q97" s="686"/>
+      <c r="R97" s="686"/>
+      <c r="S97" s="687" t="s">
         <v>43</v>
       </c>
-      <c r="T97" s="683"/>
-      <c r="U97" s="683"/>
-      <c r="V97" s="682" t="s">
+      <c r="T97" s="687"/>
+      <c r="U97" s="687"/>
+      <c r="V97" s="686" t="s">
         <v>44</v>
       </c>
-      <c r="W97" s="682"/>
-      <c r="X97" s="682"/>
+      <c r="W97" s="686"/>
+      <c r="X97" s="686"/>
       <c r="Y97" s="167"/>
       <c r="AA97" s="265"/>
       <c r="AB97" s="265"/>
@@ -31123,15 +28492,15 @@
       <c r="O98" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="P98" s="682"/>
-      <c r="Q98" s="682"/>
-      <c r="R98" s="682"/>
-      <c r="S98" s="683"/>
-      <c r="T98" s="683"/>
-      <c r="U98" s="683"/>
-      <c r="V98" s="682"/>
-      <c r="W98" s="682"/>
-      <c r="X98" s="682"/>
+      <c r="P98" s="686"/>
+      <c r="Q98" s="686"/>
+      <c r="R98" s="686"/>
+      <c r="S98" s="687"/>
+      <c r="T98" s="687"/>
+      <c r="U98" s="687"/>
+      <c r="V98" s="686"/>
+      <c r="W98" s="686"/>
+      <c r="X98" s="686"/>
       <c r="Y98" s="167"/>
       <c r="AA98" s="212" t="s">
         <v>394</v>
@@ -31586,21 +28955,21 @@
       <c r="O105" s="225" t="s">
         <v>41</v>
       </c>
-      <c r="P105" s="682" t="s">
+      <c r="P105" s="686" t="s">
         <v>42</v>
       </c>
-      <c r="Q105" s="682"/>
-      <c r="R105" s="682"/>
-      <c r="S105" s="683" t="s">
+      <c r="Q105" s="686"/>
+      <c r="R105" s="686"/>
+      <c r="S105" s="687" t="s">
         <v>43</v>
       </c>
-      <c r="T105" s="683"/>
-      <c r="U105" s="683"/>
-      <c r="V105" s="682" t="s">
+      <c r="T105" s="687"/>
+      <c r="U105" s="687"/>
+      <c r="V105" s="686" t="s">
         <v>44</v>
       </c>
-      <c r="W105" s="682"/>
-      <c r="X105" s="682"/>
+      <c r="W105" s="686"/>
+      <c r="X105" s="686"/>
       <c r="Y105" s="167"/>
       <c r="AA105" s="171" t="s">
         <v>274</v>
@@ -31635,15 +29004,15 @@
       <c r="O106" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="P106" s="682"/>
-      <c r="Q106" s="682"/>
-      <c r="R106" s="682"/>
-      <c r="S106" s="683"/>
-      <c r="T106" s="683"/>
-      <c r="U106" s="683"/>
-      <c r="V106" s="682"/>
-      <c r="W106" s="682"/>
-      <c r="X106" s="682"/>
+      <c r="P106" s="686"/>
+      <c r="Q106" s="686"/>
+      <c r="R106" s="686"/>
+      <c r="S106" s="687"/>
+      <c r="T106" s="687"/>
+      <c r="U106" s="687"/>
+      <c r="V106" s="686"/>
+      <c r="W106" s="686"/>
+      <c r="X106" s="686"/>
       <c r="Y106" s="167"/>
       <c r="AA106" s="171" t="s">
         <v>277</v>
@@ -32646,9 +30015,9 @@
       </c>
       <c r="AB128" s="201"/>
       <c r="AC128" s="155"/>
-      <c r="AD128" s="296" t="str">
+      <c r="AD128" s="296" t="e">
         <f>IF(T458="","",T458)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -32692,9 +30061,9 @@
       </c>
       <c r="AB129" s="201"/>
       <c r="AC129" s="155"/>
-      <c r="AD129" s="202" t="str">
+      <c r="AD129" s="202" t="e">
         <f>IF(T459="","",T459)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -34588,17 +31957,17 @@
       <c r="M167" s="164"/>
       <c r="N167" s="155"/>
       <c r="O167" s="165"/>
-      <c r="P167" s="685" t="s">
+      <c r="P167" s="678" t="s">
         <v>187</v>
       </c>
-      <c r="Q167" s="685"/>
-      <c r="R167" s="685"/>
-      <c r="S167" s="685"/>
+      <c r="Q167" s="678"/>
+      <c r="R167" s="678"/>
+      <c r="S167" s="678"/>
       <c r="T167" s="330"/>
-      <c r="U167" s="685" t="s">
+      <c r="U167" s="678" t="s">
         <v>188</v>
       </c>
-      <c r="V167" s="685"/>
+      <c r="V167" s="678"/>
       <c r="W167" s="155"/>
       <c r="X167" s="155"/>
       <c r="Y167" s="167"/>
@@ -34638,10 +32007,10 @@
         <v>192</v>
       </c>
       <c r="T168" s="330"/>
-      <c r="U168" s="686" t="s">
+      <c r="U168" s="683" t="s">
         <v>193</v>
       </c>
-      <c r="V168" s="686"/>
+      <c r="V168" s="683"/>
       <c r="W168" s="155"/>
       <c r="X168" s="155"/>
       <c r="Y168" s="167"/>
@@ -34670,11 +32039,11 @@
       <c r="R169" s="333"/>
       <c r="S169" s="334"/>
       <c r="T169" s="330"/>
-      <c r="U169" s="687" t="str">
+      <c r="U169" s="684" t="str">
         <f>IF(OR(R166=2,R166=3),"NA",IF(OR(P169="",Q169="",R169="",S169=""),"",AVERAGE(P169:S169)))</f>
         <v/>
       </c>
-      <c r="V169" s="687"/>
+      <c r="V169" s="684"/>
       <c r="W169" s="155"/>
       <c r="X169" s="171" t="s">
         <v>180</v>
@@ -34752,17 +32121,17 @@
       </c>
       <c r="B172" s="203"/>
       <c r="C172" s="155"/>
-      <c r="D172" s="685" t="s">
+      <c r="D172" s="678" t="s">
         <v>187</v>
       </c>
-      <c r="E172" s="685"/>
-      <c r="F172" s="685"/>
-      <c r="G172" s="685"/>
+      <c r="E172" s="678"/>
+      <c r="F172" s="678"/>
+      <c r="G172" s="678"/>
       <c r="H172" s="330"/>
-      <c r="I172" s="685" t="s">
+      <c r="I172" s="678" t="s">
         <v>188</v>
       </c>
-      <c r="J172" s="685"/>
+      <c r="J172" s="678"/>
       <c r="K172" s="155"/>
       <c r="L172" s="155"/>
       <c r="M172" s="205"/>
@@ -34803,27 +32172,27 @@
         <v>192</v>
       </c>
       <c r="H173" s="330"/>
-      <c r="I173" s="686" t="s">
+      <c r="I173" s="683" t="s">
         <v>193</v>
       </c>
-      <c r="J173" s="686"/>
+      <c r="J173" s="683"/>
       <c r="K173" s="155"/>
       <c r="L173" s="155"/>
       <c r="M173" s="205"/>
       <c r="N173" s="155"/>
       <c r="O173" s="165"/>
-      <c r="P173" s="688" t="s">
+      <c r="P173" s="680" t="s">
         <v>196</v>
       </c>
-      <c r="Q173" s="675" t="s">
+      <c r="Q173" s="681" t="s">
         <v>197</v>
       </c>
-      <c r="R173" s="675"/>
-      <c r="S173" s="675"/>
+      <c r="R173" s="681"/>
+      <c r="S173" s="681"/>
       <c r="T173" s="337" t="s">
         <v>712</v>
       </c>
-      <c r="U173" s="678" t="s">
+      <c r="U173" s="685" t="s">
         <v>198</v>
       </c>
       <c r="V173" s="249"/>
@@ -34854,11 +32223,11 @@
         <v/>
       </c>
       <c r="H174" s="330"/>
-      <c r="I174" s="691" t="str">
+      <c r="I174" s="679" t="str">
         <f>IF(U169="","",U169)</f>
         <v/>
       </c>
-      <c r="J174" s="691"/>
+      <c r="J174" s="679"/>
       <c r="K174" s="155"/>
       <c r="L174" s="171" t="s">
         <v>180</v>
@@ -34869,7 +32238,7 @@
       </c>
       <c r="N174" s="155"/>
       <c r="O174" s="165"/>
-      <c r="P174" s="688" t="s">
+      <c r="P174" s="680" t="s">
         <v>196</v>
       </c>
       <c r="Q174" s="337" t="s">
@@ -34884,7 +32253,7 @@
       <c r="T174" s="337" t="s">
         <v>202</v>
       </c>
-      <c r="U174" s="678" t="s">
+      <c r="U174" s="685" t="s">
         <v>196</v>
       </c>
       <c r="V174" s="249"/>
@@ -35035,14 +32404,14 @@
         <f>IF(P172="","",P172)</f>
         <v>65</v>
       </c>
-      <c r="D179" s="692" t="s">
+      <c r="D179" s="674" t="s">
         <v>219</v>
       </c>
-      <c r="E179" s="692"/>
-      <c r="F179" s="692"/>
-      <c r="G179" s="692"/>
-      <c r="H179" s="692"/>
-      <c r="I179" s="692"/>
+      <c r="E179" s="674"/>
+      <c r="F179" s="674"/>
+      <c r="G179" s="674"/>
+      <c r="H179" s="674"/>
+      <c r="I179" s="674"/>
       <c r="J179" s="249"/>
       <c r="K179" s="249"/>
       <c r="L179" s="249"/>
@@ -35068,18 +32437,18 @@
       </c>
       <c r="B180" s="203"/>
       <c r="C180" s="220"/>
-      <c r="D180" s="688" t="s">
+      <c r="D180" s="680" t="s">
         <v>196</v>
       </c>
-      <c r="E180" s="675" t="s">
+      <c r="E180" s="681" t="s">
         <v>197</v>
       </c>
-      <c r="F180" s="675"/>
-      <c r="G180" s="675"/>
+      <c r="F180" s="681"/>
+      <c r="G180" s="681"/>
       <c r="H180" s="337" t="s">
         <v>712</v>
       </c>
-      <c r="I180" s="693" t="s">
+      <c r="I180" s="682" t="s">
         <v>198</v>
       </c>
       <c r="J180" s="249"/>
@@ -35105,7 +32474,7 @@
       </c>
       <c r="B181" s="203"/>
       <c r="C181" s="220"/>
-      <c r="D181" s="688" t="s">
+      <c r="D181" s="680" t="s">
         <v>196</v>
       </c>
       <c r="E181" s="337" t="s">
@@ -35120,7 +32489,7 @@
       <c r="H181" s="337" t="s">
         <v>202</v>
       </c>
-      <c r="I181" s="693" t="s">
+      <c r="I181" s="682" t="s">
         <v>202</v>
       </c>
       <c r="J181" s="249"/>
@@ -35129,14 +32498,14 @@
       <c r="M181" s="205"/>
       <c r="N181" s="155"/>
       <c r="O181" s="356"/>
-      <c r="P181" s="673" t="s">
+      <c r="P181" s="694" t="s">
         <v>209</v>
       </c>
-      <c r="Q181" s="674"/>
-      <c r="R181" s="674"/>
-      <c r="S181" s="674"/>
-      <c r="T181" s="674"/>
-      <c r="U181" s="675"/>
+      <c r="Q181" s="695"/>
+      <c r="R181" s="695"/>
+      <c r="S181" s="695"/>
+      <c r="T181" s="695"/>
+      <c r="U181" s="681"/>
       <c r="V181" s="249"/>
       <c r="W181" s="249"/>
       <c r="X181" s="249"/>
@@ -35183,15 +32552,15 @@
       <c r="P182" s="361" t="s">
         <v>196</v>
       </c>
-      <c r="Q182" s="677" t="s">
+      <c r="Q182" s="697" t="s">
         <v>197</v>
       </c>
-      <c r="R182" s="674"/>
-      <c r="S182" s="675"/>
+      <c r="R182" s="695"/>
+      <c r="S182" s="681"/>
       <c r="T182" s="563" t="s">
         <v>712</v>
       </c>
-      <c r="U182" s="678" t="s">
+      <c r="U182" s="685" t="s">
         <v>198</v>
       </c>
       <c r="V182" s="249"/>
@@ -35252,7 +32621,7 @@
       <c r="T183" s="341" t="s">
         <v>202</v>
       </c>
-      <c r="U183" s="678" t="s">
+      <c r="U183" s="685" t="s">
         <v>196</v>
       </c>
       <c r="V183" s="249"/>
@@ -35611,14 +32980,14 @@
       </c>
       <c r="B189" s="383"/>
       <c r="C189" s="220"/>
-      <c r="D189" s="692" t="s">
+      <c r="D189" s="674" t="s">
         <v>224</v>
       </c>
-      <c r="E189" s="692"/>
-      <c r="F189" s="692"/>
-      <c r="G189" s="692"/>
-      <c r="H189" s="692"/>
-      <c r="I189" s="692"/>
+      <c r="E189" s="674"/>
+      <c r="F189" s="674"/>
+      <c r="G189" s="674"/>
+      <c r="H189" s="674"/>
+      <c r="I189" s="674"/>
       <c r="J189" s="249"/>
       <c r="K189" s="249"/>
       <c r="L189" s="249"/>
@@ -35960,7 +33329,7 @@
       <c r="T195" s="563" t="s">
         <v>712</v>
       </c>
-      <c r="U195" s="678" t="s">
+      <c r="U195" s="685" t="s">
         <v>198</v>
       </c>
       <c r="V195" s="249"/>
@@ -36005,7 +33374,7 @@
       <c r="T196" s="341" t="s">
         <v>202</v>
       </c>
-      <c r="U196" s="678" t="s">
+      <c r="U196" s="685" t="s">
         <v>196</v>
       </c>
       <c r="V196" s="249"/>
@@ -36276,14 +33645,14 @@
       </c>
       <c r="N204" s="155"/>
       <c r="O204" s="356"/>
-      <c r="P204" s="676" t="s">
+      <c r="P204" s="696" t="s">
         <v>209</v>
       </c>
-      <c r="Q204" s="676"/>
-      <c r="R204" s="676"/>
-      <c r="S204" s="676"/>
-      <c r="T204" s="676"/>
-      <c r="U204" s="676"/>
+      <c r="Q204" s="696"/>
+      <c r="R204" s="696"/>
+      <c r="S204" s="696"/>
+      <c r="T204" s="696"/>
+      <c r="U204" s="696"/>
       <c r="V204" s="249"/>
       <c r="W204" s="249"/>
       <c r="X204" s="249"/>
@@ -36313,15 +33682,15 @@
       <c r="P205" s="361" t="s">
         <v>196</v>
       </c>
-      <c r="Q205" s="677" t="s">
+      <c r="Q205" s="697" t="s">
         <v>197</v>
       </c>
-      <c r="R205" s="674"/>
-      <c r="S205" s="675"/>
+      <c r="R205" s="695"/>
+      <c r="S205" s="681"/>
       <c r="T205" s="563" t="s">
         <v>712</v>
       </c>
-      <c r="U205" s="678" t="s">
+      <c r="U205" s="685" t="s">
         <v>198</v>
       </c>
       <c r="V205" s="249"/>
@@ -36367,7 +33736,7 @@
       <c r="T206" s="341" t="s">
         <v>202</v>
       </c>
-      <c r="U206" s="678" t="s">
+      <c r="U206" s="685" t="s">
         <v>196</v>
       </c>
       <c r="V206" s="249"/>
@@ -39081,21 +36450,21 @@
       </c>
       <c r="B259" s="203"/>
       <c r="C259" s="155"/>
-      <c r="D259" s="690" t="s">
+      <c r="D259" s="677" t="s">
         <v>263</v>
       </c>
-      <c r="E259" s="690"/>
+      <c r="E259" s="677"/>
       <c r="F259" s="220"/>
-      <c r="G259" s="690" t="s">
+      <c r="G259" s="677" t="s">
         <v>264</v>
       </c>
-      <c r="H259" s="690"/>
+      <c r="H259" s="677"/>
       <c r="I259" s="155"/>
       <c r="J259" s="220"/>
-      <c r="K259" s="694" t="s">
+      <c r="K259" s="671" t="s">
         <v>265</v>
       </c>
-      <c r="L259" s="694"/>
+      <c r="L259" s="671"/>
       <c r="M259" s="250"/>
       <c r="N259" s="155"/>
       <c r="O259" s="165"/>
@@ -39817,7 +37186,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="273" spans="1:25">
+    <row r="273" spans="1:32">
       <c r="A273" s="151">
         <v>1</v>
       </c>
@@ -39849,7 +37218,7 @@
       <c r="X273" s="155"/>
       <c r="Y273" s="167"/>
     </row>
-    <row r="274" spans="1:25" ht="16.5" thickBot="1">
+    <row r="274" spans="1:32" ht="16.5" thickBot="1">
       <c r="A274" s="151">
         <v>2</v>
       </c>
@@ -39885,7 +37254,7 @@
       <c r="X274" s="204"/>
       <c r="Y274" s="167"/>
     </row>
-    <row r="275" spans="1:25" ht="17.25" thickTop="1" thickBot="1">
+    <row r="275" spans="1:32" ht="17.25" thickTop="1" thickBot="1">
       <c r="A275" s="151">
         <v>3</v>
       </c>
@@ -39917,7 +37286,7 @@
       <c r="X275" s="177"/>
       <c r="Y275" s="178"/>
     </row>
-    <row r="276" spans="1:25">
+    <row r="276" spans="1:32">
       <c r="A276" s="151">
         <v>4</v>
       </c>
@@ -39958,7 +37327,7 @@
       <c r="X276" s="157"/>
       <c r="Y276" s="158"/>
     </row>
-    <row r="277" spans="1:25">
+    <row r="277" spans="1:32">
       <c r="A277" s="151">
         <v>5</v>
       </c>
@@ -40001,7 +37370,7 @@
       <c r="X277" s="155"/>
       <c r="Y277" s="167"/>
     </row>
-    <row r="278" spans="1:25">
+    <row r="278" spans="1:32">
       <c r="A278" s="151">
         <v>6</v>
       </c>
@@ -40038,7 +37407,7 @@
       <c r="X278" s="155"/>
       <c r="Y278" s="167"/>
     </row>
-    <row r="279" spans="1:25" ht="16.5" thickBot="1">
+    <row r="279" spans="1:32" ht="16.5" thickBot="1">
       <c r="A279" s="151">
         <v>7</v>
       </c>
@@ -40085,8 +37454,14 @@
       <c r="W279" s="155"/>
       <c r="X279" s="155"/>
       <c r="Y279" s="167"/>
-    </row>
-    <row r="280" spans="1:25">
+      <c r="AA279" s="159" t="s">
+        <v>713</v>
+      </c>
+      <c r="AC279" s="159" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="280" spans="1:32">
       <c r="A280" s="151">
         <v>8</v>
       </c>
@@ -40149,8 +37524,26 @@
         <v/>
       </c>
       <c r="Y280" s="167"/>
-    </row>
-    <row r="281" spans="1:25">
+      <c r="AA280" s="159" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB280" s="159" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC280" s="159" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD280" s="159" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE280" s="159" t="s">
+        <v>550</v>
+      </c>
+      <c r="AF280" s="159" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="281" spans="1:32">
       <c r="A281" s="151">
         <v>9</v>
       </c>
@@ -40209,8 +37602,16 @@
         <v/>
       </c>
       <c r="Y281" s="167"/>
-    </row>
-    <row r="282" spans="1:25">
+      <c r="AE281" s="159" t="e">
+        <f>(AA281-50)/AB281</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF281" s="159" t="e">
+        <f>(AA281-AC281)/AB281</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="282" spans="1:32">
       <c r="A282" s="151">
         <v>10</v>
       </c>
@@ -40269,8 +37670,16 @@
         <v/>
       </c>
       <c r="Y282" s="167"/>
-    </row>
-    <row r="283" spans="1:25" ht="16.5" thickBot="1">
+      <c r="AE282" s="159" t="e">
+        <f t="shared" ref="AE282:AE284" si="66">(AA282-50)/AB282</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF282" s="159" t="e">
+        <f t="shared" ref="AF282:AF284" si="67">(AA282-AC282)/AB282</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="283" spans="1:32" ht="16.5" thickBot="1">
       <c r="A283" s="151">
         <v>11</v>
       </c>
@@ -40329,8 +37738,16 @@
         <v/>
       </c>
       <c r="Y283" s="167"/>
-    </row>
-    <row r="284" spans="1:25">
+      <c r="AE283" s="159" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF283" s="159" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="284" spans="1:32">
       <c r="A284" s="151">
         <v>12</v>
       </c>
@@ -40391,8 +37808,16 @@
         <v/>
       </c>
       <c r="Y284" s="167"/>
-    </row>
-    <row r="285" spans="1:25" ht="16.5" thickBot="1">
+      <c r="AE284" s="159" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF284" s="159" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="285" spans="1:32" ht="16.5" thickBot="1">
       <c r="A285" s="151">
         <v>13</v>
       </c>
@@ -40460,7 +37885,7 @@
       </c>
       <c r="Y285" s="167"/>
     </row>
-    <row r="286" spans="1:25">
+    <row r="286" spans="1:32">
       <c r="A286" s="151">
         <v>14</v>
       </c>
@@ -40515,7 +37940,7 @@
       <c r="X286" s="220"/>
       <c r="Y286" s="167"/>
     </row>
-    <row r="287" spans="1:25">
+    <row r="287" spans="1:32">
       <c r="A287" s="151">
         <v>15</v>
       </c>
@@ -40551,7 +37976,7 @@
       <c r="X287" s="155"/>
       <c r="Y287" s="167"/>
     </row>
-    <row r="288" spans="1:25" ht="16.5" thickBot="1">
+    <row r="288" spans="1:32" ht="16.5" thickBot="1">
       <c r="A288" s="151">
         <v>16</v>
       </c>
@@ -40775,7 +38200,7 @@
         <v>280</v>
       </c>
       <c r="L293" s="294" t="str">
-        <f t="shared" ref="L293:L298" si="66">IF(X295="","",X295)</f>
+        <f t="shared" ref="L293:L298" si="68">IF(X295="","",X295)</f>
         <v/>
       </c>
       <c r="M293" s="250"/>
@@ -40804,23 +38229,23 @@
       <c r="C294" s="155"/>
       <c r="D294" s="155"/>
       <c r="E294" s="447" t="str">
-        <f t="shared" ref="E294:I299" si="67">IF(Q296="","",Q296)</f>
+        <f t="shared" ref="E294:I299" si="69">IF(Q296="","",Q296)</f>
         <v/>
       </c>
       <c r="F294" s="207" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="G294" s="207" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="H294" s="448" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I294" s="208" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J294" s="155"/>
@@ -40828,7 +38253,7 @@
         <v>283</v>
       </c>
       <c r="L294" s="295" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="M294" s="250"/>
@@ -40857,23 +38282,23 @@
       <c r="C295" s="155"/>
       <c r="D295" s="155"/>
       <c r="E295" s="450" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="F295" s="216" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="G295" s="216" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="H295" s="451" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I295" s="218" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J295" s="155"/>
@@ -40881,7 +38306,7 @@
         <v>285</v>
       </c>
       <c r="L295" s="452" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="M295" s="250"/>
@@ -40921,23 +38346,23 @@
       <c r="C296" s="155"/>
       <c r="D296" s="155"/>
       <c r="E296" s="450" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="F296" s="216" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="G296" s="216" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="H296" s="451" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I296" s="218" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J296" s="155"/>
@@ -40945,7 +38370,7 @@
         <v>286</v>
       </c>
       <c r="L296" s="295" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="M296" s="250"/>
@@ -40981,23 +38406,23 @@
       <c r="C297" s="155"/>
       <c r="D297" s="155"/>
       <c r="E297" s="454" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="F297" s="262" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="G297" s="262" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="H297" s="455" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I297" s="263" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J297" s="155"/>
@@ -41005,7 +38430,7 @@
         <v>287</v>
       </c>
       <c r="L297" s="295" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="M297" s="250"/>
@@ -41043,23 +38468,23 @@
         <v>251</v>
       </c>
       <c r="E298" s="450" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="F298" s="216" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="G298" s="409" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="H298" s="451" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I298" s="218" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J298" s="155"/>
@@ -41067,7 +38492,7 @@
         <v>289</v>
       </c>
       <c r="L298" s="456" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="M298" s="250"/>
@@ -41105,23 +38530,23 @@
         <v>291</v>
       </c>
       <c r="E299" s="372" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="F299" s="373" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="G299" s="373" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="H299" s="373" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I299" s="375" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J299" s="155"/>
@@ -41383,14 +38808,14 @@
       <c r="B305" s="383"/>
       <c r="C305" s="249"/>
       <c r="D305" s="249"/>
-      <c r="E305" s="695" t="str">
+      <c r="E305" s="672" t="str">
         <f>O311&amp;" "&amp;P312&amp;" "&amp;Q312</f>
         <v xml:space="preserve">Combo Mode 2D Target/Filter: </v>
       </c>
-      <c r="F305" s="695"/>
-      <c r="G305" s="695"/>
-      <c r="H305" s="695"/>
-      <c r="I305" s="695"/>
+      <c r="F305" s="672"/>
+      <c r="G305" s="672"/>
+      <c r="H305" s="672"/>
+      <c r="I305" s="672"/>
       <c r="J305" s="249"/>
       <c r="K305" s="249"/>
       <c r="L305" s="249"/>
@@ -41475,7 +38900,7 @@
         <v>280</v>
       </c>
       <c r="L307" s="294" t="str">
-        <f t="shared" ref="L307:L312" si="68">IF(X315="","",X315)</f>
+        <f t="shared" ref="L307:L312" si="70">IF(X315="","",X315)</f>
         <v/>
       </c>
       <c r="M307" s="250"/>
@@ -41500,23 +38925,23 @@
       <c r="C308" s="249"/>
       <c r="D308" s="155"/>
       <c r="E308" s="447" t="str">
-        <f t="shared" ref="E308:I313" si="69">IF(Q316="","",Q316)</f>
+        <f t="shared" ref="E308:I313" si="71">IF(Q316="","",Q316)</f>
         <v/>
       </c>
       <c r="F308" s="207" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="G308" s="207" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="H308" s="448" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="I308" s="208" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="J308" s="249"/>
@@ -41524,7 +38949,7 @@
         <v>283</v>
       </c>
       <c r="L308" s="294" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="M308" s="250"/>
@@ -41551,23 +38976,23 @@
       <c r="C309" s="249"/>
       <c r="D309" s="155"/>
       <c r="E309" s="450" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="F309" s="216" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="G309" s="216" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="H309" s="451" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="I309" s="218" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="J309" s="249"/>
@@ -41575,7 +39000,7 @@
         <v>285</v>
       </c>
       <c r="L309" s="294" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="M309" s="250"/>
@@ -41605,23 +39030,23 @@
       <c r="C310" s="249"/>
       <c r="D310" s="155"/>
       <c r="E310" s="450" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="F310" s="216" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="G310" s="216" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="H310" s="451" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="I310" s="218" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="J310" s="249"/>
@@ -41629,7 +39054,7 @@
         <v>286</v>
       </c>
       <c r="L310" s="294" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="M310" s="250"/>
@@ -41654,23 +39079,23 @@
       <c r="C311" s="249"/>
       <c r="D311" s="155"/>
       <c r="E311" s="454" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="F311" s="262" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="G311" s="262" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="H311" s="455" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="I311" s="263" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="J311" s="249"/>
@@ -41678,7 +39103,7 @@
         <v>287</v>
       </c>
       <c r="L311" s="294" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="M311" s="250"/>
@@ -41707,23 +39132,23 @@
         <v>251</v>
       </c>
       <c r="E312" s="450" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="F312" s="216" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="G312" s="409" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="H312" s="451" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="I312" s="218" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="J312" s="249"/>
@@ -41731,7 +39156,7 @@
         <v>289</v>
       </c>
       <c r="L312" s="456" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="M312" s="250"/>
@@ -41762,23 +39187,23 @@
         <v>291</v>
       </c>
       <c r="E313" s="372" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="F313" s="373" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="G313" s="373" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="H313" s="373" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="I313" s="375" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="J313" s="249"/>
@@ -41889,14 +39314,14 @@
       <c r="B316" s="383"/>
       <c r="C316" s="249"/>
       <c r="D316" s="249"/>
-      <c r="E316" s="696" t="str">
+      <c r="E316" s="673" t="str">
         <f>O323&amp;" "&amp;P324&amp;" "&amp;Q324</f>
         <v xml:space="preserve">Combo Mode 3D Target/Filter: </v>
       </c>
-      <c r="F316" s="696"/>
-      <c r="G316" s="696"/>
-      <c r="H316" s="696"/>
-      <c r="I316" s="696"/>
+      <c r="F316" s="673"/>
+      <c r="G316" s="673"/>
+      <c r="H316" s="673"/>
+      <c r="I316" s="673"/>
       <c r="J316" s="249"/>
       <c r="K316" s="249"/>
       <c r="L316" s="249"/>
@@ -42001,7 +39426,7 @@
         <v>280</v>
       </c>
       <c r="L318" s="294" t="str">
-        <f t="shared" ref="L318:L323" si="70">IF(X327="","",X327)</f>
+        <f t="shared" ref="L318:L323" si="72">IF(X327="","",X327)</f>
         <v/>
       </c>
       <c r="M318" s="250"/>
@@ -42037,23 +39462,23 @@
       <c r="C319" s="249"/>
       <c r="D319" s="249"/>
       <c r="E319" s="447" t="str">
-        <f t="shared" ref="E319:I324" si="71">IF(Q328="","",Q328)</f>
+        <f t="shared" ref="E319:I324" si="73">IF(Q328="","",Q328)</f>
         <v/>
       </c>
       <c r="F319" s="207" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G319" s="207" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H319" s="448" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I319" s="464" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J319" s="249"/>
@@ -42061,7 +39486,7 @@
         <v>283</v>
       </c>
       <c r="L319" s="294" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M319" s="250"/>
@@ -42097,23 +39522,23 @@
       <c r="C320" s="249"/>
       <c r="D320" s="249"/>
       <c r="E320" s="450" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F320" s="216" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G320" s="216" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H320" s="451" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I320" s="465" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J320" s="249"/>
@@ -42121,7 +39546,7 @@
         <v>285</v>
       </c>
       <c r="L320" s="294" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M320" s="250"/>
@@ -42168,23 +39593,23 @@
       <c r="C321" s="249"/>
       <c r="D321" s="249"/>
       <c r="E321" s="450" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F321" s="216" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G321" s="216" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H321" s="451" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I321" s="465" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J321" s="249"/>
@@ -42192,7 +39617,7 @@
         <v>286</v>
       </c>
       <c r="L321" s="294" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M321" s="250"/>
@@ -42234,23 +39659,23 @@
       <c r="C322" s="249"/>
       <c r="D322" s="249"/>
       <c r="E322" s="454" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F322" s="262" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G322" s="262" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H322" s="455" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I322" s="466" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J322" s="249"/>
@@ -42258,7 +39683,7 @@
         <v>287</v>
       </c>
       <c r="L322" s="294" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M322" s="250"/>
@@ -42290,23 +39715,23 @@
         <v>251</v>
       </c>
       <c r="E323" s="450" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F323" s="216" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G323" s="409" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H323" s="451" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I323" s="465" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J323" s="249"/>
@@ -42314,7 +39739,7 @@
         <v>289</v>
       </c>
       <c r="L323" s="456" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M323" s="250"/>
@@ -42343,23 +39768,23 @@
         <v>291</v>
       </c>
       <c r="E324" s="372" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F324" s="373" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G324" s="373" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H324" s="373" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I324" s="468" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J324" s="249"/>
@@ -42755,21 +40180,21 @@
       <c r="G333" s="171" t="s">
         <v>317</v>
       </c>
-      <c r="H333" s="475" t="str">
-        <f t="shared" ref="H333:K334" si="72">IF(T458="","",T458)</f>
-        <v/>
+      <c r="H333" s="475" t="e">
+        <f t="shared" ref="H333:K334" si="74">IF(T458="","",T458)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="I333" s="217" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="J333" s="358" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="K333" s="476" t="str">
-        <f t="shared" si="72"/>
-        <v>Pass</v>
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
+      <c r="J333" s="358" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K333" s="476" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L333" s="155"/>
       <c r="M333" s="205"/>
@@ -42820,20 +40245,20 @@
       <c r="G334" s="171" t="s">
         <v>319</v>
       </c>
-      <c r="H334" s="475" t="str">
-        <f t="shared" si="72"/>
-        <v/>
+      <c r="H334" s="475" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I334" s="217" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="J334" s="358" t="str">
-        <f t="shared" si="72"/>
-        <v/>
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
+      <c r="J334" s="358" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="K334" s="216" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>NA</v>
       </c>
       <c r="L334" s="155"/>
@@ -42994,10 +40419,10 @@
       <c r="S338" s="171" t="s">
         <v>305</v>
       </c>
-      <c r="T338" s="671">
+      <c r="T338" s="692">
         <v>43014</v>
       </c>
-      <c r="U338" s="671"/>
+      <c r="U338" s="692"/>
       <c r="V338" s="155"/>
       <c r="W338" s="155"/>
       <c r="X338" s="155"/>
@@ -43041,10 +40466,10 @@
       <c r="S339" s="171" t="s">
         <v>307</v>
       </c>
-      <c r="T339" s="672">
+      <c r="T339" s="693">
         <v>43744</v>
       </c>
-      <c r="U339" s="672"/>
+      <c r="U339" s="693"/>
       <c r="V339" s="155"/>
       <c r="W339" s="155"/>
       <c r="X339" s="155"/>
@@ -43193,11 +40618,11 @@
       <c r="H343" s="481" t="s">
         <v>305</v>
       </c>
-      <c r="I343" s="697">
+      <c r="I343" s="675">
         <f>IF(T338="","",T338)</f>
         <v>43014</v>
       </c>
-      <c r="J343" s="697"/>
+      <c r="J343" s="675"/>
       <c r="K343" s="195"/>
       <c r="L343" s="195"/>
       <c r="M343" s="197"/>
@@ -43232,11 +40657,11 @@
         <v/>
       </c>
       <c r="W343" s="451" t="str">
-        <f t="shared" ref="W343:W349" si="73">IF(V343="","",V343/S343)</f>
+        <f t="shared" ref="W343:W349" si="75">IF(V343="","",V343/S343)</f>
         <v/>
       </c>
       <c r="X343" s="409" t="str">
-        <f t="shared" ref="X343:X349" si="74">IF(OR(V343="",U343=""),"",V343/(U343/1000))</f>
+        <f t="shared" ref="X343:X349" si="76">IF(OR(V343="",U343=""),"",V343/(U343/1000))</f>
         <v/>
       </c>
       <c r="Y343" s="167"/>
@@ -43259,11 +40684,11 @@
       <c r="H344" s="327" t="s">
         <v>307</v>
       </c>
-      <c r="I344" s="689">
+      <c r="I344" s="676">
         <f>IF(T339="","",T339)</f>
         <v>43744</v>
       </c>
-      <c r="J344" s="689"/>
+      <c r="J344" s="676"/>
       <c r="K344" s="220"/>
       <c r="L344" s="155"/>
       <c r="M344" s="205"/>
@@ -43298,11 +40723,11 @@
         <v/>
       </c>
       <c r="W344" s="451" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="X344" s="409" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Y344" s="167"/>
@@ -43356,11 +40781,11 @@
         <v/>
       </c>
       <c r="W345" s="451" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="X345" s="409" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Y345" s="167"/>
@@ -43427,11 +40852,11 @@
         <v/>
       </c>
       <c r="W346" s="451" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="X346" s="409" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Y346" s="167"/>
@@ -43498,11 +40923,11 @@
         <v/>
       </c>
       <c r="W347" s="451" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="X347" s="409" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Y347" s="167"/>
@@ -43569,11 +40994,11 @@
         <v/>
       </c>
       <c r="W348" s="451" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="X348" s="409" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Y348" s="167"/>
@@ -43637,11 +41062,11 @@
         <v/>
       </c>
       <c r="W349" s="451" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="X349" s="409" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="Y349" s="167"/>
@@ -43703,28 +41128,28 @@
       </c>
       <c r="B351" s="203"/>
       <c r="C351" s="216">
-        <f t="shared" ref="C351:C357" si="75">IF(R343="","",R343)</f>
+        <f t="shared" ref="C351:C357" si="77">IF(R343="","",R343)</f>
         <v>24</v>
       </c>
       <c r="D351" s="409" t="str">
-        <f t="shared" ref="D351:D357" si="76">IF(T343="","",T343)</f>
+        <f t="shared" ref="D351:D357" si="78">IF(T343="","",T343)</f>
         <v/>
       </c>
       <c r="E351" s="358" t="str">
-        <f t="shared" ref="E351:E357" si="77">IF(OR(C351="",D351=""),"",IF(AND(C351&gt;0,D351&gt;0),(D351-C351)/C351,""))</f>
+        <f t="shared" ref="E351:E357" si="79">IF(OR(C351="",D351=""),"",IF(AND(C351&gt;0,D351&gt;0),(D351-C351)/C351,""))</f>
         <v/>
       </c>
       <c r="F351" s="155"/>
       <c r="G351" s="216">
-        <f t="shared" ref="G351:G356" si="78">IF(R354="","",R354)</f>
+        <f t="shared" ref="G351:G356" si="80">IF(R354="","",R354)</f>
         <v>28</v>
       </c>
       <c r="H351" s="409" t="str">
-        <f t="shared" ref="H351:H356" si="79">IF(T354="","",T354)</f>
+        <f t="shared" ref="H351:H356" si="81">IF(T354="","",T354)</f>
         <v/>
       </c>
       <c r="I351" s="358" t="str">
-        <f t="shared" ref="I351:I356" si="80">IF(OR(G351="",H351=""),"",IF(AND(G351&gt;0,H351&gt;0),(H351-G351)/G351,""))</f>
+        <f t="shared" ref="I351:I356" si="82">IF(OR(G351="",H351=""),"",IF(AND(G351&gt;0,H351&gt;0),(H351-G351)/G351,""))</f>
         <v/>
       </c>
       <c r="J351" s="249"/>
@@ -43759,28 +41184,28 @@
       </c>
       <c r="B352" s="203"/>
       <c r="C352" s="216">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>25</v>
       </c>
       <c r="D352" s="409" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E352" s="358" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F352" s="155"/>
       <c r="G352" s="216">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>30</v>
       </c>
       <c r="H352" s="409" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="I352" s="358" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="J352" s="249"/>
@@ -43817,28 +41242,28 @@
       </c>
       <c r="B353" s="203"/>
       <c r="C353" s="216">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>26</v>
       </c>
       <c r="D353" s="409" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E353" s="358" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F353" s="155"/>
       <c r="G353" s="216">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>32</v>
       </c>
       <c r="H353" s="409" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="I353" s="358" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="J353" s="249"/>
@@ -43891,28 +41316,28 @@
       </c>
       <c r="B354" s="203"/>
       <c r="C354" s="216">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>28</v>
       </c>
       <c r="D354" s="409" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E354" s="358" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F354" s="155"/>
       <c r="G354" s="216">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>34</v>
       </c>
       <c r="H354" s="409" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="I354" s="358" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="J354" s="249"/>
@@ -43959,11 +41384,11 @@
         <v/>
       </c>
       <c r="W354" s="451" t="str">
-        <f t="shared" ref="W354:W359" si="81">IF(V354="","",V354/S354)</f>
+        <f t="shared" ref="W354:W359" si="83">IF(V354="","",V354/S354)</f>
         <v/>
       </c>
       <c r="X354" s="409" t="str">
-        <f t="shared" ref="X354:X359" si="82">IF(OR(V354="",U354=""),"",V354/(U354/1000))</f>
+        <f t="shared" ref="X354:X359" si="84">IF(OR(V354="",U354=""),"",V354/(U354/1000))</f>
         <v/>
       </c>
       <c r="Y354" s="167"/>
@@ -43974,28 +41399,28 @@
       </c>
       <c r="B355" s="203"/>
       <c r="C355" s="216">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>30</v>
       </c>
       <c r="D355" s="409" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E355" s="358" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F355" s="155"/>
       <c r="G355" s="216">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>36</v>
       </c>
       <c r="H355" s="409" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="I355" s="358" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="J355" s="249"/>
@@ -44042,11 +41467,11 @@
         <v/>
       </c>
       <c r="W355" s="451" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="X355" s="409" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="Y355" s="167"/>
@@ -44057,28 +41482,28 @@
       </c>
       <c r="B356" s="203"/>
       <c r="C356" s="216">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>32</v>
       </c>
       <c r="D356" s="409" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E356" s="358" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F356" s="155"/>
       <c r="G356" s="216">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>38</v>
       </c>
       <c r="H356" s="409" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="I356" s="358" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="J356" s="249"/>
@@ -44116,11 +41541,11 @@
         <v/>
       </c>
       <c r="W356" s="451" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="X356" s="409" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="Y356" s="167"/>
@@ -44131,15 +41556,15 @@
       </c>
       <c r="B357" s="203"/>
       <c r="C357" s="216">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>34</v>
       </c>
       <c r="D357" s="409" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="E357" s="358" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="F357" s="155"/>
@@ -44181,11 +41606,11 @@
         <v/>
       </c>
       <c r="W357" s="451" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="X357" s="409" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="Y357" s="167"/>
@@ -44240,23 +41665,23 @@
         <v>50</v>
       </c>
       <c r="T358" s="409" t="str">
-        <f t="shared" ref="T358:V359" si="83">IF(AM38="","",AM38)</f>
+        <f t="shared" ref="T358:V359" si="85">IF(AM38="","",AM38)</f>
         <v/>
       </c>
       <c r="U358" s="217" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="V358" s="409" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="W358" s="451" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="V358" s="409" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="W358" s="451" t="str">
-        <f t="shared" si="81"/>
-        <v/>
-      </c>
       <c r="X358" s="409" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="Y358" s="167"/>
@@ -44296,23 +41721,23 @@
         <v>50</v>
       </c>
       <c r="T359" s="409" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="U359" s="217" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="V359" s="409" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="W359" s="451" t="str">
         <f t="shared" si="83"/>
         <v/>
       </c>
-      <c r="U359" s="217" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="V359" s="409" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
-      <c r="W359" s="451" t="str">
-        <f t="shared" si="81"/>
-        <v/>
-      </c>
       <c r="X359" s="409" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="Y359" s="167"/>
@@ -44670,19 +42095,19 @@
         <v>28</v>
       </c>
       <c r="D367" s="409" t="str">
-        <f t="shared" ref="D367:D373" si="84">IF(T375="","",T375)</f>
+        <f t="shared" ref="D367:D373" si="86">IF(T375="","",T375)</f>
         <v/>
       </c>
       <c r="E367" s="409" t="str">
-        <f t="shared" ref="E367:G373" si="85">IF(V375="","",V375)</f>
+        <f t="shared" ref="E367:G373" si="87">IF(V375="","",V375)</f>
         <v/>
       </c>
       <c r="F367" s="451" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="G367" s="409" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="H367" s="155"/>
@@ -44738,19 +42163,19 @@
       <c r="B368" s="203"/>
       <c r="C368" s="155"/>
       <c r="D368" s="409" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="E368" s="409" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="F368" s="451" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="G368" s="409" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="H368" s="155"/>
@@ -44806,19 +42231,19 @@
       <c r="B369" s="203"/>
       <c r="C369" s="155"/>
       <c r="D369" s="409" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="E369" s="409" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="F369" s="451" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="G369" s="409" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="H369" s="155"/>
@@ -44851,19 +42276,19 @@
       <c r="B370" s="203"/>
       <c r="C370" s="155"/>
       <c r="D370" s="409" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="E370" s="409" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="F370" s="451" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="G370" s="409" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="H370" s="155"/>
@@ -44894,19 +42319,19 @@
         <v>169</v>
       </c>
       <c r="D371" s="409" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="E371" s="409" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="F371" s="451" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="G371" s="409" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="H371" s="155"/>
@@ -44939,19 +42364,19 @@
         <v>328</v>
       </c>
       <c r="D372" s="409" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="E372" s="409" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="F372" s="451" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="G372" s="409" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="H372" s="155"/>
@@ -44982,19 +42407,19 @@
         <v>291</v>
       </c>
       <c r="D373" s="358" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="E373" s="358" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="F373" s="358" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="G373" s="358" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="H373" s="155"/>
@@ -45110,23 +42535,23 @@
         <v/>
       </c>
       <c r="R375" s="216">
-        <f t="shared" ref="R375:S378" si="86">IF(AH16="","",AH16)</f>
+        <f t="shared" ref="R375:S378" si="88">IF(AH16="","",AH16)</f>
         <v>28</v>
       </c>
       <c r="S375" s="216">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>50</v>
       </c>
       <c r="T375" s="409" t="str">
-        <f t="shared" ref="T375:V378" si="87">IF(AM16="","",AM16)</f>
+        <f t="shared" ref="T375:V378" si="89">IF(AM16="","",AM16)</f>
         <v/>
       </c>
       <c r="U375" s="217" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V375" s="409" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="W375" s="451" t="str">
@@ -45168,23 +42593,23 @@
         <v/>
       </c>
       <c r="R376" s="216">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>28</v>
       </c>
       <c r="S376" s="216">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>50</v>
       </c>
       <c r="T376" s="409" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U376" s="217" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V376" s="409" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="W376" s="451" t="str">
@@ -45226,23 +42651,23 @@
         <v/>
       </c>
       <c r="R377" s="216">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>28</v>
       </c>
       <c r="S377" s="216">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>50</v>
       </c>
       <c r="T377" s="409" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U377" s="217" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V377" s="409" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="W377" s="451" t="str">
@@ -45282,23 +42707,23 @@
         <v/>
       </c>
       <c r="R378" s="216">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>28</v>
       </c>
       <c r="S378" s="216">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>50</v>
       </c>
       <c r="T378" s="499" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U378" s="500" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V378" s="499" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="W378" s="501" t="str">
@@ -45514,23 +42939,23 @@
       </c>
       <c r="B383" s="203"/>
       <c r="C383" s="216">
-        <f t="shared" ref="C383:D386" si="88">IF(S389="","",S389)</f>
+        <f t="shared" ref="C383:D386" si="90">IF(S389="","",S389)</f>
         <v>20</v>
       </c>
       <c r="D383" s="409" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E383" s="409" t="str">
-        <f t="shared" ref="E383:G386" si="89">IF(V389="","",V389)</f>
+        <f t="shared" ref="E383:G386" si="91">IF(V389="","",V389)</f>
         <v/>
       </c>
       <c r="F383" s="451" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G383" s="409" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H383" s="155"/>
@@ -45562,23 +42987,23 @@
       </c>
       <c r="B384" s="203"/>
       <c r="C384" s="216">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>50</v>
       </c>
       <c r="D384" s="409" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E384" s="409" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F384" s="451" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G384" s="409" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H384" s="155"/>
@@ -45608,23 +43033,23 @@
       </c>
       <c r="B385" s="203"/>
       <c r="C385" s="216">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>100</v>
       </c>
       <c r="D385" s="409" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E385" s="409" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F385" s="451" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G385" s="409" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H385" s="155"/>
@@ -45654,23 +43079,23 @@
       </c>
       <c r="B386" s="203"/>
       <c r="C386" s="216">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>300</v>
       </c>
       <c r="D386" s="409" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E386" s="409" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F386" s="451" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G386" s="409" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H386" s="155"/>
@@ -45956,15 +43381,15 @@
         <v>100</v>
       </c>
       <c r="T391" s="409" t="str">
-        <f t="shared" ref="T391:V392" si="90">IF(AM20="","",AM20)</f>
+        <f t="shared" ref="T391:V392" si="92">IF(AM20="","",AM20)</f>
         <v/>
       </c>
       <c r="U391" s="217" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="V391" s="409" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="W391" s="451" t="str">
@@ -45986,35 +43411,35 @@
         <v>240</v>
       </c>
       <c r="D392" s="238">
-        <f t="shared" ref="D392:K392" si="91">Q399</f>
+        <f t="shared" ref="D392:K392" si="93">Q399</f>
         <v>24</v>
       </c>
       <c r="E392" s="238">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>25</v>
       </c>
       <c r="F392" s="238">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>28</v>
       </c>
       <c r="G392" s="238">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>32</v>
       </c>
       <c r="H392" s="238">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>28</v>
       </c>
       <c r="I392" s="238">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>30</v>
       </c>
       <c r="J392" s="238">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>32</v>
       </c>
       <c r="K392" s="238">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>34</v>
       </c>
       <c r="L392" s="155"/>
@@ -46038,15 +43463,15 @@
         <v>300</v>
       </c>
       <c r="T392" s="409" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="U392" s="217" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="V392" s="409" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="W392" s="451" t="str">
@@ -46068,35 +43493,35 @@
         <v>342</v>
       </c>
       <c r="D393" s="508" t="str">
-        <f t="shared" ref="D393:K394" si="92">IF(Q403="","",Q403)</f>
+        <f t="shared" ref="D393:K394" si="94">IF(Q403="","",Q403)</f>
         <v/>
       </c>
       <c r="E393" s="508" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="F393" s="508" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="G393" s="508" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="H393" s="508" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="I393" s="508" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="J393" s="508" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="K393" s="208" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="L393" s="155"/>
@@ -46132,35 +43557,35 @@
         <v>343</v>
       </c>
       <c r="D394" s="373" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="E394" s="373" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="F394" s="373" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="G394" s="373" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="H394" s="373" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="I394" s="373" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="J394" s="373" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="K394" s="375" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="L394" s="155"/>
@@ -46187,35 +43612,35 @@
         <v>344</v>
       </c>
       <c r="D395" s="508">
-        <f t="shared" ref="D395:K397" si="93">Q405</f>
+        <f t="shared" ref="D395:K397" si="95">Q405</f>
         <v>0.27</v>
       </c>
       <c r="E395" s="508">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="F395" s="508">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="G395" s="508">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.35</v>
       </c>
       <c r="H395" s="508">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="I395" s="508">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="J395" s="508">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.35</v>
       </c>
       <c r="K395" s="208">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.37</v>
       </c>
       <c r="L395" s="155"/>
@@ -46247,35 +43672,35 @@
         <v>345</v>
       </c>
       <c r="D396" s="420">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.36</v>
       </c>
       <c r="E396" s="420">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.37</v>
       </c>
       <c r="F396" s="420">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.4</v>
       </c>
       <c r="G396" s="420">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.44</v>
       </c>
       <c r="H396" s="420">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.47000000000000003</v>
       </c>
       <c r="I396" s="420">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.49</v>
       </c>
       <c r="J396" s="420">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.51</v>
       </c>
       <c r="K396" s="263">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>0.53</v>
       </c>
       <c r="L396" s="155"/>
@@ -46302,35 +43727,35 @@
         <v>180</v>
       </c>
       <c r="D397" s="379" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="E397" s="380" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="F397" s="380" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="G397" s="380" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="H397" s="380" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="I397" s="380" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="J397" s="380" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="K397" s="382" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="L397" s="155"/>
@@ -46540,23 +43965,23 @@
         <v>342</v>
       </c>
       <c r="D401" s="508" t="str">
-        <f t="shared" ref="D401:H404" si="94">IF(Q416="","",Q416)</f>
+        <f t="shared" ref="D401:H404" si="96">IF(Q416="","",Q416)</f>
         <v/>
       </c>
       <c r="E401" s="508" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="F401" s="508" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="G401" s="508" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="H401" s="508" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="I401" s="155"/>
@@ -46612,23 +44037,23 @@
         <v>343</v>
       </c>
       <c r="D402" s="373" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="E402" s="373" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="F402" s="373" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="G402" s="373" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="H402" s="373" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="I402" s="155"/>
@@ -46684,23 +44109,23 @@
         <v>344</v>
       </c>
       <c r="D403" s="508">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="E403" s="508">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="F403" s="508">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0.35</v>
       </c>
       <c r="G403" s="508">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0.37</v>
       </c>
       <c r="H403" s="508">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="I403" s="155"/>
@@ -46756,23 +44181,23 @@
         <v>345</v>
       </c>
       <c r="D404" s="420">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0.4</v>
       </c>
       <c r="E404" s="420">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0.42</v>
       </c>
       <c r="F404" s="420">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0.44</v>
       </c>
       <c r="G404" s="420">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0.46</v>
       </c>
       <c r="H404" s="420">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="I404" s="155"/>
@@ -46786,35 +44211,35 @@
         <v>343</v>
       </c>
       <c r="Q404" s="522" t="str">
-        <f t="shared" ref="Q404:X404" si="95">IF(OR(Q401="",Q402=""),"",ABS(Q402-Q401)/Q401)</f>
+        <f t="shared" ref="Q404:X404" si="97">IF(OR(Q401="",Q402=""),"",ABS(Q402-Q401)/Q401)</f>
         <v/>
       </c>
       <c r="R404" s="522" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="S404" s="522" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="T404" s="522" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U404" s="522" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="V404" s="522" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="W404" s="522" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="X404" s="523" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="Y404" s="167"/>
@@ -46858,35 +44283,35 @@
         <v>344</v>
       </c>
       <c r="Q405" s="524">
-        <f t="shared" ref="Q405:X405" si="96">IF($Q$397=1,Q399/100+0.03,Q399/100)</f>
+        <f t="shared" ref="Q405:X405" si="98">IF($Q$397=1,Q399/100+0.03,Q399/100)</f>
         <v>0.27</v>
       </c>
       <c r="R405" s="524">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="S405" s="524">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="T405" s="524">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.35</v>
       </c>
       <c r="U405" s="524">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="V405" s="524">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="W405" s="524">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.35</v>
       </c>
       <c r="X405" s="525">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>0.37</v>
       </c>
       <c r="Y405" s="167"/>
@@ -47790,7 +45215,7 @@
         <v>0</v>
       </c>
       <c r="R427" s="398" t="str">
-        <f t="shared" ref="R427:R432" si="97">IF(AB99="","",AB99)</f>
+        <f t="shared" ref="R427:R432" si="99">IF(AB99="","",AB99)</f>
         <v/>
       </c>
       <c r="S427" s="155"/>
@@ -47832,7 +45257,7 @@
         <v>0</v>
       </c>
       <c r="R428" s="398" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="S428" s="155"/>
@@ -47871,7 +45296,7 @@
       </c>
       <c r="Q429" s="290"/>
       <c r="R429" s="398" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="S429" s="155"/>
@@ -47910,7 +45335,7 @@
       </c>
       <c r="Q430" s="290"/>
       <c r="R430" s="398" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="S430" s="155"/>
@@ -47949,7 +45374,7 @@
       </c>
       <c r="Q431" s="290"/>
       <c r="R431" s="398" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="S431" s="155"/>
@@ -47986,7 +45411,7 @@
         <v/>
       </c>
       <c r="R432" s="398" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="S432" s="155"/>
@@ -48352,17 +45777,17 @@
         <v>0</v>
       </c>
       <c r="Q443" s="544" t="str">
-        <f t="shared" ref="Q443:Q448" si="98">IF(AB109="","",AB109)</f>
+        <f t="shared" ref="Q443:Q448" si="100">IF(AB109="","",AB109)</f>
         <v/>
       </c>
       <c r="R443" s="406"/>
       <c r="S443" s="544" t="str">
-        <f t="shared" ref="S443:S448" si="99">IF(AB115="","",AB115)</f>
+        <f t="shared" ref="S443:S448" si="101">IF(AB115="","",AB115)</f>
         <v/>
       </c>
       <c r="T443" s="406"/>
       <c r="U443" s="544" t="str">
-        <f t="shared" ref="U443:U448" si="100">IF(AB121="","",AB121)</f>
+        <f t="shared" ref="U443:U448" si="102">IF(AB121="","",AB121)</f>
         <v/>
       </c>
       <c r="V443" s="249"/>
@@ -48395,17 +45820,17 @@
         <v>0</v>
       </c>
       <c r="Q444" s="544" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="R444" s="406"/>
       <c r="S444" s="544" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="T444" s="406"/>
       <c r="U444" s="544" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="V444" s="249"/>
@@ -48438,17 +45863,17 @@
         <v>0</v>
       </c>
       <c r="Q445" s="544" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="R445" s="406"/>
       <c r="S445" s="544" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="T445" s="406"/>
       <c r="U445" s="544" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="V445" s="249"/>
@@ -48478,17 +45903,17 @@
       </c>
       <c r="P446" s="406"/>
       <c r="Q446" s="544" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="R446" s="406"/>
       <c r="S446" s="544" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="T446" s="406"/>
       <c r="U446" s="544" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="V446" s="249"/>
@@ -48518,17 +45943,17 @@
       </c>
       <c r="P447" s="406"/>
       <c r="Q447" s="544" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="R447" s="406"/>
       <c r="S447" s="544" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="T447" s="406"/>
       <c r="U447" s="544" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="V447" s="249"/>
@@ -48558,17 +45983,17 @@
       </c>
       <c r="P448" s="415"/>
       <c r="Q448" s="545" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="R448" s="415"/>
       <c r="S448" s="545" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="T448" s="415"/>
       <c r="U448" s="545" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="V448" s="249"/>
@@ -48762,8 +46187,14 @@
       <c r="S454" s="171" t="s">
         <v>359</v>
       </c>
-      <c r="T454" s="290"/>
-      <c r="U454" s="290"/>
+      <c r="T454" s="437" t="e">
+        <f>AVERAGE(AC281:AC284)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U454" s="437" t="e">
+        <f>AVERAGE(AD281:AD284)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="V454" s="155"/>
       <c r="W454" s="155"/>
       <c r="X454" s="155"/>
@@ -48798,8 +46229,14 @@
       <c r="S455" s="171" t="s">
         <v>360</v>
       </c>
-      <c r="T455" s="290"/>
-      <c r="U455" s="290"/>
+      <c r="T455" s="437" t="e">
+        <f>AVERAGE(AA281:AA284)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U455" s="437" t="e">
+        <f>AVERAGE(AB281:AB284)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="V455" s="155"/>
       <c r="W455" s="155"/>
       <c r="X455" s="155"/>
@@ -48899,21 +46336,21 @@
       <c r="S458" s="171" t="s">
         <v>317</v>
       </c>
-      <c r="T458" s="475" t="str">
+      <c r="T458" s="475" t="e">
         <f>IF(OR(T455="",U455=""),"",(T455-50)/U455)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="U458" s="546" t="str">
         <f>IF(AB128="","",AB128)</f>
         <v/>
       </c>
-      <c r="V458" s="358" t="str">
+      <c r="V458" s="358" t="e">
         <f>IF(OR(T458="",U458=""),"",(T458-U458)/U458)</f>
-        <v/>
-      </c>
-      <c r="W458" s="476" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W458" s="476" t="e">
         <f>IF(T458&gt;=40,"Pass","Fail")</f>
-        <v>Pass</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X458" s="155"/>
       <c r="Y458" s="167"/>
@@ -48942,17 +46379,17 @@
       <c r="S459" s="171" t="s">
         <v>319</v>
       </c>
-      <c r="T459" s="475" t="str">
+      <c r="T459" s="475" t="e">
         <f>IF(OR(T455="",T454=""),"",(T455-T454)/U455)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="U459" s="546" t="str">
         <f>IF(AB129="","",AB129)</f>
         <v/>
       </c>
-      <c r="V459" s="358" t="str">
+      <c r="V459" s="358" t="e">
         <f>IF(OR(T459="",U459=""),"",(T459-U459)/U459)</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
       <c r="W459" s="216" t="str">
         <f>IF(U459="","NA",IF(V459&lt;=0.15,"Pass","Fail"))</f>
@@ -49541,45 +46978,27 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="K259:L259"/>
-    <mergeCell ref="E305:I305"/>
-    <mergeCell ref="E316:I316"/>
-    <mergeCell ref="D189:I189"/>
-    <mergeCell ref="I343:J343"/>
-    <mergeCell ref="I344:J344"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="D172:G172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="D179:I179"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:G180"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="U168:V168"/>
-    <mergeCell ref="U169:V169"/>
-    <mergeCell ref="P173:P174"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="U173:U174"/>
-    <mergeCell ref="V97:X98"/>
-    <mergeCell ref="P105:R106"/>
-    <mergeCell ref="S105:U106"/>
-    <mergeCell ref="V105:X106"/>
-    <mergeCell ref="P167:S167"/>
-    <mergeCell ref="U167:V167"/>
-    <mergeCell ref="S97:U98"/>
-    <mergeCell ref="D35:F36"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="J35:L36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P97:R98"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="T338:U338"/>
+    <mergeCell ref="T339:U339"/>
+    <mergeCell ref="P181:U181"/>
+    <mergeCell ref="P204:U204"/>
+    <mergeCell ref="Q205:S205"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:U183"/>
+    <mergeCell ref="U195:U196"/>
+    <mergeCell ref="U205:U206"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="K18:L18"/>
@@ -49593,438 +47012,456 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="T338:U338"/>
-    <mergeCell ref="T339:U339"/>
-    <mergeCell ref="P181:U181"/>
-    <mergeCell ref="P204:U204"/>
-    <mergeCell ref="Q205:S205"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:U183"/>
-    <mergeCell ref="U195:U196"/>
-    <mergeCell ref="U205:U206"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F36"/>
+    <mergeCell ref="G35:I36"/>
+    <mergeCell ref="J35:L36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P97:R98"/>
+    <mergeCell ref="V97:X98"/>
+    <mergeCell ref="P105:R106"/>
+    <mergeCell ref="S105:U106"/>
+    <mergeCell ref="V105:X106"/>
+    <mergeCell ref="P167:S167"/>
+    <mergeCell ref="U167:V167"/>
+    <mergeCell ref="S97:U98"/>
+    <mergeCell ref="U168:V168"/>
+    <mergeCell ref="U169:V169"/>
+    <mergeCell ref="P173:P174"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="U173:U174"/>
+    <mergeCell ref="I344:J344"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="D172:G172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="D179:I179"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:G180"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="E305:I305"/>
+    <mergeCell ref="E316:I316"/>
+    <mergeCell ref="D189:I189"/>
+    <mergeCell ref="I343:J343"/>
   </mergeCells>
   <conditionalFormatting sqref="P188:U189">
-    <cfRule type="cellIs" dxfId="178" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="104" operator="lessThan">
       <formula>0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="105" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="105" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P207:U210">
-    <cfRule type="cellIs" dxfId="176" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="101" operator="between">
       <formula>0.02</formula>
       <formula>-0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="102" operator="lessThan">
       <formula>-0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="103" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="103" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P211:U211">
-    <cfRule type="cellIs" dxfId="173" priority="98" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="98" operator="lessThan">
       <formula>-0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="99" operator="greaterThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="100" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="100" operator="between">
       <formula>-0.01</formula>
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W236:W243">
-    <cfRule type="cellIs" dxfId="170" priority="96" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="96" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="97" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W251:W257">
-    <cfRule type="cellIs" dxfId="168" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="94" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="95" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U265">
-    <cfRule type="cellIs" dxfId="166" priority="93" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="93" operator="between">
       <formula>$X$265</formula>
       <formula>$Y$265</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="7" operator="notBetween">
+    <cfRule type="cellIs" dxfId="88" priority="7" operator="notBetween">
       <formula>$X$265</formula>
       <formula>$Y$265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U266">
-    <cfRule type="cellIs" dxfId="164" priority="92" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="92" operator="between">
       <formula>$X$266</formula>
       <formula>$Y$266</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="6" operator="notBetween">
+    <cfRule type="cellIs" dxfId="86" priority="6" operator="notBetween">
       <formula>$X$266</formula>
       <formula>$Y$266</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U267">
-    <cfRule type="cellIs" dxfId="162" priority="91" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="91" operator="between">
       <formula>$X$267</formula>
       <formula>$Y$267</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="5" operator="notBetween">
+    <cfRule type="cellIs" dxfId="84" priority="5" operator="notBetween">
       <formula>$X$267</formula>
       <formula>$Y$267</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U269">
-    <cfRule type="cellIs" dxfId="160" priority="90" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="90" operator="between">
       <formula>$X$269</formula>
       <formula>$Y$269</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="82" priority="4" operator="notBetween">
       <formula>$X$269</formula>
       <formula>$Y$269</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U270">
-    <cfRule type="cellIs" dxfId="158" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="89" operator="between">
       <formula>$X$270</formula>
       <formula>$Y$270</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="80" priority="3" operator="notBetween">
       <formula>$X$270</formula>
       <formula>$Y$270</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U271">
-    <cfRule type="cellIs" dxfId="156" priority="88" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="88" operator="between">
       <formula>$X$271</formula>
       <formula>$Y$271</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="notBetween">
       <formula>$X$271</formula>
       <formula>$Y$271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U272">
-    <cfRule type="cellIs" dxfId="154" priority="87" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="87" operator="between">
       <formula>$X$272</formula>
       <formula>$Y$272</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="notBetween">
       <formula>$X$272</formula>
       <formula>$Y$272</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X283 X298 X318 X330">
-    <cfRule type="cellIs" dxfId="153" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="86" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X288">
-    <cfRule type="cellIs" dxfId="152" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="20" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="85" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X335">
-    <cfRule type="cellIs" dxfId="150" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="84" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T381:X381">
-    <cfRule type="cellIs" dxfId="149" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="81" operator="lessThan">
       <formula>-0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="82" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="83" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="83" operator="between">
       <formula>0.02</formula>
       <formula>-0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W393">
-    <cfRule type="cellIs" dxfId="146" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="79" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="80" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U427 P446 R446 Q437:R437 U437:V437">
-    <cfRule type="cellIs" dxfId="144" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="64" operator="lessThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="65" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U428 Q438:R438 U438:V438 P447 R447">
-    <cfRule type="cellIs" dxfId="142" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="63" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U429 Q439:R439 U439:V439 P448 R448">
-    <cfRule type="cellIs" dxfId="140" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="61" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T446">
-    <cfRule type="cellIs" dxfId="138" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="58" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="59" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T447:T448">
-    <cfRule type="cellIs" dxfId="136" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="56" operator="lessThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="57" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="greaterThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T458">
-    <cfRule type="cellIs" dxfId="134" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="54" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="55" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V459">
-    <cfRule type="cellIs" dxfId="132" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="51" operator="lessThan">
       <formula>-0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="53" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="between">
       <formula>0.15</formula>
       <formula>-0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T343">
-    <cfRule type="cellIs" dxfId="129" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="48" operator="between">
       <formula>$R$343*0.95</formula>
       <formula>$R$343*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T344">
-    <cfRule type="cellIs" dxfId="128" priority="47" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="47" operator="between">
       <formula>$R$344*0.95</formula>
       <formula>$R$344*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T345">
-    <cfRule type="cellIs" dxfId="127" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="46" operator="between">
       <formula>$R$345*0.95</formula>
       <formula>$R$345*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T346">
-    <cfRule type="cellIs" dxfId="126" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="45" operator="between">
       <formula>$R$346*0.95</formula>
       <formula>$R$346*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T347">
-    <cfRule type="cellIs" dxfId="125" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="between">
       <formula>$R$347*0.95</formula>
       <formula>$R$347*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T348">
-    <cfRule type="cellIs" dxfId="124" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="between">
       <formula>$R$348*0.95</formula>
       <formula>$R$348*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T349">
-    <cfRule type="cellIs" dxfId="123" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="42" operator="between">
       <formula>$R$349*0.95</formula>
       <formula>$R$349*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T354">
-    <cfRule type="cellIs" dxfId="122" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="41" operator="between">
       <formula>$R$354*0.95</formula>
       <formula>$R$354*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T355">
-    <cfRule type="cellIs" dxfId="121" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="40" operator="between">
       <formula>$R$355*0.95</formula>
       <formula>$R$355*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T356">
-    <cfRule type="cellIs" dxfId="120" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="39" operator="between">
       <formula>$R$356*0.95</formula>
       <formula>$R$356*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T357">
-    <cfRule type="cellIs" dxfId="119" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="38" operator="between">
       <formula>$R$357*0.95</formula>
       <formula>$R$357*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T358">
-    <cfRule type="cellIs" dxfId="118" priority="37" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="between">
       <formula>$R$358*0.95</formula>
       <formula>$R$358*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T359">
-    <cfRule type="cellIs" dxfId="117" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="between">
       <formula>$R$359*0.95</formula>
       <formula>$R$359*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T364">
-    <cfRule type="cellIs" dxfId="116" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="35" operator="between">
       <formula>$R$364*0.95</formula>
       <formula>$R$364*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T365">
-    <cfRule type="cellIs" dxfId="115" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="between">
       <formula>$R$365*0.95</formula>
       <formula>$R$365*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T366">
-    <cfRule type="cellIs" dxfId="114" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="between">
       <formula>$R$366*0.95</formula>
       <formula>$R$366*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T367">
-    <cfRule type="cellIs" dxfId="113" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="between">
       <formula>$R$367*0.95</formula>
       <formula>$R$367*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T368">
-    <cfRule type="cellIs" dxfId="112" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="between">
       <formula>$R$368*0.95</formula>
       <formula>$R$368*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R123:R130">
-    <cfRule type="cellIs" dxfId="111" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="lessThan">
       <formula>-0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="between">
       <formula>0.5</formula>
       <formula>-0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U169:V169">
-    <cfRule type="cellIs" dxfId="108" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="lessThan">
       <formula>160</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="greaterThan">
       <formula>160</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q142:V142">
-    <cfRule type="cellIs" dxfId="106" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q227:T227">
-    <cfRule type="cellIs" dxfId="104" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X283 X298 X318 X330 X335">
-    <cfRule type="cellIs" dxfId="102" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q407:X407 Q420:U420">
-    <cfRule type="cellIs" dxfId="101" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q154:V154">
-    <cfRule type="cellIs" dxfId="99" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="lessThan">
       <formula>0.07</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="greaterThan">
       <formula>0.07</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q155:V155">
-    <cfRule type="cellIs" dxfId="97" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X303">
-    <cfRule type="cellIs" dxfId="95" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X322">
-    <cfRule type="cellIs" dxfId="93" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X334">
-    <cfRule type="cellIs" dxfId="91" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60509,18 +57946,18 @@
       <c r="A41" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B41" s="4" t="str">
+      <c r="B41" s="4" t="e">
         <f>Sheet1!T458</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B42" s="4" t="str">
+      <c r="B42" s="4" t="e">
         <f>Sheet1!T459</f>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -60743,50 +58180,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="368" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>21.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
       <formula>24</formula>
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="365" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>21.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
       <formula>25.35</formula>
       <formula>31.55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="362" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>21.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
       <formula>24</formula>
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="359" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="lessThan">
       <formula>21.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="between">
       <formula>25.35</formula>
       <formula>31.55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MUSCMammoHologic.xlsx
+++ b/MUSCMammoHologic.xlsx
@@ -16,10 +16,11 @@
     <sheet name="Tech QC Eval-Hologic" sheetId="12" r:id="rId2"/>
     <sheet name="MQSA Requirements" sheetId="13" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Tables" sheetId="10" r:id="rId5"/>
-    <sheet name="DataPage" sheetId="6" r:id="rId6"/>
-    <sheet name="Corrected kV" sheetId="8" r:id="rId7"/>
-    <sheet name="dropdowns" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId5"/>
+    <sheet name="Tables" sheetId="10" r:id="rId6"/>
+    <sheet name="DataPage" sheetId="6" r:id="rId7"/>
+    <sheet name="Corrected kV" sheetId="8" r:id="rId8"/>
+    <sheet name="dropdowns" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="FiberList">dropdowns!$A$11:$A$22</definedName>
@@ -197,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="717">
   <si>
     <t>Medical University of South Carolina</t>
   </si>
@@ -3028,6 +3029,9 @@
   </si>
   <si>
     <t>Acceptable: Enter 1 for YES, 2 for NO, 3 for NA</t>
+  </si>
+  <si>
+    <t>X-ray field does not fall within the image receptor by more than 2% SID on any side</t>
   </si>
 </sst>
 </file>
@@ -22466,9 +22470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K229" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Y239" sqref="Y239"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -30714,9 +30716,7 @@
       <c r="X139" s="155"/>
       <c r="Y139" s="167"/>
       <c r="AA139" s="247"/>
-      <c r="AB139" s="293" t="s">
-        <v>598</v>
-      </c>
+      <c r="AB139" s="293"/>
       <c r="AC139" s="294" t="str">
         <f>IF(AB139&lt;&gt;AD139,"Change","")</f>
         <v/>
@@ -30814,9 +30814,7 @@
       <c r="X141" s="155"/>
       <c r="Y141" s="167"/>
       <c r="AA141" s="247"/>
-      <c r="AB141" s="293" t="s">
-        <v>598</v>
-      </c>
+      <c r="AB141" s="293"/>
       <c r="AC141" s="294" t="str">
         <f>IF(AB141&lt;&gt;AD141,"Change","")</f>
         <v/>
@@ -30913,9 +30911,7 @@
       <c r="X143" s="155"/>
       <c r="Y143" s="167"/>
       <c r="AA143" s="247"/>
-      <c r="AB143" s="293" t="s">
-        <v>598</v>
-      </c>
+      <c r="AB143" s="293"/>
       <c r="AC143" s="294" t="str">
         <f>IF(AB143&lt;&gt;AD143,"Change","")</f>
         <v/>
@@ -31009,9 +31005,7 @@
       </c>
       <c r="Y145" s="167"/>
       <c r="AA145" s="247"/>
-      <c r="AB145" s="293" t="s">
-        <v>598</v>
-      </c>
+      <c r="AB145" s="293"/>
       <c r="AC145" s="294" t="str">
         <f>IF(AB145&lt;&gt;AD145,"Change","")</f>
         <v/>
@@ -31135,9 +31129,7 @@
       </c>
       <c r="Y147" s="167"/>
       <c r="AA147" s="247"/>
-      <c r="AB147" s="293" t="s">
-        <v>598</v>
-      </c>
+      <c r="AB147" s="293"/>
       <c r="AC147" s="294" t="str">
         <f>IF(AB147&lt;&gt;AD147,"Change","")</f>
         <v/>
@@ -31389,27 +31381,27 @@
         <v>701</v>
       </c>
       <c r="AA152" s="306" t="str">
-        <f>IF(OR(Q148="",$Q$153=""),"",ABS(Q148-$Q$153)/$Q$153)</f>
+        <f>IF(OR(Q148="",Q$153=""),"",ABS(Q148-Q$153)/Q$153)</f>
         <v/>
       </c>
       <c r="AB152" s="306" t="str">
-        <f t="shared" ref="AB152:AF152" si="24">IF(OR(R148="",$Q$153=""),"",ABS(R148-$Q$153)/$Q$153)</f>
+        <f>IF(OR(R148="",R$153=""),"",ABS(R148-R$153)/R$153)</f>
         <v/>
       </c>
       <c r="AC152" s="306" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(S148="",S$153=""),"",ABS(S148-S$153)/S$153)</f>
         <v/>
       </c>
       <c r="AD152" s="306" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(T148="",T$153=""),"",ABS(T148-T$153)/T$153)</f>
         <v/>
       </c>
       <c r="AE152" s="306" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(U148="",U$153=""),"",ABS(U148-U$153)/U$153)</f>
         <v/>
       </c>
       <c r="AF152" s="306" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR(V148="",V$153=""),"",ABS(V148-V$153)/V$153)</f>
         <v/>
       </c>
     </row>
@@ -31447,23 +31439,23 @@
         <v/>
       </c>
       <c r="R153" s="306" t="str">
-        <f t="shared" ref="R153:V153" si="25">IF(R148="","",AVERAGE(R148:R152))</f>
+        <f t="shared" ref="R153:V153" si="24">IF(R148="","",AVERAGE(R148:R152))</f>
         <v/>
       </c>
       <c r="S153" s="306" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="T153" s="306" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U153" s="306" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="V153" s="306" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Y153" s="167"/>
@@ -31471,27 +31463,27 @@
         <v>702</v>
       </c>
       <c r="AA153" s="306" t="str">
-        <f t="shared" ref="AA153:AA156" si="26">IF(OR(Q149="",$Q$153=""),"",ABS(Q149-$Q$153)/$Q$153)</f>
+        <f t="shared" ref="AA153:AA156" si="25">IF(OR(Q149="",Q$153=""),"",ABS(Q149-Q$153)/Q$153)</f>
         <v/>
       </c>
       <c r="AB153" s="306" t="str">
-        <f t="shared" ref="AB153:AF153" si="27">IF(OR(R149="",$Q$153=""),"",ABS(R149-$Q$153)/$Q$153)</f>
+        <f t="shared" ref="AB153:AF153" si="26">IF(OR(R149="",R$153=""),"",ABS(R149-R$153)/R$153)</f>
         <v/>
       </c>
       <c r="AC153" s="306" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD153" s="306" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AE153" s="306" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF153" s="306" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -31529,23 +31521,23 @@
         <v/>
       </c>
       <c r="R154" s="310" t="str">
-        <f t="shared" ref="R154:V154" si="28">IF(AB152="","",MAX(AB152:AB156))</f>
+        <f>IF(AB152="","",MAX(AB152:AB156))</f>
         <v/>
       </c>
       <c r="S154" s="310" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(AC152="","",MAX(AC152:AC156))</f>
         <v/>
       </c>
       <c r="T154" s="310" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="R154:V154" si="27">IF(AD152="","",MAX(AD152:AD156))</f>
         <v/>
       </c>
       <c r="U154" s="310" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(AE152="","",MAX(AE152:AE156))</f>
         <v/>
       </c>
       <c r="V154" s="310" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(AF152="","",MAX(AF152:AF156))</f>
         <v/>
       </c>
       <c r="Y154" s="167"/>
@@ -31553,27 +31545,27 @@
         <v>703</v>
       </c>
       <c r="AA154" s="306" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AB154" s="306" t="str">
-        <f t="shared" ref="AB154:AF154" si="29">IF(OR(R150="",$Q$153=""),"",ABS(R150-$Q$153)/$Q$153)</f>
+        <f>IF(OR(R150="",R$153=""),"",ABS(R150-R$153)/R$153)</f>
         <v/>
       </c>
       <c r="AC154" s="306" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(S150="",S$153=""),"",ABS(S150-S$153)/S$153)</f>
         <v/>
       </c>
       <c r="AD154" s="306" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(T150="",T$153=""),"",ABS(T150-T$153)/T$153)</f>
         <v/>
       </c>
       <c r="AE154" s="306" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(U150="",U$153=""),"",ABS(U150-U$153)/U$153)</f>
         <v/>
       </c>
       <c r="AF154" s="306" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(OR(V150="",V$153=""),"",ABS(V150-V$153)/V$153)</f>
         <v/>
       </c>
     </row>
@@ -31611,23 +31603,23 @@
         <v/>
       </c>
       <c r="R155" s="304" t="str">
-        <f t="shared" ref="R155:V155" si="30">IF(R154="","",IF(R154&lt;0.07,"YES","NO"))</f>
+        <f t="shared" ref="R155:V155" si="28">IF(R154="","",IF(R154&lt;0.07,"YES","NO"))</f>
         <v/>
       </c>
       <c r="S155" s="304" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="T155" s="304" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U155" s="304" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="V155" s="304" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Y155" s="167"/>
@@ -31635,27 +31627,27 @@
         <v>704</v>
       </c>
       <c r="AA155" s="306" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AB155" s="306" t="str">
-        <f t="shared" ref="AB155:AF155" si="31">IF(OR(R151="",$Q$153=""),"",ABS(R151-$Q$153)/$Q$153)</f>
+        <f t="shared" ref="AB155:AF155" si="29">IF(OR(R151="",R$153=""),"",ABS(R151-R$153)/R$153)</f>
         <v/>
       </c>
       <c r="AC155" s="306" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AD155" s="306" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AE155" s="306" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="AF155" s="306" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -31682,27 +31674,27 @@
         <v>705</v>
       </c>
       <c r="AA156" s="306" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AB156" s="306" t="str">
-        <f t="shared" ref="AB156:AF156" si="32">IF(OR(R152="",$Q$153=""),"",ABS(R152-$Q$153)/$Q$153)</f>
+        <f t="shared" ref="AB156:AF156" si="30">IF(OR(R152="",R$153=""),"",ABS(R152-R$153)/R$153)</f>
         <v/>
       </c>
       <c r="AC156" s="306" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AD156" s="306" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AE156" s="306" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AF156" s="306" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -31744,27 +31736,27 @@
         <v>203</v>
       </c>
       <c r="E158" s="212" t="str">
-        <f t="shared" ref="E158:J158" si="33">IF(Q136="","",Q136)</f>
+        <f t="shared" ref="E158:J158" si="31">IF(Q136="","",Q136)</f>
         <v/>
       </c>
       <c r="F158" s="212" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="G158" s="212" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="H158" s="212" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="I158" s="212" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J158" s="212" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K158" s="155"/>
@@ -31784,27 +31776,27 @@
         <v>29</v>
       </c>
       <c r="E159" s="212" t="str">
-        <f t="shared" ref="E159:J164" si="34">IF(Q136="","",Q136)</f>
+        <f t="shared" ref="E159:J164" si="32">IF(Q136="","",Q136)</f>
         <v/>
       </c>
       <c r="F159" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G159" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H159" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I159" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J159" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K159" s="155"/>
@@ -31824,27 +31816,27 @@
         <v>31</v>
       </c>
       <c r="E160" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F160" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G160" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H160" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I160" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J160" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K160" s="155"/>
@@ -31864,27 +31856,27 @@
         <v>176</v>
       </c>
       <c r="E161" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F161" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G161" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H161" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I161" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J161" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K161" s="155"/>
@@ -31904,27 +31896,27 @@
         <v>177</v>
       </c>
       <c r="E162" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F162" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G162" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H162" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I162" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J162" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K162" s="155"/>
@@ -31958,27 +31950,27 @@
         <v>178</v>
       </c>
       <c r="E163" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F163" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G163" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H163" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I163" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J163" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K163" s="155"/>
@@ -32009,27 +32001,27 @@
         <v>179</v>
       </c>
       <c r="E164" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="F164" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="G164" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="H164" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="I164" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J164" s="212" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K164" s="155"/>
@@ -32064,11 +32056,11 @@
         <v/>
       </c>
       <c r="F165" s="212" t="str">
-        <f t="shared" ref="F165:J165" si="35">IF(R142="","",IF(R142="1","YES","NO"))</f>
+        <f t="shared" ref="F165:J165" si="33">IF(R142="","",IF(R142="1","YES","NO"))</f>
         <v/>
       </c>
       <c r="G165" s="212" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="H165" s="212" t="str">
@@ -32076,11 +32068,11 @@
         <v/>
       </c>
       <c r="I165" s="212" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J165" s="212" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K165" s="155"/>
@@ -32113,23 +32105,23 @@
         <v/>
       </c>
       <c r="F166" s="321" t="str">
-        <f t="shared" ref="F166:J166" si="36">IF(R154="","",R154)</f>
+        <f t="shared" ref="F166:J166" si="34">IF(R154="","",R154)</f>
         <v/>
       </c>
       <c r="G166" s="321" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="H166" s="321" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="I166" s="321" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J166" s="321" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K166" s="155"/>
@@ -32162,27 +32154,27 @@
         <v>180</v>
       </c>
       <c r="E167" s="324" t="str">
-        <f t="shared" ref="E167:J167" si="37">Q155</f>
+        <f t="shared" ref="E167:J167" si="35">Q155</f>
         <v/>
       </c>
       <c r="F167" s="324" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="G167" s="324" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="H167" s="324" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="I167" s="324" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J167" s="324" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K167" s="325"/>
@@ -32753,27 +32745,27 @@
         <v>204</v>
       </c>
       <c r="D182" s="353" t="str">
-        <f t="shared" ref="D182:I187" si="38">IF(P184="","",P184)</f>
+        <f t="shared" ref="D182:I187" si="36">IF(P184="","",P184)</f>
         <v/>
       </c>
       <c r="E182" s="354" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F182" s="354" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G182" s="354" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H182" s="355" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I182" s="356" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J182" s="245"/>
@@ -32810,27 +32802,27 @@
         <v>205</v>
       </c>
       <c r="D183" s="353" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E183" s="354" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F183" s="354" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G183" s="354" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H183" s="355" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I183" s="356" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J183" s="245"/>
@@ -32871,27 +32863,27 @@
         <v>206</v>
       </c>
       <c r="D184" s="353" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E184" s="354" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F184" s="354" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G184" s="354" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H184" s="355" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I184" s="356" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J184" s="245"/>
@@ -32903,27 +32895,27 @@
         <v>204</v>
       </c>
       <c r="P184" s="358" t="str">
-        <f t="shared" ref="P184:U187" si="39">IF(OR(P175="",$P$172=""),"",P175/$P$172)</f>
+        <f t="shared" ref="P184:U187" si="37">IF(OR(P175="",$P$172=""),"",P175/$P$172)</f>
         <v/>
       </c>
       <c r="Q184" s="359" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R184" s="359" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S184" s="359" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T184" s="359" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U184" s="360" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V184" s="245"/>
@@ -32940,27 +32932,27 @@
         <v>207</v>
       </c>
       <c r="D185" s="353" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E185" s="354" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F185" s="354" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G185" s="354" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H185" s="355" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I185" s="356" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J185" s="245"/>
@@ -32972,27 +32964,27 @@
         <v>205</v>
       </c>
       <c r="P185" s="361" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q185" s="362" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R185" s="362" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S185" s="362" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T185" s="362" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U185" s="363" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V185" s="245"/>
@@ -33009,27 +33001,27 @@
         <v>222</v>
       </c>
       <c r="D186" s="364" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E186" s="365" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F186" s="365" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G186" s="365" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H186" s="366" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I186" s="367" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J186" s="245"/>
@@ -33041,27 +33033,27 @@
         <v>206</v>
       </c>
       <c r="P186" s="361" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q186" s="362" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R186" s="362" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S186" s="362" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T186" s="362" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U186" s="363" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V186" s="245"/>
@@ -33078,27 +33070,27 @@
         <v>223</v>
       </c>
       <c r="D187" s="368" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E187" s="369" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="F187" s="369" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="G187" s="369" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="H187" s="370" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="I187" s="371" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J187" s="155"/>
@@ -33110,27 +33102,27 @@
         <v>207</v>
       </c>
       <c r="P187" s="372" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q187" s="373" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R187" s="373" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S187" s="373" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T187" s="373" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U187" s="374" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V187" s="245"/>
@@ -33147,27 +33139,27 @@
         <v>180</v>
       </c>
       <c r="D188" s="375" t="str">
-        <f t="shared" ref="D188:I188" si="40">IF(OR(D186="",D187=""),"",IF(OR(D186&gt;0.02,D187&gt;0.02),"NO","YES"))</f>
+        <f t="shared" ref="D188:I188" si="38">IF(OR(D186="",D187=""),"",IF(OR(D186&gt;0.02,D187&gt;0.02),"NO","YES"))</f>
         <v/>
       </c>
       <c r="E188" s="376" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F188" s="376" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G188" s="376" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H188" s="377" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I188" s="378" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J188" s="155"/>
@@ -33179,27 +33171,27 @@
         <v>211</v>
       </c>
       <c r="P188" s="364" t="str">
-        <f t="shared" ref="P188:U188" si="41">IF(OR(P184="",P185=""),"",ABS(P184)+ABS(P185))</f>
+        <f t="shared" ref="P188:U188" si="39">IF(OR(P184="",P185=""),"",ABS(P184)+ABS(P185))</f>
         <v/>
       </c>
       <c r="Q188" s="365" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="R188" s="365" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="S188" s="365" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="T188" s="365" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U188" s="367" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="V188" s="245"/>
@@ -33230,27 +33222,27 @@
         <v>212</v>
       </c>
       <c r="P189" s="368" t="str">
-        <f t="shared" ref="P189:U189" si="42">IF(OR(P186="",P187=""),"",ABS(P186)+ABS(P187))</f>
+        <f t="shared" ref="P189:U189" si="40">IF(OR(P186="",P187=""),"",ABS(P186)+ABS(P187))</f>
         <v/>
       </c>
       <c r="Q189" s="369" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="R189" s="369" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="S189" s="369" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="T189" s="369" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U189" s="371" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="V189" s="245"/>
@@ -33267,27 +33259,27 @@
         <v>204</v>
       </c>
       <c r="D190" s="353" t="str">
-        <f t="shared" ref="D190:I194" si="43">IF(P207="","",P207)</f>
+        <f t="shared" ref="D190:I194" si="41">IF(P207="","",P207)</f>
         <v/>
       </c>
       <c r="E190" s="354" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F190" s="354" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G190" s="354" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H190" s="355" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I190" s="356" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="J190" s="245"/>
@@ -33320,27 +33312,27 @@
         <v>205</v>
       </c>
       <c r="D191" s="353" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E191" s="354" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F191" s="354" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G191" s="354" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H191" s="355" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I191" s="356" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="J191" s="245"/>
@@ -33371,27 +33363,27 @@
         <v>206</v>
       </c>
       <c r="D192" s="353" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E192" s="354" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F192" s="354" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G192" s="354" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H192" s="355" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I192" s="356" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="J192" s="245"/>
@@ -33422,27 +33414,27 @@
         <v>207</v>
       </c>
       <c r="D193" s="353" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E193" s="354" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F193" s="354" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G193" s="354" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H193" s="355" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I193" s="356" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="J193" s="245"/>
@@ -33473,27 +33465,27 @@
         <v>220</v>
       </c>
       <c r="D194" s="368" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E194" s="369" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F194" s="369" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G194" s="369" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H194" s="370" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I194" s="371" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="J194" s="245"/>
@@ -33522,27 +33514,27 @@
         <v>180</v>
       </c>
       <c r="D195" s="380" t="str">
-        <f t="shared" ref="D195:I195" si="44">IF(OR(D190="",D191="",D192="",D193="",D194=""),"",IF($O$34=1,IF(AND(D190&lt;=0.02,D191&lt;=0.02,D192&lt;=0.02,D193&lt;=0.02,D194&lt;=0.01),"YES","NO"),IF(AND(D190&lt;=0.02,D191&lt;=0.02,D192&lt;=0.04,D193&lt;=0.02,D194&lt;=0.01),"YES","NO")))</f>
+        <f>IF(OR(D190="",D191="",D192="",D193="",D194=""),"",IF(AND(D190&lt;=0.02,D191&lt;=0.02,D192&lt;=0.02,D193&lt;=0.02,D194&lt;=0.01),"YES","NO"))</f>
         <v/>
       </c>
       <c r="E195" s="376" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="E195:I195" si="42">IF(OR(E190="",E191="",E192="",E193="",E194=""),"",IF(AND(E190&lt;=0.02,E191&lt;=0.02,E192&lt;=0.02,E193&lt;=0.02,E194&lt;=0.01),"YES","NO"))</f>
         <v/>
       </c>
       <c r="F195" s="376" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="G195" s="376" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="H195" s="377" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I195" s="378" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="J195" s="245"/>
@@ -34001,27 +33993,27 @@
         <v>204</v>
       </c>
       <c r="P207" s="358" t="str">
-        <f t="shared" ref="P207:U211" si="45">IF(OR(P197="",$P$172=""),"",P197/$P$172)</f>
+        <f t="shared" ref="P207:U211" si="43">IF(OR(P197="",$P$172=""),"",P197/$P$172)</f>
         <v/>
       </c>
       <c r="Q207" s="359" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="R207" s="359" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="S207" s="359" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="T207" s="359" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="U207" s="360" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="V207" s="245"/>
@@ -34060,27 +34052,27 @@
         <v>205</v>
       </c>
       <c r="P208" s="361" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q208" s="362" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="R208" s="362" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="S208" s="362" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="T208" s="362" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="U208" s="363" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="V208" s="245"/>
@@ -34113,27 +34105,27 @@
         <v>206</v>
       </c>
       <c r="P209" s="361" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q209" s="362" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="R209" s="362" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="S209" s="362" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="T209" s="362" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="U209" s="363" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="V209" s="245"/>
@@ -34176,27 +34168,27 @@
         <v>207</v>
       </c>
       <c r="P210" s="361" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q210" s="362" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="R210" s="362" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="S210" s="362" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="T210" s="362" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="U210" s="363" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="V210" s="245"/>
@@ -34211,31 +34203,31 @@
       <c r="B211" s="199"/>
       <c r="C211" s="155"/>
       <c r="D211" s="202">
-        <f t="shared" ref="D211:H218" si="46">IF(P236="","",P236)</f>
+        <f t="shared" ref="D211:H218" si="44">IF(P236="","",P236)</f>
         <v>2</v>
       </c>
       <c r="E211" s="203" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F211" s="203" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G211" s="203" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H211" s="203" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I211" s="203" t="str">
-        <f t="shared" ref="I211:J218" si="47">IF(V236="","",V236)</f>
+        <f t="shared" ref="I211:J218" si="45">IF(V236="","",V236)</f>
         <v/>
       </c>
       <c r="J211" s="367" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K211" s="216"/>
@@ -34246,27 +34238,27 @@
         <v>220</v>
       </c>
       <c r="P211" s="372" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q211" s="373" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="R211" s="373" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="S211" s="373" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="T211" s="373" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="U211" s="374" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="V211" s="245"/>
@@ -34281,31 +34273,31 @@
       <c r="B212" s="199"/>
       <c r="C212" s="155"/>
       <c r="D212" s="211">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="E212" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F212" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G212" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H212" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I212" s="212" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J212" s="356" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K212" s="216"/>
@@ -34333,31 +34325,31 @@
       <c r="B213" s="199"/>
       <c r="C213" s="155"/>
       <c r="D213" s="211">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="E213" s="212">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F213" s="212">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G213" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H213" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I213" s="212" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J213" s="356" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K213" s="216"/>
@@ -34385,31 +34377,31 @@
       <c r="B214" s="199"/>
       <c r="C214" s="155"/>
       <c r="D214" s="211">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="E214" s="212">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F214" s="212">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G214" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H214" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I214" s="212" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J214" s="356" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K214" s="216"/>
@@ -34435,31 +34427,31 @@
       <c r="B215" s="199"/>
       <c r="C215" s="155"/>
       <c r="D215" s="211">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="E215" s="212">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F215" s="212">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G215" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H215" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I215" s="212" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J215" s="356" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K215" s="216"/>
@@ -34489,31 +34481,31 @@
       <c r="B216" s="199"/>
       <c r="C216" s="155"/>
       <c r="D216" s="211">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
       <c r="E216" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F216" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G216" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H216" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I216" s="212" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J216" s="356" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K216" s="216"/>
@@ -34541,31 +34533,31 @@
       <c r="B217" s="199"/>
       <c r="C217" s="155"/>
       <c r="D217" s="211">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="E217" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F217" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G217" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H217" s="212" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I217" s="212" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J217" s="356" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K217" s="216"/>
@@ -34575,7 +34567,7 @@
       <c r="O217" s="165"/>
       <c r="P217" s="155"/>
       <c r="Q217" s="162" t="s">
-        <v>229</v>
+        <v>716</v>
       </c>
       <c r="R217" s="155"/>
       <c r="S217" s="155"/>
@@ -34593,31 +34585,31 @@
       <c r="B218" s="199"/>
       <c r="C218" s="155"/>
       <c r="D218" s="257">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="E218" s="258" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F218" s="258" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G218" s="258" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H218" s="258" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I218" s="258" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J218" s="371" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K218" s="216"/>
@@ -34627,7 +34619,7 @@
       <c r="O218" s="165"/>
       <c r="P218" s="155"/>
       <c r="Q218" s="162" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R218" s="155"/>
       <c r="S218" s="155"/>
@@ -34665,9 +34657,7 @@
       <c r="N219" s="155"/>
       <c r="O219" s="165"/>
       <c r="P219" s="155"/>
-      <c r="Q219" s="162" t="s">
-        <v>231</v>
-      </c>
+      <c r="Q219" s="162"/>
       <c r="R219" s="155"/>
       <c r="S219" s="155"/>
       <c r="T219" s="155"/>
@@ -34911,31 +34901,31 @@
       <c r="B226" s="379"/>
       <c r="C226" s="155"/>
       <c r="D226" s="202">
-        <f t="shared" ref="D226:H232" si="48">IF(P251="","",P251)</f>
+        <f t="shared" ref="D226:H232" si="46">IF(P251="","",P251)</f>
         <v>2</v>
       </c>
       <c r="E226" s="203" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="F226" s="203" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="G226" s="203" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="H226" s="203" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="I226" s="203" t="str">
-        <f t="shared" ref="I226:J232" si="49">IF(V251="","",V251)</f>
+        <f t="shared" ref="I226:J232" si="47">IF(V251="","",V251)</f>
         <v/>
       </c>
       <c r="J226" s="367" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K226" s="245"/>
@@ -34963,31 +34953,31 @@
       <c r="B227" s="379"/>
       <c r="C227" s="155"/>
       <c r="D227" s="211">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="E227" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="F227" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="G227" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="H227" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="I227" s="212" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J227" s="356" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K227" s="245"/>
@@ -35027,31 +35017,31 @@
       <c r="B228" s="379"/>
       <c r="C228" s="155"/>
       <c r="D228" s="211">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="E228" s="212">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F228" s="212">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G228" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="H228" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="I228" s="212" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J228" s="356" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K228" s="245"/>
@@ -35091,31 +35081,31 @@
       <c r="B229" s="379"/>
       <c r="C229" s="155"/>
       <c r="D229" s="211">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="E229" s="212">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F229" s="212">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G229" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="H229" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="I229" s="212" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J229" s="356" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K229" s="245"/>
@@ -35141,31 +35131,31 @@
       <c r="B230" s="379"/>
       <c r="C230" s="155"/>
       <c r="D230" s="211">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="E230" s="212">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F230" s="212">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G230" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="H230" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="I230" s="212" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J230" s="356" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K230" s="245"/>
@@ -35195,31 +35185,31 @@
       <c r="B231" s="379"/>
       <c r="C231" s="155"/>
       <c r="D231" s="211">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
       <c r="E231" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="F231" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="G231" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="H231" s="212" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="I231" s="212" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J231" s="356" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K231" s="245"/>
@@ -35247,31 +35237,31 @@
       <c r="B232" s="379"/>
       <c r="C232" s="155"/>
       <c r="D232" s="257">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="E232" s="258" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="F232" s="258" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="G232" s="258" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="H232" s="258" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="I232" s="258" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J232" s="371" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K232" s="245"/>
@@ -35460,7 +35450,7 @@
       </c>
       <c r="V236" s="399"/>
       <c r="W236" s="367" t="str">
-        <f t="shared" ref="W236:W243" si="50">IF(OR(U236="",$U$244=""),"",ABS((U236-$U$244)/$U$244))</f>
+        <f t="shared" ref="W236:W243" si="48">IF(OR(U236="",$U$244=""),"",ABS((U236-$U$244)/$U$244))</f>
         <v/>
       </c>
       <c r="X236" s="155"/>
@@ -35512,7 +35502,7 @@
       </c>
       <c r="V237" s="286"/>
       <c r="W237" s="356" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="X237" s="155"/>
@@ -35542,11 +35532,11 @@
         <v>4</v>
       </c>
       <c r="Q238" s="211">
-        <f t="shared" ref="Q238:R240" si="51">Q237</f>
+        <f t="shared" ref="Q238:R240" si="49">Q237</f>
         <v>0</v>
       </c>
       <c r="R238" s="212">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S238" s="286"/>
@@ -35557,7 +35547,7 @@
       </c>
       <c r="V238" s="286"/>
       <c r="W238" s="356" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="X238" s="155"/>
@@ -35597,11 +35587,11 @@
         <v>4</v>
       </c>
       <c r="Q239" s="211">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R239" s="212">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S239" s="286"/>
@@ -35612,7 +35602,7 @@
       </c>
       <c r="V239" s="286"/>
       <c r="W239" s="356" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="X239" s="155"/>
@@ -35625,23 +35615,23 @@
       <c r="B240" s="199"/>
       <c r="C240" s="155"/>
       <c r="D240" s="211">
-        <f t="shared" ref="D240:D247" si="52">P265</f>
+        <f t="shared" ref="D240:D247" si="50">P265</f>
         <v>-3</v>
       </c>
       <c r="E240" s="212" t="str">
-        <f t="shared" ref="E240:H247" si="53">IF(R265="","",R265)</f>
+        <f t="shared" ref="E240:H247" si="51">IF(R265="","",R265)</f>
         <v/>
       </c>
       <c r="F240" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="G240" s="405" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="H240" s="405" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I240" s="406" t="str">
@@ -35658,11 +35648,11 @@
         <v>4</v>
       </c>
       <c r="Q240" s="211">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R240" s="212">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S240" s="286"/>
@@ -35673,7 +35663,7 @@
       </c>
       <c r="V240" s="286"/>
       <c r="W240" s="356" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="X240" s="155"/>
@@ -35686,23 +35676,23 @@
       <c r="B241" s="199"/>
       <c r="C241" s="155"/>
       <c r="D241" s="211">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>-2</v>
       </c>
       <c r="E241" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F241" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="G241" s="405" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="H241" s="405" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I241" s="406" t="str">
@@ -35728,7 +35718,7 @@
       </c>
       <c r="V241" s="286"/>
       <c r="W241" s="356" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="X241" s="155"/>
@@ -35741,23 +35731,23 @@
       <c r="B242" s="199"/>
       <c r="C242" s="155"/>
       <c r="D242" s="211">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>-1</v>
       </c>
       <c r="E242" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F242" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="G242" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="H242" s="405" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I242" s="406" t="str">
@@ -35783,7 +35773,7 @@
       </c>
       <c r="V242" s="286"/>
       <c r="W242" s="356" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="X242" s="155"/>
@@ -35796,23 +35786,23 @@
       <c r="B243" s="199"/>
       <c r="C243" s="155"/>
       <c r="D243" s="211">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E243" s="213" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F243" s="408" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="G243" s="405" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="H243" s="405" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I243" s="409"/>
@@ -35837,7 +35827,7 @@
       </c>
       <c r="V243" s="412"/>
       <c r="W243" s="371" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="X243" s="155"/>
@@ -35850,23 +35840,23 @@
       <c r="B244" s="199"/>
       <c r="C244" s="155"/>
       <c r="D244" s="211">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="E244" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F244" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="G244" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="H244" s="405" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I244" s="406" t="str">
@@ -35905,23 +35895,23 @@
       <c r="B245" s="199"/>
       <c r="C245" s="155"/>
       <c r="D245" s="211">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="E245" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F245" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="G245" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="H245" s="405" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I245" s="406" t="str">
@@ -35956,23 +35946,23 @@
       <c r="B246" s="199"/>
       <c r="C246" s="155"/>
       <c r="D246" s="211">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>3</v>
       </c>
       <c r="E246" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F246" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="G246" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="H246" s="405" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I246" s="406" t="str">
@@ -36009,23 +35999,23 @@
       <c r="B247" s="199"/>
       <c r="C247" s="155"/>
       <c r="D247" s="257">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>4</v>
       </c>
       <c r="E247" s="258" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F247" s="258" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="G247" s="258" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="H247" s="416" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I247" s="417" t="str">
@@ -36244,19 +36234,19 @@
         <v>233</v>
       </c>
       <c r="E251" s="212" t="str">
-        <f t="shared" ref="E251:H255" si="54">IF(Q222="","",Q222)</f>
+        <f t="shared" ref="E251:H255" si="52">IF(Q222="","",Q222)</f>
         <v/>
       </c>
       <c r="F251" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="G251" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H251" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I251" s="245"/>
@@ -36279,7 +36269,7 @@
       </c>
       <c r="V251" s="399"/>
       <c r="W251" s="367" t="str">
-        <f t="shared" ref="W251:W257" si="55">IF(OR(U251="",$U$258=""),"",ABS((U251-$U$258)/$U$258))</f>
+        <f t="shared" ref="W251:W257" si="53">IF(OR(U251="",$U$258=""),"",ABS((U251-$U$258)/$U$258))</f>
         <v/>
       </c>
       <c r="X251" s="155"/>
@@ -36295,19 +36285,19 @@
         <v>29</v>
       </c>
       <c r="E252" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="F252" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="G252" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H252" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I252" s="155"/>
@@ -36330,7 +36320,7 @@
       </c>
       <c r="V252" s="286"/>
       <c r="W252" s="356" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="X252" s="155"/>
@@ -36358,19 +36348,19 @@
         <v>177</v>
       </c>
       <c r="E253" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="F253" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="G253" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H253" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="J253" s="171" t="s">
@@ -36388,11 +36378,11 @@
         <v>4</v>
       </c>
       <c r="Q253" s="211">
-        <f t="shared" ref="Q253:R255" si="56">Q252</f>
+        <f t="shared" ref="Q253:R255" si="54">Q252</f>
         <v>0</v>
       </c>
       <c r="R253" s="212">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="S253" s="286"/>
@@ -36403,7 +36393,7 @@
       </c>
       <c r="V253" s="286"/>
       <c r="W253" s="356" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="X253" s="155"/>
@@ -36431,19 +36421,19 @@
         <v>178</v>
       </c>
       <c r="E254" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="F254" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="G254" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H254" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I254" s="155"/>
@@ -36457,11 +36447,11 @@
         <v>4</v>
       </c>
       <c r="Q254" s="211">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="R254" s="212">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="S254" s="286"/>
@@ -36472,7 +36462,7 @@
       </c>
       <c r="V254" s="286"/>
       <c r="W254" s="356" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="X254" s="155"/>
@@ -36500,19 +36490,19 @@
         <v>237</v>
       </c>
       <c r="E255" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="F255" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="G255" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="H255" s="212" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I255" s="155"/>
@@ -36526,11 +36516,11 @@
         <v>4</v>
       </c>
       <c r="Q255" s="211">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="R255" s="212">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="S255" s="286"/>
@@ -36541,7 +36531,7 @@
       </c>
       <c r="V255" s="286"/>
       <c r="W255" s="356" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="X255" s="155"/>
@@ -36595,7 +36585,7 @@
       </c>
       <c r="V256" s="286"/>
       <c r="W256" s="356" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="X256" s="155"/>
@@ -36632,7 +36622,7 @@
       </c>
       <c r="V257" s="412"/>
       <c r="W257" s="371" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="X257" s="155"/>
@@ -36726,7 +36716,7 @@
         <v>177</v>
       </c>
       <c r="E260" s="397">
-        <f t="shared" ref="E260:E265" si="57">IF(Q427="","",Q427)</f>
+        <f t="shared" ref="E260:E265" si="55">IF(Q427="","",Q427)</f>
         <v>0</v>
       </c>
       <c r="F260" s="155"/>
@@ -36770,22 +36760,22 @@
         <v>270</v>
       </c>
       <c r="E261" s="401">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F261" s="171" t="s">
         <v>177</v>
       </c>
       <c r="G261" s="202">
-        <f t="shared" ref="G261:G266" si="58">IF(P443="","",P443)</f>
+        <f t="shared" ref="G261:G266" si="56">IF(P443="","",P443)</f>
         <v>0</v>
       </c>
       <c r="H261" s="203" t="str">
-        <f t="shared" ref="H261:H266" si="59">IF(R443="","",R443)</f>
+        <f t="shared" ref="H261:H266" si="57">IF(R443="","",R443)</f>
         <v/>
       </c>
       <c r="I261" s="421" t="str">
-        <f t="shared" ref="I261:I266" si="60">IF(T443="","",T443)</f>
+        <f t="shared" ref="I261:I266" si="58">IF(T443="","",T443)</f>
         <v/>
       </c>
       <c r="J261" s="216"/>
@@ -36820,33 +36810,33 @@
         <v>273</v>
       </c>
       <c r="E262" s="401" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="F262" s="171" t="s">
         <v>270</v>
       </c>
       <c r="G262" s="211">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H262" s="212" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="I262" s="406" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="H262" s="212" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="I262" s="406" t="str">
-        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="J262" s="171" t="s">
         <v>274</v>
       </c>
       <c r="K262" s="423" t="str">
-        <f t="shared" ref="K262:L264" si="61">IF(Q437="","",Q437)</f>
+        <f t="shared" ref="K262:L264" si="59">IF(Q437="","",Q437)</f>
         <v/>
       </c>
       <c r="L262" s="424" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="M262" s="246"/>
@@ -36875,33 +36865,33 @@
         <v>276</v>
       </c>
       <c r="E263" s="401" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="F263" s="171" t="s">
         <v>179</v>
       </c>
       <c r="G263" s="211">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H263" s="212" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="I263" s="406" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="H263" s="212" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="I263" s="406" t="str">
-        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="J263" s="171" t="s">
         <v>277</v>
       </c>
       <c r="K263" s="425" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="L263" s="426" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="M263" s="246"/>
@@ -36943,33 +36933,33 @@
         <v>281</v>
       </c>
       <c r="E264" s="401" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="F264" s="171" t="s">
         <v>274</v>
       </c>
       <c r="G264" s="211" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H264" s="212" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="I264" s="406" t="str">
         <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="H264" s="212" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="I264" s="406" t="str">
-        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="J264" s="171" t="s">
         <v>282</v>
       </c>
       <c r="K264" s="427" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="L264" s="428" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="M264" s="246"/>
@@ -37012,22 +37002,22 @@
         <v>284</v>
       </c>
       <c r="E265" s="401" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="F265" s="171" t="s">
         <v>277</v>
       </c>
       <c r="G265" s="211" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H265" s="212" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="I265" s="406" t="str">
         <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="H265" s="212" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="I265" s="406" t="str">
-        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="J265" s="216"/>
@@ -37055,11 +37045,11 @@
       <c r="V265" s="216"/>
       <c r="W265" s="155"/>
       <c r="X265" s="429">
-        <f t="shared" ref="X265:Y267" si="62">IF($O$34=1,AB248,Z248)</f>
+        <f t="shared" ref="X265:Y267" si="60">IF($O$34=1,AB248,Z248)</f>
         <v>0.5</v>
       </c>
       <c r="Y265" s="426">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>0.61</v>
       </c>
     </row>
@@ -37080,26 +37070,26 @@
         <v>282</v>
       </c>
       <c r="G266" s="257" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="H266" s="258" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="I266" s="417" t="str">
         <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="H266" s="258" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="I266" s="417" t="str">
-        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="J266" s="171" t="s">
         <v>274</v>
       </c>
       <c r="K266" s="423" t="str">
-        <f t="shared" ref="K266:L268" si="63">IF(U437="","",U437)</f>
+        <f t="shared" ref="K266:L268" si="61">IF(U437="","",U437)</f>
         <v/>
       </c>
       <c r="L266" s="424" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="M266" s="246"/>
@@ -37119,11 +37109,11 @@
       <c r="V266" s="216"/>
       <c r="W266" s="155"/>
       <c r="X266" s="429">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>0.63</v>
       </c>
       <c r="Y266" s="426">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>0.77</v>
       </c>
     </row>
@@ -37150,11 +37140,11 @@
         <v>277</v>
       </c>
       <c r="K267" s="425" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="L267" s="426" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="M267" s="246"/>
@@ -37174,11 +37164,11 @@
       <c r="V267" s="216"/>
       <c r="W267" s="155"/>
       <c r="X267" s="429">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>0.77</v>
       </c>
       <c r="Y267" s="426">
-        <f t="shared" si="62"/>
+        <f t="shared" si="60"/>
         <v>0.94</v>
       </c>
     </row>
@@ -37205,11 +37195,11 @@
         <v>282</v>
       </c>
       <c r="K268" s="427" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="L268" s="428" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="M268" s="246"/>
@@ -37271,11 +37261,11 @@
       <c r="V269" s="216"/>
       <c r="W269" s="155"/>
       <c r="X269" s="429">
-        <f t="shared" ref="X269:Y272" si="64">IF($O$34=1,AB252,Z252)</f>
+        <f t="shared" ref="X269:Y272" si="62">IF($O$34=1,AB252,Z252)</f>
         <v>1.04</v>
       </c>
       <c r="Y269" s="426">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>1.27</v>
       </c>
     </row>
@@ -37311,11 +37301,11 @@
       <c r="V270" s="216"/>
       <c r="W270" s="155"/>
       <c r="X270" s="429">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>1.17</v>
       </c>
       <c r="Y270" s="426">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>1.43</v>
       </c>
     </row>
@@ -37361,11 +37351,11 @@
       <c r="V271" s="216"/>
       <c r="W271" s="155"/>
       <c r="X271" s="429">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>1.31</v>
       </c>
       <c r="Y271" s="426">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>1.6</v>
       </c>
     </row>
@@ -37411,11 +37401,11 @@
       <c r="V272" s="216"/>
       <c r="W272" s="155"/>
       <c r="X272" s="429">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>1.44</v>
       </c>
       <c r="Y272" s="426">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>1.76</v>
       </c>
     </row>
@@ -37667,7 +37657,7 @@
         <v>280</v>
       </c>
       <c r="L279" s="290" t="str">
-        <f t="shared" ref="L279:L284" si="65">IF(X280="","",X280)</f>
+        <f t="shared" ref="L279:L284" si="63">IF(X280="","",X280)</f>
         <v/>
       </c>
       <c r="M279" s="201"/>
@@ -37702,23 +37692,23 @@
       <c r="C280" s="155"/>
       <c r="D280" s="155"/>
       <c r="E280" s="442" t="str">
-        <f t="shared" ref="E280:I285" si="66">IF(Q281="","",Q281)</f>
+        <f t="shared" ref="E280:I285" si="64">IF(Q281="","",Q281)</f>
         <v/>
       </c>
       <c r="F280" s="203" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G280" s="203" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="H280" s="443" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="I280" s="204" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="J280" s="155"/>
@@ -37726,7 +37716,7 @@
         <v>283</v>
       </c>
       <c r="L280" s="291" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="M280" s="201"/>
@@ -37784,23 +37774,23 @@
       <c r="C281" s="155"/>
       <c r="D281" s="155"/>
       <c r="E281" s="445" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="F281" s="212" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G281" s="212" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="H281" s="446" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="I281" s="214" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="J281" s="155"/>
@@ -37808,7 +37798,7 @@
         <v>285</v>
       </c>
       <c r="L281" s="447" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="M281" s="201"/>
@@ -37852,23 +37842,23 @@
       <c r="C282" s="155"/>
       <c r="D282" s="155"/>
       <c r="E282" s="445" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="F282" s="212" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G282" s="212" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="H282" s="446" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="I282" s="214" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="J282" s="155"/>
@@ -37876,7 +37866,7 @@
         <v>286</v>
       </c>
       <c r="L282" s="291" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="M282" s="201"/>
@@ -37904,11 +37894,11 @@
       </c>
       <c r="Y282" s="167"/>
       <c r="AE282" s="159" t="e">
-        <f t="shared" ref="AE282:AE284" si="67">(AA282-50)/AB282</f>
+        <f t="shared" ref="AE282:AE284" si="65">(AA282-50)/AB282</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF282" s="159" t="e">
-        <f t="shared" ref="AF282:AF284" si="68">(AA282-AC282)/AB282</f>
+        <f t="shared" ref="AF282:AF284" si="66">(AA282-AC282)/AB282</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -37920,23 +37910,23 @@
       <c r="C283" s="155"/>
       <c r="D283" s="155"/>
       <c r="E283" s="449" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="F283" s="258" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G283" s="258" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="H283" s="450" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="I283" s="259" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="J283" s="155"/>
@@ -37944,7 +37934,7 @@
         <v>287</v>
       </c>
       <c r="L283" s="291" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="M283" s="201"/>
@@ -37972,11 +37962,11 @@
       </c>
       <c r="Y283" s="167"/>
       <c r="AE283" s="159" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF283" s="159" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -37990,23 +37980,23 @@
         <v>251</v>
       </c>
       <c r="E284" s="445" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="F284" s="212" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G284" s="405" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="H284" s="446" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="I284" s="214" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="J284" s="155"/>
@@ -38014,7 +38004,7 @@
         <v>289</v>
       </c>
       <c r="L284" s="451" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="M284" s="201"/>
@@ -38042,11 +38032,11 @@
       </c>
       <c r="Y284" s="167"/>
       <c r="AE284" s="159" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF284" s="159" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -38060,23 +38050,23 @@
         <v>291</v>
       </c>
       <c r="E285" s="368" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="F285" s="369" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="G285" s="369" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="H285" s="369" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="I285" s="371" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="J285" s="155"/>
@@ -38433,7 +38423,7 @@
         <v>280</v>
       </c>
       <c r="L293" s="290" t="str">
-        <f t="shared" ref="L293:L298" si="69">IF(X295="","",X295)</f>
+        <f t="shared" ref="L293:L298" si="67">IF(X295="","",X295)</f>
         <v/>
       </c>
       <c r="M293" s="246"/>
@@ -38462,23 +38452,23 @@
       <c r="C294" s="155"/>
       <c r="D294" s="155"/>
       <c r="E294" s="442" t="str">
-        <f t="shared" ref="E294:I299" si="70">IF(Q296="","",Q296)</f>
+        <f t="shared" ref="E294:I299" si="68">IF(Q296="","",Q296)</f>
         <v/>
       </c>
       <c r="F294" s="203" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="G294" s="203" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="H294" s="443" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="I294" s="204" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="J294" s="155"/>
@@ -38486,7 +38476,7 @@
         <v>283</v>
       </c>
       <c r="L294" s="291" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="M294" s="246"/>
@@ -38515,23 +38505,23 @@
       <c r="C295" s="155"/>
       <c r="D295" s="155"/>
       <c r="E295" s="445" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="F295" s="212" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="G295" s="212" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="H295" s="446" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="I295" s="214" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="J295" s="155"/>
@@ -38539,7 +38529,7 @@
         <v>285</v>
       </c>
       <c r="L295" s="447" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="M295" s="246"/>
@@ -38579,23 +38569,23 @@
       <c r="C296" s="155"/>
       <c r="D296" s="155"/>
       <c r="E296" s="445" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="F296" s="212" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="G296" s="212" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="H296" s="446" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="I296" s="214" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="J296" s="155"/>
@@ -38603,7 +38593,7 @@
         <v>286</v>
       </c>
       <c r="L296" s="291" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="M296" s="246"/>
@@ -38639,23 +38629,23 @@
       <c r="C297" s="155"/>
       <c r="D297" s="155"/>
       <c r="E297" s="449" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="F297" s="258" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="G297" s="258" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="H297" s="450" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="I297" s="259" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="J297" s="155"/>
@@ -38663,7 +38653,7 @@
         <v>287</v>
       </c>
       <c r="L297" s="291" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="M297" s="246"/>
@@ -38701,23 +38691,23 @@
         <v>251</v>
       </c>
       <c r="E298" s="445" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="F298" s="212" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="G298" s="405" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="H298" s="446" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="I298" s="214" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="J298" s="155"/>
@@ -38725,7 +38715,7 @@
         <v>289</v>
       </c>
       <c r="L298" s="451" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="M298" s="246"/>
@@ -38763,23 +38753,23 @@
         <v>291</v>
       </c>
       <c r="E299" s="368" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="F299" s="369" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="G299" s="369" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="H299" s="369" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="I299" s="371" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="J299" s="155"/>
@@ -39133,7 +39123,7 @@
         <v>280</v>
       </c>
       <c r="L307" s="290" t="str">
-        <f t="shared" ref="L307:L312" si="71">IF(X315="","",X315)</f>
+        <f t="shared" ref="L307:L312" si="69">IF(X315="","",X315)</f>
         <v/>
       </c>
       <c r="M307" s="246"/>
@@ -39158,23 +39148,23 @@
       <c r="C308" s="245"/>
       <c r="D308" s="155"/>
       <c r="E308" s="442" t="str">
-        <f t="shared" ref="E308:I313" si="72">IF(Q316="","",Q316)</f>
+        <f t="shared" ref="E308:I313" si="70">IF(Q316="","",Q316)</f>
         <v/>
       </c>
       <c r="F308" s="203" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="G308" s="203" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="H308" s="443" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="I308" s="204" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="J308" s="245"/>
@@ -39182,7 +39172,7 @@
         <v>283</v>
       </c>
       <c r="L308" s="290" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="M308" s="246"/>
@@ -39209,23 +39199,23 @@
       <c r="C309" s="245"/>
       <c r="D309" s="155"/>
       <c r="E309" s="445" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="F309" s="212" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="G309" s="212" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="H309" s="446" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="I309" s="214" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="J309" s="245"/>
@@ -39233,7 +39223,7 @@
         <v>285</v>
       </c>
       <c r="L309" s="290" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="M309" s="246"/>
@@ -39263,23 +39253,23 @@
       <c r="C310" s="245"/>
       <c r="D310" s="155"/>
       <c r="E310" s="445" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="F310" s="212" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="G310" s="212" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="H310" s="446" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="I310" s="214" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="J310" s="245"/>
@@ -39287,7 +39277,7 @@
         <v>286</v>
       </c>
       <c r="L310" s="290" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="M310" s="246"/>
@@ -39312,23 +39302,23 @@
       <c r="C311" s="245"/>
       <c r="D311" s="155"/>
       <c r="E311" s="449" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="F311" s="258" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="G311" s="258" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="H311" s="450" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="I311" s="259" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="J311" s="245"/>
@@ -39336,7 +39326,7 @@
         <v>287</v>
       </c>
       <c r="L311" s="290" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="M311" s="246"/>
@@ -39365,23 +39355,23 @@
         <v>251</v>
       </c>
       <c r="E312" s="445" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="F312" s="212" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="G312" s="405" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="H312" s="446" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="I312" s="214" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="J312" s="245"/>
@@ -39389,7 +39379,7 @@
         <v>289</v>
       </c>
       <c r="L312" s="451" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="M312" s="246"/>
@@ -39420,23 +39410,23 @@
         <v>291</v>
       </c>
       <c r="E313" s="368" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="F313" s="369" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="G313" s="369" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="H313" s="369" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="I313" s="371" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="J313" s="245"/>
@@ -39659,7 +39649,7 @@
         <v>280</v>
       </c>
       <c r="L318" s="290" t="str">
-        <f t="shared" ref="L318:L323" si="73">IF(X327="","",X327)</f>
+        <f t="shared" ref="L318:L323" si="71">IF(X327="","",X327)</f>
         <v/>
       </c>
       <c r="M318" s="246"/>
@@ -39695,23 +39685,23 @@
       <c r="C319" s="245"/>
       <c r="D319" s="245"/>
       <c r="E319" s="442" t="str">
-        <f t="shared" ref="E319:I324" si="74">IF(Q328="","",Q328)</f>
+        <f t="shared" ref="E319:I324" si="72">IF(Q328="","",Q328)</f>
         <v/>
       </c>
       <c r="F319" s="203" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="G319" s="203" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="H319" s="443" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="I319" s="459" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="J319" s="245"/>
@@ -39719,7 +39709,7 @@
         <v>283</v>
       </c>
       <c r="L319" s="290" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M319" s="246"/>
@@ -39755,23 +39745,23 @@
       <c r="C320" s="245"/>
       <c r="D320" s="245"/>
       <c r="E320" s="445" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="F320" s="212" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="G320" s="212" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="H320" s="446" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="I320" s="460" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="J320" s="245"/>
@@ -39779,7 +39769,7 @@
         <v>285</v>
       </c>
       <c r="L320" s="290" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M320" s="246"/>
@@ -39826,23 +39816,23 @@
       <c r="C321" s="245"/>
       <c r="D321" s="245"/>
       <c r="E321" s="445" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="F321" s="212" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="G321" s="212" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="H321" s="446" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="I321" s="460" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="J321" s="245"/>
@@ -39850,7 +39840,7 @@
         <v>286</v>
       </c>
       <c r="L321" s="290" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M321" s="246"/>
@@ -39892,23 +39882,23 @@
       <c r="C322" s="245"/>
       <c r="D322" s="245"/>
       <c r="E322" s="449" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="F322" s="258" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="G322" s="258" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="H322" s="450" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="I322" s="461" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="J322" s="245"/>
@@ -39916,7 +39906,7 @@
         <v>287</v>
       </c>
       <c r="L322" s="290" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M322" s="246"/>
@@ -39948,23 +39938,23 @@
         <v>251</v>
       </c>
       <c r="E323" s="445" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="F323" s="212" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="G323" s="405" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="H323" s="446" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="I323" s="460" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="J323" s="245"/>
@@ -39972,7 +39962,7 @@
         <v>289</v>
       </c>
       <c r="L323" s="451" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M323" s="246"/>
@@ -40001,23 +39991,23 @@
         <v>291</v>
       </c>
       <c r="E324" s="368" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="F324" s="369" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="G324" s="369" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="H324" s="369" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="I324" s="463" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="J324" s="245"/>
@@ -40414,19 +40404,19 @@
         <v>317</v>
       </c>
       <c r="H333" s="470" t="e">
-        <f t="shared" ref="H333:K334" si="75">IF(T458="","",T458)</f>
+        <f t="shared" ref="H333:K334" si="73">IF(T458="","",T458)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I333" s="213" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J333" s="354" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K333" s="471" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L333" s="155"/>
@@ -40479,19 +40469,19 @@
         <v>319</v>
       </c>
       <c r="H334" s="470" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I334" s="213" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J334" s="354" t="e">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K334" s="212" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>NA</v>
       </c>
       <c r="L334" s="155"/>
@@ -40890,11 +40880,11 @@
         <v/>
       </c>
       <c r="W343" s="446" t="str">
-        <f t="shared" ref="W343:W349" si="76">IF(V343="","",V343/S343)</f>
+        <f t="shared" ref="W343:W349" si="74">IF(V343="","",V343/S343)</f>
         <v/>
       </c>
       <c r="X343" s="405" t="str">
-        <f t="shared" ref="X343:X349" si="77">IF(OR(V343="",U343=""),"",V343/(U343/1000))</f>
+        <f t="shared" ref="X343:X349" si="75">IF(OR(V343="",U343=""),"",V343/(U343/1000))</f>
         <v/>
       </c>
       <c r="Y343" s="167"/>
@@ -40956,11 +40946,11 @@
         <v/>
       </c>
       <c r="W344" s="446" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="X344" s="405" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="Y344" s="167"/>
@@ -41014,11 +41004,11 @@
         <v/>
       </c>
       <c r="W345" s="446" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="X345" s="405" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="Y345" s="167"/>
@@ -41085,11 +41075,11 @@
         <v/>
       </c>
       <c r="W346" s="446" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="X346" s="405" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="Y346" s="167"/>
@@ -41156,11 +41146,11 @@
         <v/>
       </c>
       <c r="W347" s="446" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="X347" s="405" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="Y347" s="167"/>
@@ -41227,11 +41217,11 @@
         <v/>
       </c>
       <c r="W348" s="446" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="X348" s="405" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="Y348" s="167"/>
@@ -41295,11 +41285,11 @@
         <v/>
       </c>
       <c r="W349" s="446" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="X349" s="405" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="Y349" s="167"/>
@@ -41361,28 +41351,28 @@
       </c>
       <c r="B351" s="199"/>
       <c r="C351" s="212">
-        <f t="shared" ref="C351:C357" si="78">IF(R343="","",R343)</f>
+        <f t="shared" ref="C351:C357" si="76">IF(R343="","",R343)</f>
         <v>24</v>
       </c>
       <c r="D351" s="405" t="str">
-        <f t="shared" ref="D351:D357" si="79">IF(T343="","",T343)</f>
+        <f t="shared" ref="D351:D357" si="77">IF(T343="","",T343)</f>
         <v/>
       </c>
       <c r="E351" s="354" t="str">
-        <f t="shared" ref="E351:E357" si="80">IF(OR(C351="",D351=""),"",IF(AND(C351&gt;0,D351&gt;0),(D351-C351)/C351,""))</f>
+        <f t="shared" ref="E351:E357" si="78">IF(OR(C351="",D351=""),"",IF(AND(C351&gt;0,D351&gt;0),(D351-C351)/C351,""))</f>
         <v/>
       </c>
       <c r="F351" s="155"/>
       <c r="G351" s="212">
-        <f t="shared" ref="G351:G356" si="81">IF(R354="","",R354)</f>
+        <f t="shared" ref="G351:G356" si="79">IF(R354="","",R354)</f>
         <v>28</v>
       </c>
       <c r="H351" s="405" t="str">
-        <f t="shared" ref="H351:H356" si="82">IF(T354="","",T354)</f>
+        <f t="shared" ref="H351:H356" si="80">IF(T354="","",T354)</f>
         <v/>
       </c>
       <c r="I351" s="354" t="str">
-        <f t="shared" ref="I351:I356" si="83">IF(OR(G351="",H351=""),"",IF(AND(G351&gt;0,H351&gt;0),(H351-G351)/G351,""))</f>
+        <f t="shared" ref="I351:I356" si="81">IF(OR(G351="",H351=""),"",IF(AND(G351&gt;0,H351&gt;0),(H351-G351)/G351,""))</f>
         <v/>
       </c>
       <c r="J351" s="245"/>
@@ -41417,28 +41407,28 @@
       </c>
       <c r="B352" s="199"/>
       <c r="C352" s="212">
+        <f t="shared" si="76"/>
+        <v>25</v>
+      </c>
+      <c r="D352" s="405" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="E352" s="354" t="str">
         <f t="shared" si="78"/>
-        <v>25</v>
-      </c>
-      <c r="D352" s="405" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E352" s="354" t="str">
-        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="F352" s="155"/>
       <c r="G352" s="212">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+      <c r="H352" s="405" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="I352" s="354" t="str">
         <f t="shared" si="81"/>
-        <v>30</v>
-      </c>
-      <c r="H352" s="405" t="str">
-        <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="I352" s="354" t="str">
-        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J352" s="245"/>
@@ -41475,28 +41465,28 @@
       </c>
       <c r="B353" s="199"/>
       <c r="C353" s="212">
+        <f t="shared" si="76"/>
+        <v>26</v>
+      </c>
+      <c r="D353" s="405" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="E353" s="354" t="str">
         <f t="shared" si="78"/>
-        <v>26</v>
-      </c>
-      <c r="D353" s="405" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E353" s="354" t="str">
-        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="F353" s="155"/>
       <c r="G353" s="212">
+        <f t="shared" si="79"/>
+        <v>32</v>
+      </c>
+      <c r="H353" s="405" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="I353" s="354" t="str">
         <f t="shared" si="81"/>
-        <v>32</v>
-      </c>
-      <c r="H353" s="405" t="str">
-        <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="I353" s="354" t="str">
-        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J353" s="245"/>
@@ -41549,28 +41539,28 @@
       </c>
       <c r="B354" s="199"/>
       <c r="C354" s="212">
+        <f t="shared" si="76"/>
+        <v>28</v>
+      </c>
+      <c r="D354" s="405" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="E354" s="354" t="str">
         <f t="shared" si="78"/>
-        <v>28</v>
-      </c>
-      <c r="D354" s="405" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E354" s="354" t="str">
-        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="F354" s="155"/>
       <c r="G354" s="212">
+        <f t="shared" si="79"/>
+        <v>34</v>
+      </c>
+      <c r="H354" s="405" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="I354" s="354" t="str">
         <f t="shared" si="81"/>
-        <v>34</v>
-      </c>
-      <c r="H354" s="405" t="str">
-        <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="I354" s="354" t="str">
-        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J354" s="245"/>
@@ -41617,11 +41607,11 @@
         <v/>
       </c>
       <c r="W354" s="446" t="str">
-        <f t="shared" ref="W354:W359" si="84">IF(V354="","",V354/S354)</f>
+        <f t="shared" ref="W354:W359" si="82">IF(V354="","",V354/S354)</f>
         <v/>
       </c>
       <c r="X354" s="405" t="str">
-        <f t="shared" ref="X354:X359" si="85">IF(OR(V354="",U354=""),"",V354/(U354/1000))</f>
+        <f t="shared" ref="X354:X359" si="83">IF(OR(V354="",U354=""),"",V354/(U354/1000))</f>
         <v/>
       </c>
       <c r="Y354" s="167"/>
@@ -41632,28 +41622,28 @@
       </c>
       <c r="B355" s="199"/>
       <c r="C355" s="212">
+        <f t="shared" si="76"/>
+        <v>30</v>
+      </c>
+      <c r="D355" s="405" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="E355" s="354" t="str">
         <f t="shared" si="78"/>
-        <v>30</v>
-      </c>
-      <c r="D355" s="405" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E355" s="354" t="str">
-        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="F355" s="155"/>
       <c r="G355" s="212">
+        <f t="shared" si="79"/>
+        <v>36</v>
+      </c>
+      <c r="H355" s="405" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="I355" s="354" t="str">
         <f t="shared" si="81"/>
-        <v>36</v>
-      </c>
-      <c r="H355" s="405" t="str">
-        <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="I355" s="354" t="str">
-        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J355" s="245"/>
@@ -41700,11 +41690,11 @@
         <v/>
       </c>
       <c r="W355" s="446" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="X355" s="405" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="Y355" s="167"/>
@@ -41715,28 +41705,28 @@
       </c>
       <c r="B356" s="199"/>
       <c r="C356" s="212">
+        <f t="shared" si="76"/>
+        <v>32</v>
+      </c>
+      <c r="D356" s="405" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="E356" s="354" t="str">
         <f t="shared" si="78"/>
-        <v>32</v>
-      </c>
-      <c r="D356" s="405" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E356" s="354" t="str">
-        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="F356" s="155"/>
       <c r="G356" s="212">
+        <f t="shared" si="79"/>
+        <v>38</v>
+      </c>
+      <c r="H356" s="405" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
+      <c r="I356" s="354" t="str">
         <f t="shared" si="81"/>
-        <v>38</v>
-      </c>
-      <c r="H356" s="405" t="str">
-        <f t="shared" si="82"/>
-        <v/>
-      </c>
-      <c r="I356" s="354" t="str">
-        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="J356" s="245"/>
@@ -41774,11 +41764,11 @@
         <v/>
       </c>
       <c r="W356" s="446" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="X356" s="405" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="Y356" s="167"/>
@@ -41789,15 +41779,15 @@
       </c>
       <c r="B357" s="199"/>
       <c r="C357" s="212">
+        <f t="shared" si="76"/>
+        <v>34</v>
+      </c>
+      <c r="D357" s="405" t="str">
+        <f t="shared" si="77"/>
+        <v/>
+      </c>
+      <c r="E357" s="354" t="str">
         <f t="shared" si="78"/>
-        <v>34</v>
-      </c>
-      <c r="D357" s="405" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
-      <c r="E357" s="354" t="str">
-        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="F357" s="155"/>
@@ -41839,11 +41829,11 @@
         <v/>
       </c>
       <c r="W357" s="446" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="X357" s="405" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="Y357" s="167"/>
@@ -41898,23 +41888,23 @@
         <v>50</v>
       </c>
       <c r="T358" s="405" t="str">
-        <f t="shared" ref="T358:V359" si="86">IF(AM38="","",AM38)</f>
+        <f t="shared" ref="T358:V359" si="84">IF(AM38="","",AM38)</f>
         <v/>
       </c>
       <c r="U358" s="213" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="V358" s="405" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="W358" s="446" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="X358" s="405" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="Y358" s="167"/>
@@ -41954,23 +41944,23 @@
         <v>50</v>
       </c>
       <c r="T359" s="405" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U359" s="213" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="V359" s="405" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="W359" s="446" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="X359" s="405" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="Y359" s="167"/>
@@ -42328,19 +42318,19 @@
         <v>28</v>
       </c>
       <c r="D367" s="405" t="str">
-        <f t="shared" ref="D367:D373" si="87">IF(T375="","",T375)</f>
+        <f t="shared" ref="D367:D373" si="85">IF(T375="","",T375)</f>
         <v/>
       </c>
       <c r="E367" s="405" t="str">
-        <f t="shared" ref="E367:G373" si="88">IF(V375="","",V375)</f>
+        <f t="shared" ref="E367:G373" si="86">IF(V375="","",V375)</f>
         <v/>
       </c>
       <c r="F367" s="446" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="G367" s="405" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="H367" s="155"/>
@@ -42396,19 +42386,19 @@
       <c r="B368" s="199"/>
       <c r="C368" s="155"/>
       <c r="D368" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="E368" s="405" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="F368" s="446" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="G368" s="405" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="H368" s="155"/>
@@ -42464,19 +42454,19 @@
       <c r="B369" s="199"/>
       <c r="C369" s="155"/>
       <c r="D369" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="E369" s="405" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="F369" s="446" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="G369" s="405" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="H369" s="155"/>
@@ -42509,19 +42499,19 @@
       <c r="B370" s="199"/>
       <c r="C370" s="155"/>
       <c r="D370" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="E370" s="405" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="F370" s="446" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="G370" s="405" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="H370" s="155"/>
@@ -42552,19 +42542,19 @@
         <v>169</v>
       </c>
       <c r="D371" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="E371" s="405" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="F371" s="446" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="G371" s="405" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="H371" s="155"/>
@@ -42597,19 +42587,19 @@
         <v>328</v>
       </c>
       <c r="D372" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="E372" s="405" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="F372" s="446" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="G372" s="405" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="H372" s="155"/>
@@ -42640,19 +42630,19 @@
         <v>291</v>
       </c>
       <c r="D373" s="354" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="E373" s="354" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="F373" s="354" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="G373" s="354" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="H373" s="155"/>
@@ -42768,23 +42758,23 @@
         <v/>
       </c>
       <c r="R375" s="212">
-        <f t="shared" ref="R375:S378" si="89">IF(AH16="","",AH16)</f>
+        <f t="shared" ref="R375:S378" si="87">IF(AH16="","",AH16)</f>
         <v>28</v>
       </c>
       <c r="S375" s="212">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>50</v>
       </c>
       <c r="T375" s="405" t="str">
-        <f t="shared" ref="T375:V378" si="90">IF(AM16="","",AM16)</f>
+        <f t="shared" ref="T375:V378" si="88">IF(AM16="","",AM16)</f>
         <v/>
       </c>
       <c r="U375" s="213" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="V375" s="405" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="W375" s="446" t="str">
@@ -42826,23 +42816,23 @@
         <v/>
       </c>
       <c r="R376" s="212">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>28</v>
       </c>
       <c r="S376" s="212">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>50</v>
       </c>
       <c r="T376" s="405" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U376" s="213" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="V376" s="405" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="W376" s="446" t="str">
@@ -42884,23 +42874,23 @@
         <v/>
       </c>
       <c r="R377" s="212">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>28</v>
       </c>
       <c r="S377" s="212">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>50</v>
       </c>
       <c r="T377" s="405" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U377" s="213" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="V377" s="405" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="W377" s="446" t="str">
@@ -42940,23 +42930,23 @@
         <v/>
       </c>
       <c r="R378" s="212">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>28</v>
       </c>
       <c r="S378" s="212">
-        <f t="shared" si="89"/>
+        <f t="shared" si="87"/>
         <v>50</v>
       </c>
       <c r="T378" s="494" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U378" s="495" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="V378" s="494" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="W378" s="496" t="str">
@@ -43172,23 +43162,23 @@
       </c>
       <c r="B383" s="199"/>
       <c r="C383" s="212">
-        <f t="shared" ref="C383:D386" si="91">IF(S389="","",S389)</f>
+        <f t="shared" ref="C383:D386" si="89">IF(S389="","",S389)</f>
         <v>20</v>
       </c>
       <c r="D383" s="405" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="E383" s="405" t="str">
-        <f t="shared" ref="E383:G386" si="92">IF(V389="","",V389)</f>
+        <f t="shared" ref="E383:G386" si="90">IF(V389="","",V389)</f>
         <v/>
       </c>
       <c r="F383" s="446" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G383" s="405" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H383" s="155"/>
@@ -43220,23 +43210,23 @@
       </c>
       <c r="B384" s="199"/>
       <c r="C384" s="212">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>50</v>
       </c>
       <c r="D384" s="405" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="E384" s="405" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F384" s="446" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G384" s="405" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H384" s="155"/>
@@ -43266,23 +43256,23 @@
       </c>
       <c r="B385" s="199"/>
       <c r="C385" s="212">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>100</v>
       </c>
       <c r="D385" s="405" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="E385" s="405" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F385" s="446" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G385" s="405" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H385" s="155"/>
@@ -43312,23 +43302,23 @@
       </c>
       <c r="B386" s="199"/>
       <c r="C386" s="212">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>300</v>
       </c>
       <c r="D386" s="405" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="E386" s="405" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="F386" s="446" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="G386" s="405" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="H386" s="155"/>
@@ -43614,15 +43604,15 @@
         <v>100</v>
       </c>
       <c r="T391" s="405" t="str">
-        <f t="shared" ref="T391:V392" si="93">IF(AM20="","",AM20)</f>
+        <f t="shared" ref="T391:V392" si="91">IF(AM20="","",AM20)</f>
         <v/>
       </c>
       <c r="U391" s="213" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="V391" s="405" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="W391" s="446" t="str">
@@ -43644,35 +43634,35 @@
         <v>240</v>
       </c>
       <c r="D392" s="234">
-        <f t="shared" ref="D392:K392" si="94">Q399</f>
+        <f t="shared" ref="D392:K392" si="92">Q399</f>
         <v>24</v>
       </c>
       <c r="E392" s="234">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>25</v>
       </c>
       <c r="F392" s="234">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>28</v>
       </c>
       <c r="G392" s="234">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>32</v>
       </c>
       <c r="H392" s="234">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>28</v>
       </c>
       <c r="I392" s="234">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>30</v>
       </c>
       <c r="J392" s="234">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>32</v>
       </c>
       <c r="K392" s="234">
-        <f t="shared" si="94"/>
+        <f t="shared" si="92"/>
         <v>34</v>
       </c>
       <c r="L392" s="155"/>
@@ -43696,15 +43686,15 @@
         <v>300</v>
       </c>
       <c r="T392" s="405" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="U392" s="213" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="V392" s="405" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="W392" s="446" t="str">
@@ -43726,35 +43716,35 @@
         <v>342</v>
       </c>
       <c r="D393" s="503" t="str">
-        <f t="shared" ref="D393:K394" si="95">IF(Q403="","",Q403)</f>
+        <f t="shared" ref="D393:K394" si="93">IF(Q403="","",Q403)</f>
         <v/>
       </c>
       <c r="E393" s="503" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="F393" s="503" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="G393" s="503" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="H393" s="503" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="I393" s="503" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="J393" s="503" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="K393" s="204" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="L393" s="155"/>
@@ -43790,35 +43780,35 @@
         <v>343</v>
       </c>
       <c r="D394" s="369" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="E394" s="369" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="F394" s="369" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="G394" s="369" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="H394" s="369" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="I394" s="369" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="J394" s="369" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="K394" s="371" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="L394" s="155"/>
@@ -43845,35 +43835,35 @@
         <v>344</v>
       </c>
       <c r="D395" s="503">
-        <f t="shared" ref="D395:K397" si="96">Q405</f>
+        <f t="shared" ref="D395:K397" si="94">Q405</f>
         <v>0.27</v>
       </c>
       <c r="E395" s="503">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="F395" s="503">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="G395" s="503">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.35</v>
       </c>
       <c r="H395" s="503">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="I395" s="503">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="J395" s="503">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.35</v>
       </c>
       <c r="K395" s="204">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.37</v>
       </c>
       <c r="L395" s="155"/>
@@ -43905,35 +43895,35 @@
         <v>345</v>
       </c>
       <c r="D396" s="416">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.36</v>
       </c>
       <c r="E396" s="416">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.37</v>
       </c>
       <c r="F396" s="416">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.4</v>
       </c>
       <c r="G396" s="416">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.44</v>
       </c>
       <c r="H396" s="416">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.47000000000000003</v>
       </c>
       <c r="I396" s="416">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.49</v>
       </c>
       <c r="J396" s="416">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.51</v>
       </c>
       <c r="K396" s="259">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.53</v>
       </c>
       <c r="L396" s="155"/>
@@ -43960,35 +43950,35 @@
         <v>180</v>
       </c>
       <c r="D397" s="375" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="E397" s="376" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="F397" s="376" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="G397" s="376" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="H397" s="376" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="I397" s="376" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="J397" s="376" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="K397" s="378" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="L397" s="155"/>
@@ -44198,23 +44188,23 @@
         <v>342</v>
       </c>
       <c r="D401" s="503" t="str">
-        <f t="shared" ref="D401:H404" si="97">IF(Q416="","",Q416)</f>
+        <f t="shared" ref="D401:H404" si="95">IF(Q416="","",Q416)</f>
         <v/>
       </c>
       <c r="E401" s="503" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="F401" s="503" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="G401" s="503" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="H401" s="503" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="I401" s="155"/>
@@ -44270,23 +44260,23 @@
         <v>343</v>
       </c>
       <c r="D402" s="369" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="E402" s="369" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="F402" s="369" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="G402" s="369" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="H402" s="369" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="I402" s="155"/>
@@ -44342,23 +44332,23 @@
         <v>344</v>
       </c>
       <c r="D403" s="503">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="E403" s="503">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="F403" s="503">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0.35</v>
       </c>
       <c r="G403" s="503">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0.37</v>
       </c>
       <c r="H403" s="503">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="I403" s="155"/>
@@ -44414,23 +44404,23 @@
         <v>345</v>
       </c>
       <c r="D404" s="416">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0.4</v>
       </c>
       <c r="E404" s="416">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0.42</v>
       </c>
       <c r="F404" s="416">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0.44</v>
       </c>
       <c r="G404" s="416">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0.46</v>
       </c>
       <c r="H404" s="416">
-        <f t="shared" si="97"/>
+        <f t="shared" si="95"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="I404" s="155"/>
@@ -44444,35 +44434,35 @@
         <v>343</v>
       </c>
       <c r="Q404" s="517" t="str">
-        <f t="shared" ref="Q404:X404" si="98">IF(OR(Q401="",Q402=""),"",ABS(Q402-Q401)/Q401)</f>
+        <f t="shared" ref="Q404:X404" si="96">IF(OR(Q401="",Q402=""),"",ABS(Q402-Q401)/Q401)</f>
         <v/>
       </c>
       <c r="R404" s="517" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="S404" s="517" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="T404" s="517" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U404" s="517" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="V404" s="517" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="W404" s="517" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="X404" s="518" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="Y404" s="167"/>
@@ -44516,35 +44506,35 @@
         <v>344</v>
       </c>
       <c r="Q405" s="519">
-        <f t="shared" ref="Q405:X405" si="99">IF($Q$397=1,Q399/100+0.03,Q399/100)</f>
+        <f t="shared" ref="Q405:X405" si="97">IF($Q$397=1,Q399/100+0.03,Q399/100)</f>
         <v>0.27</v>
       </c>
       <c r="R405" s="519">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="S405" s="519">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="T405" s="519">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>0.35</v>
       </c>
       <c r="U405" s="519">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="V405" s="519">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="W405" s="519">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>0.35</v>
       </c>
       <c r="X405" s="520">
-        <f t="shared" si="99"/>
+        <f t="shared" si="97"/>
         <v>0.37</v>
       </c>
       <c r="Y405" s="167"/>
@@ -45448,7 +45438,7 @@
         <v>0</v>
       </c>
       <c r="R427" s="394" t="str">
-        <f t="shared" ref="R427:R432" si="100">IF(AB99="","",AB99)</f>
+        <f t="shared" ref="R427:R432" si="98">IF(AB99="","",AB99)</f>
         <v/>
       </c>
       <c r="S427" s="155"/>
@@ -45490,7 +45480,7 @@
         <v>0</v>
       </c>
       <c r="R428" s="394" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="S428" s="155"/>
@@ -45529,7 +45519,7 @@
       </c>
       <c r="Q429" s="286"/>
       <c r="R429" s="394" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="S429" s="155"/>
@@ -45568,7 +45558,7 @@
       </c>
       <c r="Q430" s="286"/>
       <c r="R430" s="394" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="S430" s="155"/>
@@ -45607,7 +45597,7 @@
       </c>
       <c r="Q431" s="286"/>
       <c r="R431" s="394" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="S431" s="155"/>
@@ -45644,7 +45634,7 @@
         <v/>
       </c>
       <c r="R432" s="394" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="S432" s="155"/>
@@ -46010,17 +46000,17 @@
         <v>0</v>
       </c>
       <c r="Q443" s="539" t="str">
-        <f t="shared" ref="Q443:Q448" si="101">IF(AB109="","",AB109)</f>
+        <f t="shared" ref="Q443:Q448" si="99">IF(AB109="","",AB109)</f>
         <v/>
       </c>
       <c r="R443" s="402"/>
       <c r="S443" s="539" t="str">
-        <f t="shared" ref="S443:S448" si="102">IF(AB115="","",AB115)</f>
+        <f t="shared" ref="S443:S448" si="100">IF(AB115="","",AB115)</f>
         <v/>
       </c>
       <c r="T443" s="402"/>
       <c r="U443" s="539" t="str">
-        <f t="shared" ref="U443:U448" si="103">IF(AB121="","",AB121)</f>
+        <f t="shared" ref="U443:U448" si="101">IF(AB121="","",AB121)</f>
         <v/>
       </c>
       <c r="V443" s="245"/>
@@ -46053,17 +46043,17 @@
         <v>0</v>
       </c>
       <c r="Q444" s="539" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="R444" s="402"/>
       <c r="S444" s="539" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="T444" s="402"/>
       <c r="U444" s="539" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="V444" s="245"/>
@@ -46096,17 +46086,17 @@
         <v>0</v>
       </c>
       <c r="Q445" s="539" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="R445" s="402"/>
       <c r="S445" s="539" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="T445" s="402"/>
       <c r="U445" s="539" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="V445" s="245"/>
@@ -46136,17 +46126,17 @@
       </c>
       <c r="P446" s="402"/>
       <c r="Q446" s="539" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="R446" s="402"/>
       <c r="S446" s="539" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="T446" s="402"/>
       <c r="U446" s="539" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="V446" s="245"/>
@@ -46176,17 +46166,17 @@
       </c>
       <c r="P447" s="402"/>
       <c r="Q447" s="539" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="R447" s="402"/>
       <c r="S447" s="539" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="T447" s="402"/>
       <c r="U447" s="539" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="V447" s="245"/>
@@ -46216,17 +46206,17 @@
       </c>
       <c r="P448" s="411"/>
       <c r="Q448" s="540" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="R448" s="411"/>
       <c r="S448" s="540" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="T448" s="411"/>
       <c r="U448" s="540" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="V448" s="245"/>
@@ -47812,6 +47802,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD200"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
@@ -57559,7 +57561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
@@ -58305,7 +58307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W29"/>
   <sheetViews>
@@ -58571,7 +58573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>

--- a/MUSCMammoHologic.xlsx
+++ b/MUSCMammoHologic.xlsx
@@ -5515,7 +5515,7 @@
     </xf>
     <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="704">
+  <cellXfs count="705">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
       <alignment vertical="top"/>
@@ -7245,18 +7245,99 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="127" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="128" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="129" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="130" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="126" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="127" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="127" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="173" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7266,75 +7347,6 @@
     <xf numFmtId="173" fontId="8" fillId="10" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="10" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="10" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="128" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="129" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="130" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="126" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="127" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7344,6 +7356,27 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="109" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="132" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="110" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7365,26 +7398,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="137" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="109" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="132" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="110" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="139" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7416,9 +7446,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="137" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="137" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="139" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7428,20 +7455,68 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="137" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="37" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7455,75 +7530,12 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7533,16 +7545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17043,40 +17046,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25">
-      <c r="A1" s="604" t="s">
+      <c r="A1" s="634" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="604"/>
-      <c r="C1" s="604"/>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
-      <c r="K1" s="604"/>
-      <c r="L1" s="604"/>
-      <c r="M1" s="604"/>
-      <c r="N1" s="604"/>
+      <c r="B1" s="634"/>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="634"/>
+      <c r="F1" s="634"/>
+      <c r="G1" s="634"/>
+      <c r="H1" s="634"/>
+      <c r="I1" s="634"/>
+      <c r="J1" s="634"/>
+      <c r="K1" s="634"/>
+      <c r="L1" s="634"/>
+      <c r="M1" s="634"/>
+      <c r="N1" s="634"/>
     </row>
     <row r="2" spans="1:15" ht="26.25">
-      <c r="A2" s="604" t="s">
+      <c r="A2" s="634" t="s">
         <v>645</v>
       </c>
-      <c r="B2" s="604"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="604"/>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="604"/>
-      <c r="I2" s="604"/>
-      <c r="J2" s="604"/>
-      <c r="K2" s="604"/>
-      <c r="L2" s="604"/>
-      <c r="M2" s="604"/>
-      <c r="N2" s="604"/>
+      <c r="B2" s="634"/>
+      <c r="C2" s="634"/>
+      <c r="D2" s="634"/>
+      <c r="E2" s="634"/>
+      <c r="F2" s="634"/>
+      <c r="G2" s="634"/>
+      <c r="H2" s="634"/>
+      <c r="I2" s="634"/>
+      <c r="J2" s="634"/>
+      <c r="K2" s="634"/>
+      <c r="L2" s="634"/>
+      <c r="M2" s="634"/>
+      <c r="N2" s="634"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1">
       <c r="A3" s="32"/>
@@ -17099,47 +17102,47 @@
         <v>408</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" s="605" t="s">
+      <c r="C4" s="628" t="s">
         <v>708</v>
       </c>
-      <c r="D4" s="606"/>
-      <c r="E4" s="606"/>
-      <c r="F4" s="606"/>
-      <c r="G4" s="606"/>
-      <c r="H4" s="607"/>
+      <c r="D4" s="629"/>
+      <c r="E4" s="629"/>
+      <c r="F4" s="629"/>
+      <c r="G4" s="629"/>
+      <c r="H4" s="630"/>
       <c r="I4" s="34"/>
       <c r="J4" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="K4" s="608"/>
-      <c r="L4" s="609"/>
-      <c r="M4" s="609"/>
-      <c r="N4" s="610"/>
+      <c r="K4" s="635"/>
+      <c r="L4" s="636"/>
+      <c r="M4" s="636"/>
+      <c r="N4" s="637"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>410</v>
       </c>
       <c r="B5" s="33"/>
-      <c r="C5" s="605" t="s">
+      <c r="C5" s="628" t="s">
         <v>709</v>
       </c>
-      <c r="D5" s="606"/>
-      <c r="E5" s="606"/>
-      <c r="F5" s="606"/>
-      <c r="G5" s="606"/>
-      <c r="H5" s="607"/>
+      <c r="D5" s="629"/>
+      <c r="E5" s="629"/>
+      <c r="F5" s="629"/>
+      <c r="G5" s="629"/>
+      <c r="H5" s="630"/>
       <c r="I5" s="34"/>
       <c r="J5" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="K5" s="608">
+      <c r="K5" s="635">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="609"/>
-      <c r="M5" s="609"/>
-      <c r="N5" s="610"/>
+      <c r="L5" s="636"/>
+      <c r="M5" s="636"/>
+      <c r="N5" s="637"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1">
       <c r="A6" s="33" t="s">
@@ -17147,21 +17150,21 @@
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="605" t="s">
+      <c r="D6" s="628" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="606"/>
-      <c r="F6" s="606"/>
-      <c r="G6" s="606"/>
-      <c r="H6" s="607"/>
+      <c r="E6" s="629"/>
+      <c r="F6" s="629"/>
+      <c r="G6" s="629"/>
+      <c r="H6" s="630"/>
       <c r="I6" s="34"/>
       <c r="J6" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="K6" s="605"/>
-      <c r="L6" s="606"/>
-      <c r="M6" s="606"/>
-      <c r="N6" s="607"/>
+      <c r="K6" s="628"/>
+      <c r="L6" s="629"/>
+      <c r="M6" s="629"/>
+      <c r="N6" s="630"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="A7" s="33" t="s">
@@ -17169,23 +17172,23 @@
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="605" t="s">
+      <c r="D7" s="628" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="606"/>
-      <c r="F7" s="606"/>
-      <c r="G7" s="606"/>
-      <c r="H7" s="607"/>
+      <c r="E7" s="629"/>
+      <c r="F7" s="629"/>
+      <c r="G7" s="629"/>
+      <c r="H7" s="630"/>
       <c r="I7" s="34"/>
       <c r="J7" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="K7" s="605" t="s">
+      <c r="K7" s="628" t="s">
         <v>639</v>
       </c>
-      <c r="L7" s="606"/>
-      <c r="M7" s="606"/>
-      <c r="N7" s="607"/>
+      <c r="L7" s="629"/>
+      <c r="M7" s="629"/>
+      <c r="N7" s="630"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1">
       <c r="A8" s="33" t="s">
@@ -17193,25 +17196,25 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="611" t="str">
+      <c r="D8" s="631" t="str">
         <f>Sheet1!K16</f>
         <v/>
       </c>
-      <c r="E8" s="612"/>
-      <c r="F8" s="612"/>
-      <c r="G8" s="612"/>
-      <c r="H8" s="613"/>
+      <c r="E8" s="632"/>
+      <c r="F8" s="632"/>
+      <c r="G8" s="632"/>
+      <c r="H8" s="633"/>
       <c r="I8" s="34"/>
       <c r="J8" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="K8" s="605" t="str">
+      <c r="K8" s="628" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="L8" s="606"/>
-      <c r="M8" s="606"/>
-      <c r="N8" s="607"/>
+      <c r="L8" s="629"/>
+      <c r="M8" s="629"/>
+      <c r="N8" s="630"/>
     </row>
     <row r="9" spans="1:15" ht="11.25" customHeight="1">
       <c r="A9" s="36"/>
@@ -17419,28 +17422,28 @@
       <c r="N19" s="614"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="630" t="s">
+      <c r="A20" s="612" t="s">
         <v>427</v>
       </c>
-      <c r="B20" s="630"/>
-      <c r="C20" s="630"/>
-      <c r="D20" s="630"/>
-      <c r="E20" s="630"/>
-      <c r="F20" s="630"/>
-      <c r="G20" s="630"/>
-      <c r="H20" s="630"/>
-      <c r="I20" s="630"/>
-      <c r="J20" s="630"/>
-      <c r="K20" s="630"/>
-      <c r="L20" s="630"/>
-      <c r="M20" s="630"/>
-      <c r="N20" s="630"/>
+      <c r="B20" s="612"/>
+      <c r="C20" s="612"/>
+      <c r="D20" s="612"/>
+      <c r="E20" s="612"/>
+      <c r="F20" s="612"/>
+      <c r="G20" s="612"/>
+      <c r="H20" s="612"/>
+      <c r="I20" s="612"/>
+      <c r="J20" s="612"/>
+      <c r="K20" s="612"/>
+      <c r="L20" s="612"/>
+      <c r="M20" s="612"/>
+      <c r="N20" s="612"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
-      <c r="M21" s="631" t="s">
+      <c r="M21" s="613" t="s">
         <v>428</v>
       </c>
-      <c r="N21" s="631"/>
+      <c r="N21" s="613"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="58" t="s">
@@ -17457,8 +17460,8 @@
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="628"/>
-      <c r="N22" s="629"/>
+      <c r="M22" s="609"/>
+      <c r="N22" s="610"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="58" t="s">
@@ -17475,8 +17478,8 @@
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
-      <c r="M23" s="628"/>
-      <c r="N23" s="629"/>
+      <c r="M23" s="609"/>
+      <c r="N23" s="610"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="58" t="s">
@@ -17493,8 +17496,8 @@
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
-      <c r="M24" s="628"/>
-      <c r="N24" s="629"/>
+      <c r="M24" s="609"/>
+      <c r="N24" s="610"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="58" t="s">
@@ -17511,8 +17514,8 @@
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
-      <c r="M25" s="628"/>
-      <c r="N25" s="629"/>
+      <c r="M25" s="609"/>
+      <c r="N25" s="610"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="58" t="s">
@@ -17529,8 +17532,8 @@
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
-      <c r="M26" s="628"/>
-      <c r="N26" s="629"/>
+      <c r="M26" s="609"/>
+      <c r="N26" s="610"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="58" t="s">
@@ -17547,8 +17550,8 @@
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
-      <c r="M27" s="628"/>
-      <c r="N27" s="629"/>
+      <c r="M27" s="609"/>
+      <c r="N27" s="610"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="58" t="s">
@@ -17565,8 +17568,8 @@
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
-      <c r="M28" s="628"/>
-      <c r="N28" s="629"/>
+      <c r="M28" s="609"/>
+      <c r="N28" s="610"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="58" t="s">
@@ -17598,8 +17601,8 @@
       <c r="L30" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="M30" s="628"/>
-      <c r="N30" s="629"/>
+      <c r="M30" s="609"/>
+      <c r="N30" s="610"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="33"/>
@@ -17621,8 +17624,8 @@
       <c r="L31" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="M31" s="628"/>
-      <c r="N31" s="629"/>
+      <c r="M31" s="609"/>
+      <c r="N31" s="610"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
@@ -17639,8 +17642,8 @@
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
-      <c r="M32" s="628"/>
-      <c r="N32" s="629"/>
+      <c r="M32" s="609"/>
+      <c r="N32" s="610"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="33" t="s">
@@ -17685,8 +17688,8 @@
       </c>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
-      <c r="M34" s="628"/>
-      <c r="N34" s="629"/>
+      <c r="M34" s="609"/>
+      <c r="N34" s="610"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="C35" s="63" t="s">
@@ -17708,8 +17711,8 @@
         <v/>
       </c>
       <c r="L35" s="37"/>
-      <c r="M35" s="628"/>
-      <c r="N35" s="629"/>
+      <c r="M35" s="609"/>
+      <c r="N35" s="610"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="33" t="s">
@@ -17747,8 +17750,8 @@
       <c r="J37" s="67"/>
       <c r="K37" s="72"/>
       <c r="L37" s="72"/>
-      <c r="M37" s="628"/>
-      <c r="N37" s="629"/>
+      <c r="M37" s="609"/>
+      <c r="N37" s="610"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="33"/>
@@ -17788,8 +17791,8 @@
       <c r="J39" s="67"/>
       <c r="K39" s="72"/>
       <c r="L39" s="72"/>
-      <c r="M39" s="628"/>
-      <c r="N39" s="629"/>
+      <c r="M39" s="609"/>
+      <c r="N39" s="610"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="33" t="s">
@@ -17806,8 +17809,8 @@
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
-      <c r="M40" s="628"/>
-      <c r="N40" s="629"/>
+      <c r="M40" s="609"/>
+      <c r="N40" s="610"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="33" t="s">
@@ -17824,8 +17827,8 @@
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
-      <c r="M41" s="628"/>
-      <c r="N41" s="629"/>
+      <c r="M41" s="609"/>
+      <c r="N41" s="610"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="33" t="s">
@@ -17842,8 +17845,8 @@
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
-      <c r="M42" s="628"/>
-      <c r="N42" s="629"/>
+      <c r="M42" s="609"/>
+      <c r="N42" s="610"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="58" t="s">
@@ -17860,8 +17863,8 @@
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
       <c r="L43" s="33"/>
-      <c r="M43" s="628"/>
-      <c r="N43" s="633"/>
+      <c r="M43" s="609"/>
+      <c r="N43" s="611"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="33" t="s">
@@ -17878,8 +17881,8 @@
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
-      <c r="M44" s="628"/>
-      <c r="N44" s="629"/>
+      <c r="M44" s="609"/>
+      <c r="N44" s="610"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="33" t="s">
@@ -17896,8 +17899,8 @@
       <c r="J45" s="33"/>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
-      <c r="M45" s="628"/>
-      <c r="N45" s="629"/>
+      <c r="M45" s="609"/>
+      <c r="N45" s="610"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="33" t="s">
@@ -17914,8 +17917,8 @@
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
       <c r="L46" s="33"/>
-      <c r="M46" s="628"/>
-      <c r="N46" s="629"/>
+      <c r="M46" s="609"/>
+      <c r="N46" s="610"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="33"/>
@@ -17934,49 +17937,37 @@
       <c r="N47" s="72"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="632" t="s">
+      <c r="A48" s="608" t="s">
         <v>670</v>
       </c>
-      <c r="B48" s="632"/>
-      <c r="C48" s="632"/>
-      <c r="D48" s="632"/>
-      <c r="E48" s="632"/>
-      <c r="F48" s="632"/>
-      <c r="G48" s="632"/>
-      <c r="H48" s="632"/>
-      <c r="I48" s="632"/>
-      <c r="J48" s="632"/>
-      <c r="K48" s="632"/>
-      <c r="L48" s="632"/>
-      <c r="M48" s="632"/>
-      <c r="N48" s="632"/>
+      <c r="B48" s="608"/>
+      <c r="C48" s="608"/>
+      <c r="D48" s="608"/>
+      <c r="E48" s="608"/>
+      <c r="F48" s="608"/>
+      <c r="G48" s="608"/>
+      <c r="H48" s="608"/>
+      <c r="I48" s="608"/>
+      <c r="J48" s="608"/>
+      <c r="K48" s="608"/>
+      <c r="L48" s="608"/>
+      <c r="M48" s="608"/>
+      <c r="N48" s="608"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="K8:N8"/>
     <mergeCell ref="A19:N19"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D12:F12"/>
@@ -17992,18 +17983,30 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="A15:N15"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
   </mergeCells>
   <conditionalFormatting sqref="M22:N28 M32:N32 M37:N37 M39:N40 M42:N42 M44:N45 M43">
     <cfRule type="cellIs" dxfId="132" priority="7" stopIfTrue="1" operator="equal">
@@ -18279,69 +18282,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="637" t="s">
+      <c r="A1" s="648" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="637"/>
-      <c r="C1" s="637"/>
-      <c r="D1" s="637"/>
-      <c r="E1" s="637"/>
-      <c r="F1" s="637"/>
-      <c r="G1" s="637"/>
-      <c r="H1" s="637"/>
-      <c r="I1" s="637"/>
-      <c r="J1" s="637"/>
-      <c r="K1" s="637"/>
-      <c r="L1" s="637"/>
+      <c r="B1" s="648"/>
+      <c r="C1" s="648"/>
+      <c r="D1" s="648"/>
+      <c r="E1" s="648"/>
+      <c r="F1" s="648"/>
+      <c r="G1" s="648"/>
+      <c r="H1" s="648"/>
+      <c r="I1" s="648"/>
+      <c r="J1" s="648"/>
+      <c r="K1" s="648"/>
+      <c r="L1" s="648"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="638" t="s">
+      <c r="A2" s="649" t="s">
         <v>671</v>
       </c>
-      <c r="B2" s="639"/>
-      <c r="C2" s="639"/>
-      <c r="D2" s="639"/>
-      <c r="E2" s="639"/>
-      <c r="F2" s="639"/>
-      <c r="G2" s="639"/>
-      <c r="H2" s="639"/>
-      <c r="I2" s="639"/>
-      <c r="J2" s="639"/>
-      <c r="K2" s="639"/>
-      <c r="L2" s="639"/>
+      <c r="B2" s="650"/>
+      <c r="C2" s="650"/>
+      <c r="D2" s="650"/>
+      <c r="E2" s="650"/>
+      <c r="F2" s="650"/>
+      <c r="G2" s="650"/>
+      <c r="H2" s="650"/>
+      <c r="I2" s="650"/>
+      <c r="J2" s="650"/>
+      <c r="K2" s="650"/>
+      <c r="L2" s="650"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:12" ht="24" customHeight="1">
-      <c r="A4" s="640" t="s">
+      <c r="A4" s="651" t="s">
         <v>442</v>
       </c>
-      <c r="B4" s="640"/>
-      <c r="C4" s="640"/>
-      <c r="D4" s="640"/>
-      <c r="E4" s="640"/>
-      <c r="F4" s="640"/>
-      <c r="G4" s="640"/>
-      <c r="H4" s="640"/>
-      <c r="I4" s="640"/>
-      <c r="J4" s="640"/>
-      <c r="K4" s="640"/>
-      <c r="L4" s="640"/>
+      <c r="B4" s="651"/>
+      <c r="C4" s="651"/>
+      <c r="D4" s="651"/>
+      <c r="E4" s="651"/>
+      <c r="F4" s="651"/>
+      <c r="G4" s="651"/>
+      <c r="H4" s="651"/>
+      <c r="I4" s="651"/>
+      <c r="J4" s="651"/>
+      <c r="K4" s="651"/>
+      <c r="L4" s="651"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="641" t="s">
+      <c r="A5" s="652" t="s">
         <v>672</v>
       </c>
-      <c r="B5" s="641"/>
-      <c r="C5" s="641"/>
-      <c r="D5" s="641"/>
-      <c r="E5" s="641"/>
-      <c r="F5" s="641"/>
-      <c r="G5" s="641"/>
-      <c r="H5" s="641"/>
-      <c r="I5" s="641"/>
-      <c r="J5" s="641"/>
-      <c r="K5" s="641"/>
-      <c r="L5" s="641"/>
+      <c r="B5" s="652"/>
+      <c r="C5" s="652"/>
+      <c r="D5" s="652"/>
+      <c r="E5" s="652"/>
+      <c r="F5" s="652"/>
+      <c r="G5" s="652"/>
+      <c r="H5" s="652"/>
+      <c r="I5" s="652"/>
+      <c r="J5" s="652"/>
+      <c r="K5" s="652"/>
+      <c r="L5" s="652"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="75" t="s">
@@ -18376,9 +18379,9 @@
       <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="642"/>
-      <c r="K8" s="642"/>
-      <c r="L8" s="642"/>
+      <c r="J8" s="653"/>
+      <c r="K8" s="653"/>
+      <c r="L8" s="653"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="37"/>
@@ -18387,11 +18390,11 @@
         <v>443</v>
       </c>
       <c r="I9" s="54"/>
-      <c r="J9" s="643" t="s">
+      <c r="J9" s="654" t="s">
         <v>428</v>
       </c>
-      <c r="K9" s="643"/>
-      <c r="L9" s="643"/>
+      <c r="K9" s="654"/>
+      <c r="L9" s="654"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="84" t="s">
@@ -18403,9 +18406,9 @@
       <c r="H10" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J10" s="634"/>
-      <c r="K10" s="635"/>
-      <c r="L10" s="636"/>
+      <c r="J10" s="638"/>
+      <c r="K10" s="639"/>
+      <c r="L10" s="640"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="87" t="s">
@@ -18417,9 +18420,9 @@
       <c r="H11" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J11" s="634"/>
-      <c r="K11" s="635"/>
-      <c r="L11" s="636"/>
+      <c r="J11" s="638"/>
+      <c r="K11" s="639"/>
+      <c r="L11" s="640"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="87" t="s">
@@ -18431,9 +18434,9 @@
       <c r="H12" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J12" s="634"/>
-      <c r="K12" s="635"/>
-      <c r="L12" s="636"/>
+      <c r="J12" s="638"/>
+      <c r="K12" s="639"/>
+      <c r="L12" s="640"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="87" t="s">
@@ -18445,9 +18448,9 @@
       <c r="H13" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J13" s="634"/>
-      <c r="K13" s="635"/>
-      <c r="L13" s="636"/>
+      <c r="J13" s="638"/>
+      <c r="K13" s="639"/>
+      <c r="L13" s="640"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="87" t="s">
@@ -18459,9 +18462,9 @@
       <c r="H14" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J14" s="634"/>
-      <c r="K14" s="635"/>
-      <c r="L14" s="636"/>
+      <c r="J14" s="638"/>
+      <c r="K14" s="639"/>
+      <c r="L14" s="640"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="87" t="s">
@@ -18473,9 +18476,9 @@
       <c r="H15" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J15" s="634"/>
-      <c r="K15" s="635"/>
-      <c r="L15" s="636"/>
+      <c r="J15" s="638"/>
+      <c r="K15" s="639"/>
+      <c r="L15" s="640"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="87" t="s">
@@ -18487,9 +18490,9 @@
       <c r="H16" s="86" t="s">
         <v>456</v>
       </c>
-      <c r="J16" s="634"/>
-      <c r="K16" s="635"/>
-      <c r="L16" s="636"/>
+      <c r="J16" s="638"/>
+      <c r="K16" s="639"/>
+      <c r="L16" s="640"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="87" t="s">
@@ -18501,9 +18504,9 @@
       <c r="H17" s="86" t="s">
         <v>459</v>
       </c>
-      <c r="J17" s="634"/>
-      <c r="K17" s="635"/>
-      <c r="L17" s="636"/>
+      <c r="J17" s="638"/>
+      <c r="K17" s="639"/>
+      <c r="L17" s="640"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="84" t="s">
@@ -18515,9 +18518,9 @@
       <c r="H18" s="86" t="s">
         <v>462</v>
       </c>
-      <c r="J18" s="634"/>
-      <c r="K18" s="635"/>
-      <c r="L18" s="636"/>
+      <c r="J18" s="638"/>
+      <c r="K18" s="639"/>
+      <c r="L18" s="640"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="84" t="s">
@@ -18529,9 +18532,9 @@
       <c r="H19" s="89" t="s">
         <v>465</v>
       </c>
-      <c r="J19" s="634"/>
-      <c r="K19" s="635"/>
-      <c r="L19" s="636"/>
+      <c r="J19" s="638"/>
+      <c r="K19" s="639"/>
+      <c r="L19" s="640"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="90" t="s">
@@ -18548,9 +18551,9 @@
       <c r="H20" s="91" t="s">
         <v>465</v>
       </c>
-      <c r="J20" s="634"/>
-      <c r="K20" s="635"/>
-      <c r="L20" s="636"/>
+      <c r="J20" s="638"/>
+      <c r="K20" s="639"/>
+      <c r="L20" s="640"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="84" t="s">
@@ -18562,9 +18565,9 @@
       <c r="H21" s="89" t="s">
         <v>678</v>
       </c>
-      <c r="J21" s="634"/>
-      <c r="K21" s="635"/>
-      <c r="L21" s="636"/>
+      <c r="J21" s="638"/>
+      <c r="K21" s="639"/>
+      <c r="L21" s="640"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="84" t="s">
@@ -18576,58 +18579,58 @@
       <c r="H22" s="86" t="s">
         <v>681</v>
       </c>
-      <c r="J22" s="634"/>
-      <c r="K22" s="635"/>
-      <c r="L22" s="636"/>
+      <c r="J22" s="638"/>
+      <c r="K22" s="639"/>
+      <c r="L22" s="640"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:12" ht="24" customHeight="1">
-      <c r="A24" s="644" t="s">
+      <c r="A24" s="641" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="644"/>
-      <c r="C24" s="644"/>
-      <c r="D24" s="644"/>
-      <c r="E24" s="644"/>
-      <c r="F24" s="644"/>
-      <c r="G24" s="644"/>
-      <c r="H24" s="644"/>
-      <c r="I24" s="644"/>
-      <c r="J24" s="644"/>
-      <c r="K24" s="644"/>
-      <c r="L24" s="644"/>
+      <c r="B24" s="641"/>
+      <c r="C24" s="641"/>
+      <c r="D24" s="641"/>
+      <c r="E24" s="641"/>
+      <c r="F24" s="641"/>
+      <c r="G24" s="641"/>
+      <c r="H24" s="641"/>
+      <c r="I24" s="641"/>
+      <c r="J24" s="641"/>
+      <c r="K24" s="641"/>
+      <c r="L24" s="641"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1"/>
     <row r="26" spans="1:12" ht="241.5" customHeight="1">
-      <c r="A26" s="645"/>
-      <c r="B26" s="646"/>
-      <c r="C26" s="646"/>
-      <c r="D26" s="646"/>
-      <c r="E26" s="646"/>
-      <c r="F26" s="646"/>
-      <c r="G26" s="646"/>
-      <c r="H26" s="646"/>
-      <c r="I26" s="646"/>
-      <c r="J26" s="646"/>
-      <c r="K26" s="646"/>
-      <c r="L26" s="647"/>
+      <c r="A26" s="642"/>
+      <c r="B26" s="643"/>
+      <c r="C26" s="643"/>
+      <c r="D26" s="643"/>
+      <c r="E26" s="643"/>
+      <c r="F26" s="643"/>
+      <c r="G26" s="643"/>
+      <c r="H26" s="643"/>
+      <c r="I26" s="643"/>
+      <c r="J26" s="643"/>
+      <c r="K26" s="643"/>
+      <c r="L26" s="644"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1"/>
     <row r="28" spans="1:12" ht="204.75" customHeight="1" thickBot="1">
-      <c r="A28" s="648" t="s">
+      <c r="A28" s="645" t="s">
         <v>682</v>
       </c>
-      <c r="B28" s="649"/>
-      <c r="C28" s="649"/>
-      <c r="D28" s="649"/>
-      <c r="E28" s="649"/>
-      <c r="F28" s="649"/>
-      <c r="G28" s="649"/>
-      <c r="H28" s="649"/>
-      <c r="I28" s="649"/>
-      <c r="J28" s="649"/>
-      <c r="K28" s="649"/>
-      <c r="L28" s="650"/>
+      <c r="B28" s="646"/>
+      <c r="C28" s="646"/>
+      <c r="D28" s="646"/>
+      <c r="E28" s="646"/>
+      <c r="F28" s="646"/>
+      <c r="G28" s="646"/>
+      <c r="H28" s="646"/>
+      <c r="I28" s="646"/>
+      <c r="J28" s="646"/>
+      <c r="K28" s="646"/>
+      <c r="L28" s="647"/>
     </row>
     <row r="33" spans="2:12" ht="18" customHeight="1">
       <c r="B33" s="33"/>
@@ -18644,16 +18647,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -18666,6 +18659,16 @@
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
   </mergeCells>
   <conditionalFormatting sqref="J22:L22 J20 J10:L19">
     <cfRule type="cellIs" dxfId="125" priority="2" stopIfTrue="1" operator="equal">
@@ -19220,13 +19223,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="666" t="s">
+      <c r="A1" s="657" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="667"/>
-      <c r="C1" s="667"/>
-      <c r="D1" s="667"/>
-      <c r="E1" s="667"/>
+      <c r="B1" s="658"/>
+      <c r="C1" s="658"/>
+      <c r="D1" s="658"/>
+      <c r="E1" s="658"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="92"/>
@@ -19239,23 +19242,23 @@
       <c r="A3" s="93" t="s">
         <v>470</v>
       </c>
-      <c r="B3" s="668" t="str">
+      <c r="B3" s="659" t="str">
         <f>'QC Test Summary-Hologic'!C4</f>
         <v>HCC Breast Imaging Program</v>
       </c>
-      <c r="C3" s="668"/>
-      <c r="D3" s="668"/>
-      <c r="E3" s="668"/>
+      <c r="C3" s="659"/>
+      <c r="D3" s="659"/>
+      <c r="E3" s="659"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="93" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="669" t="str">
+      <c r="B4" s="660" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="669"/>
+      <c r="C4" s="660"/>
       <c r="D4" s="94" t="s">
         <v>23</v>
       </c>
@@ -19285,11 +19288,11 @@
       <c r="A6" s="93" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="669" t="str">
+      <c r="B6" s="660" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="669"/>
+      <c r="C6" s="660"/>
       <c r="D6" s="94" t="s">
         <v>475</v>
       </c>
@@ -19302,8 +19305,8 @@
       <c r="A7" s="93" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="669"/>
-      <c r="C7" s="669"/>
+      <c r="B7" s="660"/>
+      <c r="C7" s="660"/>
       <c r="D7" s="94" t="s">
         <v>477</v>
       </c>
@@ -19331,7 +19334,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="665" t="s">
+      <c r="A10" s="655" t="s">
         <v>482</v>
       </c>
       <c r="B10" s="101" t="s">
@@ -19346,7 +19349,7 @@
       <c r="E10" s="104"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="661"/>
+      <c r="A11" s="656"/>
       <c r="B11" s="105" t="s">
         <v>486</v>
       </c>
@@ -19359,7 +19362,7 @@
       <c r="E11" s="108"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="656" t="s">
+      <c r="A12" s="666" t="s">
         <v>488</v>
       </c>
       <c r="B12" s="109" t="s">
@@ -19374,7 +19377,7 @@
       <c r="E12" s="112"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="657"/>
+      <c r="A13" s="667"/>
       <c r="B13" s="113" t="s">
         <v>492</v>
       </c>
@@ -19387,7 +19390,7 @@
       <c r="E13" s="116"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="658"/>
+      <c r="A14" s="668"/>
       <c r="B14" s="117" t="s">
         <v>494</v>
       </c>
@@ -19400,7 +19403,7 @@
       <c r="E14" s="119"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="659" t="s">
+      <c r="A15" s="669" t="s">
         <v>496</v>
       </c>
       <c r="B15" s="120" t="s">
@@ -19415,7 +19418,7 @@
       <c r="E15" s="122"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="660"/>
+      <c r="A16" s="670"/>
       <c r="B16" s="105" t="s">
         <v>499</v>
       </c>
@@ -19428,7 +19431,7 @@
       <c r="E16" s="124"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="651" t="s">
+      <c r="A17" s="661" t="s">
         <v>502</v>
       </c>
       <c r="B17" s="125" t="s">
@@ -19443,7 +19446,7 @@
       <c r="E17" s="126"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="661"/>
+      <c r="A18" s="656"/>
       <c r="B18" s="127" t="s">
         <v>505</v>
       </c>
@@ -19456,7 +19459,7 @@
       <c r="E18" s="108"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="662" t="s">
+      <c r="A19" s="671" t="s">
         <v>507</v>
       </c>
       <c r="B19" s="125" t="s">
@@ -19471,7 +19474,7 @@
       <c r="E19" s="126"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="663"/>
+      <c r="A20" s="672"/>
       <c r="B20" s="129" t="s">
         <v>510</v>
       </c>
@@ -19484,7 +19487,7 @@
       <c r="E20" s="131"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="664"/>
+      <c r="A21" s="673"/>
       <c r="B21" s="127" t="s">
         <v>512</v>
       </c>
@@ -19497,7 +19500,7 @@
       <c r="E21" s="108"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="651" t="s">
+      <c r="A22" s="661" t="s">
         <v>514</v>
       </c>
       <c r="B22" s="125" t="s">
@@ -19512,7 +19515,7 @@
       <c r="E22" s="126"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="661"/>
+      <c r="A23" s="656"/>
       <c r="B23" s="105" t="s">
         <v>517</v>
       </c>
@@ -19525,7 +19528,7 @@
       <c r="E23" s="124"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="662" t="s">
+      <c r="A24" s="671" t="s">
         <v>519</v>
       </c>
       <c r="B24" s="125" t="s">
@@ -19540,7 +19543,7 @@
       <c r="E24" s="126"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="663"/>
+      <c r="A25" s="672"/>
       <c r="B25" s="129" t="s">
         <v>522</v>
       </c>
@@ -19553,7 +19556,7 @@
       <c r="E25" s="131"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="663"/>
+      <c r="A26" s="672"/>
       <c r="B26" s="132" t="s">
         <v>524</v>
       </c>
@@ -19566,7 +19569,7 @@
       <c r="E26" s="131"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="663"/>
+      <c r="A27" s="672"/>
       <c r="B27" s="132" t="s">
         <v>526</v>
       </c>
@@ -19579,7 +19582,7 @@
       <c r="E27" s="131"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="664"/>
+      <c r="A28" s="673"/>
       <c r="B28" s="133" t="s">
         <v>528</v>
       </c>
@@ -19592,7 +19595,7 @@
       <c r="E28" s="124"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="651" t="s">
+      <c r="A29" s="661" t="s">
         <v>530</v>
       </c>
       <c r="B29" s="134" t="s">
@@ -19607,7 +19610,7 @@
       <c r="E29" s="126"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="652"/>
+      <c r="A30" s="662"/>
       <c r="B30" s="132" t="s">
         <v>533</v>
       </c>
@@ -19620,7 +19623,7 @@
       <c r="E30" s="131"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="653"/>
+      <c r="A31" s="663"/>
       <c r="B31" s="133" t="s">
         <v>535</v>
       </c>
@@ -19633,7 +19636,7 @@
       <c r="E31" s="124"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="651" t="s">
+      <c r="A32" s="661" t="s">
         <v>537</v>
       </c>
       <c r="B32" s="134" t="s">
@@ -19648,7 +19651,7 @@
       <c r="E32" s="126"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="652"/>
+      <c r="A33" s="662"/>
       <c r="B33" s="132" t="s">
         <v>540</v>
       </c>
@@ -19661,7 +19664,7 @@
       <c r="E33" s="131"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="653"/>
+      <c r="A34" s="663"/>
       <c r="B34" s="133" t="s">
         <v>541</v>
       </c>
@@ -19749,13 +19752,13 @@
       <c r="E39" s="108"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="654" t="s">
+      <c r="A40" s="664" t="s">
         <v>695</v>
       </c>
-      <c r="B40" s="655"/>
-      <c r="C40" s="655"/>
-      <c r="D40" s="655"/>
-      <c r="E40" s="655"/>
+      <c r="B40" s="665"/>
+      <c r="C40" s="665"/>
+      <c r="D40" s="665"/>
+      <c r="E40" s="665"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="143"/>
@@ -20452,12 +20455,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -20467,6 +20464,12 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -22479,8 +22482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="F214" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V270" sqref="V270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -22919,21 +22922,21 @@
       <c r="E10" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="678" t="str">
+      <c r="F10" s="692" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="678"/>
+      <c r="G10" s="692"/>
       <c r="H10" s="155"/>
       <c r="I10" s="155"/>
       <c r="J10" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="678" t="str">
+      <c r="K10" s="692" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="678"/>
+      <c r="L10" s="692"/>
       <c r="M10" s="201"/>
       <c r="N10" s="155"/>
       <c r="O10" s="165"/>
@@ -23003,21 +23006,21 @@
       <c r="E11" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="679" t="str">
+      <c r="F11" s="694" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="679"/>
+      <c r="G11" s="694"/>
       <c r="H11" s="155"/>
       <c r="I11" s="155"/>
       <c r="J11" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="678" t="str">
+      <c r="K11" s="692" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="678"/>
+      <c r="L11" s="692"/>
       <c r="M11" s="201"/>
       <c r="N11" s="155"/>
       <c r="O11" s="165"/>
@@ -23087,21 +23090,21 @@
       <c r="E12" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="679" t="str">
+      <c r="F12" s="694" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="679"/>
+      <c r="G12" s="694"/>
       <c r="H12" s="155"/>
       <c r="I12" s="155"/>
       <c r="J12" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="680" t="str">
+      <c r="K12" s="693" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="680"/>
+      <c r="L12" s="693"/>
       <c r="M12" s="201"/>
       <c r="N12" s="155"/>
       <c r="O12" s="165"/>
@@ -23171,21 +23174,21 @@
       <c r="E13" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="679" t="str">
+      <c r="F13" s="694" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="679"/>
+      <c r="G13" s="694"/>
       <c r="H13" s="155"/>
       <c r="I13" s="155"/>
       <c r="J13" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="678" t="str">
+      <c r="K13" s="692" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="678"/>
+      <c r="L13" s="692"/>
       <c r="M13" s="201"/>
       <c r="N13" s="155"/>
       <c r="O13" s="165"/>
@@ -23395,21 +23398,21 @@
       <c r="E16" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="678" t="str">
+      <c r="F16" s="692" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="678"/>
+      <c r="G16" s="692"/>
       <c r="H16" s="155"/>
       <c r="I16" s="155"/>
       <c r="J16" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="680" t="str">
+      <c r="K16" s="693" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="680"/>
+      <c r="L16" s="693"/>
       <c r="M16" s="201"/>
       <c r="N16" s="155"/>
       <c r="O16" s="165"/>
@@ -23471,21 +23474,21 @@
       <c r="E17" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="678" t="str">
+      <c r="F17" s="692" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="678"/>
+      <c r="G17" s="692"/>
       <c r="H17" s="155"/>
       <c r="I17" s="155"/>
       <c r="J17" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="678" t="str">
+      <c r="K17" s="692" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="678"/>
+      <c r="L17" s="692"/>
       <c r="M17" s="201"/>
       <c r="N17" s="155"/>
       <c r="O17" s="165"/>
@@ -23555,21 +23558,21 @@
       <c r="E18" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="678" t="str">
+      <c r="F18" s="692" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="678"/>
+      <c r="G18" s="692"/>
       <c r="H18" s="155"/>
       <c r="I18" s="155"/>
       <c r="J18" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="678" t="str">
+      <c r="K18" s="692" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="678"/>
+      <c r="L18" s="692"/>
       <c r="M18" s="201"/>
       <c r="N18" s="155"/>
       <c r="O18" s="165"/>
@@ -23773,21 +23776,21 @@
       <c r="E21" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="678" t="str">
+      <c r="F21" s="692" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="678"/>
+      <c r="G21" s="692"/>
       <c r="H21" s="155"/>
       <c r="I21" s="155"/>
       <c r="J21" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="678" t="str">
+      <c r="K21" s="692" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="678"/>
+      <c r="L21" s="692"/>
       <c r="M21" s="201"/>
       <c r="N21" s="155"/>
       <c r="O21" s="165"/>
@@ -23854,19 +23857,19 @@
       <c r="E22" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="680" t="str">
+      <c r="F22" s="693" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="680"/>
+      <c r="G22" s="693"/>
       <c r="H22" s="155"/>
       <c r="I22" s="155"/>
       <c r="J22" s="171"/>
-      <c r="K22" s="678" t="str">
+      <c r="K22" s="692" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="678"/>
+      <c r="L22" s="692"/>
       <c r="M22" s="201"/>
       <c r="N22" s="155"/>
       <c r="O22" s="165"/>
@@ -23941,11 +23944,11 @@
       <c r="J23" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="678" t="str">
+      <c r="K23" s="692" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="678"/>
+      <c r="L23" s="692"/>
       <c r="M23" s="201"/>
       <c r="N23" s="155"/>
       <c r="O23" s="165"/>
@@ -24010,19 +24013,19 @@
       <c r="E24" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="678" t="str">
+      <c r="F24" s="692" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="678"/>
+      <c r="G24" s="692"/>
       <c r="H24" s="155"/>
       <c r="I24" s="155"/>
       <c r="J24" s="155"/>
-      <c r="K24" s="678" t="str">
+      <c r="K24" s="692" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="678"/>
+      <c r="L24" s="692"/>
       <c r="M24" s="201"/>
       <c r="N24" s="155"/>
       <c r="O24" s="165"/>
@@ -24089,19 +24092,19 @@
       <c r="E25" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="678" t="str">
+      <c r="F25" s="692" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="678"/>
+      <c r="G25" s="692"/>
       <c r="H25" s="155"/>
       <c r="I25" s="155"/>
       <c r="J25" s="216"/>
-      <c r="K25" s="678" t="str">
+      <c r="K25" s="692" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="678"/>
+      <c r="L25" s="692"/>
       <c r="M25" s="201"/>
       <c r="N25" s="155"/>
       <c r="O25" s="165"/>
@@ -24169,11 +24172,11 @@
       <c r="E26" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="678" t="str">
+      <c r="F26" s="692" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="678"/>
+      <c r="G26" s="692"/>
       <c r="H26" s="155"/>
       <c r="I26" s="208" t="s">
         <v>32</v>
@@ -24255,11 +24258,11 @@
       <c r="J27" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="678" t="str">
+      <c r="K27" s="692" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="678"/>
+      <c r="L27" s="692"/>
       <c r="M27" s="201"/>
       <c r="N27" s="155"/>
       <c r="O27" s="165"/>
@@ -24320,21 +24323,21 @@
       <c r="E28" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="678" t="str">
+      <c r="F28" s="692" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="678"/>
+      <c r="G28" s="692"/>
       <c r="H28" s="155"/>
       <c r="I28" s="216"/>
       <c r="J28" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="678" t="str">
+      <c r="K28" s="692" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="678"/>
+      <c r="L28" s="692"/>
       <c r="M28" s="201"/>
       <c r="N28" s="155"/>
       <c r="O28" s="165"/>
@@ -24401,11 +24404,11 @@
       <c r="E29" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="678" t="str">
+      <c r="F29" s="692" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="678"/>
+      <c r="G29" s="692"/>
       <c r="H29" s="155"/>
       <c r="I29" s="208" t="s">
         <v>36</v>
@@ -24413,11 +24416,11 @@
       <c r="J29" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="678" t="str">
+      <c r="K29" s="692" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="678"/>
+      <c r="L29" s="692"/>
       <c r="M29" s="201"/>
       <c r="N29" s="155"/>
       <c r="O29" s="165"/>
@@ -24487,21 +24490,21 @@
       <c r="E30" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="678" t="str">
+      <c r="F30" s="692" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="678"/>
+      <c r="G30" s="692"/>
       <c r="H30" s="155"/>
       <c r="I30" s="155"/>
       <c r="J30" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="678" t="str">
+      <c r="K30" s="692" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="678"/>
+      <c r="L30" s="692"/>
       <c r="M30" s="201"/>
       <c r="N30" s="155"/>
       <c r="O30" s="165"/>
@@ -24841,21 +24844,21 @@
       <c r="C35" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="681" t="s">
+      <c r="D35" s="689" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="681"/>
-      <c r="F35" s="681"/>
-      <c r="G35" s="682" t="s">
+      <c r="E35" s="689"/>
+      <c r="F35" s="689"/>
+      <c r="G35" s="690" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="682"/>
-      <c r="I35" s="682"/>
-      <c r="J35" s="681" t="s">
+      <c r="H35" s="690"/>
+      <c r="I35" s="690"/>
+      <c r="J35" s="689" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="681"/>
-      <c r="L35" s="681"/>
+      <c r="K35" s="689"/>
+      <c r="L35" s="689"/>
       <c r="M35" s="201"/>
       <c r="N35" s="155"/>
       <c r="O35" s="222"/>
@@ -24915,15 +24918,15 @@
       <c r="C36" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="681"/>
-      <c r="E36" s="681"/>
-      <c r="F36" s="681"/>
-      <c r="G36" s="682"/>
-      <c r="H36" s="682"/>
-      <c r="I36" s="682"/>
-      <c r="J36" s="681"/>
-      <c r="K36" s="681"/>
-      <c r="L36" s="681"/>
+      <c r="D36" s="689"/>
+      <c r="E36" s="689"/>
+      <c r="F36" s="689"/>
+      <c r="G36" s="690"/>
+      <c r="H36" s="690"/>
+      <c r="I36" s="690"/>
+      <c r="J36" s="689"/>
+      <c r="K36" s="689"/>
+      <c r="L36" s="689"/>
       <c r="M36" s="201"/>
       <c r="N36" s="155"/>
       <c r="O36" s="155"/>
@@ -25589,10 +25592,10 @@
       <c r="I44" s="155"/>
       <c r="J44" s="155"/>
       <c r="K44" s="155"/>
-      <c r="L44" s="683" t="s">
+      <c r="L44" s="691" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="683"/>
+      <c r="M44" s="691"/>
       <c r="N44" s="155"/>
       <c r="O44" s="165"/>
       <c r="P44" s="155"/>
@@ -28687,21 +28690,21 @@
       <c r="O97" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="P97" s="681" t="s">
+      <c r="P97" s="689" t="s">
         <v>42</v>
       </c>
-      <c r="Q97" s="681"/>
-      <c r="R97" s="681"/>
-      <c r="S97" s="682" t="s">
+      <c r="Q97" s="689"/>
+      <c r="R97" s="689"/>
+      <c r="S97" s="690" t="s">
         <v>43</v>
       </c>
-      <c r="T97" s="682"/>
-      <c r="U97" s="682"/>
-      <c r="V97" s="681" t="s">
+      <c r="T97" s="690"/>
+      <c r="U97" s="690"/>
+      <c r="V97" s="689" t="s">
         <v>44</v>
       </c>
-      <c r="W97" s="681"/>
-      <c r="X97" s="681"/>
+      <c r="W97" s="689"/>
+      <c r="X97" s="689"/>
       <c r="Y97" s="167"/>
       <c r="AA97" s="261"/>
       <c r="AB97" s="261"/>
@@ -28736,15 +28739,15 @@
       <c r="O98" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="P98" s="681"/>
-      <c r="Q98" s="681"/>
-      <c r="R98" s="681"/>
-      <c r="S98" s="682"/>
-      <c r="T98" s="682"/>
-      <c r="U98" s="682"/>
-      <c r="V98" s="681"/>
-      <c r="W98" s="681"/>
-      <c r="X98" s="681"/>
+      <c r="P98" s="689"/>
+      <c r="Q98" s="689"/>
+      <c r="R98" s="689"/>
+      <c r="S98" s="690"/>
+      <c r="T98" s="690"/>
+      <c r="U98" s="690"/>
+      <c r="V98" s="689"/>
+      <c r="W98" s="689"/>
+      <c r="X98" s="689"/>
       <c r="Y98" s="167"/>
       <c r="AA98" s="208" t="s">
         <v>394</v>
@@ -29199,21 +29202,21 @@
       <c r="O105" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="P105" s="681" t="s">
+      <c r="P105" s="689" t="s">
         <v>42</v>
       </c>
-      <c r="Q105" s="681"/>
-      <c r="R105" s="681"/>
-      <c r="S105" s="682" t="s">
+      <c r="Q105" s="689"/>
+      <c r="R105" s="689"/>
+      <c r="S105" s="690" t="s">
         <v>43</v>
       </c>
-      <c r="T105" s="682"/>
-      <c r="U105" s="682"/>
-      <c r="V105" s="681" t="s">
+      <c r="T105" s="690"/>
+      <c r="U105" s="690"/>
+      <c r="V105" s="689" t="s">
         <v>44</v>
       </c>
-      <c r="W105" s="681"/>
-      <c r="X105" s="681"/>
+      <c r="W105" s="689"/>
+      <c r="X105" s="689"/>
       <c r="Y105" s="167"/>
       <c r="AA105" s="171" t="s">
         <v>274</v>
@@ -29248,15 +29251,15 @@
       <c r="O106" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="P106" s="681"/>
-      <c r="Q106" s="681"/>
-      <c r="R106" s="681"/>
-      <c r="S106" s="682"/>
-      <c r="T106" s="682"/>
-      <c r="U106" s="682"/>
-      <c r="V106" s="681"/>
-      <c r="W106" s="681"/>
-      <c r="X106" s="681"/>
+      <c r="P106" s="689"/>
+      <c r="Q106" s="689"/>
+      <c r="R106" s="689"/>
+      <c r="S106" s="690"/>
+      <c r="T106" s="690"/>
+      <c r="U106" s="690"/>
+      <c r="V106" s="689"/>
+      <c r="W106" s="689"/>
+      <c r="X106" s="689"/>
       <c r="Y106" s="167"/>
       <c r="AA106" s="171" t="s">
         <v>277</v>
@@ -31049,27 +31052,27 @@
       <c r="P146" s="303" t="s">
         <v>177</v>
       </c>
-      <c r="Q146" s="306" t="str">
+      <c r="Q146" s="304" t="str">
         <f>IF(Q139="","",Q139)</f>
         <v/>
       </c>
-      <c r="R146" s="306" t="str">
+      <c r="R146" s="304" t="str">
         <f t="shared" ref="R146:V146" si="20">IF(R139="","",R139)</f>
         <v/>
       </c>
-      <c r="S146" s="306" t="str">
+      <c r="S146" s="304" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="T146" s="306" t="str">
+      <c r="T146" s="304" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="U146" s="306" t="str">
+      <c r="U146" s="304" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="V146" s="306" t="str">
+      <c r="V146" s="304" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -31114,27 +31117,27 @@
       <c r="P147" s="303" t="s">
         <v>178</v>
       </c>
-      <c r="Q147" s="306" t="str">
+      <c r="Q147" s="304" t="str">
         <f>IF(Q140="","",Q140)</f>
         <v/>
       </c>
-      <c r="R147" s="306" t="str">
+      <c r="R147" s="304" t="str">
         <f t="shared" ref="R147:V147" si="21">IF(R140="","",R140)</f>
         <v/>
       </c>
-      <c r="S147" s="306" t="str">
+      <c r="S147" s="304" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="T147" s="306" t="str">
+      <c r="T147" s="304" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="U147" s="306" t="str">
+      <c r="U147" s="304" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="V147" s="306" t="str">
+      <c r="V147" s="304" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -31445,27 +31448,27 @@
       <c r="P153" s="303" t="s">
         <v>251</v>
       </c>
-      <c r="Q153" s="306" t="str">
+      <c r="Q153" s="704" t="str">
         <f>IF(Q148="","",AVERAGE(Q148:Q152))</f>
         <v/>
       </c>
-      <c r="R153" s="306" t="str">
+      <c r="R153" s="704" t="str">
         <f t="shared" ref="R153:V153" si="25">IF(R148="","",AVERAGE(R148:R152))</f>
         <v/>
       </c>
-      <c r="S153" s="306" t="str">
+      <c r="S153" s="704" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="T153" s="306" t="str">
+      <c r="T153" s="704" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="U153" s="306" t="str">
+      <c r="U153" s="704" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="V153" s="306" t="str">
+      <c r="V153" s="704" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
@@ -32193,17 +32196,17 @@
       <c r="M167" s="164"/>
       <c r="N167" s="155"/>
       <c r="O167" s="165"/>
-      <c r="P167" s="684" t="s">
+      <c r="P167" s="681" t="s">
         <v>187</v>
       </c>
-      <c r="Q167" s="684"/>
-      <c r="R167" s="684"/>
-      <c r="S167" s="684"/>
+      <c r="Q167" s="681"/>
+      <c r="R167" s="681"/>
+      <c r="S167" s="681"/>
       <c r="T167" s="326"/>
-      <c r="U167" s="684" t="s">
+      <c r="U167" s="681" t="s">
         <v>188</v>
       </c>
-      <c r="V167" s="684"/>
+      <c r="V167" s="681"/>
       <c r="W167" s="155"/>
       <c r="X167" s="155"/>
       <c r="Y167" s="167"/>
@@ -32243,10 +32246,10 @@
         <v>192</v>
       </c>
       <c r="T168" s="326"/>
-      <c r="U168" s="685" t="s">
+      <c r="U168" s="686" t="s">
         <v>193</v>
       </c>
-      <c r="V168" s="685"/>
+      <c r="V168" s="686"/>
       <c r="W168" s="155"/>
       <c r="X168" s="155"/>
       <c r="Y168" s="167"/>
@@ -32275,11 +32278,11 @@
       <c r="R169" s="329"/>
       <c r="S169" s="330"/>
       <c r="T169" s="326"/>
-      <c r="U169" s="686" t="str">
+      <c r="U169" s="687" t="str">
         <f>IF(OR(R166=2,R166=3),"NA",IF(OR(P169="",Q169="",R169="",S169=""),"",AVERAGE(P169:S169)))</f>
         <v/>
       </c>
-      <c r="V169" s="686"/>
+      <c r="V169" s="687"/>
       <c r="W169" s="155"/>
       <c r="X169" s="171" t="s">
         <v>180</v>
@@ -32357,17 +32360,17 @@
       </c>
       <c r="B172" s="199"/>
       <c r="C172" s="155"/>
-      <c r="D172" s="684" t="s">
+      <c r="D172" s="681" t="s">
         <v>187</v>
       </c>
-      <c r="E172" s="684"/>
-      <c r="F172" s="684"/>
-      <c r="G172" s="684"/>
+      <c r="E172" s="681"/>
+      <c r="F172" s="681"/>
+      <c r="G172" s="681"/>
       <c r="H172" s="326"/>
-      <c r="I172" s="684" t="s">
+      <c r="I172" s="681" t="s">
         <v>188</v>
       </c>
-      <c r="J172" s="684"/>
+      <c r="J172" s="681"/>
       <c r="K172" s="155"/>
       <c r="L172" s="155"/>
       <c r="M172" s="201"/>
@@ -32408,27 +32411,27 @@
         <v>192</v>
       </c>
       <c r="H173" s="326"/>
-      <c r="I173" s="685" t="s">
+      <c r="I173" s="686" t="s">
         <v>193</v>
       </c>
-      <c r="J173" s="685"/>
+      <c r="J173" s="686"/>
       <c r="K173" s="155"/>
       <c r="L173" s="155"/>
       <c r="M173" s="201"/>
       <c r="N173" s="155"/>
       <c r="O173" s="165"/>
-      <c r="P173" s="687" t="s">
+      <c r="P173" s="683" t="s">
         <v>196</v>
       </c>
-      <c r="Q173" s="674" t="s">
+      <c r="Q173" s="684" t="s">
         <v>197</v>
       </c>
-      <c r="R173" s="674"/>
-      <c r="S173" s="674"/>
+      <c r="R173" s="684"/>
+      <c r="S173" s="684"/>
       <c r="T173" s="333" t="s">
         <v>711</v>
       </c>
-      <c r="U173" s="677" t="s">
+      <c r="U173" s="688" t="s">
         <v>198</v>
       </c>
       <c r="V173" s="245"/>
@@ -32459,11 +32462,11 @@
         <v/>
       </c>
       <c r="H174" s="326"/>
-      <c r="I174" s="690" t="str">
+      <c r="I174" s="682" t="str">
         <f>IF(U169="","",U169)</f>
         <v/>
       </c>
-      <c r="J174" s="690"/>
+      <c r="J174" s="682"/>
       <c r="K174" s="155"/>
       <c r="L174" s="171" t="s">
         <v>180</v>
@@ -32474,7 +32477,7 @@
       </c>
       <c r="N174" s="155"/>
       <c r="O174" s="165"/>
-      <c r="P174" s="687" t="s">
+      <c r="P174" s="683" t="s">
         <v>196</v>
       </c>
       <c r="Q174" s="333" t="s">
@@ -32489,7 +32492,7 @@
       <c r="T174" s="333" t="s">
         <v>202</v>
       </c>
-      <c r="U174" s="677" t="s">
+      <c r="U174" s="688" t="s">
         <v>196</v>
       </c>
       <c r="V174" s="245"/>
@@ -32640,14 +32643,14 @@
         <f>IF(P172="","",P172)</f>
         <v>65</v>
       </c>
-      <c r="D179" s="691" t="s">
+      <c r="D179" s="677" t="s">
         <v>219</v>
       </c>
-      <c r="E179" s="691"/>
-      <c r="F179" s="691"/>
-      <c r="G179" s="691"/>
-      <c r="H179" s="691"/>
-      <c r="I179" s="691"/>
+      <c r="E179" s="677"/>
+      <c r="F179" s="677"/>
+      <c r="G179" s="677"/>
+      <c r="H179" s="677"/>
+      <c r="I179" s="677"/>
       <c r="J179" s="245"/>
       <c r="K179" s="245"/>
       <c r="L179" s="245"/>
@@ -32673,18 +32676,18 @@
       </c>
       <c r="B180" s="199"/>
       <c r="C180" s="216"/>
-      <c r="D180" s="687" t="s">
+      <c r="D180" s="683" t="s">
         <v>196</v>
       </c>
-      <c r="E180" s="674" t="s">
+      <c r="E180" s="684" t="s">
         <v>197</v>
       </c>
-      <c r="F180" s="674"/>
-      <c r="G180" s="674"/>
+      <c r="F180" s="684"/>
+      <c r="G180" s="684"/>
       <c r="H180" s="333" t="s">
         <v>711</v>
       </c>
-      <c r="I180" s="692" t="s">
+      <c r="I180" s="685" t="s">
         <v>198</v>
       </c>
       <c r="J180" s="245"/>
@@ -32710,7 +32713,7 @@
       </c>
       <c r="B181" s="199"/>
       <c r="C181" s="216"/>
-      <c r="D181" s="687" t="s">
+      <c r="D181" s="683" t="s">
         <v>196</v>
       </c>
       <c r="E181" s="333" t="s">
@@ -32725,7 +32728,7 @@
       <c r="H181" s="333" t="s">
         <v>202</v>
       </c>
-      <c r="I181" s="692" t="s">
+      <c r="I181" s="685" t="s">
         <v>202</v>
       </c>
       <c r="J181" s="245"/>
@@ -32734,14 +32737,14 @@
       <c r="M181" s="201"/>
       <c r="N181" s="155"/>
       <c r="O181" s="352"/>
-      <c r="P181" s="672" t="s">
+      <c r="P181" s="697" t="s">
         <v>209</v>
       </c>
-      <c r="Q181" s="673"/>
-      <c r="R181" s="673"/>
-      <c r="S181" s="673"/>
-      <c r="T181" s="673"/>
-      <c r="U181" s="674"/>
+      <c r="Q181" s="698"/>
+      <c r="R181" s="698"/>
+      <c r="S181" s="698"/>
+      <c r="T181" s="698"/>
+      <c r="U181" s="684"/>
       <c r="V181" s="245"/>
       <c r="W181" s="245"/>
       <c r="X181" s="245"/>
@@ -32788,15 +32791,15 @@
       <c r="P182" s="357" t="s">
         <v>196</v>
       </c>
-      <c r="Q182" s="676" t="s">
+      <c r="Q182" s="700" t="s">
         <v>197</v>
       </c>
-      <c r="R182" s="673"/>
-      <c r="S182" s="674"/>
+      <c r="R182" s="698"/>
+      <c r="S182" s="684"/>
       <c r="T182" s="555" t="s">
         <v>711</v>
       </c>
-      <c r="U182" s="677" t="s">
+      <c r="U182" s="688" t="s">
         <v>198</v>
       </c>
       <c r="V182" s="245"/>
@@ -32857,7 +32860,7 @@
       <c r="T183" s="337" t="s">
         <v>202</v>
       </c>
-      <c r="U183" s="677" t="s">
+      <c r="U183" s="688" t="s">
         <v>196</v>
       </c>
       <c r="V183" s="245"/>
@@ -33216,14 +33219,14 @@
       </c>
       <c r="B189" s="379"/>
       <c r="C189" s="216"/>
-      <c r="D189" s="691" t="s">
+      <c r="D189" s="677" t="s">
         <v>224</v>
       </c>
-      <c r="E189" s="691"/>
-      <c r="F189" s="691"/>
-      <c r="G189" s="691"/>
-      <c r="H189" s="691"/>
-      <c r="I189" s="691"/>
+      <c r="E189" s="677"/>
+      <c r="F189" s="677"/>
+      <c r="G189" s="677"/>
+      <c r="H189" s="677"/>
+      <c r="I189" s="677"/>
       <c r="J189" s="245"/>
       <c r="K189" s="245"/>
       <c r="L189" s="245"/>
@@ -33565,7 +33568,7 @@
       <c r="T195" s="555" t="s">
         <v>711</v>
       </c>
-      <c r="U195" s="677" t="s">
+      <c r="U195" s="688" t="s">
         <v>198</v>
       </c>
       <c r="V195" s="245"/>
@@ -33610,7 +33613,7 @@
       <c r="T196" s="337" t="s">
         <v>202</v>
       </c>
-      <c r="U196" s="677" t="s">
+      <c r="U196" s="688" t="s">
         <v>196</v>
       </c>
       <c r="V196" s="245"/>
@@ -33881,14 +33884,14 @@
       </c>
       <c r="N204" s="155"/>
       <c r="O204" s="352"/>
-      <c r="P204" s="675" t="s">
+      <c r="P204" s="699" t="s">
         <v>209</v>
       </c>
-      <c r="Q204" s="675"/>
-      <c r="R204" s="675"/>
-      <c r="S204" s="675"/>
-      <c r="T204" s="675"/>
-      <c r="U204" s="675"/>
+      <c r="Q204" s="699"/>
+      <c r="R204" s="699"/>
+      <c r="S204" s="699"/>
+      <c r="T204" s="699"/>
+      <c r="U204" s="699"/>
       <c r="V204" s="245"/>
       <c r="W204" s="245"/>
       <c r="X204" s="245"/>
@@ -33918,15 +33921,15 @@
       <c r="P205" s="357" t="s">
         <v>196</v>
       </c>
-      <c r="Q205" s="676" t="s">
+      <c r="Q205" s="700" t="s">
         <v>197</v>
       </c>
-      <c r="R205" s="673"/>
-      <c r="S205" s="674"/>
+      <c r="R205" s="698"/>
+      <c r="S205" s="684"/>
       <c r="T205" s="555" t="s">
         <v>711</v>
       </c>
-      <c r="U205" s="677" t="s">
+      <c r="U205" s="688" t="s">
         <v>198</v>
       </c>
       <c r="V205" s="245"/>
@@ -33972,7 +33975,7 @@
       <c r="T206" s="337" t="s">
         <v>202</v>
       </c>
-      <c r="U206" s="677" t="s">
+      <c r="U206" s="688" t="s">
         <v>196</v>
       </c>
       <c r="V206" s="245"/>
@@ -35630,7 +35633,7 @@
         <v>-3</v>
       </c>
       <c r="E240" s="212" t="str">
-        <f t="shared" ref="E240:H247" si="52">IF(R265="","",R265)</f>
+        <f t="shared" ref="E240:G247" si="52">IF(R265="","",R265)</f>
         <v/>
       </c>
       <c r="F240" s="212" t="str">
@@ -35642,7 +35645,7 @@
         <v/>
       </c>
       <c r="H240" s="405" t="str">
-        <f>IF(V265="","",V265)</f>
+        <f t="shared" ref="H240:H247" si="53">IF(V265="","",V265)</f>
         <v/>
       </c>
       <c r="I240" s="406" t="str">
@@ -35703,7 +35706,7 @@
         <v/>
       </c>
       <c r="H241" s="405" t="str">
-        <f>IF(V266="","",V266)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="I241" s="406" t="str">
@@ -35758,7 +35761,7 @@
         <v/>
       </c>
       <c r="H242" s="405" t="str">
-        <f>IF(V267="","",V267)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="I242" s="406" t="str">
@@ -35813,7 +35816,7 @@
         <v/>
       </c>
       <c r="H243" s="405" t="str">
-        <f>IF(V268="","",V268)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="I243" s="409"/>
@@ -35867,7 +35870,7 @@
         <v/>
       </c>
       <c r="H244" s="405" t="str">
-        <f>IF(V269="","",V269)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="I244" s="406" t="str">
@@ -35922,7 +35925,7 @@
         <v/>
       </c>
       <c r="H245" s="405" t="str">
-        <f>IF(V270="","",V270)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="I245" s="406" t="str">
@@ -35973,7 +35976,7 @@
         <v/>
       </c>
       <c r="H246" s="405" t="str">
-        <f>IF(V271="","",V271)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="I246" s="406" t="str">
@@ -36026,7 +36029,7 @@
         <v/>
       </c>
       <c r="H247" s="416" t="str">
-        <f>IF(V272="","",V272)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="I247" s="417" t="str">
@@ -36245,19 +36248,19 @@
         <v>233</v>
       </c>
       <c r="E251" s="212" t="str">
-        <f t="shared" ref="E251:H255" si="53">IF(Q222="","",Q222)</f>
+        <f t="shared" ref="E251:H255" si="54">IF(Q222="","",Q222)</f>
         <v/>
       </c>
       <c r="F251" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="G251" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="H251" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I251" s="245"/>
@@ -36280,7 +36283,7 @@
       </c>
       <c r="V251" s="399"/>
       <c r="W251" s="367" t="str">
-        <f t="shared" ref="W251:W257" si="54">IF(OR(U251="",$U$258=""),"",ABS((U251-$U$258)/$U$258))</f>
+        <f t="shared" ref="W251:W257" si="55">IF(OR(U251="",$U$258=""),"",ABS((U251-$U$258)/$U$258))</f>
         <v/>
       </c>
       <c r="X251" s="155"/>
@@ -36296,19 +36299,19 @@
         <v>29</v>
       </c>
       <c r="E252" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="F252" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="G252" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="H252" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I252" s="155"/>
@@ -36331,7 +36334,7 @@
       </c>
       <c r="V252" s="286"/>
       <c r="W252" s="356" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X252" s="155"/>
@@ -36359,19 +36362,19 @@
         <v>177</v>
       </c>
       <c r="E253" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="F253" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="G253" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="H253" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="J253" s="171" t="s">
@@ -36389,11 +36392,11 @@
         <v>4</v>
       </c>
       <c r="Q253" s="211">
-        <f t="shared" ref="Q253:R255" si="55">Q252</f>
+        <f t="shared" ref="Q253:R255" si="56">Q252</f>
         <v>0</v>
       </c>
       <c r="R253" s="212">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S253" s="286"/>
@@ -36404,7 +36407,7 @@
       </c>
       <c r="V253" s="286"/>
       <c r="W253" s="356" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X253" s="155"/>
@@ -36432,19 +36435,19 @@
         <v>178</v>
       </c>
       <c r="E254" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="F254" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="G254" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="H254" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I254" s="155"/>
@@ -36458,11 +36461,11 @@
         <v>4</v>
       </c>
       <c r="Q254" s="211">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="R254" s="212">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S254" s="286"/>
@@ -36473,7 +36476,7 @@
       </c>
       <c r="V254" s="286"/>
       <c r="W254" s="356" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X254" s="155"/>
@@ -36501,19 +36504,19 @@
         <v>237</v>
       </c>
       <c r="E255" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="F255" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="G255" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="H255" s="212" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="I255" s="155"/>
@@ -36527,11 +36530,11 @@
         <v>4</v>
       </c>
       <c r="Q255" s="211">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="R255" s="212">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="S255" s="286"/>
@@ -36542,7 +36545,7 @@
       </c>
       <c r="V255" s="286"/>
       <c r="W255" s="356" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X255" s="155"/>
@@ -36596,7 +36599,7 @@
       </c>
       <c r="V256" s="286"/>
       <c r="W256" s="356" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X256" s="155"/>
@@ -36633,7 +36636,7 @@
       </c>
       <c r="V257" s="412"/>
       <c r="W257" s="371" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X257" s="155"/>
@@ -36684,21 +36687,21 @@
       </c>
       <c r="B259" s="199"/>
       <c r="C259" s="155"/>
-      <c r="D259" s="689" t="s">
+      <c r="D259" s="680" t="s">
         <v>263</v>
       </c>
-      <c r="E259" s="689"/>
+      <c r="E259" s="680"/>
       <c r="F259" s="216"/>
-      <c r="G259" s="689" t="s">
+      <c r="G259" s="680" t="s">
         <v>264</v>
       </c>
-      <c r="H259" s="689"/>
+      <c r="H259" s="680"/>
       <c r="I259" s="155"/>
       <c r="J259" s="216"/>
-      <c r="K259" s="693" t="s">
+      <c r="K259" s="674" t="s">
         <v>265</v>
       </c>
-      <c r="L259" s="693"/>
+      <c r="L259" s="674"/>
       <c r="M259" s="246"/>
       <c r="N259" s="155"/>
       <c r="O259" s="165"/>
@@ -36727,7 +36730,7 @@
         <v>177</v>
       </c>
       <c r="E260" s="397">
-        <f t="shared" ref="E260:E265" si="56">IF(Q427="","",Q427)</f>
+        <f t="shared" ref="E260:E265" si="57">IF(Q427="","",Q427)</f>
         <v>0</v>
       </c>
       <c r="F260" s="155"/>
@@ -36771,22 +36774,22 @@
         <v>270</v>
       </c>
       <c r="E261" s="401">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="F261" s="171" t="s">
         <v>177</v>
       </c>
       <c r="G261" s="202">
-        <f t="shared" ref="G261:G266" si="57">IF(P443="","",P443)</f>
+        <f t="shared" ref="G261:G266" si="58">IF(P443="","",P443)</f>
         <v>0</v>
       </c>
       <c r="H261" s="203" t="str">
-        <f t="shared" ref="H261:H266" si="58">IF(R443="","",R443)</f>
+        <f t="shared" ref="H261:H266" si="59">IF(R443="","",R443)</f>
         <v/>
       </c>
       <c r="I261" s="421" t="str">
-        <f t="shared" ref="I261:I266" si="59">IF(T443="","",T443)</f>
+        <f t="shared" ref="I261:I266" si="60">IF(T443="","",T443)</f>
         <v/>
       </c>
       <c r="J261" s="216"/>
@@ -36821,33 +36824,33 @@
         <v>273</v>
       </c>
       <c r="E262" s="401" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="F262" s="171" t="s">
         <v>270</v>
       </c>
       <c r="G262" s="211">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="H262" s="212" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="I262" s="406" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="J262" s="171" t="s">
         <v>274</v>
       </c>
       <c r="K262" s="423" t="str">
-        <f t="shared" ref="K262:L264" si="60">IF(Q437="","",Q437)</f>
+        <f t="shared" ref="K262:L264" si="61">IF(Q437="","",Q437)</f>
         <v/>
       </c>
       <c r="L262" s="424" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="M262" s="246"/>
@@ -36876,33 +36879,33 @@
         <v>276</v>
       </c>
       <c r="E263" s="401" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="F263" s="171" t="s">
         <v>179</v>
       </c>
       <c r="G263" s="211">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="H263" s="212" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="I263" s="406" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="J263" s="171" t="s">
         <v>277</v>
       </c>
       <c r="K263" s="425" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="L263" s="426" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="M263" s="246"/>
@@ -36944,33 +36947,33 @@
         <v>281</v>
       </c>
       <c r="E264" s="401" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="F264" s="171" t="s">
         <v>274</v>
       </c>
       <c r="G264" s="211" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="H264" s="212" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="I264" s="406" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="J264" s="171" t="s">
         <v>282</v>
       </c>
       <c r="K264" s="427" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="L264" s="428" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="M264" s="246"/>
@@ -36991,7 +36994,7 @@
       <c r="T264" s="170" t="s">
         <v>242</v>
       </c>
-      <c r="U264" s="700" t="s">
+      <c r="U264" s="604" t="s">
         <v>716</v>
       </c>
       <c r="V264" s="170" t="s">
@@ -37015,22 +37018,22 @@
         <v>284</v>
       </c>
       <c r="E265" s="401" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="F265" s="171" t="s">
         <v>277</v>
       </c>
       <c r="G265" s="211" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="H265" s="212" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="I265" s="406" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="J265" s="216"/>
@@ -37051,21 +37054,21 @@
       <c r="R265" s="399"/>
       <c r="S265" s="399"/>
       <c r="T265" s="431"/>
-      <c r="U265" s="701" t="str">
-        <f>IF(S265="","",S265-50)</f>
+      <c r="U265" s="605" t="str">
+        <f t="shared" ref="U265:U272" si="62">IF(S265="","",S265-50)</f>
         <v/>
       </c>
       <c r="V265" s="204" t="str">
-        <f>IF(OR(S265="",$S$268=""),"",S265/$S$268)</f>
+        <f>IF(OR(U265="",$U$268=""),"",U265/$U$268)</f>
         <v/>
       </c>
       <c r="W265" s="155"/>
       <c r="X265" s="429">
-        <f t="shared" ref="X265:Y267" si="61">IF($O$34=1,AB248,Z248)</f>
+        <f t="shared" ref="X265:Y267" si="63">IF($O$34=1,AB248,Z248)</f>
         <v>0.5</v>
       </c>
       <c r="Y265" s="426">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.61</v>
       </c>
     </row>
@@ -37086,26 +37089,26 @@
         <v>282</v>
       </c>
       <c r="G266" s="257" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="H266" s="258" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="I266" s="417" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="J266" s="171" t="s">
         <v>274</v>
       </c>
       <c r="K266" s="423" t="str">
-        <f t="shared" ref="K266:L268" si="62">IF(U437="","",U437)</f>
+        <f t="shared" ref="K266:L268" si="64">IF(U437="","",U437)</f>
         <v/>
       </c>
       <c r="L266" s="424" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="M266" s="246"/>
@@ -37119,20 +37122,20 @@
       <c r="S266" s="286"/>
       <c r="T266" s="433"/>
       <c r="U266" s="304" t="str">
-        <f>IF(S266="","",S266-50)</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="V266" s="214" t="str">
-        <f>IF(OR(S266="",$S$268=""),"",S266/$S$268)</f>
+        <f t="shared" ref="V266:V267" si="65">IF(OR(U266="",$U$268=""),"",U266/$U$268)</f>
         <v/>
       </c>
       <c r="W266" s="155"/>
       <c r="X266" s="429">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.63</v>
       </c>
       <c r="Y266" s="426">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.77</v>
       </c>
     </row>
@@ -37159,11 +37162,11 @@
         <v>277</v>
       </c>
       <c r="K267" s="425" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="L267" s="426" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="M267" s="246"/>
@@ -37177,20 +37180,20 @@
       <c r="S267" s="286"/>
       <c r="T267" s="286"/>
       <c r="U267" s="304" t="str">
-        <f>IF(S267="","",S267-50)</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="V267" s="214" t="str">
-        <f>IF(OR(S267="",$S$268=""),"",S267/$S$268)</f>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="W267" s="155"/>
       <c r="X267" s="429">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.77</v>
       </c>
       <c r="Y267" s="426">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.94</v>
       </c>
     </row>
@@ -37217,11 +37220,11 @@
         <v>282</v>
       </c>
       <c r="K268" s="427" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="L268" s="428" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="M268" s="246"/>
@@ -37244,7 +37247,7 @@
         <v/>
       </c>
       <c r="U268" s="304" t="str">
-        <f>IF(S268="","",S268-50)</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="V268" s="214"/>
@@ -37280,20 +37283,20 @@
       <c r="S269" s="286"/>
       <c r="T269" s="286"/>
       <c r="U269" s="304" t="str">
-        <f>IF(S269="","",S269-50)</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="V269" s="214" t="str">
-        <f>IF(OR(S269="",$S$268=""),"",S269/$S$268)</f>
+        <f>IF(OR(U269="",$U$268=""),"",U269/$U$268)</f>
         <v/>
       </c>
       <c r="W269" s="155"/>
       <c r="X269" s="429">
-        <f t="shared" ref="X269:Y272" si="63">IF($O$34=1,AB252,Z252)</f>
+        <f t="shared" ref="X269:Y272" si="66">IF($O$34=1,AB252,Z252)</f>
         <v>1.04</v>
       </c>
       <c r="Y269" s="426">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.27</v>
       </c>
     </row>
@@ -37323,20 +37326,20 @@
       <c r="S270" s="286"/>
       <c r="T270" s="286"/>
       <c r="U270" s="304" t="str">
-        <f>IF(S270="","",S270-50)</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="V270" s="214" t="str">
-        <f>IF(OR(S270="",$S$268=""),"",S270/$S$268)</f>
+        <f t="shared" ref="V269:V272" si="67">IF(OR(U270="",$U$268=""),"",U270/$U$268)</f>
         <v/>
       </c>
       <c r="W270" s="155"/>
       <c r="X270" s="429">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.17</v>
       </c>
       <c r="Y270" s="426">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.43</v>
       </c>
     </row>
@@ -37376,20 +37379,20 @@
       <c r="S271" s="286"/>
       <c r="T271" s="286"/>
       <c r="U271" s="304" t="str">
-        <f>IF(S271="","",S271-50)</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="V271" s="214" t="str">
-        <f>IF(OR(S271="",$S$268=""),"",S271/$S$268)</f>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="W271" s="155"/>
       <c r="X271" s="429">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.31</v>
       </c>
       <c r="Y271" s="426">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.6</v>
       </c>
     </row>
@@ -37428,21 +37431,21 @@
       <c r="R272" s="412"/>
       <c r="S272" s="412"/>
       <c r="T272" s="412"/>
-      <c r="U272" s="702" t="str">
-        <f>IF(S272="","",S272-50)</f>
+      <c r="U272" s="606" t="str">
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="V272" s="259" t="str">
-        <f>IF(OR(S272="",$S$268=""),"",S272/$S$268)</f>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="W272" s="155"/>
       <c r="X272" s="429">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.44</v>
       </c>
       <c r="Y272" s="426">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1.76</v>
       </c>
     </row>
@@ -37696,7 +37699,7 @@
         <v>280</v>
       </c>
       <c r="L279" s="290" t="str">
-        <f t="shared" ref="L279:L284" si="64">IF(X280="","",X280)</f>
+        <f t="shared" ref="L279:L284" si="68">IF(X280="","",X280)</f>
         <v/>
       </c>
       <c r="M279" s="201"/>
@@ -37731,23 +37734,23 @@
       <c r="C280" s="155"/>
       <c r="D280" s="155"/>
       <c r="E280" s="441" t="str">
-        <f t="shared" ref="E280:I285" si="65">IF(Q281="","",Q281)</f>
+        <f t="shared" ref="E280:I285" si="69">IF(Q281="","",Q281)</f>
         <v/>
       </c>
       <c r="F280" s="203" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="G280" s="203" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="H280" s="442" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I280" s="204" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J280" s="155"/>
@@ -37755,7 +37758,7 @@
         <v>283</v>
       </c>
       <c r="L280" s="291" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="M280" s="201"/>
@@ -37813,23 +37816,23 @@
       <c r="C281" s="155"/>
       <c r="D281" s="155"/>
       <c r="E281" s="444" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="F281" s="212" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="G281" s="212" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="H281" s="445" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I281" s="214" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J281" s="155"/>
@@ -37837,7 +37840,7 @@
         <v>285</v>
       </c>
       <c r="L281" s="446" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="M281" s="201"/>
@@ -37881,23 +37884,23 @@
       <c r="C282" s="155"/>
       <c r="D282" s="155"/>
       <c r="E282" s="444" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="F282" s="212" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="G282" s="212" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="H282" s="445" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I282" s="214" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J282" s="155"/>
@@ -37905,7 +37908,7 @@
         <v>286</v>
       </c>
       <c r="L282" s="291" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="M282" s="201"/>
@@ -37933,11 +37936,11 @@
       </c>
       <c r="Y282" s="167"/>
       <c r="AE282" s="159" t="e">
-        <f t="shared" ref="AE282:AE284" si="66">(AA282-50)/AB282</f>
+        <f t="shared" ref="AE282:AE284" si="70">(AA282-50)/AB282</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF282" s="159" t="e">
-        <f t="shared" ref="AF282:AF284" si="67">(AA282-AC282)/AB282</f>
+        <f t="shared" ref="AF282:AF284" si="71">(AA282-AC282)/AB282</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -37949,23 +37952,23 @@
       <c r="C283" s="155"/>
       <c r="D283" s="155"/>
       <c r="E283" s="448" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="F283" s="258" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="G283" s="258" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="H283" s="449" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I283" s="259" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J283" s="155"/>
@@ -37973,7 +37976,7 @@
         <v>287</v>
       </c>
       <c r="L283" s="291" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="M283" s="201"/>
@@ -38001,11 +38004,11 @@
       </c>
       <c r="Y283" s="167"/>
       <c r="AE283" s="159" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF283" s="159" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -38019,23 +38022,23 @@
         <v>251</v>
       </c>
       <c r="E284" s="444" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="F284" s="212" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="G284" s="405" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="H284" s="445" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I284" s="214" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J284" s="155"/>
@@ -38043,7 +38046,7 @@
         <v>289</v>
       </c>
       <c r="L284" s="450" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="M284" s="201"/>
@@ -38071,11 +38074,11 @@
       </c>
       <c r="Y284" s="167"/>
       <c r="AE284" s="159" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF284" s="159" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -38089,23 +38092,23 @@
         <v>291</v>
       </c>
       <c r="E285" s="368" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="F285" s="369" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="G285" s="369" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="H285" s="369" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="I285" s="371" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="J285" s="155"/>
@@ -38462,7 +38465,7 @@
         <v>280</v>
       </c>
       <c r="L293" s="290" t="str">
-        <f t="shared" ref="L293:L298" si="68">IF(X295="","",X295)</f>
+        <f t="shared" ref="L293:L298" si="72">IF(X295="","",X295)</f>
         <v/>
       </c>
       <c r="M293" s="246"/>
@@ -38491,23 +38494,23 @@
       <c r="C294" s="155"/>
       <c r="D294" s="155"/>
       <c r="E294" s="441" t="str">
-        <f t="shared" ref="E294:I299" si="69">IF(Q296="","",Q296)</f>
+        <f t="shared" ref="E294:I299" si="73">IF(Q296="","",Q296)</f>
         <v/>
       </c>
       <c r="F294" s="203" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G294" s="203" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H294" s="442" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I294" s="204" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J294" s="155"/>
@@ -38515,7 +38518,7 @@
         <v>283</v>
       </c>
       <c r="L294" s="291" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M294" s="246"/>
@@ -38544,23 +38547,23 @@
       <c r="C295" s="155"/>
       <c r="D295" s="155"/>
       <c r="E295" s="444" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F295" s="212" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G295" s="212" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H295" s="445" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I295" s="214" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J295" s="155"/>
@@ -38568,7 +38571,7 @@
         <v>285</v>
       </c>
       <c r="L295" s="446" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M295" s="246"/>
@@ -38608,23 +38611,23 @@
       <c r="C296" s="155"/>
       <c r="D296" s="155"/>
       <c r="E296" s="444" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F296" s="212" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G296" s="212" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H296" s="445" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I296" s="214" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J296" s="155"/>
@@ -38632,7 +38635,7 @@
         <v>286</v>
       </c>
       <c r="L296" s="291" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M296" s="246"/>
@@ -38668,23 +38671,23 @@
       <c r="C297" s="155"/>
       <c r="D297" s="155"/>
       <c r="E297" s="448" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F297" s="258" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G297" s="258" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H297" s="449" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I297" s="259" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J297" s="155"/>
@@ -38692,7 +38695,7 @@
         <v>287</v>
       </c>
       <c r="L297" s="291" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M297" s="246"/>
@@ -38730,23 +38733,23 @@
         <v>251</v>
       </c>
       <c r="E298" s="444" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F298" s="212" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G298" s="405" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H298" s="445" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I298" s="214" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J298" s="155"/>
@@ -38754,7 +38757,7 @@
         <v>289</v>
       </c>
       <c r="L298" s="450" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="M298" s="246"/>
@@ -38792,23 +38795,23 @@
         <v>291</v>
       </c>
       <c r="E299" s="368" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="F299" s="369" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="G299" s="369" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="H299" s="369" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="I299" s="371" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="J299" s="155"/>
@@ -39070,14 +39073,14 @@
       <c r="B305" s="379"/>
       <c r="C305" s="245"/>
       <c r="D305" s="245"/>
-      <c r="E305" s="694" t="str">
+      <c r="E305" s="675" t="str">
         <f>O311&amp;" "&amp;P312&amp;" "&amp;Q312</f>
         <v xml:space="preserve">Combo Mode 2D Target/Filter: </v>
       </c>
-      <c r="F305" s="694"/>
-      <c r="G305" s="694"/>
-      <c r="H305" s="694"/>
-      <c r="I305" s="694"/>
+      <c r="F305" s="675"/>
+      <c r="G305" s="675"/>
+      <c r="H305" s="675"/>
+      <c r="I305" s="675"/>
       <c r="J305" s="245"/>
       <c r="K305" s="245"/>
       <c r="L305" s="245"/>
@@ -39162,7 +39165,7 @@
         <v>280</v>
       </c>
       <c r="L307" s="290" t="str">
-        <f t="shared" ref="L307:L312" si="70">IF(X315="","",X315)</f>
+        <f t="shared" ref="L307:L312" si="74">IF(X315="","",X315)</f>
         <v/>
       </c>
       <c r="M307" s="246"/>
@@ -39187,23 +39190,23 @@
       <c r="C308" s="245"/>
       <c r="D308" s="155"/>
       <c r="E308" s="441" t="str">
-        <f t="shared" ref="E308:I313" si="71">IF(Q316="","",Q316)</f>
+        <f t="shared" ref="E308:I313" si="75">IF(Q316="","",Q316)</f>
         <v/>
       </c>
       <c r="F308" s="203" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="G308" s="203" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="H308" s="442" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="I308" s="204" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="J308" s="245"/>
@@ -39211,7 +39214,7 @@
         <v>283</v>
       </c>
       <c r="L308" s="290" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="M308" s="246"/>
@@ -39238,23 +39241,23 @@
       <c r="C309" s="245"/>
       <c r="D309" s="155"/>
       <c r="E309" s="444" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="F309" s="212" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="G309" s="212" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="H309" s="445" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="I309" s="214" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="J309" s="245"/>
@@ -39262,7 +39265,7 @@
         <v>285</v>
       </c>
       <c r="L309" s="290" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="M309" s="246"/>
@@ -39292,23 +39295,23 @@
       <c r="C310" s="245"/>
       <c r="D310" s="155"/>
       <c r="E310" s="444" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="F310" s="212" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="G310" s="212" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="H310" s="445" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="I310" s="214" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="J310" s="245"/>
@@ -39316,7 +39319,7 @@
         <v>286</v>
       </c>
       <c r="L310" s="290" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="M310" s="246"/>
@@ -39341,23 +39344,23 @@
       <c r="C311" s="245"/>
       <c r="D311" s="155"/>
       <c r="E311" s="448" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="F311" s="258" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="G311" s="258" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="H311" s="449" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="I311" s="259" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="J311" s="245"/>
@@ -39365,7 +39368,7 @@
         <v>287</v>
       </c>
       <c r="L311" s="290" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="M311" s="246"/>
@@ -39394,23 +39397,23 @@
         <v>251</v>
       </c>
       <c r="E312" s="444" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="F312" s="212" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="G312" s="405" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="H312" s="445" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="I312" s="214" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="J312" s="245"/>
@@ -39418,7 +39421,7 @@
         <v>289</v>
       </c>
       <c r="L312" s="450" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="M312" s="246"/>
@@ -39449,23 +39452,23 @@
         <v>291</v>
       </c>
       <c r="E313" s="368" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="F313" s="369" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="G313" s="369" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="H313" s="369" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="I313" s="371" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="J313" s="245"/>
@@ -39576,14 +39579,14 @@
       <c r="B316" s="379"/>
       <c r="C316" s="245"/>
       <c r="D316" s="245"/>
-      <c r="E316" s="695" t="str">
+      <c r="E316" s="676" t="str">
         <f>O323&amp;" "&amp;P324&amp;" "&amp;Q324</f>
         <v xml:space="preserve">Combo Mode 3D Target/Filter: </v>
       </c>
-      <c r="F316" s="695"/>
-      <c r="G316" s="695"/>
-      <c r="H316" s="695"/>
-      <c r="I316" s="695"/>
+      <c r="F316" s="676"/>
+      <c r="G316" s="676"/>
+      <c r="H316" s="676"/>
+      <c r="I316" s="676"/>
       <c r="J316" s="245"/>
       <c r="K316" s="245"/>
       <c r="L316" s="245"/>
@@ -39688,7 +39691,7 @@
         <v>280</v>
       </c>
       <c r="L318" s="290" t="str">
-        <f t="shared" ref="L318:L323" si="72">IF(X327="","",X327)</f>
+        <f t="shared" ref="L318:L323" si="76">IF(X327="","",X327)</f>
         <v/>
       </c>
       <c r="M318" s="246"/>
@@ -39724,23 +39727,23 @@
       <c r="C319" s="245"/>
       <c r="D319" s="245"/>
       <c r="E319" s="441" t="str">
-        <f t="shared" ref="E319:I324" si="73">IF(Q328="","",Q328)</f>
+        <f t="shared" ref="E319:I324" si="77">IF(Q328="","",Q328)</f>
         <v/>
       </c>
       <c r="F319" s="203" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="G319" s="203" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="H319" s="442" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="I319" s="458" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="J319" s="245"/>
@@ -39748,7 +39751,7 @@
         <v>283</v>
       </c>
       <c r="L319" s="290" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="M319" s="246"/>
@@ -39784,23 +39787,23 @@
       <c r="C320" s="245"/>
       <c r="D320" s="245"/>
       <c r="E320" s="444" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="F320" s="212" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="G320" s="212" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="H320" s="445" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="I320" s="459" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="J320" s="245"/>
@@ -39808,7 +39811,7 @@
         <v>285</v>
       </c>
       <c r="L320" s="290" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="M320" s="246"/>
@@ -39855,23 +39858,23 @@
       <c r="C321" s="245"/>
       <c r="D321" s="245"/>
       <c r="E321" s="444" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="F321" s="212" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="G321" s="212" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="H321" s="445" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="I321" s="459" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="J321" s="245"/>
@@ -39879,7 +39882,7 @@
         <v>286</v>
       </c>
       <c r="L321" s="290" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="M321" s="246"/>
@@ -39921,23 +39924,23 @@
       <c r="C322" s="245"/>
       <c r="D322" s="245"/>
       <c r="E322" s="448" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="F322" s="258" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="G322" s="258" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="H322" s="449" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="I322" s="460" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="J322" s="245"/>
@@ -39945,7 +39948,7 @@
         <v>287</v>
       </c>
       <c r="L322" s="290" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="M322" s="246"/>
@@ -39977,23 +39980,23 @@
         <v>251</v>
       </c>
       <c r="E323" s="444" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="F323" s="212" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="G323" s="405" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="H323" s="445" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="I323" s="459" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="J323" s="245"/>
@@ -40001,7 +40004,7 @@
         <v>289</v>
       </c>
       <c r="L323" s="450" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="M323" s="246"/>
@@ -40030,23 +40033,23 @@
         <v>291</v>
       </c>
       <c r="E324" s="368" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="F324" s="369" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="G324" s="369" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="H324" s="369" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="I324" s="462" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="J324" s="245"/>
@@ -40161,7 +40164,7 @@
       <c r="K327" s="463" t="s">
         <v>313</v>
       </c>
-      <c r="L327" s="703" t="str">
+      <c r="L327" s="607" t="str">
         <f>IF(X335="","",X335)</f>
         <v/>
       </c>
@@ -40210,7 +40213,7 @@
       <c r="K328" s="463" t="s">
         <v>302</v>
       </c>
-      <c r="L328" s="703" t="str">
+      <c r="L328" s="607" t="str">
         <f>IF(X336="","",X336)</f>
         <v/>
       </c>
@@ -40443,19 +40446,19 @@
         <v>317</v>
       </c>
       <c r="H333" s="468" t="e">
-        <f t="shared" ref="H333:K334" si="74">IF(T458="","",T458)</f>
+        <f t="shared" ref="H333:K334" si="78">IF(T458="","",T458)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I333" s="213" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="J333" s="354" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K333" s="469" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L333" s="155"/>
@@ -40508,19 +40511,19 @@
         <v>319</v>
       </c>
       <c r="H334" s="468" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I334" s="213" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="J334" s="354" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K334" s="212" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>NA</v>
       </c>
       <c r="L334" s="155"/>
@@ -40681,10 +40684,10 @@
       <c r="S338" s="171" t="s">
         <v>305</v>
       </c>
-      <c r="T338" s="670">
+      <c r="T338" s="695">
         <v>43014</v>
       </c>
-      <c r="U338" s="670"/>
+      <c r="U338" s="695"/>
       <c r="V338" s="155"/>
       <c r="W338" s="155"/>
       <c r="X338" s="155"/>
@@ -40728,10 +40731,10 @@
       <c r="S339" s="171" t="s">
         <v>307</v>
       </c>
-      <c r="T339" s="671">
+      <c r="T339" s="696">
         <v>43744</v>
       </c>
-      <c r="U339" s="671"/>
+      <c r="U339" s="696"/>
       <c r="V339" s="155"/>
       <c r="W339" s="155"/>
       <c r="X339" s="155"/>
@@ -40880,11 +40883,11 @@
       <c r="H343" s="474" t="s">
         <v>305</v>
       </c>
-      <c r="I343" s="696">
+      <c r="I343" s="678">
         <f>IF(T338="","",T338)</f>
         <v>43014</v>
       </c>
-      <c r="J343" s="696"/>
+      <c r="J343" s="678"/>
       <c r="K343" s="191"/>
       <c r="L343" s="191"/>
       <c r="M343" s="193"/>
@@ -40919,11 +40922,11 @@
         <v/>
       </c>
       <c r="W343" s="445" t="str">
-        <f t="shared" ref="W343:W349" si="75">IF(V343="","",V343/S343)</f>
+        <f t="shared" ref="W343:W349" si="79">IF(V343="","",V343/S343)</f>
         <v/>
       </c>
       <c r="X343" s="405" t="str">
-        <f t="shared" ref="X343:X349" si="76">IF(OR(V343="",U343=""),"",V343/(U343/1000))</f>
+        <f t="shared" ref="X343:X349" si="80">IF(OR(V343="",U343=""),"",V343/(U343/1000))</f>
         <v/>
       </c>
       <c r="Y343" s="167"/>
@@ -40946,11 +40949,11 @@
       <c r="H344" s="323" t="s">
         <v>307</v>
       </c>
-      <c r="I344" s="688">
+      <c r="I344" s="679">
         <f>IF(T339="","",T339)</f>
         <v>43744</v>
       </c>
-      <c r="J344" s="688"/>
+      <c r="J344" s="679"/>
       <c r="K344" s="216"/>
       <c r="L344" s="155"/>
       <c r="M344" s="201"/>
@@ -40985,11 +40988,11 @@
         <v/>
       </c>
       <c r="W344" s="445" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="X344" s="405" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="Y344" s="167"/>
@@ -41043,11 +41046,11 @@
         <v/>
       </c>
       <c r="W345" s="445" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="X345" s="405" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="Y345" s="167"/>
@@ -41114,11 +41117,11 @@
         <v/>
       </c>
       <c r="W346" s="445" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="X346" s="405" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="Y346" s="167"/>
@@ -41185,11 +41188,11 @@
         <v/>
       </c>
       <c r="W347" s="445" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="X347" s="405" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="Y347" s="167"/>
@@ -41256,11 +41259,11 @@
         <v/>
       </c>
       <c r="W348" s="445" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="X348" s="405" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="Y348" s="167"/>
@@ -41324,11 +41327,11 @@
         <v/>
       </c>
       <c r="W349" s="445" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="X349" s="405" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="Y349" s="167"/>
@@ -41390,28 +41393,28 @@
       </c>
       <c r="B351" s="199"/>
       <c r="C351" s="212">
-        <f t="shared" ref="C351:C357" si="77">IF(R343="","",R343)</f>
+        <f t="shared" ref="C351:C357" si="81">IF(R343="","",R343)</f>
         <v>24</v>
       </c>
       <c r="D351" s="405" t="str">
-        <f t="shared" ref="D351:D357" si="78">IF(T343="","",T343)</f>
+        <f t="shared" ref="D351:D357" si="82">IF(T343="","",T343)</f>
         <v/>
       </c>
       <c r="E351" s="354" t="str">
-        <f t="shared" ref="E351:E357" si="79">IF(OR(C351="",D351=""),"",IF(AND(C351&gt;0,D351&gt;0),(D351-C351)/C351,""))</f>
+        <f t="shared" ref="E351:E357" si="83">IF(OR(C351="",D351=""),"",IF(AND(C351&gt;0,D351&gt;0),(D351-C351)/C351,""))</f>
         <v/>
       </c>
       <c r="F351" s="155"/>
       <c r="G351" s="212">
-        <f t="shared" ref="G351:G356" si="80">IF(R354="","",R354)</f>
+        <f t="shared" ref="G351:G356" si="84">IF(R354="","",R354)</f>
         <v>28</v>
       </c>
       <c r="H351" s="405" t="str">
-        <f t="shared" ref="H351:H356" si="81">IF(T354="","",T354)</f>
+        <f t="shared" ref="H351:H356" si="85">IF(T354="","",T354)</f>
         <v/>
       </c>
       <c r="I351" s="354" t="str">
-        <f t="shared" ref="I351:I356" si="82">IF(OR(G351="",H351=""),"",IF(AND(G351&gt;0,H351&gt;0),(H351-G351)/G351,""))</f>
+        <f t="shared" ref="I351:I356" si="86">IF(OR(G351="",H351=""),"",IF(AND(G351&gt;0,H351&gt;0),(H351-G351)/G351,""))</f>
         <v/>
       </c>
       <c r="J351" s="245"/>
@@ -41446,28 +41449,28 @@
       </c>
       <c r="B352" s="199"/>
       <c r="C352" s="212">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>25</v>
       </c>
       <c r="D352" s="405" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="E352" s="354" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="F352" s="155"/>
       <c r="G352" s="212">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>30</v>
       </c>
       <c r="H352" s="405" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I352" s="354" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="J352" s="245"/>
@@ -41504,28 +41507,28 @@
       </c>
       <c r="B353" s="199"/>
       <c r="C353" s="212">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>26</v>
       </c>
       <c r="D353" s="405" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="E353" s="354" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="F353" s="155"/>
       <c r="G353" s="212">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>32</v>
       </c>
       <c r="H353" s="405" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I353" s="354" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="J353" s="245"/>
@@ -41578,28 +41581,28 @@
       </c>
       <c r="B354" s="199"/>
       <c r="C354" s="212">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>28</v>
       </c>
       <c r="D354" s="405" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="E354" s="354" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="F354" s="155"/>
       <c r="G354" s="212">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>34</v>
       </c>
       <c r="H354" s="405" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I354" s="354" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="J354" s="245"/>
@@ -41646,11 +41649,11 @@
         <v/>
       </c>
       <c r="W354" s="445" t="str">
-        <f t="shared" ref="W354:W359" si="83">IF(V354="","",V354/S354)</f>
+        <f t="shared" ref="W354:W359" si="87">IF(V354="","",V354/S354)</f>
         <v/>
       </c>
       <c r="X354" s="405" t="str">
-        <f t="shared" ref="X354:X359" si="84">IF(OR(V354="",U354=""),"",V354/(U354/1000))</f>
+        <f t="shared" ref="X354:X359" si="88">IF(OR(V354="",U354=""),"",V354/(U354/1000))</f>
         <v/>
       </c>
       <c r="Y354" s="167"/>
@@ -41661,28 +41664,28 @@
       </c>
       <c r="B355" s="199"/>
       <c r="C355" s="212">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>30</v>
       </c>
       <c r="D355" s="405" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="E355" s="354" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="F355" s="155"/>
       <c r="G355" s="212">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>36</v>
       </c>
       <c r="H355" s="405" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I355" s="354" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="J355" s="245"/>
@@ -41729,11 +41732,11 @@
         <v/>
       </c>
       <c r="W355" s="445" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X355" s="405" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y355" s="167"/>
@@ -41744,28 +41747,28 @@
       </c>
       <c r="B356" s="199"/>
       <c r="C356" s="212">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>32</v>
       </c>
       <c r="D356" s="405" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="E356" s="354" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="F356" s="155"/>
       <c r="G356" s="212">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>38</v>
       </c>
       <c r="H356" s="405" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="I356" s="354" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="J356" s="245"/>
@@ -41803,11 +41806,11 @@
         <v/>
       </c>
       <c r="W356" s="445" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X356" s="405" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y356" s="167"/>
@@ -41818,15 +41821,15 @@
       </c>
       <c r="B357" s="199"/>
       <c r="C357" s="212">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>34</v>
       </c>
       <c r="D357" s="405" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="E357" s="354" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="F357" s="155"/>
@@ -41868,11 +41871,11 @@
         <v/>
       </c>
       <c r="W357" s="445" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X357" s="405" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y357" s="167"/>
@@ -41927,23 +41930,23 @@
         <v>50</v>
       </c>
       <c r="T358" s="405" t="str">
-        <f t="shared" ref="T358:V359" si="85">IF(AM38="","",AM38)</f>
+        <f t="shared" ref="T358:V359" si="89">IF(AM38="","",AM38)</f>
         <v/>
       </c>
       <c r="U358" s="213" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V358" s="405" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="W358" s="445" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X358" s="405" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y358" s="167"/>
@@ -41983,23 +41986,23 @@
         <v>50</v>
       </c>
       <c r="T359" s="405" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U359" s="213" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="V359" s="405" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="W359" s="445" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="X359" s="405" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="Y359" s="167"/>
@@ -42357,19 +42360,19 @@
         <v>28</v>
       </c>
       <c r="D367" s="405" t="str">
-        <f t="shared" ref="D367:D373" si="86">IF(T375="","",T375)</f>
+        <f t="shared" ref="D367:D373" si="90">IF(T375="","",T375)</f>
         <v/>
       </c>
       <c r="E367" s="405" t="str">
-        <f t="shared" ref="E367:G373" si="87">IF(V375="","",V375)</f>
+        <f t="shared" ref="E367:G373" si="91">IF(V375="","",V375)</f>
         <v/>
       </c>
       <c r="F367" s="445" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G367" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H367" s="155"/>
@@ -42425,19 +42428,19 @@
       <c r="B368" s="199"/>
       <c r="C368" s="155"/>
       <c r="D368" s="405" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E368" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F368" s="445" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G368" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H368" s="155"/>
@@ -42493,19 +42496,19 @@
       <c r="B369" s="199"/>
       <c r="C369" s="155"/>
       <c r="D369" s="405" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E369" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F369" s="445" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G369" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H369" s="155"/>
@@ -42538,19 +42541,19 @@
       <c r="B370" s="199"/>
       <c r="C370" s="155"/>
       <c r="D370" s="405" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E370" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F370" s="445" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G370" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H370" s="155"/>
@@ -42581,19 +42584,19 @@
         <v>169</v>
       </c>
       <c r="D371" s="405" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E371" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F371" s="445" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G371" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H371" s="155"/>
@@ -42626,19 +42629,19 @@
         <v>328</v>
       </c>
       <c r="D372" s="405" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E372" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F372" s="445" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G372" s="405" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H372" s="155"/>
@@ -42669,19 +42672,19 @@
         <v>291</v>
       </c>
       <c r="D373" s="354" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="E373" s="354" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="F373" s="354" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="G373" s="354" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="H373" s="155"/>
@@ -42797,23 +42800,23 @@
         <v/>
       </c>
       <c r="R375" s="212">
-        <f t="shared" ref="R375:S378" si="88">IF(AH16="","",AH16)</f>
+        <f t="shared" ref="R375:S378" si="92">IF(AH16="","",AH16)</f>
         <v>28</v>
       </c>
       <c r="S375" s="212">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>50</v>
       </c>
       <c r="T375" s="405" t="str">
-        <f t="shared" ref="T375:V378" si="89">IF(AM16="","",AM16)</f>
+        <f t="shared" ref="T375:V378" si="93">IF(AM16="","",AM16)</f>
         <v/>
       </c>
       <c r="U375" s="213" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="V375" s="405" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="W375" s="445" t="str">
@@ -42855,23 +42858,23 @@
         <v/>
       </c>
       <c r="R376" s="212">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>28</v>
       </c>
       <c r="S376" s="212">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>50</v>
       </c>
       <c r="T376" s="405" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="U376" s="213" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="V376" s="405" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="W376" s="445" t="str">
@@ -42913,23 +42916,23 @@
         <v/>
       </c>
       <c r="R377" s="212">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>28</v>
       </c>
       <c r="S377" s="212">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>50</v>
       </c>
       <c r="T377" s="405" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="U377" s="213" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="V377" s="405" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="W377" s="445" t="str">
@@ -42969,23 +42972,23 @@
         <v/>
       </c>
       <c r="R378" s="212">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>28</v>
       </c>
       <c r="S378" s="212">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>50</v>
       </c>
       <c r="T378" s="492" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="U378" s="493" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="V378" s="492" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="W378" s="494" t="str">
@@ -43201,23 +43204,23 @@
       </c>
       <c r="B383" s="199"/>
       <c r="C383" s="212">
-        <f t="shared" ref="C383:D386" si="90">IF(S389="","",S389)</f>
+        <f t="shared" ref="C383:D386" si="94">IF(S389="","",S389)</f>
         <v>20</v>
       </c>
       <c r="D383" s="405" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="E383" s="405" t="str">
-        <f t="shared" ref="E383:G386" si="91">IF(V389="","",V389)</f>
+        <f t="shared" ref="E383:G386" si="95">IF(V389="","",V389)</f>
         <v/>
       </c>
       <c r="F383" s="445" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="G383" s="405" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="H383" s="155"/>
@@ -43249,23 +43252,23 @@
       </c>
       <c r="B384" s="199"/>
       <c r="C384" s="212">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>50</v>
       </c>
       <c r="D384" s="405" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="E384" s="405" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="F384" s="445" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="G384" s="405" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="H384" s="155"/>
@@ -43295,23 +43298,23 @@
       </c>
       <c r="B385" s="199"/>
       <c r="C385" s="212">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>100</v>
       </c>
       <c r="D385" s="405" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="E385" s="405" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="F385" s="445" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="G385" s="405" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="H385" s="155"/>
@@ -43341,23 +43344,23 @@
       </c>
       <c r="B386" s="199"/>
       <c r="C386" s="212">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>300</v>
       </c>
       <c r="D386" s="405" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="E386" s="405" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="F386" s="445" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="G386" s="405" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="H386" s="155"/>
@@ -43643,15 +43646,15 @@
         <v>100</v>
       </c>
       <c r="T391" s="405" t="str">
-        <f t="shared" ref="T391:V392" si="92">IF(AM20="","",AM20)</f>
+        <f t="shared" ref="T391:V392" si="96">IF(AM20="","",AM20)</f>
         <v/>
       </c>
       <c r="U391" s="213" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="V391" s="405" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="W391" s="445" t="str">
@@ -43673,35 +43676,35 @@
         <v>240</v>
       </c>
       <c r="D392" s="234">
-        <f t="shared" ref="D392:K392" si="93">Q399</f>
+        <f t="shared" ref="D392:K392" si="97">Q399</f>
         <v>24</v>
       </c>
       <c r="E392" s="234">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>25</v>
       </c>
       <c r="F392" s="234">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>28</v>
       </c>
       <c r="G392" s="234">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>32</v>
       </c>
       <c r="H392" s="234">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>28</v>
       </c>
       <c r="I392" s="234">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>30</v>
       </c>
       <c r="J392" s="234">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>32</v>
       </c>
       <c r="K392" s="234">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>34</v>
       </c>
       <c r="L392" s="155"/>
@@ -43725,15 +43728,15 @@
         <v>300</v>
       </c>
       <c r="T392" s="405" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U392" s="213" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="V392" s="405" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="W392" s="445" t="str">
@@ -43755,35 +43758,35 @@
         <v>342</v>
       </c>
       <c r="D393" s="501" t="str">
-        <f t="shared" ref="D393:K394" si="94">IF(Q403="","",Q403)</f>
+        <f t="shared" ref="D393:K394" si="98">IF(Q403="","",Q403)</f>
         <v/>
       </c>
       <c r="E393" s="501" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="F393" s="501" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="G393" s="501" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="H393" s="501" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="I393" s="501" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="J393" s="501" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="K393" s="204" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="L393" s="155"/>
@@ -43819,35 +43822,35 @@
         <v>343</v>
       </c>
       <c r="D394" s="369" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="E394" s="369" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="F394" s="369" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="G394" s="369" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="H394" s="369" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="I394" s="369" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="J394" s="369" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="K394" s="371" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="L394" s="155"/>
@@ -43874,35 +43877,35 @@
         <v>344</v>
       </c>
       <c r="D395" s="501">
-        <f t="shared" ref="D395:K397" si="95">Q405</f>
+        <f t="shared" ref="D395:K397" si="99">Q405</f>
         <v>0.27</v>
       </c>
       <c r="E395" s="501">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="F395" s="501">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="G395" s="501">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.35</v>
       </c>
       <c r="H395" s="501">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="I395" s="501">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="J395" s="501">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.35</v>
       </c>
       <c r="K395" s="204">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.37</v>
       </c>
       <c r="L395" s="155"/>
@@ -43934,35 +43937,35 @@
         <v>345</v>
       </c>
       <c r="D396" s="416">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.36</v>
       </c>
       <c r="E396" s="416">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.37</v>
       </c>
       <c r="F396" s="416">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.4</v>
       </c>
       <c r="G396" s="416">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.44</v>
       </c>
       <c r="H396" s="416">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.47000000000000003</v>
       </c>
       <c r="I396" s="416">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.49</v>
       </c>
       <c r="J396" s="416">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.51</v>
       </c>
       <c r="K396" s="259">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>0.53</v>
       </c>
       <c r="L396" s="155"/>
@@ -43989,35 +43992,35 @@
         <v>180</v>
       </c>
       <c r="D397" s="375" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="E397" s="376" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="F397" s="376" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="G397" s="376" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="H397" s="376" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="I397" s="376" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="J397" s="376" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="K397" s="378" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="L397" s="155"/>
@@ -44227,23 +44230,23 @@
         <v>342</v>
       </c>
       <c r="D401" s="501" t="str">
-        <f t="shared" ref="D401:H404" si="96">IF(Q416="","",Q416)</f>
+        <f t="shared" ref="D401:H404" si="100">IF(Q416="","",Q416)</f>
         <v/>
       </c>
       <c r="E401" s="501" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="F401" s="501" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="G401" s="501" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="H401" s="501" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="I401" s="155"/>
@@ -44299,23 +44302,23 @@
         <v>343</v>
       </c>
       <c r="D402" s="369" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="E402" s="369" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="F402" s="369" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="G402" s="369" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="H402" s="369" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="I402" s="155"/>
@@ -44371,23 +44374,23 @@
         <v>344</v>
       </c>
       <c r="D403" s="501">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="E403" s="501">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="F403" s="501">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.35</v>
       </c>
       <c r="G403" s="501">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.37</v>
       </c>
       <c r="H403" s="501">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="I403" s="155"/>
@@ -44443,23 +44446,23 @@
         <v>345</v>
       </c>
       <c r="D404" s="416">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.4</v>
       </c>
       <c r="E404" s="416">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.42</v>
       </c>
       <c r="F404" s="416">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.44</v>
       </c>
       <c r="G404" s="416">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.46</v>
       </c>
       <c r="H404" s="416">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="I404" s="155"/>
@@ -44473,35 +44476,35 @@
         <v>343</v>
       </c>
       <c r="Q404" s="515" t="str">
-        <f t="shared" ref="Q404:X404" si="97">IF(OR(Q401="",Q402=""),"",ABS(Q402-Q401)/Q401)</f>
+        <f t="shared" ref="Q404:X404" si="101">IF(OR(Q401="",Q402=""),"",ABS(Q402-Q401)/Q401)</f>
         <v/>
       </c>
       <c r="R404" s="515" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="S404" s="515" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="T404" s="515" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="U404" s="515" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="V404" s="515" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="W404" s="515" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="X404" s="516" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="Y404" s="167"/>
@@ -44545,35 +44548,35 @@
         <v>344</v>
       </c>
       <c r="Q405" s="517">
-        <f t="shared" ref="Q405:X405" si="98">IF($Q$397=1,Q399/100+0.03,Q399/100)</f>
+        <f t="shared" ref="Q405:X405" si="102">IF($Q$397=1,Q399/100+0.03,Q399/100)</f>
         <v>0.27</v>
       </c>
       <c r="R405" s="517">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="S405" s="517">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="T405" s="517">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0.35</v>
       </c>
       <c r="U405" s="517">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="V405" s="517">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="W405" s="517">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0.35</v>
       </c>
       <c r="X405" s="518">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0.37</v>
       </c>
       <c r="Y405" s="167"/>
@@ -45477,7 +45480,7 @@
         <v>0</v>
       </c>
       <c r="R427" s="394" t="str">
-        <f t="shared" ref="R427:R432" si="99">IF(AB99="","",AB99)</f>
+        <f t="shared" ref="R427:R432" si="103">IF(AB99="","",AB99)</f>
         <v/>
       </c>
       <c r="S427" s="155"/>
@@ -45519,7 +45522,7 @@
         <v>0</v>
       </c>
       <c r="R428" s="394" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="S428" s="155"/>
@@ -45558,7 +45561,7 @@
       </c>
       <c r="Q429" s="286"/>
       <c r="R429" s="394" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="S429" s="155"/>
@@ -45597,7 +45600,7 @@
       </c>
       <c r="Q430" s="286"/>
       <c r="R430" s="394" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="S430" s="155"/>
@@ -45636,7 +45639,7 @@
       </c>
       <c r="Q431" s="286"/>
       <c r="R431" s="394" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="S431" s="155"/>
@@ -45673,7 +45676,7 @@
         <v/>
       </c>
       <c r="R432" s="394" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="S432" s="155"/>
@@ -46039,17 +46042,17 @@
         <v>0</v>
       </c>
       <c r="Q443" s="537" t="str">
-        <f t="shared" ref="Q443:Q448" si="100">IF(AB109="","",AB109)</f>
+        <f t="shared" ref="Q443:Q448" si="104">IF(AB109="","",AB109)</f>
         <v/>
       </c>
       <c r="R443" s="402"/>
       <c r="S443" s="537" t="str">
-        <f t="shared" ref="S443:S448" si="101">IF(AB115="","",AB115)</f>
+        <f t="shared" ref="S443:S448" si="105">IF(AB115="","",AB115)</f>
         <v/>
       </c>
       <c r="T443" s="402"/>
       <c r="U443" s="537" t="str">
-        <f t="shared" ref="U443:U448" si="102">IF(AB121="","",AB121)</f>
+        <f t="shared" ref="U443:U448" si="106">IF(AB121="","",AB121)</f>
         <v/>
       </c>
       <c r="V443" s="245"/>
@@ -46082,17 +46085,17 @@
         <v>0</v>
       </c>
       <c r="Q444" s="537" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="R444" s="402"/>
       <c r="S444" s="537" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="T444" s="402"/>
       <c r="U444" s="537" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="V444" s="245"/>
@@ -46125,17 +46128,17 @@
         <v>0</v>
       </c>
       <c r="Q445" s="537" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="R445" s="402"/>
       <c r="S445" s="537" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="T445" s="402"/>
       <c r="U445" s="537" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="V445" s="245"/>
@@ -46165,17 +46168,17 @@
       </c>
       <c r="P446" s="402"/>
       <c r="Q446" s="537" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="R446" s="402"/>
       <c r="S446" s="537" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="T446" s="402"/>
       <c r="U446" s="537" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="V446" s="245"/>
@@ -46205,17 +46208,17 @@
       </c>
       <c r="P447" s="402"/>
       <c r="Q447" s="537" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="R447" s="402"/>
       <c r="S447" s="537" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="T447" s="402"/>
       <c r="U447" s="537" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="V447" s="245"/>
@@ -46245,17 +46248,17 @@
       </c>
       <c r="P448" s="411"/>
       <c r="Q448" s="538" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="R448" s="411"/>
       <c r="S448" s="538" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="T448" s="411"/>
       <c r="U448" s="538" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="V448" s="245"/>
@@ -47240,45 +47243,27 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="K259:L259"/>
-    <mergeCell ref="E305:I305"/>
-    <mergeCell ref="E316:I316"/>
-    <mergeCell ref="D189:I189"/>
-    <mergeCell ref="I343:J343"/>
-    <mergeCell ref="I344:J344"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="D172:G172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="D179:I179"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:G180"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="U168:V168"/>
-    <mergeCell ref="U169:V169"/>
-    <mergeCell ref="P173:P174"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="U173:U174"/>
-    <mergeCell ref="V97:X98"/>
-    <mergeCell ref="P105:R106"/>
-    <mergeCell ref="S105:U106"/>
-    <mergeCell ref="V105:X106"/>
-    <mergeCell ref="P167:S167"/>
-    <mergeCell ref="U167:V167"/>
-    <mergeCell ref="S97:U98"/>
-    <mergeCell ref="D35:F36"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="J35:L36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P97:R98"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="T338:U338"/>
+    <mergeCell ref="T339:U339"/>
+    <mergeCell ref="P181:U181"/>
+    <mergeCell ref="P204:U204"/>
+    <mergeCell ref="Q205:S205"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:U183"/>
+    <mergeCell ref="U195:U196"/>
+    <mergeCell ref="U205:U206"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="K18:L18"/>
@@ -47292,27 +47277,45 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="T338:U338"/>
-    <mergeCell ref="T339:U339"/>
-    <mergeCell ref="P181:U181"/>
-    <mergeCell ref="P204:U204"/>
-    <mergeCell ref="Q205:S205"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:U183"/>
-    <mergeCell ref="U195:U196"/>
-    <mergeCell ref="U205:U206"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D35:F36"/>
+    <mergeCell ref="G35:I36"/>
+    <mergeCell ref="J35:L36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P97:R98"/>
+    <mergeCell ref="V97:X98"/>
+    <mergeCell ref="P105:R106"/>
+    <mergeCell ref="S105:U106"/>
+    <mergeCell ref="V105:X106"/>
+    <mergeCell ref="P167:S167"/>
+    <mergeCell ref="U167:V167"/>
+    <mergeCell ref="S97:U98"/>
+    <mergeCell ref="U168:V168"/>
+    <mergeCell ref="U169:V169"/>
+    <mergeCell ref="P173:P174"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="U173:U174"/>
+    <mergeCell ref="I344:J344"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="D172:G172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="D179:I179"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:G180"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="E305:I305"/>
+    <mergeCell ref="E316:I316"/>
+    <mergeCell ref="D189:I189"/>
+    <mergeCell ref="I343:J343"/>
   </mergeCells>
   <conditionalFormatting sqref="P188:U189">
     <cfRule type="cellIs" dxfId="123" priority="126" operator="lessThan">
@@ -47873,39 +47876,39 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B2" s="699" t="s">
+      <c r="B2" s="703" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="699"/>
-      <c r="D2" s="699"/>
-      <c r="E2" s="699"/>
-      <c r="F2" s="699"/>
-      <c r="G2" s="699"/>
-      <c r="H2" s="699"/>
-      <c r="I2" s="699"/>
-      <c r="J2" s="699"/>
-      <c r="L2" s="699" t="s">
+      <c r="C2" s="703"/>
+      <c r="D2" s="703"/>
+      <c r="E2" s="703"/>
+      <c r="F2" s="703"/>
+      <c r="G2" s="703"/>
+      <c r="H2" s="703"/>
+      <c r="I2" s="703"/>
+      <c r="J2" s="703"/>
+      <c r="L2" s="703" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="699"/>
-      <c r="N2" s="699"/>
-      <c r="O2" s="699"/>
-      <c r="P2" s="699"/>
-      <c r="Q2" s="699"/>
-      <c r="R2" s="699"/>
-      <c r="S2" s="699"/>
-      <c r="T2" s="699"/>
-      <c r="V2" s="699" t="s">
+      <c r="M2" s="703"/>
+      <c r="N2" s="703"/>
+      <c r="O2" s="703"/>
+      <c r="P2" s="703"/>
+      <c r="Q2" s="703"/>
+      <c r="R2" s="703"/>
+      <c r="S2" s="703"/>
+      <c r="T2" s="703"/>
+      <c r="V2" s="703" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="699"/>
-      <c r="X2" s="699"/>
-      <c r="Y2" s="699"/>
-      <c r="Z2" s="699"/>
-      <c r="AA2" s="699"/>
-      <c r="AB2" s="699"/>
-      <c r="AC2" s="699"/>
-      <c r="AD2" s="699"/>
+      <c r="W2" s="703"/>
+      <c r="X2" s="703"/>
+      <c r="Y2" s="703"/>
+      <c r="Z2" s="703"/>
+      <c r="AA2" s="703"/>
+      <c r="AB2" s="703"/>
+      <c r="AC2" s="703"/>
+      <c r="AD2" s="703"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" thickTop="1">
       <c r="A3" s="15" t="s">
@@ -49366,36 +49369,36 @@
     </row>
     <row r="26" spans="1:30" ht="16.5" thickTop="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="697" t="s">
+      <c r="B26" s="701" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="697"/>
-      <c r="D26" s="697"/>
-      <c r="E26" s="697"/>
-      <c r="F26" s="697"/>
-      <c r="G26" s="697"/>
-      <c r="H26" s="697"/>
-      <c r="I26" s="697"/>
-      <c r="J26" s="697"/>
-      <c r="K26" s="697"/>
-      <c r="L26" s="697"/>
-      <c r="M26" s="698"/>
+      <c r="C26" s="701"/>
+      <c r="D26" s="701"/>
+      <c r="E26" s="701"/>
+      <c r="F26" s="701"/>
+      <c r="G26" s="701"/>
+      <c r="H26" s="701"/>
+      <c r="I26" s="701"/>
+      <c r="J26" s="701"/>
+      <c r="K26" s="701"/>
+      <c r="L26" s="701"/>
+      <c r="M26" s="702"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="697" t="s">
+      <c r="O26" s="701" t="s">
         <v>49</v>
       </c>
-      <c r="P26" s="697"/>
-      <c r="Q26" s="697"/>
-      <c r="R26" s="697"/>
-      <c r="S26" s="697"/>
-      <c r="T26" s="697"/>
-      <c r="U26" s="697"/>
-      <c r="V26" s="697"/>
-      <c r="W26" s="697"/>
-      <c r="X26" s="697"/>
-      <c r="Y26" s="697"/>
-      <c r="Z26" s="697"/>
-      <c r="AA26" s="698"/>
+      <c r="P26" s="701"/>
+      <c r="Q26" s="701"/>
+      <c r="R26" s="701"/>
+      <c r="S26" s="701"/>
+      <c r="T26" s="701"/>
+      <c r="U26" s="701"/>
+      <c r="V26" s="701"/>
+      <c r="W26" s="701"/>
+      <c r="X26" s="701"/>
+      <c r="Y26" s="701"/>
+      <c r="Z26" s="701"/>
+      <c r="AA26" s="702"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="18" t="s">
@@ -51231,33 +51234,33 @@
     </row>
     <row r="51" spans="1:26" ht="16.5" thickTop="1">
       <c r="A51" s="15"/>
-      <c r="B51" s="697" t="s">
+      <c r="B51" s="701" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="697"/>
-      <c r="D51" s="697"/>
-      <c r="E51" s="697"/>
-      <c r="F51" s="697"/>
-      <c r="G51" s="697"/>
-      <c r="H51" s="697"/>
-      <c r="I51" s="697"/>
-      <c r="J51" s="697"/>
-      <c r="K51" s="697"/>
-      <c r="L51" s="697"/>
-      <c r="M51" s="697"/>
-      <c r="N51" s="697"/>
-      <c r="O51" s="697"/>
-      <c r="P51" s="697"/>
-      <c r="Q51" s="697"/>
-      <c r="R51" s="697"/>
-      <c r="S51" s="697"/>
-      <c r="T51" s="697"/>
-      <c r="U51" s="697"/>
-      <c r="V51" s="697"/>
-      <c r="W51" s="697"/>
-      <c r="X51" s="697"/>
-      <c r="Y51" s="697"/>
-      <c r="Z51" s="698"/>
+      <c r="C51" s="701"/>
+      <c r="D51" s="701"/>
+      <c r="E51" s="701"/>
+      <c r="F51" s="701"/>
+      <c r="G51" s="701"/>
+      <c r="H51" s="701"/>
+      <c r="I51" s="701"/>
+      <c r="J51" s="701"/>
+      <c r="K51" s="701"/>
+      <c r="L51" s="701"/>
+      <c r="M51" s="701"/>
+      <c r="N51" s="701"/>
+      <c r="O51" s="701"/>
+      <c r="P51" s="701"/>
+      <c r="Q51" s="701"/>
+      <c r="R51" s="701"/>
+      <c r="S51" s="701"/>
+      <c r="T51" s="701"/>
+      <c r="U51" s="701"/>
+      <c r="V51" s="701"/>
+      <c r="W51" s="701"/>
+      <c r="X51" s="701"/>
+      <c r="Y51" s="701"/>
+      <c r="Z51" s="702"/>
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="18" t="s">
@@ -54040,11 +54043,11 @@
         <f>"DGN values (mrad/R) for "&amp;Sheet1!$T$277&amp;" kV and HVL="&amp;ROUND(Sheet1!$X$280,2)&amp;" mm Al"</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G104" s="699" t="s">
+      <c r="G104" s="703" t="s">
         <v>441</v>
       </c>
-      <c r="H104" s="699"/>
-      <c r="I104" s="699"/>
+      <c r="H104" s="703"/>
+      <c r="I104" s="703"/>
       <c r="T104" t="s">
         <v>598</v>
       </c>

--- a/MUSCMammoHologic.xlsx
+++ b/MUSCMammoHologic.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="718">
   <si>
     <t>Medical University of South Carolina</t>
   </si>
@@ -1961,9 +1961,6 @@
   </si>
   <si>
     <t>Piranha</t>
-  </si>
-  <si>
-    <t>CB2-17090320</t>
   </si>
   <si>
     <t>Corr kV</t>
@@ -7257,96 +7254,99 @@
     <xf numFmtId="2" fontId="44" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="127" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="10" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="10" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="128" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="129" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="130" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="126" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="127" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="127" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="128" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="129" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="130" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="131" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="126" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="127" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="10" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="10" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="8" fillId="10" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="8" fillId="10" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7356,6 +7356,27 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="127" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7377,33 +7398,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="110" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="139" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="137" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="139" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="137" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="139" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="137" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="137" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="139" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="137" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="137" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7416,44 +7455,74 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="139" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="137" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="139" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="137" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="139" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="137" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="139" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="137" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="37" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7464,78 +7533,9 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="37" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7544,9 +7544,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -17046,40 +17043,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25">
-      <c r="A1" s="634" t="s">
+      <c r="A1" s="609" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="634"/>
-      <c r="C1" s="634"/>
-      <c r="D1" s="634"/>
-      <c r="E1" s="634"/>
-      <c r="F1" s="634"/>
-      <c r="G1" s="634"/>
-      <c r="H1" s="634"/>
-      <c r="I1" s="634"/>
-      <c r="J1" s="634"/>
-      <c r="K1" s="634"/>
-      <c r="L1" s="634"/>
-      <c r="M1" s="634"/>
-      <c r="N1" s="634"/>
+      <c r="B1" s="609"/>
+      <c r="C1" s="609"/>
+      <c r="D1" s="609"/>
+      <c r="E1" s="609"/>
+      <c r="F1" s="609"/>
+      <c r="G1" s="609"/>
+      <c r="H1" s="609"/>
+      <c r="I1" s="609"/>
+      <c r="J1" s="609"/>
+      <c r="K1" s="609"/>
+      <c r="L1" s="609"/>
+      <c r="M1" s="609"/>
+      <c r="N1" s="609"/>
     </row>
     <row r="2" spans="1:15" ht="26.25">
-      <c r="A2" s="634" t="s">
-        <v>645</v>
-      </c>
-      <c r="B2" s="634"/>
-      <c r="C2" s="634"/>
-      <c r="D2" s="634"/>
-      <c r="E2" s="634"/>
-      <c r="F2" s="634"/>
-      <c r="G2" s="634"/>
-      <c r="H2" s="634"/>
-      <c r="I2" s="634"/>
-      <c r="J2" s="634"/>
-      <c r="K2" s="634"/>
-      <c r="L2" s="634"/>
-      <c r="M2" s="634"/>
-      <c r="N2" s="634"/>
+      <c r="A2" s="609" t="s">
+        <v>644</v>
+      </c>
+      <c r="B2" s="609"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="609"/>
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="609"/>
+      <c r="I2" s="609"/>
+      <c r="J2" s="609"/>
+      <c r="K2" s="609"/>
+      <c r="L2" s="609"/>
+      <c r="M2" s="609"/>
+      <c r="N2" s="609"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1">
       <c r="A3" s="32"/>
@@ -17102,47 +17099,47 @@
         <v>408</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" s="628" t="s">
-        <v>708</v>
-      </c>
-      <c r="D4" s="629"/>
-      <c r="E4" s="629"/>
-      <c r="F4" s="629"/>
-      <c r="G4" s="629"/>
-      <c r="H4" s="630"/>
+      <c r="C4" s="610" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4" s="611"/>
+      <c r="E4" s="611"/>
+      <c r="F4" s="611"/>
+      <c r="G4" s="611"/>
+      <c r="H4" s="612"/>
       <c r="I4" s="34"/>
       <c r="J4" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="K4" s="635"/>
-      <c r="L4" s="636"/>
-      <c r="M4" s="636"/>
-      <c r="N4" s="637"/>
+      <c r="K4" s="613"/>
+      <c r="L4" s="614"/>
+      <c r="M4" s="614"/>
+      <c r="N4" s="615"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>410</v>
       </c>
       <c r="B5" s="33"/>
-      <c r="C5" s="628" t="s">
-        <v>709</v>
-      </c>
-      <c r="D5" s="629"/>
-      <c r="E5" s="629"/>
-      <c r="F5" s="629"/>
-      <c r="G5" s="629"/>
-      <c r="H5" s="630"/>
+      <c r="C5" s="610" t="s">
+        <v>708</v>
+      </c>
+      <c r="D5" s="611"/>
+      <c r="E5" s="611"/>
+      <c r="F5" s="611"/>
+      <c r="G5" s="611"/>
+      <c r="H5" s="612"/>
       <c r="I5" s="34"/>
       <c r="J5" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="K5" s="635">
+      <c r="K5" s="613">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="636"/>
-      <c r="M5" s="636"/>
-      <c r="N5" s="637"/>
+      <c r="L5" s="614"/>
+      <c r="M5" s="614"/>
+      <c r="N5" s="615"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1">
       <c r="A6" s="33" t="s">
@@ -17150,21 +17147,21 @@
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="628" t="s">
+      <c r="D6" s="610" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="629"/>
-      <c r="F6" s="629"/>
-      <c r="G6" s="629"/>
-      <c r="H6" s="630"/>
+      <c r="E6" s="611"/>
+      <c r="F6" s="611"/>
+      <c r="G6" s="611"/>
+      <c r="H6" s="612"/>
       <c r="I6" s="34"/>
       <c r="J6" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="K6" s="628"/>
-      <c r="L6" s="629"/>
-      <c r="M6" s="629"/>
-      <c r="N6" s="630"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="611"/>
+      <c r="M6" s="611"/>
+      <c r="N6" s="612"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="A7" s="33" t="s">
@@ -17172,23 +17169,23 @@
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="628" t="s">
+      <c r="D7" s="610" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="629"/>
-      <c r="F7" s="629"/>
-      <c r="G7" s="629"/>
-      <c r="H7" s="630"/>
+      <c r="E7" s="611"/>
+      <c r="F7" s="611"/>
+      <c r="G7" s="611"/>
+      <c r="H7" s="612"/>
       <c r="I7" s="34"/>
       <c r="J7" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="K7" s="628" t="s">
-        <v>639</v>
-      </c>
-      <c r="L7" s="629"/>
-      <c r="M7" s="629"/>
-      <c r="N7" s="630"/>
+      <c r="K7" s="610" t="s">
+        <v>638</v>
+      </c>
+      <c r="L7" s="611"/>
+      <c r="M7" s="611"/>
+      <c r="N7" s="612"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1">
       <c r="A8" s="33" t="s">
@@ -17196,25 +17193,25 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="631" t="str">
+      <c r="D8" s="616" t="str">
         <f>Sheet1!K16</f>
         <v/>
       </c>
-      <c r="E8" s="632"/>
-      <c r="F8" s="632"/>
-      <c r="G8" s="632"/>
-      <c r="H8" s="633"/>
+      <c r="E8" s="617"/>
+      <c r="F8" s="617"/>
+      <c r="G8" s="617"/>
+      <c r="H8" s="618"/>
       <c r="I8" s="34"/>
       <c r="J8" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="K8" s="628" t="str">
+      <c r="K8" s="610" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="L8" s="629"/>
-      <c r="M8" s="629"/>
-      <c r="N8" s="630"/>
+      <c r="L8" s="611"/>
+      <c r="M8" s="611"/>
+      <c r="N8" s="612"/>
     </row>
     <row r="9" spans="1:15" ht="11.25" customHeight="1">
       <c r="A9" s="36"/>
@@ -17226,17 +17223,17 @@
     </row>
     <row r="10" spans="1:15" s="33" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="36" t="s">
+        <v>645</v>
+      </c>
+      <c r="D10" s="620" t="s">
+        <v>709</v>
+      </c>
+      <c r="E10" s="621"/>
+      <c r="F10" s="621"/>
+      <c r="G10" s="621"/>
+      <c r="H10" s="622"/>
+      <c r="I10" s="38" t="s">
         <v>646</v>
-      </c>
-      <c r="D10" s="615" t="s">
-        <v>710</v>
-      </c>
-      <c r="E10" s="616"/>
-      <c r="F10" s="616"/>
-      <c r="G10" s="616"/>
-      <c r="H10" s="617"/>
-      <c r="I10" s="38" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="11.25" customHeight="1">
@@ -17260,25 +17257,25 @@
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="618" t="s">
+      <c r="D12" s="623" t="s">
         <v>421</v>
       </c>
-      <c r="E12" s="618"/>
-      <c r="F12" s="618"/>
-      <c r="G12" s="618" t="s">
+      <c r="E12" s="623"/>
+      <c r="F12" s="623"/>
+      <c r="G12" s="623" t="s">
         <v>416</v>
       </c>
-      <c r="H12" s="618"/>
-      <c r="I12" s="618" t="s">
+      <c r="H12" s="623"/>
+      <c r="I12" s="623" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="618"/>
-      <c r="K12" s="618" t="s">
+      <c r="J12" s="623"/>
+      <c r="K12" s="623" t="s">
         <v>419</v>
       </c>
-      <c r="L12" s="618"/>
-      <c r="M12" s="618"/>
-      <c r="N12" s="618"/>
+      <c r="L12" s="623"/>
+      <c r="M12" s="623"/>
+      <c r="N12" s="623"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="33"/>
@@ -17286,63 +17283,63 @@
       <c r="C13" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="D13" s="619" t="s">
+      <c r="D13" s="624" t="s">
+        <v>682</v>
+      </c>
+      <c r="E13" s="625"/>
+      <c r="F13" s="626"/>
+      <c r="G13" s="624" t="s">
         <v>683</v>
       </c>
-      <c r="E13" s="620"/>
-      <c r="F13" s="621"/>
-      <c r="G13" s="619" t="s">
+      <c r="H13" s="626"/>
+      <c r="I13" s="627"/>
+      <c r="J13" s="628"/>
+      <c r="K13" s="624" t="s">
         <v>684</v>
       </c>
-      <c r="H13" s="621"/>
-      <c r="I13" s="622"/>
-      <c r="J13" s="623"/>
-      <c r="K13" s="619" t="s">
-        <v>685</v>
-      </c>
-      <c r="L13" s="620"/>
-      <c r="M13" s="620"/>
-      <c r="N13" s="621"/>
+      <c r="L13" s="625"/>
+      <c r="M13" s="625"/>
+      <c r="N13" s="626"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1">
       <c r="C14" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="D14" s="624" t="s">
-        <v>683</v>
-      </c>
-      <c r="E14" s="625"/>
-      <c r="F14" s="626"/>
-      <c r="G14" s="624" t="s">
+      <c r="D14" s="629" t="s">
+        <v>682</v>
+      </c>
+      <c r="E14" s="630"/>
+      <c r="F14" s="631"/>
+      <c r="G14" s="629" t="s">
+        <v>685</v>
+      </c>
+      <c r="H14" s="631"/>
+      <c r="I14" s="620"/>
+      <c r="J14" s="622"/>
+      <c r="K14" s="629" t="s">
         <v>686</v>
       </c>
-      <c r="H14" s="626"/>
-      <c r="I14" s="615"/>
-      <c r="J14" s="617"/>
-      <c r="K14" s="624" t="s">
-        <v>687</v>
-      </c>
-      <c r="L14" s="625"/>
-      <c r="M14" s="625"/>
-      <c r="N14" s="626"/>
+      <c r="L14" s="630"/>
+      <c r="M14" s="630"/>
+      <c r="N14" s="631"/>
     </row>
     <row r="15" spans="1:15" s="41" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="627" t="s">
-        <v>648</v>
-      </c>
-      <c r="B15" s="627"/>
-      <c r="C15" s="627"/>
-      <c r="D15" s="627"/>
-      <c r="E15" s="627"/>
-      <c r="F15" s="627"/>
-      <c r="G15" s="627"/>
-      <c r="H15" s="627"/>
-      <c r="I15" s="627"/>
-      <c r="J15" s="627"/>
-      <c r="K15" s="627"/>
-      <c r="L15" s="627"/>
-      <c r="M15" s="627"/>
-      <c r="N15" s="627"/>
+      <c r="A15" s="632" t="s">
+        <v>647</v>
+      </c>
+      <c r="B15" s="632"/>
+      <c r="C15" s="632"/>
+      <c r="D15" s="632"/>
+      <c r="E15" s="632"/>
+      <c r="F15" s="632"/>
+      <c r="G15" s="632"/>
+      <c r="H15" s="632"/>
+      <c r="I15" s="632"/>
+      <c r="J15" s="632"/>
+      <c r="K15" s="632"/>
+      <c r="L15" s="632"/>
+      <c r="M15" s="632"/>
+      <c r="N15" s="632"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1">
       <c r="A16" s="36" t="s">
@@ -17351,7 +17348,7 @@
       <c r="B16" s="36"/>
       <c r="C16" s="42"/>
       <c r="D16" s="43" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
@@ -17368,7 +17365,7 @@
     </row>
     <row r="17" spans="1:15" s="54" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="47" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
@@ -17377,7 +17374,7 @@
       </c>
       <c r="E17" s="49"/>
       <c r="F17" s="50" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G17" s="51"/>
       <c r="H17" s="52"/>
@@ -17404,46 +17401,46 @@
       <c r="L18" s="57"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="614" t="s">
+      <c r="A19" s="619" t="s">
         <v>426</v>
       </c>
-      <c r="B19" s="614"/>
-      <c r="C19" s="614"/>
-      <c r="D19" s="614"/>
-      <c r="E19" s="614"/>
-      <c r="F19" s="614"/>
-      <c r="G19" s="614"/>
-      <c r="H19" s="614"/>
-      <c r="I19" s="614"/>
-      <c r="J19" s="614"/>
-      <c r="K19" s="614"/>
-      <c r="L19" s="614"/>
-      <c r="M19" s="614"/>
-      <c r="N19" s="614"/>
+      <c r="B19" s="619"/>
+      <c r="C19" s="619"/>
+      <c r="D19" s="619"/>
+      <c r="E19" s="619"/>
+      <c r="F19" s="619"/>
+      <c r="G19" s="619"/>
+      <c r="H19" s="619"/>
+      <c r="I19" s="619"/>
+      <c r="J19" s="619"/>
+      <c r="K19" s="619"/>
+      <c r="L19" s="619"/>
+      <c r="M19" s="619"/>
+      <c r="N19" s="619"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="612" t="s">
+      <c r="A20" s="635" t="s">
         <v>427</v>
       </c>
-      <c r="B20" s="612"/>
-      <c r="C20" s="612"/>
-      <c r="D20" s="612"/>
-      <c r="E20" s="612"/>
-      <c r="F20" s="612"/>
-      <c r="G20" s="612"/>
-      <c r="H20" s="612"/>
-      <c r="I20" s="612"/>
-      <c r="J20" s="612"/>
-      <c r="K20" s="612"/>
-      <c r="L20" s="612"/>
-      <c r="M20" s="612"/>
-      <c r="N20" s="612"/>
+      <c r="B20" s="635"/>
+      <c r="C20" s="635"/>
+      <c r="D20" s="635"/>
+      <c r="E20" s="635"/>
+      <c r="F20" s="635"/>
+      <c r="G20" s="635"/>
+      <c r="H20" s="635"/>
+      <c r="I20" s="635"/>
+      <c r="J20" s="635"/>
+      <c r="K20" s="635"/>
+      <c r="L20" s="635"/>
+      <c r="M20" s="635"/>
+      <c r="N20" s="635"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
-      <c r="M21" s="613" t="s">
+      <c r="M21" s="636" t="s">
         <v>428</v>
       </c>
-      <c r="N21" s="613"/>
+      <c r="N21" s="636"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="58" t="s">
@@ -17460,8 +17457,8 @@
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="609"/>
-      <c r="N22" s="610"/>
+      <c r="M22" s="633"/>
+      <c r="N22" s="634"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="58" t="s">
@@ -17478,8 +17475,8 @@
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
-      <c r="M23" s="609"/>
-      <c r="N23" s="610"/>
+      <c r="M23" s="633"/>
+      <c r="N23" s="634"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="58" t="s">
@@ -17496,8 +17493,8 @@
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
-      <c r="M24" s="609"/>
-      <c r="N24" s="610"/>
+      <c r="M24" s="633"/>
+      <c r="N24" s="634"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="58" t="s">
@@ -17514,8 +17511,8 @@
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
-      <c r="M25" s="609"/>
-      <c r="N25" s="610"/>
+      <c r="M25" s="633"/>
+      <c r="N25" s="634"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="58" t="s">
@@ -17532,8 +17529,8 @@
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
-      <c r="M26" s="609"/>
-      <c r="N26" s="610"/>
+      <c r="M26" s="633"/>
+      <c r="N26" s="634"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="58" t="s">
@@ -17550,12 +17547,12 @@
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
-      <c r="M27" s="609"/>
-      <c r="N27" s="610"/>
+      <c r="M27" s="633"/>
+      <c r="N27" s="634"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="58" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -17568,12 +17565,12 @@
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
-      <c r="M28" s="609"/>
-      <c r="N28" s="610"/>
+      <c r="M28" s="633"/>
+      <c r="N28" s="634"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="58" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -17590,7 +17587,7 @@
     <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="A30" s="33"/>
       <c r="B30" s="60" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F30" s="61"/>
       <c r="G30" s="61"/>
@@ -17601,13 +17598,13 @@
       <c r="L30" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="M30" s="609"/>
-      <c r="N30" s="610"/>
+      <c r="M30" s="633"/>
+      <c r="N30" s="634"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="33"/>
       <c r="B31" s="62" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C31" s="63"/>
       <c r="D31" s="64"/>
@@ -17624,8 +17621,8 @@
       <c r="L31" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="M31" s="609"/>
-      <c r="N31" s="610"/>
+      <c r="M31" s="633"/>
+      <c r="N31" s="634"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
@@ -17642,8 +17639,8 @@
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
-      <c r="M32" s="609"/>
-      <c r="N32" s="610"/>
+      <c r="M32" s="633"/>
+      <c r="N32" s="634"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="33" t="s">
@@ -17669,7 +17666,7 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
       <c r="C34" s="60" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="42"/>
@@ -17688,12 +17685,12 @@
       </c>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
-      <c r="M34" s="609"/>
-      <c r="N34" s="610"/>
+      <c r="M34" s="633"/>
+      <c r="N34" s="634"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="C35" s="63" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D35" s="62"/>
       <c r="E35" s="62"/>
@@ -17711,12 +17708,12 @@
         <v/>
       </c>
       <c r="L35" s="37"/>
-      <c r="M35" s="609"/>
-      <c r="N35" s="610"/>
+      <c r="M35" s="633"/>
+      <c r="N35" s="634"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -17736,7 +17733,7 @@
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="C37" s="42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D37" s="147" t="e">
         <f>Sheet1!T458</f>
@@ -17750,21 +17747,21 @@
       <c r="J37" s="67"/>
       <c r="K37" s="72"/>
       <c r="L37" s="72"/>
-      <c r="M37" s="609"/>
-      <c r="N37" s="610"/>
+      <c r="M37" s="633"/>
+      <c r="N37" s="634"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
       <c r="C38" s="42" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D38" s="147" t="e">
         <f>Sheet1!T459</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="73" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F38" s="59"/>
       <c r="G38" s="59"/>
@@ -17780,7 +17777,7 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="42" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
@@ -17791,12 +17788,12 @@
       <c r="J39" s="67"/>
       <c r="K39" s="72"/>
       <c r="L39" s="72"/>
-      <c r="M39" s="609"/>
-      <c r="N39" s="610"/>
+      <c r="M39" s="633"/>
+      <c r="N39" s="634"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="33" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -17809,12 +17806,12 @@
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
-      <c r="M40" s="609"/>
-      <c r="N40" s="610"/>
+      <c r="M40" s="633"/>
+      <c r="N40" s="634"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -17827,12 +17824,12 @@
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
-      <c r="M41" s="609"/>
-      <c r="N41" s="610"/>
+      <c r="M41" s="633"/>
+      <c r="N41" s="634"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="33" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -17845,12 +17842,12 @@
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
-      <c r="M42" s="609"/>
-      <c r="N42" s="610"/>
+      <c r="M42" s="633"/>
+      <c r="N42" s="634"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="58" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B43" s="58"/>
       <c r="C43" s="58"/>
@@ -17863,12 +17860,12 @@
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
       <c r="L43" s="33"/>
-      <c r="M43" s="609"/>
-      <c r="N43" s="611"/>
+      <c r="M43" s="633"/>
+      <c r="N43" s="638"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -17881,12 +17878,12 @@
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
-      <c r="M44" s="609"/>
-      <c r="N44" s="610"/>
+      <c r="M44" s="633"/>
+      <c r="N44" s="634"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -17899,12 +17896,12 @@
       <c r="J45" s="33"/>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
-      <c r="M45" s="609"/>
-      <c r="N45" s="610"/>
+      <c r="M45" s="633"/>
+      <c r="N45" s="634"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -17917,8 +17914,8 @@
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
       <c r="L46" s="33"/>
-      <c r="M46" s="609"/>
-      <c r="N46" s="610"/>
+      <c r="M46" s="633"/>
+      <c r="N46" s="634"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="33"/>
@@ -17937,37 +17934,49 @@
       <c r="N47" s="72"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="608" t="s">
-        <v>670</v>
-      </c>
-      <c r="B48" s="608"/>
-      <c r="C48" s="608"/>
-      <c r="D48" s="608"/>
-      <c r="E48" s="608"/>
-      <c r="F48" s="608"/>
-      <c r="G48" s="608"/>
-      <c r="H48" s="608"/>
-      <c r="I48" s="608"/>
-      <c r="J48" s="608"/>
-      <c r="K48" s="608"/>
-      <c r="L48" s="608"/>
-      <c r="M48" s="608"/>
-      <c r="N48" s="608"/>
+      <c r="A48" s="637" t="s">
+        <v>669</v>
+      </c>
+      <c r="B48" s="637"/>
+      <c r="C48" s="637"/>
+      <c r="D48" s="637"/>
+      <c r="E48" s="637"/>
+      <c r="F48" s="637"/>
+      <c r="G48" s="637"/>
+      <c r="H48" s="637"/>
+      <c r="I48" s="637"/>
+      <c r="J48" s="637"/>
+      <c r="K48" s="637"/>
+      <c r="L48" s="637"/>
+      <c r="M48" s="637"/>
+      <c r="N48" s="637"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
     <mergeCell ref="A19:N19"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D12:F12"/>
@@ -17983,30 +17992,18 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="A15:N15"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="M22:N28 M32:N32 M37:N37 M39:N40 M42:N42 M44:N45 M43">
     <cfRule type="cellIs" dxfId="132" priority="7" stopIfTrue="1" operator="equal">
@@ -18282,73 +18279,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="648" t="s">
+      <c r="A1" s="642" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="648"/>
-      <c r="C1" s="648"/>
-      <c r="D1" s="648"/>
-      <c r="E1" s="648"/>
-      <c r="F1" s="648"/>
-      <c r="G1" s="648"/>
-      <c r="H1" s="648"/>
-      <c r="I1" s="648"/>
-      <c r="J1" s="648"/>
-      <c r="K1" s="648"/>
-      <c r="L1" s="648"/>
+      <c r="B1" s="642"/>
+      <c r="C1" s="642"/>
+      <c r="D1" s="642"/>
+      <c r="E1" s="642"/>
+      <c r="F1" s="642"/>
+      <c r="G1" s="642"/>
+      <c r="H1" s="642"/>
+      <c r="I1" s="642"/>
+      <c r="J1" s="642"/>
+      <c r="K1" s="642"/>
+      <c r="L1" s="642"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="649" t="s">
-        <v>671</v>
-      </c>
-      <c r="B2" s="650"/>
-      <c r="C2" s="650"/>
-      <c r="D2" s="650"/>
-      <c r="E2" s="650"/>
-      <c r="F2" s="650"/>
-      <c r="G2" s="650"/>
-      <c r="H2" s="650"/>
-      <c r="I2" s="650"/>
-      <c r="J2" s="650"/>
-      <c r="K2" s="650"/>
-      <c r="L2" s="650"/>
+      <c r="A2" s="643" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" s="644"/>
+      <c r="C2" s="644"/>
+      <c r="D2" s="644"/>
+      <c r="E2" s="644"/>
+      <c r="F2" s="644"/>
+      <c r="G2" s="644"/>
+      <c r="H2" s="644"/>
+      <c r="I2" s="644"/>
+      <c r="J2" s="644"/>
+      <c r="K2" s="644"/>
+      <c r="L2" s="644"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:12" ht="24" customHeight="1">
-      <c r="A4" s="651" t="s">
+      <c r="A4" s="645" t="s">
         <v>442</v>
       </c>
-      <c r="B4" s="651"/>
-      <c r="C4" s="651"/>
-      <c r="D4" s="651"/>
-      <c r="E4" s="651"/>
-      <c r="F4" s="651"/>
-      <c r="G4" s="651"/>
-      <c r="H4" s="651"/>
-      <c r="I4" s="651"/>
-      <c r="J4" s="651"/>
-      <c r="K4" s="651"/>
-      <c r="L4" s="651"/>
+      <c r="B4" s="645"/>
+      <c r="C4" s="645"/>
+      <c r="D4" s="645"/>
+      <c r="E4" s="645"/>
+      <c r="F4" s="645"/>
+      <c r="G4" s="645"/>
+      <c r="H4" s="645"/>
+      <c r="I4" s="645"/>
+      <c r="J4" s="645"/>
+      <c r="K4" s="645"/>
+      <c r="L4" s="645"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="652" t="s">
-        <v>672</v>
-      </c>
-      <c r="B5" s="652"/>
-      <c r="C5" s="652"/>
-      <c r="D5" s="652"/>
-      <c r="E5" s="652"/>
-      <c r="F5" s="652"/>
-      <c r="G5" s="652"/>
-      <c r="H5" s="652"/>
-      <c r="I5" s="652"/>
-      <c r="J5" s="652"/>
-      <c r="K5" s="652"/>
-      <c r="L5" s="652"/>
+      <c r="A5" s="646" t="s">
+        <v>671</v>
+      </c>
+      <c r="B5" s="646"/>
+      <c r="C5" s="646"/>
+      <c r="D5" s="646"/>
+      <c r="E5" s="646"/>
+      <c r="F5" s="646"/>
+      <c r="G5" s="646"/>
+      <c r="H5" s="646"/>
+      <c r="I5" s="646"/>
+      <c r="J5" s="646"/>
+      <c r="K5" s="646"/>
+      <c r="L5" s="646"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="75" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
@@ -18364,7 +18361,7 @@
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="80" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B7" s="81"/>
       <c r="C7" s="81"/>
@@ -18379,9 +18376,9 @@
       <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="653"/>
-      <c r="K8" s="653"/>
-      <c r="L8" s="653"/>
+      <c r="J8" s="647"/>
+      <c r="K8" s="647"/>
+      <c r="L8" s="647"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="37"/>
@@ -18390,25 +18387,25 @@
         <v>443</v>
       </c>
       <c r="I9" s="54"/>
-      <c r="J9" s="654" t="s">
+      <c r="J9" s="648" t="s">
         <v>428</v>
       </c>
-      <c r="K9" s="654"/>
-      <c r="L9" s="654"/>
+      <c r="K9" s="648"/>
+      <c r="L9" s="648"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="84" t="s">
         <v>444</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H10" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J10" s="638"/>
-      <c r="K10" s="639"/>
-      <c r="L10" s="640"/>
+      <c r="J10" s="639"/>
+      <c r="K10" s="640"/>
+      <c r="L10" s="641"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="87" t="s">
@@ -18420,9 +18417,9 @@
       <c r="H11" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J11" s="638"/>
-      <c r="K11" s="639"/>
-      <c r="L11" s="640"/>
+      <c r="J11" s="639"/>
+      <c r="K11" s="640"/>
+      <c r="L11" s="641"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="87" t="s">
@@ -18434,9 +18431,9 @@
       <c r="H12" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J12" s="638"/>
-      <c r="K12" s="639"/>
-      <c r="L12" s="640"/>
+      <c r="J12" s="639"/>
+      <c r="K12" s="640"/>
+      <c r="L12" s="641"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="87" t="s">
@@ -18448,9 +18445,9 @@
       <c r="H13" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J13" s="638"/>
-      <c r="K13" s="639"/>
-      <c r="L13" s="640"/>
+      <c r="J13" s="639"/>
+      <c r="K13" s="640"/>
+      <c r="L13" s="641"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="87" t="s">
@@ -18462,9 +18459,9 @@
       <c r="H14" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J14" s="638"/>
-      <c r="K14" s="639"/>
-      <c r="L14" s="640"/>
+      <c r="J14" s="639"/>
+      <c r="K14" s="640"/>
+      <c r="L14" s="641"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="87" t="s">
@@ -18476,9 +18473,9 @@
       <c r="H15" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J15" s="638"/>
-      <c r="K15" s="639"/>
-      <c r="L15" s="640"/>
+      <c r="J15" s="639"/>
+      <c r="K15" s="640"/>
+      <c r="L15" s="641"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="87" t="s">
@@ -18490,9 +18487,9 @@
       <c r="H16" s="86" t="s">
         <v>456</v>
       </c>
-      <c r="J16" s="638"/>
-      <c r="K16" s="639"/>
-      <c r="L16" s="640"/>
+      <c r="J16" s="639"/>
+      <c r="K16" s="640"/>
+      <c r="L16" s="641"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="87" t="s">
@@ -18504,9 +18501,9 @@
       <c r="H17" s="86" t="s">
         <v>459</v>
       </c>
-      <c r="J17" s="638"/>
-      <c r="K17" s="639"/>
-      <c r="L17" s="640"/>
+      <c r="J17" s="639"/>
+      <c r="K17" s="640"/>
+      <c r="L17" s="641"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="84" t="s">
@@ -18518,9 +18515,9 @@
       <c r="H18" s="86" t="s">
         <v>462</v>
       </c>
-      <c r="J18" s="638"/>
-      <c r="K18" s="639"/>
-      <c r="L18" s="640"/>
+      <c r="J18" s="639"/>
+      <c r="K18" s="640"/>
+      <c r="L18" s="641"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="84" t="s">
@@ -18532,16 +18529,16 @@
       <c r="H19" s="89" t="s">
         <v>465</v>
       </c>
-      <c r="J19" s="638"/>
-      <c r="K19" s="639"/>
-      <c r="L19" s="640"/>
+      <c r="J19" s="639"/>
+      <c r="K19" s="640"/>
+      <c r="L19" s="641"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="90" t="s">
         <v>466</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
@@ -18551,86 +18548,86 @@
       <c r="H20" s="91" t="s">
         <v>465</v>
       </c>
-      <c r="J20" s="638"/>
-      <c r="K20" s="639"/>
-      <c r="L20" s="640"/>
+      <c r="J20" s="639"/>
+      <c r="K20" s="640"/>
+      <c r="L20" s="641"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="84" t="s">
         <v>467</v>
       </c>
       <c r="B21" s="85" t="s">
+        <v>676</v>
+      </c>
+      <c r="H21" s="89" t="s">
         <v>677</v>
       </c>
-      <c r="H21" s="89" t="s">
-        <v>678</v>
-      </c>
-      <c r="J21" s="638"/>
-      <c r="K21" s="639"/>
-      <c r="L21" s="640"/>
+      <c r="J21" s="639"/>
+      <c r="K21" s="640"/>
+      <c r="L21" s="641"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="84" t="s">
+        <v>678</v>
+      </c>
+      <c r="B22" s="85" t="s">
         <v>679</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="H22" s="86" t="s">
         <v>680</v>
       </c>
-      <c r="H22" s="86" t="s">
-        <v>681</v>
-      </c>
-      <c r="J22" s="638"/>
-      <c r="K22" s="639"/>
-      <c r="L22" s="640"/>
+      <c r="J22" s="639"/>
+      <c r="K22" s="640"/>
+      <c r="L22" s="641"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:12" ht="24" customHeight="1">
-      <c r="A24" s="641" t="s">
+      <c r="A24" s="649" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="641"/>
-      <c r="C24" s="641"/>
-      <c r="D24" s="641"/>
-      <c r="E24" s="641"/>
-      <c r="F24" s="641"/>
-      <c r="G24" s="641"/>
-      <c r="H24" s="641"/>
-      <c r="I24" s="641"/>
-      <c r="J24" s="641"/>
-      <c r="K24" s="641"/>
-      <c r="L24" s="641"/>
+      <c r="B24" s="649"/>
+      <c r="C24" s="649"/>
+      <c r="D24" s="649"/>
+      <c r="E24" s="649"/>
+      <c r="F24" s="649"/>
+      <c r="G24" s="649"/>
+      <c r="H24" s="649"/>
+      <c r="I24" s="649"/>
+      <c r="J24" s="649"/>
+      <c r="K24" s="649"/>
+      <c r="L24" s="649"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1"/>
     <row r="26" spans="1:12" ht="241.5" customHeight="1">
-      <c r="A26" s="642"/>
-      <c r="B26" s="643"/>
-      <c r="C26" s="643"/>
-      <c r="D26" s="643"/>
-      <c r="E26" s="643"/>
-      <c r="F26" s="643"/>
-      <c r="G26" s="643"/>
-      <c r="H26" s="643"/>
-      <c r="I26" s="643"/>
-      <c r="J26" s="643"/>
-      <c r="K26" s="643"/>
-      <c r="L26" s="644"/>
+      <c r="A26" s="650"/>
+      <c r="B26" s="651"/>
+      <c r="C26" s="651"/>
+      <c r="D26" s="651"/>
+      <c r="E26" s="651"/>
+      <c r="F26" s="651"/>
+      <c r="G26" s="651"/>
+      <c r="H26" s="651"/>
+      <c r="I26" s="651"/>
+      <c r="J26" s="651"/>
+      <c r="K26" s="651"/>
+      <c r="L26" s="652"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1"/>
     <row r="28" spans="1:12" ht="204.75" customHeight="1" thickBot="1">
-      <c r="A28" s="645" t="s">
-        <v>682</v>
-      </c>
-      <c r="B28" s="646"/>
-      <c r="C28" s="646"/>
-      <c r="D28" s="646"/>
-      <c r="E28" s="646"/>
-      <c r="F28" s="646"/>
-      <c r="G28" s="646"/>
-      <c r="H28" s="646"/>
-      <c r="I28" s="646"/>
-      <c r="J28" s="646"/>
-      <c r="K28" s="646"/>
-      <c r="L28" s="647"/>
+      <c r="A28" s="653" t="s">
+        <v>681</v>
+      </c>
+      <c r="B28" s="654"/>
+      <c r="C28" s="654"/>
+      <c r="D28" s="654"/>
+      <c r="E28" s="654"/>
+      <c r="F28" s="654"/>
+      <c r="G28" s="654"/>
+      <c r="H28" s="654"/>
+      <c r="I28" s="654"/>
+      <c r="J28" s="654"/>
+      <c r="K28" s="654"/>
+      <c r="L28" s="655"/>
     </row>
     <row r="33" spans="2:12" ht="18" customHeight="1">
       <c r="B33" s="33"/>
@@ -18647,6 +18644,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -18659,16 +18666,6 @@
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
   </mergeCells>
   <conditionalFormatting sqref="J22:L22 J20 J10:L19">
     <cfRule type="cellIs" dxfId="125" priority="2" stopIfTrue="1" operator="equal">
@@ -19223,13 +19220,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="657" t="s">
+      <c r="A1" s="671" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="658"/>
-      <c r="C1" s="658"/>
-      <c r="D1" s="658"/>
-      <c r="E1" s="658"/>
+      <c r="B1" s="672"/>
+      <c r="C1" s="672"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="92"/>
@@ -19242,23 +19239,23 @@
       <c r="A3" s="93" t="s">
         <v>470</v>
       </c>
-      <c r="B3" s="659" t="str">
+      <c r="B3" s="673" t="str">
         <f>'QC Test Summary-Hologic'!C4</f>
         <v>HCC Breast Imaging Program</v>
       </c>
-      <c r="C3" s="659"/>
-      <c r="D3" s="659"/>
-      <c r="E3" s="659"/>
+      <c r="C3" s="673"/>
+      <c r="D3" s="673"/>
+      <c r="E3" s="673"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="93" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="660" t="str">
+      <c r="B4" s="674" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="660"/>
+      <c r="C4" s="674"/>
       <c r="D4" s="94" t="s">
         <v>23</v>
       </c>
@@ -19288,11 +19285,11 @@
       <c r="A6" s="93" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="660" t="str">
+      <c r="B6" s="674" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="660"/>
+      <c r="C6" s="674"/>
       <c r="D6" s="94" t="s">
         <v>475</v>
       </c>
@@ -19305,8 +19302,8 @@
       <c r="A7" s="93" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="660"/>
-      <c r="C7" s="660"/>
+      <c r="B7" s="674"/>
+      <c r="C7" s="674"/>
       <c r="D7" s="94" t="s">
         <v>477</v>
       </c>
@@ -19330,11 +19327,11 @@
         <v>481</v>
       </c>
       <c r="E9" s="100" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="655" t="s">
+      <c r="A10" s="670" t="s">
         <v>482</v>
       </c>
       <c r="B10" s="101" t="s">
@@ -19349,7 +19346,7 @@
       <c r="E10" s="104"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="656"/>
+      <c r="A11" s="666"/>
       <c r="B11" s="105" t="s">
         <v>486</v>
       </c>
@@ -19362,7 +19359,7 @@
       <c r="E11" s="108"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="666" t="s">
+      <c r="A12" s="661" t="s">
         <v>488</v>
       </c>
       <c r="B12" s="109" t="s">
@@ -19377,7 +19374,7 @@
       <c r="E12" s="112"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="667"/>
+      <c r="A13" s="662"/>
       <c r="B13" s="113" t="s">
         <v>492</v>
       </c>
@@ -19390,7 +19387,7 @@
       <c r="E13" s="116"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="668"/>
+      <c r="A14" s="663"/>
       <c r="B14" s="117" t="s">
         <v>494</v>
       </c>
@@ -19403,7 +19400,7 @@
       <c r="E14" s="119"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="669" t="s">
+      <c r="A15" s="664" t="s">
         <v>496</v>
       </c>
       <c r="B15" s="120" t="s">
@@ -19418,7 +19415,7 @@
       <c r="E15" s="122"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="670"/>
+      <c r="A16" s="665"/>
       <c r="B16" s="105" t="s">
         <v>499</v>
       </c>
@@ -19431,7 +19428,7 @@
       <c r="E16" s="124"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="661" t="s">
+      <c r="A17" s="656" t="s">
         <v>502</v>
       </c>
       <c r="B17" s="125" t="s">
@@ -19446,7 +19443,7 @@
       <c r="E17" s="126"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="656"/>
+      <c r="A18" s="666"/>
       <c r="B18" s="127" t="s">
         <v>505</v>
       </c>
@@ -19459,7 +19456,7 @@
       <c r="E18" s="108"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="671" t="s">
+      <c r="A19" s="667" t="s">
         <v>507</v>
       </c>
       <c r="B19" s="125" t="s">
@@ -19474,7 +19471,7 @@
       <c r="E19" s="126"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="672"/>
+      <c r="A20" s="668"/>
       <c r="B20" s="129" t="s">
         <v>510</v>
       </c>
@@ -19487,7 +19484,7 @@
       <c r="E20" s="131"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="673"/>
+      <c r="A21" s="669"/>
       <c r="B21" s="127" t="s">
         <v>512</v>
       </c>
@@ -19500,7 +19497,7 @@
       <c r="E21" s="108"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="661" t="s">
+      <c r="A22" s="656" t="s">
         <v>514</v>
       </c>
       <c r="B22" s="125" t="s">
@@ -19515,7 +19512,7 @@
       <c r="E22" s="126"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="656"/>
+      <c r="A23" s="666"/>
       <c r="B23" s="105" t="s">
         <v>517</v>
       </c>
@@ -19528,7 +19525,7 @@
       <c r="E23" s="124"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="671" t="s">
+      <c r="A24" s="667" t="s">
         <v>519</v>
       </c>
       <c r="B24" s="125" t="s">
@@ -19543,7 +19540,7 @@
       <c r="E24" s="126"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="672"/>
+      <c r="A25" s="668"/>
       <c r="B25" s="129" t="s">
         <v>522</v>
       </c>
@@ -19556,7 +19553,7 @@
       <c r="E25" s="131"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="672"/>
+      <c r="A26" s="668"/>
       <c r="B26" s="132" t="s">
         <v>524</v>
       </c>
@@ -19569,7 +19566,7 @@
       <c r="E26" s="131"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="672"/>
+      <c r="A27" s="668"/>
       <c r="B27" s="132" t="s">
         <v>526</v>
       </c>
@@ -19582,7 +19579,7 @@
       <c r="E27" s="131"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="673"/>
+      <c r="A28" s="669"/>
       <c r="B28" s="133" t="s">
         <v>528</v>
       </c>
@@ -19595,7 +19592,7 @@
       <c r="E28" s="124"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="661" t="s">
+      <c r="A29" s="656" t="s">
         <v>530</v>
       </c>
       <c r="B29" s="134" t="s">
@@ -19610,7 +19607,7 @@
       <c r="E29" s="126"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="662"/>
+      <c r="A30" s="657"/>
       <c r="B30" s="132" t="s">
         <v>533</v>
       </c>
@@ -19623,7 +19620,7 @@
       <c r="E30" s="131"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="663"/>
+      <c r="A31" s="658"/>
       <c r="B31" s="133" t="s">
         <v>535</v>
       </c>
@@ -19636,7 +19633,7 @@
       <c r="E31" s="124"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="661" t="s">
+      <c r="A32" s="656" t="s">
         <v>537</v>
       </c>
       <c r="B32" s="134" t="s">
@@ -19651,12 +19648,12 @@
       <c r="E32" s="126"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="662"/>
+      <c r="A33" s="657"/>
       <c r="B33" s="132" t="s">
         <v>540</v>
       </c>
       <c r="C33" s="114" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D33" s="115" t="s">
         <v>491</v>
@@ -19664,7 +19661,7 @@
       <c r="E33" s="131"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="663"/>
+      <c r="A34" s="658"/>
       <c r="B34" s="133" t="s">
         <v>541</v>
       </c>
@@ -19678,7 +19675,7 @@
     </row>
     <row r="35" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
       <c r="A35" s="136" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B35" s="137">
         <v>11</v>
@@ -19693,7 +19690,7 @@
     </row>
     <row r="36" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
       <c r="A36" s="136" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B36" s="137">
         <v>12</v>
@@ -19708,7 +19705,7 @@
     </row>
     <row r="37" spans="1:5" ht="45.75" thickBot="1">
       <c r="A37" s="136" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B37" s="137">
         <v>13</v>
@@ -19723,7 +19720,7 @@
     </row>
     <row r="38" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A38" s="136" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B38" s="137">
         <v>14</v>
@@ -19738,7 +19735,7 @@
     </row>
     <row r="39" spans="1:5" ht="46.5" customHeight="1" thickBot="1">
       <c r="A39" s="141" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B39" s="142">
         <v>15</v>
@@ -19752,13 +19749,13 @@
       <c r="E39" s="108"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="664" t="s">
-        <v>695</v>
-      </c>
-      <c r="B40" s="665"/>
-      <c r="C40" s="665"/>
-      <c r="D40" s="665"/>
-      <c r="E40" s="665"/>
+      <c r="A40" s="659" t="s">
+        <v>694</v>
+      </c>
+      <c r="B40" s="660"/>
+      <c r="C40" s="660"/>
+      <c r="D40" s="660"/>
+      <c r="E40" s="660"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="143"/>
@@ -20455,6 +20452,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -20464,12 +20467,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -22482,9 +22479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F214" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="V270" sqref="V270"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -22519,7 +22514,7 @@
       <c r="M1" s="154"/>
       <c r="N1" s="155"/>
       <c r="O1" s="156" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P1" s="157"/>
       <c r="Q1" s="157"/>
@@ -22906,10 +22901,10 @@
         <v>406</v>
       </c>
       <c r="AQ9" s="170" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AR9" s="170" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -22922,21 +22917,21 @@
       <c r="E10" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="692" t="str">
+      <c r="F10" s="683" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="692"/>
+      <c r="G10" s="683"/>
       <c r="H10" s="155"/>
       <c r="I10" s="155"/>
       <c r="J10" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="692" t="str">
+      <c r="K10" s="683" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="692"/>
+      <c r="L10" s="683"/>
       <c r="M10" s="201"/>
       <c r="N10" s="155"/>
       <c r="O10" s="165"/>
@@ -23006,21 +23001,21 @@
       <c r="E11" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="694" t="str">
+      <c r="F11" s="684" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="694"/>
+      <c r="G11" s="684"/>
       <c r="H11" s="155"/>
       <c r="I11" s="155"/>
       <c r="J11" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="692" t="str">
+      <c r="K11" s="683" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="692"/>
+      <c r="L11" s="683"/>
       <c r="M11" s="201"/>
       <c r="N11" s="155"/>
       <c r="O11" s="165"/>
@@ -23090,21 +23085,21 @@
       <c r="E12" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="694" t="str">
+      <c r="F12" s="684" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="694"/>
+      <c r="G12" s="684"/>
       <c r="H12" s="155"/>
       <c r="I12" s="155"/>
       <c r="J12" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="693" t="str">
+      <c r="K12" s="685" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="693"/>
+      <c r="L12" s="685"/>
       <c r="M12" s="201"/>
       <c r="N12" s="155"/>
       <c r="O12" s="165"/>
@@ -23174,21 +23169,21 @@
       <c r="E13" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="694" t="str">
+      <c r="F13" s="684" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="694"/>
+      <c r="G13" s="684"/>
       <c r="H13" s="155"/>
       <c r="I13" s="155"/>
       <c r="J13" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="692" t="str">
+      <c r="K13" s="683" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="692"/>
+      <c r="L13" s="683"/>
       <c r="M13" s="201"/>
       <c r="N13" s="155"/>
       <c r="O13" s="165"/>
@@ -23398,21 +23393,21 @@
       <c r="E16" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="692" t="str">
+      <c r="F16" s="683" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="692"/>
+      <c r="G16" s="683"/>
       <c r="H16" s="155"/>
       <c r="I16" s="155"/>
       <c r="J16" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="693" t="str">
+      <c r="K16" s="685" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="693"/>
+      <c r="L16" s="685"/>
       <c r="M16" s="201"/>
       <c r="N16" s="155"/>
       <c r="O16" s="165"/>
@@ -23474,21 +23469,21 @@
       <c r="E17" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="692" t="str">
+      <c r="F17" s="683" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="692"/>
+      <c r="G17" s="683"/>
       <c r="H17" s="155"/>
       <c r="I17" s="155"/>
       <c r="J17" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="692" t="str">
+      <c r="K17" s="683" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="692"/>
+      <c r="L17" s="683"/>
       <c r="M17" s="201"/>
       <c r="N17" s="155"/>
       <c r="O17" s="165"/>
@@ -23558,21 +23553,21 @@
       <c r="E18" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="692" t="str">
+      <c r="F18" s="683" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="692"/>
+      <c r="G18" s="683"/>
       <c r="H18" s="155"/>
       <c r="I18" s="155"/>
       <c r="J18" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="692" t="str">
+      <c r="K18" s="683" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="692"/>
+      <c r="L18" s="683"/>
       <c r="M18" s="201"/>
       <c r="N18" s="155"/>
       <c r="O18" s="165"/>
@@ -23776,21 +23771,21 @@
       <c r="E21" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="692" t="str">
+      <c r="F21" s="683" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="692"/>
+      <c r="G21" s="683"/>
       <c r="H21" s="155"/>
       <c r="I21" s="155"/>
       <c r="J21" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="692" t="str">
+      <c r="K21" s="683" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="692"/>
+      <c r="L21" s="683"/>
       <c r="M21" s="201"/>
       <c r="N21" s="155"/>
       <c r="O21" s="165"/>
@@ -23857,19 +23852,19 @@
       <c r="E22" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="693" t="str">
+      <c r="F22" s="685" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="693"/>
+      <c r="G22" s="685"/>
       <c r="H22" s="155"/>
       <c r="I22" s="155"/>
       <c r="J22" s="171"/>
-      <c r="K22" s="692" t="str">
+      <c r="K22" s="683" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="692"/>
+      <c r="L22" s="683"/>
       <c r="M22" s="201"/>
       <c r="N22" s="155"/>
       <c r="O22" s="165"/>
@@ -23944,11 +23939,11 @@
       <c r="J23" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="692" t="str">
+      <c r="K23" s="683" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="692"/>
+      <c r="L23" s="683"/>
       <c r="M23" s="201"/>
       <c r="N23" s="155"/>
       <c r="O23" s="165"/>
@@ -24013,19 +24008,19 @@
       <c r="E24" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="692" t="str">
+      <c r="F24" s="683" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="692"/>
+      <c r="G24" s="683"/>
       <c r="H24" s="155"/>
       <c r="I24" s="155"/>
       <c r="J24" s="155"/>
-      <c r="K24" s="692" t="str">
+      <c r="K24" s="683" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="692"/>
+      <c r="L24" s="683"/>
       <c r="M24" s="201"/>
       <c r="N24" s="155"/>
       <c r="O24" s="165"/>
@@ -24092,19 +24087,19 @@
       <c r="E25" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="692" t="str">
+      <c r="F25" s="683" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="692"/>
+      <c r="G25" s="683"/>
       <c r="H25" s="155"/>
       <c r="I25" s="155"/>
       <c r="J25" s="216"/>
-      <c r="K25" s="692" t="str">
+      <c r="K25" s="683" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="692"/>
+      <c r="L25" s="683"/>
       <c r="M25" s="201"/>
       <c r="N25" s="155"/>
       <c r="O25" s="165"/>
@@ -24172,11 +24167,11 @@
       <c r="E26" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="692" t="str">
+      <c r="F26" s="683" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="692"/>
+      <c r="G26" s="683"/>
       <c r="H26" s="155"/>
       <c r="I26" s="208" t="s">
         <v>32</v>
@@ -24258,11 +24253,11 @@
       <c r="J27" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="692" t="str">
+      <c r="K27" s="683" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="692"/>
+      <c r="L27" s="683"/>
       <c r="M27" s="201"/>
       <c r="N27" s="155"/>
       <c r="O27" s="165"/>
@@ -24323,21 +24318,21 @@
       <c r="E28" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="692" t="str">
+      <c r="F28" s="683" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="692"/>
+      <c r="G28" s="683"/>
       <c r="H28" s="155"/>
       <c r="I28" s="216"/>
       <c r="J28" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="692" t="str">
+      <c r="K28" s="683" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="692"/>
+      <c r="L28" s="683"/>
       <c r="M28" s="201"/>
       <c r="N28" s="155"/>
       <c r="O28" s="165"/>
@@ -24404,11 +24399,11 @@
       <c r="E29" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="692" t="str">
+      <c r="F29" s="683" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="692"/>
+      <c r="G29" s="683"/>
       <c r="H29" s="155"/>
       <c r="I29" s="208" t="s">
         <v>36</v>
@@ -24416,11 +24411,11 @@
       <c r="J29" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="692" t="str">
+      <c r="K29" s="683" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="692"/>
+      <c r="L29" s="683"/>
       <c r="M29" s="201"/>
       <c r="N29" s="155"/>
       <c r="O29" s="165"/>
@@ -24490,21 +24485,21 @@
       <c r="E30" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="692" t="str">
+      <c r="F30" s="683" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="692"/>
+      <c r="G30" s="683"/>
       <c r="H30" s="155"/>
       <c r="I30" s="155"/>
       <c r="J30" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="692" t="str">
+      <c r="K30" s="683" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="692"/>
+      <c r="L30" s="683"/>
       <c r="M30" s="201"/>
       <c r="N30" s="155"/>
       <c r="O30" s="165"/>
@@ -24844,21 +24839,21 @@
       <c r="C35" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="689" t="s">
+      <c r="D35" s="686" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="689"/>
-      <c r="F35" s="689"/>
-      <c r="G35" s="690" t="s">
+      <c r="E35" s="686"/>
+      <c r="F35" s="686"/>
+      <c r="G35" s="687" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="690"/>
-      <c r="I35" s="690"/>
-      <c r="J35" s="689" t="s">
+      <c r="H35" s="687"/>
+      <c r="I35" s="687"/>
+      <c r="J35" s="686" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="689"/>
-      <c r="L35" s="689"/>
+      <c r="K35" s="686"/>
+      <c r="L35" s="686"/>
       <c r="M35" s="201"/>
       <c r="N35" s="155"/>
       <c r="O35" s="222"/>
@@ -24918,15 +24913,15 @@
       <c r="C36" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="689"/>
-      <c r="E36" s="689"/>
-      <c r="F36" s="689"/>
-      <c r="G36" s="690"/>
-      <c r="H36" s="690"/>
-      <c r="I36" s="690"/>
-      <c r="J36" s="689"/>
-      <c r="K36" s="689"/>
-      <c r="L36" s="689"/>
+      <c r="D36" s="686"/>
+      <c r="E36" s="686"/>
+      <c r="F36" s="686"/>
+      <c r="G36" s="687"/>
+      <c r="H36" s="687"/>
+      <c r="I36" s="687"/>
+      <c r="J36" s="686"/>
+      <c r="K36" s="686"/>
+      <c r="L36" s="686"/>
       <c r="M36" s="201"/>
       <c r="N36" s="155"/>
       <c r="O36" s="155"/>
@@ -25592,10 +25587,10 @@
       <c r="I44" s="155"/>
       <c r="J44" s="155"/>
       <c r="K44" s="155"/>
-      <c r="L44" s="691" t="s">
+      <c r="L44" s="688" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="691"/>
+      <c r="M44" s="688"/>
       <c r="N44" s="155"/>
       <c r="O44" s="165"/>
       <c r="P44" s="155"/>
@@ -28690,21 +28685,21 @@
       <c r="O97" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="P97" s="689" t="s">
+      <c r="P97" s="686" t="s">
         <v>42</v>
       </c>
-      <c r="Q97" s="689"/>
-      <c r="R97" s="689"/>
-      <c r="S97" s="690" t="s">
+      <c r="Q97" s="686"/>
+      <c r="R97" s="686"/>
+      <c r="S97" s="687" t="s">
         <v>43</v>
       </c>
-      <c r="T97" s="690"/>
-      <c r="U97" s="690"/>
-      <c r="V97" s="689" t="s">
+      <c r="T97" s="687"/>
+      <c r="U97" s="687"/>
+      <c r="V97" s="686" t="s">
         <v>44</v>
       </c>
-      <c r="W97" s="689"/>
-      <c r="X97" s="689"/>
+      <c r="W97" s="686"/>
+      <c r="X97" s="686"/>
       <c r="Y97" s="167"/>
       <c r="AA97" s="261"/>
       <c r="AB97" s="261"/>
@@ -28739,15 +28734,15 @@
       <c r="O98" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="P98" s="689"/>
-      <c r="Q98" s="689"/>
-      <c r="R98" s="689"/>
-      <c r="S98" s="690"/>
-      <c r="T98" s="690"/>
-      <c r="U98" s="690"/>
-      <c r="V98" s="689"/>
-      <c r="W98" s="689"/>
-      <c r="X98" s="689"/>
+      <c r="P98" s="686"/>
+      <c r="Q98" s="686"/>
+      <c r="R98" s="686"/>
+      <c r="S98" s="687"/>
+      <c r="T98" s="687"/>
+      <c r="U98" s="687"/>
+      <c r="V98" s="686"/>
+      <c r="W98" s="686"/>
+      <c r="X98" s="686"/>
       <c r="Y98" s="167"/>
       <c r="AA98" s="208" t="s">
         <v>394</v>
@@ -29202,21 +29197,21 @@
       <c r="O105" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="P105" s="689" t="s">
+      <c r="P105" s="686" t="s">
         <v>42</v>
       </c>
-      <c r="Q105" s="689"/>
-      <c r="R105" s="689"/>
-      <c r="S105" s="690" t="s">
+      <c r="Q105" s="686"/>
+      <c r="R105" s="686"/>
+      <c r="S105" s="687" t="s">
         <v>43</v>
       </c>
-      <c r="T105" s="690"/>
-      <c r="U105" s="690"/>
-      <c r="V105" s="689" t="s">
+      <c r="T105" s="687"/>
+      <c r="U105" s="687"/>
+      <c r="V105" s="686" t="s">
         <v>44</v>
       </c>
-      <c r="W105" s="689"/>
-      <c r="X105" s="689"/>
+      <c r="W105" s="686"/>
+      <c r="X105" s="686"/>
       <c r="Y105" s="167"/>
       <c r="AA105" s="171" t="s">
         <v>274</v>
@@ -29251,15 +29246,15 @@
       <c r="O106" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="P106" s="689"/>
-      <c r="Q106" s="689"/>
-      <c r="R106" s="689"/>
-      <c r="S106" s="690"/>
-      <c r="T106" s="690"/>
-      <c r="U106" s="690"/>
-      <c r="V106" s="689"/>
-      <c r="W106" s="689"/>
-      <c r="X106" s="689"/>
+      <c r="P106" s="686"/>
+      <c r="Q106" s="686"/>
+      <c r="R106" s="686"/>
+      <c r="S106" s="687"/>
+      <c r="T106" s="687"/>
+      <c r="U106" s="687"/>
+      <c r="V106" s="686"/>
+      <c r="W106" s="686"/>
+      <c r="X106" s="686"/>
       <c r="Y106" s="167"/>
       <c r="AA106" s="171" t="s">
         <v>277</v>
@@ -30547,7 +30542,7 @@
       </c>
       <c r="P135" s="155"/>
       <c r="Q135" s="208" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R135" s="155"/>
       <c r="S135" s="155"/>
@@ -30955,7 +30950,7 @@
       <c r="M144" s="201"/>
       <c r="N144" s="155"/>
       <c r="O144" s="287" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P144" s="155"/>
       <c r="Q144" s="155"/>
@@ -31188,7 +31183,7 @@
       <c r="N148" s="155"/>
       <c r="O148" s="302"/>
       <c r="P148" s="303" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q148" s="286"/>
       <c r="R148" s="286"/>
@@ -31230,7 +31225,7 @@
       <c r="N149" s="155"/>
       <c r="O149" s="302"/>
       <c r="P149" s="303" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Q149" s="286"/>
       <c r="R149" s="286"/>
@@ -31272,7 +31267,7 @@
       <c r="N150" s="155"/>
       <c r="O150" s="302"/>
       <c r="P150" s="303" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Q150" s="286"/>
       <c r="R150" s="286"/>
@@ -31282,7 +31277,7 @@
       <c r="V150" s="286"/>
       <c r="Y150" s="167"/>
       <c r="AA150" s="159" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="151" spans="1:32">
@@ -31317,7 +31312,7 @@
       <c r="N151" s="155"/>
       <c r="O151" s="302"/>
       <c r="P151" s="303" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="Q151" s="286"/>
       <c r="R151" s="286"/>
@@ -31382,7 +31377,7 @@
       <c r="N152" s="155"/>
       <c r="O152" s="302"/>
       <c r="P152" s="303" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Q152" s="286"/>
       <c r="R152" s="286"/>
@@ -31392,7 +31387,7 @@
       <c r="V152" s="286"/>
       <c r="Y152" s="167"/>
       <c r="Z152" s="303" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AA152" s="306" t="str">
         <f t="shared" ref="AA152:AF152" si="24">IF(OR(Q148="",Q$153=""),"",ABS(Q148-Q$153)/Q$153)</f>
@@ -31448,33 +31443,33 @@
       <c r="P153" s="303" t="s">
         <v>251</v>
       </c>
-      <c r="Q153" s="704" t="str">
+      <c r="Q153" s="608" t="str">
         <f>IF(Q148="","",AVERAGE(Q148:Q152))</f>
         <v/>
       </c>
-      <c r="R153" s="704" t="str">
+      <c r="R153" s="608" t="str">
         <f t="shared" ref="R153:V153" si="25">IF(R148="","",AVERAGE(R148:R152))</f>
         <v/>
       </c>
-      <c r="S153" s="704" t="str">
+      <c r="S153" s="608" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="T153" s="704" t="str">
+      <c r="T153" s="608" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="U153" s="704" t="str">
+      <c r="U153" s="608" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="V153" s="704" t="str">
+      <c r="V153" s="608" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y153" s="167"/>
       <c r="Z153" s="303" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AA153" s="306" t="str">
         <f t="shared" ref="AA153:AA156" si="26">IF(OR(Q149="",Q$153=""),"",ABS(Q149-Q$153)/Q$153)</f>
@@ -31528,7 +31523,7 @@
       <c r="N154" s="155"/>
       <c r="O154" s="302"/>
       <c r="P154" s="303" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="Q154" s="310" t="str">
         <f>IF(AA152="","",MAX(AA152:AA156))</f>
@@ -31556,7 +31551,7 @@
       </c>
       <c r="Y154" s="167"/>
       <c r="Z154" s="303" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AA154" s="306" t="str">
         <f t="shared" si="26"/>
@@ -31638,7 +31633,7 @@
       </c>
       <c r="Y155" s="167"/>
       <c r="Z155" s="303" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AA155" s="306" t="str">
         <f t="shared" si="26"/>
@@ -31685,7 +31680,7 @@
       <c r="O156" s="302"/>
       <c r="Y156" s="167"/>
       <c r="Z156" s="303" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AA156" s="306" t="str">
         <f t="shared" si="26"/>
@@ -31736,7 +31731,7 @@
         <v>163</v>
       </c>
       <c r="Q157" s="314" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Y157" s="167"/>
     </row>
@@ -32112,7 +32107,7 @@
       <c r="B166" s="199"/>
       <c r="C166" s="155"/>
       <c r="D166" s="171" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E166" s="321" t="str">
         <f>Q154</f>
@@ -32196,17 +32191,17 @@
       <c r="M167" s="164"/>
       <c r="N167" s="155"/>
       <c r="O167" s="165"/>
-      <c r="P167" s="681" t="s">
+      <c r="P167" s="689" t="s">
         <v>187</v>
       </c>
-      <c r="Q167" s="681"/>
-      <c r="R167" s="681"/>
-      <c r="S167" s="681"/>
+      <c r="Q167" s="689"/>
+      <c r="R167" s="689"/>
+      <c r="S167" s="689"/>
       <c r="T167" s="326"/>
-      <c r="U167" s="681" t="s">
+      <c r="U167" s="689" t="s">
         <v>188</v>
       </c>
-      <c r="V167" s="681"/>
+      <c r="V167" s="689"/>
       <c r="W167" s="155"/>
       <c r="X167" s="155"/>
       <c r="Y167" s="167"/>
@@ -32246,10 +32241,10 @@
         <v>192</v>
       </c>
       <c r="T168" s="326"/>
-      <c r="U168" s="686" t="s">
+      <c r="U168" s="690" t="s">
         <v>193</v>
       </c>
-      <c r="V168" s="686"/>
+      <c r="V168" s="690"/>
       <c r="W168" s="155"/>
       <c r="X168" s="155"/>
       <c r="Y168" s="167"/>
@@ -32261,7 +32256,7 @@
       <c r="B169" s="199"/>
       <c r="C169" s="155"/>
       <c r="E169" s="314" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F169" s="325"/>
       <c r="G169" s="325"/>
@@ -32278,11 +32273,11 @@
       <c r="R169" s="329"/>
       <c r="S169" s="330"/>
       <c r="T169" s="326"/>
-      <c r="U169" s="687" t="str">
+      <c r="U169" s="691" t="str">
         <f>IF(OR(R166=2,R166=3),"NA",IF(OR(P169="",Q169="",R169="",S169=""),"",AVERAGE(P169:S169)))</f>
         <v/>
       </c>
-      <c r="V169" s="687"/>
+      <c r="V169" s="691"/>
       <c r="W169" s="155"/>
       <c r="X169" s="171" t="s">
         <v>180</v>
@@ -32360,17 +32355,17 @@
       </c>
       <c r="B172" s="199"/>
       <c r="C172" s="155"/>
-      <c r="D172" s="681" t="s">
+      <c r="D172" s="689" t="s">
         <v>187</v>
       </c>
-      <c r="E172" s="681"/>
-      <c r="F172" s="681"/>
-      <c r="G172" s="681"/>
+      <c r="E172" s="689"/>
+      <c r="F172" s="689"/>
+      <c r="G172" s="689"/>
       <c r="H172" s="326"/>
-      <c r="I172" s="681" t="s">
+      <c r="I172" s="689" t="s">
         <v>188</v>
       </c>
-      <c r="J172" s="681"/>
+      <c r="J172" s="689"/>
       <c r="K172" s="155"/>
       <c r="L172" s="155"/>
       <c r="M172" s="201"/>
@@ -32411,27 +32406,27 @@
         <v>192</v>
       </c>
       <c r="H173" s="326"/>
-      <c r="I173" s="686" t="s">
+      <c r="I173" s="690" t="s">
         <v>193</v>
       </c>
-      <c r="J173" s="686"/>
+      <c r="J173" s="690"/>
       <c r="K173" s="155"/>
       <c r="L173" s="155"/>
       <c r="M173" s="201"/>
       <c r="N173" s="155"/>
       <c r="O173" s="165"/>
-      <c r="P173" s="683" t="s">
+      <c r="P173" s="692" t="s">
         <v>196</v>
       </c>
-      <c r="Q173" s="684" t="s">
+      <c r="Q173" s="679" t="s">
         <v>197</v>
       </c>
-      <c r="R173" s="684"/>
-      <c r="S173" s="684"/>
+      <c r="R173" s="679"/>
+      <c r="S173" s="679"/>
       <c r="T173" s="333" t="s">
-        <v>711</v>
-      </c>
-      <c r="U173" s="688" t="s">
+        <v>710</v>
+      </c>
+      <c r="U173" s="682" t="s">
         <v>198</v>
       </c>
       <c r="V173" s="245"/>
@@ -32462,11 +32457,11 @@
         <v/>
       </c>
       <c r="H174" s="326"/>
-      <c r="I174" s="682" t="str">
+      <c r="I174" s="695" t="str">
         <f>IF(U169="","",U169)</f>
         <v/>
       </c>
-      <c r="J174" s="682"/>
+      <c r="J174" s="695"/>
       <c r="K174" s="155"/>
       <c r="L174" s="171" t="s">
         <v>180</v>
@@ -32477,7 +32472,7 @@
       </c>
       <c r="N174" s="155"/>
       <c r="O174" s="165"/>
-      <c r="P174" s="683" t="s">
+      <c r="P174" s="692" t="s">
         <v>196</v>
       </c>
       <c r="Q174" s="333" t="s">
@@ -32492,7 +32487,7 @@
       <c r="T174" s="333" t="s">
         <v>202</v>
       </c>
-      <c r="U174" s="688" t="s">
+      <c r="U174" s="682" t="s">
         <v>196</v>
       </c>
       <c r="V174" s="245"/>
@@ -32643,14 +32638,14 @@
         <f>IF(P172="","",P172)</f>
         <v>65</v>
       </c>
-      <c r="D179" s="677" t="s">
+      <c r="D179" s="696" t="s">
         <v>219</v>
       </c>
-      <c r="E179" s="677"/>
-      <c r="F179" s="677"/>
-      <c r="G179" s="677"/>
-      <c r="H179" s="677"/>
-      <c r="I179" s="677"/>
+      <c r="E179" s="696"/>
+      <c r="F179" s="696"/>
+      <c r="G179" s="696"/>
+      <c r="H179" s="696"/>
+      <c r="I179" s="696"/>
       <c r="J179" s="245"/>
       <c r="K179" s="245"/>
       <c r="L179" s="245"/>
@@ -32676,18 +32671,18 @@
       </c>
       <c r="B180" s="199"/>
       <c r="C180" s="216"/>
-      <c r="D180" s="683" t="s">
+      <c r="D180" s="692" t="s">
         <v>196</v>
       </c>
-      <c r="E180" s="684" t="s">
+      <c r="E180" s="679" t="s">
         <v>197</v>
       </c>
-      <c r="F180" s="684"/>
-      <c r="G180" s="684"/>
+      <c r="F180" s="679"/>
+      <c r="G180" s="679"/>
       <c r="H180" s="333" t="s">
-        <v>711</v>
-      </c>
-      <c r="I180" s="685" t="s">
+        <v>710</v>
+      </c>
+      <c r="I180" s="697" t="s">
         <v>198</v>
       </c>
       <c r="J180" s="245"/>
@@ -32713,7 +32708,7 @@
       </c>
       <c r="B181" s="199"/>
       <c r="C181" s="216"/>
-      <c r="D181" s="683" t="s">
+      <c r="D181" s="692" t="s">
         <v>196</v>
       </c>
       <c r="E181" s="333" t="s">
@@ -32728,7 +32723,7 @@
       <c r="H181" s="333" t="s">
         <v>202</v>
       </c>
-      <c r="I181" s="685" t="s">
+      <c r="I181" s="697" t="s">
         <v>202</v>
       </c>
       <c r="J181" s="245"/>
@@ -32737,14 +32732,14 @@
       <c r="M181" s="201"/>
       <c r="N181" s="155"/>
       <c r="O181" s="352"/>
-      <c r="P181" s="697" t="s">
+      <c r="P181" s="677" t="s">
         <v>209</v>
       </c>
-      <c r="Q181" s="698"/>
-      <c r="R181" s="698"/>
-      <c r="S181" s="698"/>
-      <c r="T181" s="698"/>
-      <c r="U181" s="684"/>
+      <c r="Q181" s="678"/>
+      <c r="R181" s="678"/>
+      <c r="S181" s="678"/>
+      <c r="T181" s="678"/>
+      <c r="U181" s="679"/>
       <c r="V181" s="245"/>
       <c r="W181" s="245"/>
       <c r="X181" s="245"/>
@@ -32791,15 +32786,15 @@
       <c r="P182" s="357" t="s">
         <v>196</v>
       </c>
-      <c r="Q182" s="700" t="s">
+      <c r="Q182" s="681" t="s">
         <v>197</v>
       </c>
-      <c r="R182" s="698"/>
-      <c r="S182" s="684"/>
+      <c r="R182" s="678"/>
+      <c r="S182" s="679"/>
       <c r="T182" s="555" t="s">
-        <v>711</v>
-      </c>
-      <c r="U182" s="688" t="s">
+        <v>710</v>
+      </c>
+      <c r="U182" s="682" t="s">
         <v>198</v>
       </c>
       <c r="V182" s="245"/>
@@ -32860,7 +32855,7 @@
       <c r="T183" s="337" t="s">
         <v>202</v>
       </c>
-      <c r="U183" s="688" t="s">
+      <c r="U183" s="682" t="s">
         <v>196</v>
       </c>
       <c r="V183" s="245"/>
@@ -33219,14 +33214,14 @@
       </c>
       <c r="B189" s="379"/>
       <c r="C189" s="216"/>
-      <c r="D189" s="677" t="s">
+      <c r="D189" s="696" t="s">
         <v>224</v>
       </c>
-      <c r="E189" s="677"/>
-      <c r="F189" s="677"/>
-      <c r="G189" s="677"/>
-      <c r="H189" s="677"/>
-      <c r="I189" s="677"/>
+      <c r="E189" s="696"/>
+      <c r="F189" s="696"/>
+      <c r="G189" s="696"/>
+      <c r="H189" s="696"/>
+      <c r="I189" s="696"/>
       <c r="J189" s="245"/>
       <c r="K189" s="245"/>
       <c r="L189" s="245"/>
@@ -33566,9 +33561,9 @@
       <c r="R195" s="337"/>
       <c r="S195" s="337"/>
       <c r="T195" s="555" t="s">
-        <v>711</v>
-      </c>
-      <c r="U195" s="688" t="s">
+        <v>710</v>
+      </c>
+      <c r="U195" s="682" t="s">
         <v>198</v>
       </c>
       <c r="V195" s="245"/>
@@ -33613,7 +33608,7 @@
       <c r="T196" s="337" t="s">
         <v>202</v>
       </c>
-      <c r="U196" s="688" t="s">
+      <c r="U196" s="682" t="s">
         <v>196</v>
       </c>
       <c r="V196" s="245"/>
@@ -33884,14 +33879,14 @@
       </c>
       <c r="N204" s="155"/>
       <c r="O204" s="352"/>
-      <c r="P204" s="699" t="s">
+      <c r="P204" s="680" t="s">
         <v>209</v>
       </c>
-      <c r="Q204" s="699"/>
-      <c r="R204" s="699"/>
-      <c r="S204" s="699"/>
-      <c r="T204" s="699"/>
-      <c r="U204" s="699"/>
+      <c r="Q204" s="680"/>
+      <c r="R204" s="680"/>
+      <c r="S204" s="680"/>
+      <c r="T204" s="680"/>
+      <c r="U204" s="680"/>
       <c r="V204" s="245"/>
       <c r="W204" s="245"/>
       <c r="X204" s="245"/>
@@ -33921,15 +33916,15 @@
       <c r="P205" s="357" t="s">
         <v>196</v>
       </c>
-      <c r="Q205" s="700" t="s">
+      <c r="Q205" s="681" t="s">
         <v>197</v>
       </c>
-      <c r="R205" s="698"/>
-      <c r="S205" s="684"/>
+      <c r="R205" s="678"/>
+      <c r="S205" s="679"/>
       <c r="T205" s="555" t="s">
-        <v>711</v>
-      </c>
-      <c r="U205" s="688" t="s">
+        <v>710</v>
+      </c>
+      <c r="U205" s="682" t="s">
         <v>198</v>
       </c>
       <c r="V205" s="245"/>
@@ -33975,7 +33970,7 @@
       <c r="T206" s="337" t="s">
         <v>202</v>
       </c>
-      <c r="U206" s="688" t="s">
+      <c r="U206" s="682" t="s">
         <v>196</v>
       </c>
       <c r="V206" s="245"/>
@@ -34581,7 +34576,7 @@
       <c r="O217" s="165"/>
       <c r="P217" s="155"/>
       <c r="Q217" s="162" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R217" s="155"/>
       <c r="S217" s="155"/>
@@ -34736,16 +34731,16 @@
       </c>
       <c r="P221" s="155"/>
       <c r="Q221" s="170" t="s">
+        <v>641</v>
+      </c>
+      <c r="R221" s="170" t="s">
         <v>642</v>
       </c>
-      <c r="R221" s="170" t="s">
-        <v>643</v>
-      </c>
       <c r="S221" s="170" t="s">
+        <v>641</v>
+      </c>
+      <c r="T221" s="170" t="s">
         <v>642</v>
-      </c>
-      <c r="T221" s="170" t="s">
-        <v>643</v>
       </c>
       <c r="U221" s="155"/>
       <c r="V221" s="155"/>
@@ -35325,7 +35320,7 @@
         <v>234</v>
       </c>
       <c r="P233" s="396" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q233" s="155"/>
       <c r="R233" s="171" t="s">
@@ -36000,10 +35995,10 @@
       <c r="X246" s="155"/>
       <c r="Y246" s="167"/>
       <c r="Z246" s="159" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AB246" s="159" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="247" spans="1:29" ht="16.5" thickBot="1">
@@ -36092,7 +36087,7 @@
         <v>234</v>
       </c>
       <c r="P248" s="396" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Q248" s="155"/>
       <c r="R248" s="171" t="s">
@@ -36181,16 +36176,16 @@
       </c>
       <c r="D250" s="155"/>
       <c r="E250" s="170" t="s">
+        <v>641</v>
+      </c>
+      <c r="F250" s="170" t="s">
         <v>642</v>
       </c>
-      <c r="F250" s="170" t="s">
-        <v>643</v>
-      </c>
       <c r="G250" s="170" t="s">
+        <v>641</v>
+      </c>
+      <c r="H250" s="170" t="s">
         <v>642</v>
-      </c>
-      <c r="H250" s="170" t="s">
-        <v>643</v>
       </c>
       <c r="I250" s="155"/>
       <c r="J250" s="155"/>
@@ -36687,21 +36682,21 @@
       </c>
       <c r="B259" s="199"/>
       <c r="C259" s="155"/>
-      <c r="D259" s="680" t="s">
+      <c r="D259" s="694" t="s">
         <v>263</v>
       </c>
-      <c r="E259" s="680"/>
+      <c r="E259" s="694"/>
       <c r="F259" s="216"/>
-      <c r="G259" s="680" t="s">
+      <c r="G259" s="694" t="s">
         <v>264</v>
       </c>
-      <c r="H259" s="680"/>
+      <c r="H259" s="694"/>
       <c r="I259" s="155"/>
       <c r="J259" s="216"/>
-      <c r="K259" s="674" t="s">
+      <c r="K259" s="698" t="s">
         <v>265</v>
       </c>
-      <c r="L259" s="674"/>
+      <c r="L259" s="698"/>
       <c r="M259" s="246"/>
       <c r="N259" s="155"/>
       <c r="O259" s="165"/>
@@ -36995,7 +36990,7 @@
         <v>242</v>
       </c>
       <c r="U264" s="604" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="V264" s="170" t="s">
         <v>257</v>
@@ -37330,7 +37325,7 @@
         <v/>
       </c>
       <c r="V270" s="214" t="str">
-        <f t="shared" ref="V269:V272" si="67">IF(OR(U270="",$U$268=""),"",U270/$U$268)</f>
+        <f t="shared" ref="V270:V272" si="67">IF(OR(U270="",$U$268=""),"",U270/$U$268)</f>
         <v/>
       </c>
       <c r="W270" s="155"/>
@@ -37472,7 +37467,7 @@
       <c r="O273" s="165"/>
       <c r="P273" s="216"/>
       <c r="Q273" s="162" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="R273" s="216"/>
       <c r="S273" s="216"/>
@@ -37720,10 +37715,10 @@
       <c r="X279" s="155"/>
       <c r="Y279" s="167"/>
       <c r="AA279" s="159" t="s">
+        <v>711</v>
+      </c>
+      <c r="AC279" s="159" t="s">
         <v>712</v>
-      </c>
-      <c r="AC279" s="159" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="280" spans="1:32">
@@ -39073,14 +39068,14 @@
       <c r="B305" s="379"/>
       <c r="C305" s="245"/>
       <c r="D305" s="245"/>
-      <c r="E305" s="675" t="str">
+      <c r="E305" s="699" t="str">
         <f>O311&amp;" "&amp;P312&amp;" "&amp;Q312</f>
         <v xml:space="preserve">Combo Mode 2D Target/Filter: </v>
       </c>
-      <c r="F305" s="675"/>
-      <c r="G305" s="675"/>
-      <c r="H305" s="675"/>
-      <c r="I305" s="675"/>
+      <c r="F305" s="699"/>
+      <c r="G305" s="699"/>
+      <c r="H305" s="699"/>
+      <c r="I305" s="699"/>
       <c r="J305" s="245"/>
       <c r="K305" s="245"/>
       <c r="L305" s="245"/>
@@ -39579,14 +39574,14 @@
       <c r="B316" s="379"/>
       <c r="C316" s="245"/>
       <c r="D316" s="245"/>
-      <c r="E316" s="676" t="str">
+      <c r="E316" s="700" t="str">
         <f>O323&amp;" "&amp;P324&amp;" "&amp;Q324</f>
         <v xml:space="preserve">Combo Mode 3D Target/Filter: </v>
       </c>
-      <c r="F316" s="676"/>
-      <c r="G316" s="676"/>
-      <c r="H316" s="676"/>
-      <c r="I316" s="676"/>
+      <c r="F316" s="700"/>
+      <c r="G316" s="700"/>
+      <c r="H316" s="700"/>
+      <c r="I316" s="700"/>
       <c r="J316" s="245"/>
       <c r="K316" s="245"/>
       <c r="L316" s="245"/>
@@ -40684,10 +40679,8 @@
       <c r="S338" s="171" t="s">
         <v>305</v>
       </c>
-      <c r="T338" s="695">
-        <v>43014</v>
-      </c>
-      <c r="U338" s="695"/>
+      <c r="T338" s="675"/>
+      <c r="U338" s="675"/>
       <c r="V338" s="155"/>
       <c r="W338" s="155"/>
       <c r="X338" s="155"/>
@@ -40723,18 +40716,14 @@
       <c r="O339" s="165" t="s">
         <v>306</v>
       </c>
-      <c r="P339" s="473" t="s">
-        <v>583</v>
-      </c>
+      <c r="P339" s="473"/>
       <c r="Q339" s="155"/>
       <c r="R339" s="245"/>
       <c r="S339" s="171" t="s">
         <v>307</v>
       </c>
-      <c r="T339" s="696">
-        <v>43744</v>
-      </c>
-      <c r="U339" s="696"/>
+      <c r="T339" s="676"/>
+      <c r="U339" s="676"/>
       <c r="V339" s="155"/>
       <c r="W339" s="155"/>
       <c r="X339" s="155"/>
@@ -40883,11 +40872,11 @@
       <c r="H343" s="474" t="s">
         <v>305</v>
       </c>
-      <c r="I343" s="678">
+      <c r="I343" s="701" t="str">
         <f>IF(T338="","",T338)</f>
-        <v>43014</v>
-      </c>
-      <c r="J343" s="678"/>
+        <v/>
+      </c>
+      <c r="J343" s="701"/>
       <c r="K343" s="191"/>
       <c r="L343" s="191"/>
       <c r="M343" s="193"/>
@@ -40941,7 +40930,7 @@
       </c>
       <c r="D344" s="440" t="str">
         <f>IF(P339="","",P339)</f>
-        <v>CB2-17090320</v>
+        <v/>
       </c>
       <c r="E344" s="216"/>
       <c r="F344" s="216"/>
@@ -40949,11 +40938,11 @@
       <c r="H344" s="323" t="s">
         <v>307</v>
       </c>
-      <c r="I344" s="679">
+      <c r="I344" s="693" t="str">
         <f>IF(T339="","",T339)</f>
-        <v>43744</v>
-      </c>
-      <c r="J344" s="679"/>
+        <v/>
+      </c>
+      <c r="J344" s="693"/>
       <c r="K344" s="216"/>
       <c r="L344" s="155"/>
       <c r="M344" s="201"/>
@@ -47243,27 +47232,45 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="T338:U338"/>
-    <mergeCell ref="T339:U339"/>
-    <mergeCell ref="P181:U181"/>
-    <mergeCell ref="P204:U204"/>
-    <mergeCell ref="Q205:S205"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:U183"/>
-    <mergeCell ref="U195:U196"/>
-    <mergeCell ref="U205:U206"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="E305:I305"/>
+    <mergeCell ref="E316:I316"/>
+    <mergeCell ref="D189:I189"/>
+    <mergeCell ref="I343:J343"/>
+    <mergeCell ref="I344:J344"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="D172:G172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="D179:I179"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:G180"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="U168:V168"/>
+    <mergeCell ref="U169:V169"/>
+    <mergeCell ref="P173:P174"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="U173:U174"/>
+    <mergeCell ref="V97:X98"/>
+    <mergeCell ref="P105:R106"/>
+    <mergeCell ref="S105:U106"/>
+    <mergeCell ref="V105:X106"/>
+    <mergeCell ref="P167:S167"/>
+    <mergeCell ref="U167:V167"/>
+    <mergeCell ref="S97:U98"/>
+    <mergeCell ref="D35:F36"/>
+    <mergeCell ref="G35:I36"/>
+    <mergeCell ref="J35:L36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P97:R98"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="K18:L18"/>
@@ -47277,45 +47284,27 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F36"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="J35:L36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P97:R98"/>
-    <mergeCell ref="V97:X98"/>
-    <mergeCell ref="P105:R106"/>
-    <mergeCell ref="S105:U106"/>
-    <mergeCell ref="V105:X106"/>
-    <mergeCell ref="P167:S167"/>
-    <mergeCell ref="U167:V167"/>
-    <mergeCell ref="S97:U98"/>
-    <mergeCell ref="U168:V168"/>
-    <mergeCell ref="U169:V169"/>
-    <mergeCell ref="P173:P174"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="U173:U174"/>
-    <mergeCell ref="I344:J344"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="D172:G172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="D179:I179"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:G180"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K259:L259"/>
-    <mergeCell ref="E305:I305"/>
-    <mergeCell ref="E316:I316"/>
-    <mergeCell ref="D189:I189"/>
-    <mergeCell ref="I343:J343"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="T338:U338"/>
+    <mergeCell ref="T339:U339"/>
+    <mergeCell ref="P181:U181"/>
+    <mergeCell ref="P204:U204"/>
+    <mergeCell ref="Q205:S205"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:U183"/>
+    <mergeCell ref="U195:U196"/>
+    <mergeCell ref="U205:U206"/>
   </mergeCells>
   <conditionalFormatting sqref="P188:U189">
     <cfRule type="cellIs" dxfId="123" priority="126" operator="lessThan">
@@ -47866,49 +47855,49 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
+        <v>585</v>
+      </c>
+      <c r="K1" t="s">
         <v>586</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>587</v>
       </c>
-      <c r="U1" t="s">
-        <v>588</v>
-      </c>
     </row>
     <row r="2" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B2" s="703" t="s">
+      <c r="B2" s="704" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="703"/>
-      <c r="D2" s="703"/>
-      <c r="E2" s="703"/>
-      <c r="F2" s="703"/>
-      <c r="G2" s="703"/>
-      <c r="H2" s="703"/>
-      <c r="I2" s="703"/>
-      <c r="J2" s="703"/>
-      <c r="L2" s="703" t="s">
+      <c r="C2" s="704"/>
+      <c r="D2" s="704"/>
+      <c r="E2" s="704"/>
+      <c r="F2" s="704"/>
+      <c r="G2" s="704"/>
+      <c r="H2" s="704"/>
+      <c r="I2" s="704"/>
+      <c r="J2" s="704"/>
+      <c r="L2" s="704" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="703"/>
-      <c r="N2" s="703"/>
-      <c r="O2" s="703"/>
-      <c r="P2" s="703"/>
-      <c r="Q2" s="703"/>
-      <c r="R2" s="703"/>
-      <c r="S2" s="703"/>
-      <c r="T2" s="703"/>
-      <c r="V2" s="703" t="s">
+      <c r="M2" s="704"/>
+      <c r="N2" s="704"/>
+      <c r="O2" s="704"/>
+      <c r="P2" s="704"/>
+      <c r="Q2" s="704"/>
+      <c r="R2" s="704"/>
+      <c r="S2" s="704"/>
+      <c r="T2" s="704"/>
+      <c r="V2" s="704" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="703"/>
-      <c r="X2" s="703"/>
-      <c r="Y2" s="703"/>
-      <c r="Z2" s="703"/>
-      <c r="AA2" s="703"/>
-      <c r="AB2" s="703"/>
-      <c r="AC2" s="703"/>
-      <c r="AD2" s="703"/>
+      <c r="W2" s="704"/>
+      <c r="X2" s="704"/>
+      <c r="Y2" s="704"/>
+      <c r="Z2" s="704"/>
+      <c r="AA2" s="704"/>
+      <c r="AB2" s="704"/>
+      <c r="AC2" s="704"/>
+      <c r="AD2" s="704"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" thickTop="1">
       <c r="A3" s="15" t="s">
@@ -49361,44 +49350,44 @@
     <row r="24" spans="1:30" ht="16.5" thickTop="1"/>
     <row r="25" spans="1:30" ht="16.5" thickBot="1">
       <c r="A25" t="s">
+        <v>588</v>
+      </c>
+      <c r="N25" t="s">
         <v>589</v>
-      </c>
-      <c r="N25" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="16.5" thickTop="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="701" t="s">
+      <c r="B26" s="702" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="701"/>
-      <c r="D26" s="701"/>
-      <c r="E26" s="701"/>
-      <c r="F26" s="701"/>
-      <c r="G26" s="701"/>
-      <c r="H26" s="701"/>
-      <c r="I26" s="701"/>
-      <c r="J26" s="701"/>
-      <c r="K26" s="701"/>
-      <c r="L26" s="701"/>
-      <c r="M26" s="702"/>
+      <c r="C26" s="702"/>
+      <c r="D26" s="702"/>
+      <c r="E26" s="702"/>
+      <c r="F26" s="702"/>
+      <c r="G26" s="702"/>
+      <c r="H26" s="702"/>
+      <c r="I26" s="702"/>
+      <c r="J26" s="702"/>
+      <c r="K26" s="702"/>
+      <c r="L26" s="702"/>
+      <c r="M26" s="703"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="701" t="s">
+      <c r="O26" s="702" t="s">
         <v>49</v>
       </c>
-      <c r="P26" s="701"/>
-      <c r="Q26" s="701"/>
-      <c r="R26" s="701"/>
-      <c r="S26" s="701"/>
-      <c r="T26" s="701"/>
-      <c r="U26" s="701"/>
-      <c r="V26" s="701"/>
-      <c r="W26" s="701"/>
-      <c r="X26" s="701"/>
-      <c r="Y26" s="701"/>
-      <c r="Z26" s="701"/>
-      <c r="AA26" s="702"/>
+      <c r="P26" s="702"/>
+      <c r="Q26" s="702"/>
+      <c r="R26" s="702"/>
+      <c r="S26" s="702"/>
+      <c r="T26" s="702"/>
+      <c r="U26" s="702"/>
+      <c r="V26" s="702"/>
+      <c r="W26" s="702"/>
+      <c r="X26" s="702"/>
+      <c r="Y26" s="702"/>
+      <c r="Z26" s="702"/>
+      <c r="AA26" s="703"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="18" t="s">
@@ -51229,38 +51218,38 @@
     <row r="49" spans="1:26" ht="16.5" thickTop="1"/>
     <row r="50" spans="1:26" ht="16.5" thickBot="1">
       <c r="A50" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="16.5" thickTop="1">
       <c r="A51" s="15"/>
-      <c r="B51" s="701" t="s">
+      <c r="B51" s="702" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="701"/>
-      <c r="D51" s="701"/>
-      <c r="E51" s="701"/>
-      <c r="F51" s="701"/>
-      <c r="G51" s="701"/>
-      <c r="H51" s="701"/>
-      <c r="I51" s="701"/>
-      <c r="J51" s="701"/>
-      <c r="K51" s="701"/>
-      <c r="L51" s="701"/>
-      <c r="M51" s="701"/>
-      <c r="N51" s="701"/>
-      <c r="O51" s="701"/>
-      <c r="P51" s="701"/>
-      <c r="Q51" s="701"/>
-      <c r="R51" s="701"/>
-      <c r="S51" s="701"/>
-      <c r="T51" s="701"/>
-      <c r="U51" s="701"/>
-      <c r="V51" s="701"/>
-      <c r="W51" s="701"/>
-      <c r="X51" s="701"/>
-      <c r="Y51" s="701"/>
-      <c r="Z51" s="702"/>
+      <c r="C51" s="702"/>
+      <c r="D51" s="702"/>
+      <c r="E51" s="702"/>
+      <c r="F51" s="702"/>
+      <c r="G51" s="702"/>
+      <c r="H51" s="702"/>
+      <c r="I51" s="702"/>
+      <c r="J51" s="702"/>
+      <c r="K51" s="702"/>
+      <c r="L51" s="702"/>
+      <c r="M51" s="702"/>
+      <c r="N51" s="702"/>
+      <c r="O51" s="702"/>
+      <c r="P51" s="702"/>
+      <c r="Q51" s="702"/>
+      <c r="R51" s="702"/>
+      <c r="S51" s="702"/>
+      <c r="T51" s="702"/>
+      <c r="U51" s="702"/>
+      <c r="V51" s="702"/>
+      <c r="W51" s="702"/>
+      <c r="X51" s="702"/>
+      <c r="Y51" s="702"/>
+      <c r="Z51" s="703"/>
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="18" t="s">
@@ -52705,13 +52694,13 @@
     <row r="70" spans="1:26" ht="16.5" thickTop="1"/>
     <row r="71" spans="1:26">
       <c r="A71" t="s">
+        <v>591</v>
+      </c>
+      <c r="C71" t="s">
         <v>592</v>
       </c>
-      <c r="C71" t="s">
+      <c r="T71" t="s">
         <v>593</v>
-      </c>
-      <c r="T71" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="72" spans="1:26">
@@ -52722,7 +52711,7 @@
         <v>240</v>
       </c>
       <c r="C72" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D72" t="s">
         <v>311</v>
@@ -52737,7 +52726,7 @@
         <v>240</v>
       </c>
       <c r="I72" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J72" t="s">
         <v>311</v>
@@ -52752,7 +52741,7 @@
         <v>240</v>
       </c>
       <c r="O72" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P72" t="s">
         <v>311</v>
@@ -52761,10 +52750,10 @@
         <v>312</v>
       </c>
       <c r="U72" t="s">
+        <v>595</v>
+      </c>
+      <c r="W72" t="s">
         <v>596</v>
-      </c>
-      <c r="W72" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="73" spans="1:26">
@@ -52829,19 +52818,19 @@
         <v>158</v>
       </c>
       <c r="U73" t="s">
+        <v>598</v>
+      </c>
+      <c r="V73" t="s">
         <v>599</v>
       </c>
-      <c r="V73" t="s">
+      <c r="W73" t="s">
+        <v>598</v>
+      </c>
+      <c r="X73" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y73" t="s">
         <v>600</v>
-      </c>
-      <c r="W73" t="s">
-        <v>599</v>
-      </c>
-      <c r="X73" t="s">
-        <v>600</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="74" spans="1:26">
@@ -52900,22 +52889,22 @@
         <v/>
       </c>
       <c r="T74" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U74" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V74" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W74" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X74" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y74" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="75" spans="1:26">
@@ -52977,22 +52966,22 @@
         <v/>
       </c>
       <c r="T75" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U75" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V75" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W75" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X75" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y75" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="76" spans="1:26">
@@ -53042,22 +53031,22 @@
         <v/>
       </c>
       <c r="T76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="77" spans="1:26">
@@ -53107,22 +53096,22 @@
         <v/>
       </c>
       <c r="T77" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U77" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V77" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W77" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X77" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y77" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="78" spans="1:26">
@@ -53157,7 +53146,7 @@
         <v/>
       </c>
       <c r="O78" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="P78" t="e">
         <f>SLOPE(P73:P77,O73:O77)</f>
@@ -53168,22 +53157,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T78" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U78" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V78" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W78" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X78" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y78" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="79" spans="1:26">
@@ -53203,10 +53192,10 @@
         <v/>
       </c>
       <c r="H79" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J79" t="e">
         <f>SLOPE(J73:J78,I73:I78)</f>
@@ -53217,7 +53206,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O79" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P79" t="e">
         <f>INTERCEPT(P73:P77,O73:O77)</f>
@@ -53228,22 +53217,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T79" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U79" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V79" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W79" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X79" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y79" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -53282,7 +53271,7 @@
     </row>
     <row r="82" spans="1:25">
       <c r="C82" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D82" t="e">
         <f>SLOPE(D73:D81,C73:C81)</f>
@@ -53293,7 +53282,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I82" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J82" t="e">
         <f>INTERCEPT(J73:J78,I73:I78)</f>
@@ -53304,7 +53293,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O82" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P82" t="e">
         <f>RSQ(P73:P77,O73:O77)</f>
@@ -53315,27 +53304,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T82" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U82" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V82" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W82" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X82" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y82" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="83" spans="1:25">
       <c r="C83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D83" t="e">
         <f>INTERCEPT(D73:D81,C73:C81)</f>
@@ -53346,7 +53335,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J83" t="e">
         <f>RSQ(J73:J78,I73:I78)</f>
@@ -53357,27 +53346,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="C84" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D84" t="e">
         <f>RSQ(D73:D81,C73:C81)</f>
@@ -53388,22 +53377,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T84" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U84" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V84" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W84" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X84" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y84" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -53411,22 +53400,22 @@
         <v>346</v>
       </c>
       <c r="T85" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U85" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V85" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W85" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X85" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y85" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -53458,22 +53447,22 @@
         <v>342</v>
       </c>
       <c r="T86" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U86" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V86" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W86" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X86" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y86" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -53511,22 +53500,22 @@
         <v/>
       </c>
       <c r="T87" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U87" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V87" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W87" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X87" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y87" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -53561,22 +53550,22 @@
         <v/>
       </c>
       <c r="T88" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U88" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V88" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W88" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X88" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y88" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -53614,22 +53603,22 @@
         <v/>
       </c>
       <c r="T89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -53655,22 +53644,22 @@
         <v/>
       </c>
       <c r="T90" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U90" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V90" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W90" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X90" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y90" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -53696,22 +53685,22 @@
         <v/>
       </c>
       <c r="T91" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U91" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V91" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W91" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X91" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y91" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -53766,125 +53755,125 @@
     </row>
     <row r="96" spans="1:25">
       <c r="B96" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C96" t="e">
         <f>SLOPE(C87:C95,B87:B95)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E96" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F96">
         <f>SLOPE(F87:F92,E87:E92)</f>
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I96" t="e">
         <f>SLOPE(I87:I91,H87:H91)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T96" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U96" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V96" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W96" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X96" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y96" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="97" spans="1:25">
       <c r="B97" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C97" t="e">
         <f>INTERCEPT(C87:C95,B87:B95)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E97" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F97">
         <f>INTERCEPT(F87:F92,E87:E92)</f>
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I97" t="e">
         <f>INTERCEPT(I87:I91,H87:H91)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T97" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U97" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V97" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W97" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X97" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y97" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="B98" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C98" t="e">
         <f>RSQ(C87:C95,B87:B95)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E98" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F98" t="e">
         <f>RSQ(F87:F92,E87:E92)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H98" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I98" t="e">
         <f>RSQ(I87:I91,H87:H91)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T98" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U98" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V98" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W98" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X98" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y98" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -53895,223 +53884,223 @@
         <v>239</v>
       </c>
       <c r="C99" s="146" t="s">
+        <v>604</v>
+      </c>
+      <c r="E99" t="s">
         <v>605</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>606</v>
       </c>
-      <c r="F99" t="s">
-        <v>607</v>
-      </c>
       <c r="T99" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U99" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V99" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W99" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X99" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y99" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" s="146" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B100" s="146" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C100" s="146">
         <v>0.12</v>
       </c>
       <c r="F100" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T100" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U100" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V100" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W100" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X100" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y100" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" s="146" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B101" s="146" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C101" s="146">
         <v>0.19</v>
       </c>
       <c r="F101" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T101" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U101" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V101" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W101" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X101" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y101" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" s="146" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B102" s="146" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C102" s="146">
         <v>0.22</v>
       </c>
       <c r="T102" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U102" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V102" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W102" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X102" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y102" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="103" spans="1:25">
       <c r="T103" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U103" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V103" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W103" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X103" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y103" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B104" t="e">
         <f>"DGN values (mrad/R) for "&amp;Sheet1!$T$277&amp;" kV and HVL="&amp;ROUND(Sheet1!$X$280,2)&amp;" mm Al"</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G104" s="703" t="s">
+      <c r="G104" s="704" t="s">
         <v>441</v>
       </c>
-      <c r="H104" s="703"/>
-      <c r="I104" s="703"/>
+      <c r="H104" s="704"/>
+      <c r="I104" s="704"/>
       <c r="T104" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U104" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V104" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W104" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X104" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y104" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
+        <v>612</v>
+      </c>
+      <c r="B105" t="s">
         <v>613</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>614</v>
       </c>
-      <c r="C105" t="s">
-        <v>615</v>
-      </c>
       <c r="D105" t="s">
+        <v>598</v>
+      </c>
+      <c r="E105" t="s">
         <v>599</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>600</v>
       </c>
-      <c r="F105" t="s">
-        <v>601</v>
-      </c>
       <c r="G105" t="s">
+        <v>598</v>
+      </c>
+      <c r="H105" t="s">
         <v>599</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>600</v>
       </c>
-      <c r="I105" t="s">
-        <v>601</v>
-      </c>
       <c r="T105" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U105" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V105" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W105" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X105" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y105" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="106" spans="1:25">
@@ -54152,65 +54141,65 @@
         <v>#N/A</v>
       </c>
       <c r="T106" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U106" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V106" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W106" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X106" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y106" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="107" spans="1:25">
       <c r="T107" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U107" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V107" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W107" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X107" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y107" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="T108" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U108" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V108" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W108" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X108" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y108" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="109" spans="1:25">
@@ -54218,51 +54207,51 @@
         <v>240</v>
       </c>
       <c r="D109" t="s">
+        <v>616</v>
+      </c>
+      <c r="E109" t="s">
         <v>617</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
+        <v>594</v>
+      </c>
+      <c r="G109" t="s">
         <v>618</v>
       </c>
-      <c r="F109" t="s">
-        <v>595</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>619</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>620</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>621</v>
       </c>
-      <c r="J109" t="s">
-        <v>622</v>
-      </c>
       <c r="T109" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U109" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V109" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W109" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X109" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y109" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B110" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C110">
         <v>27.585999999999999</v>
@@ -54289,27 +54278,27 @@
         <v>0</v>
       </c>
       <c r="T110" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U110" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V110" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W110" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X110" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y110" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="111" spans="1:25">
       <c r="B111" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C111">
         <v>27.585999999999999</v>
@@ -54336,22 +54325,22 @@
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U111" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V111" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W111" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X111" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y111" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="112" spans="1:25">
@@ -54359,22 +54348,22 @@
         <v>569</v>
       </c>
       <c r="T112" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U112" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V112" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W112" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X112" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y112" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -54382,22 +54371,22 @@
         <v>570</v>
       </c>
       <c r="T113" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U113" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V113" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W113" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X113" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y113" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="114" spans="1:25">
@@ -54405,51 +54394,51 @@
         <v>240</v>
       </c>
       <c r="D114" t="s">
+        <v>616</v>
+      </c>
+      <c r="E114" t="s">
         <v>617</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
+        <v>594</v>
+      </c>
+      <c r="G114" t="s">
         <v>618</v>
       </c>
-      <c r="F114" t="s">
-        <v>595</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>619</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>620</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>621</v>
       </c>
-      <c r="J114" t="s">
-        <v>622</v>
-      </c>
       <c r="T114" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U114" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V114" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W114" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X114" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y114" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B115" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C115">
         <v>30.1</v>
@@ -54476,27 +54465,27 @@
         <v>0</v>
       </c>
       <c r="T115" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U115" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V115" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W115" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X115" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y115" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="116" spans="1:25">
       <c r="B116" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C116">
         <v>30.1</v>
@@ -54523,22 +54512,22 @@
         <v>0</v>
       </c>
       <c r="T116" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U116" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V116" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W116" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X116" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y116" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="117" spans="1:25">
@@ -54546,22 +54535,22 @@
         <v>574</v>
       </c>
       <c r="T117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="118" spans="1:25">
@@ -54569,68 +54558,68 @@
         <v>575</v>
       </c>
       <c r="T118" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U118" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V118" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W118" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X118" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y118" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="119" spans="1:25">
       <c r="T119" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U119" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V119" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W119" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X119" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y119" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" t="s">
+        <v>624</v>
+      </c>
+      <c r="K120" t="s">
         <v>625</v>
       </c>
-      <c r="K120" t="s">
-        <v>626</v>
-      </c>
       <c r="T120" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U120" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V120" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W120" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X120" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y120" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -54638,51 +54627,51 @@
         <v>240</v>
       </c>
       <c r="D121" t="s">
+        <v>616</v>
+      </c>
+      <c r="E121" t="s">
         <v>617</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
+        <v>594</v>
+      </c>
+      <c r="G121" t="s">
         <v>618</v>
       </c>
-      <c r="F121" t="s">
-        <v>595</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>619</v>
       </c>
-      <c r="H121" t="s">
-        <v>620</v>
-      </c>
       <c r="K121" t="s">
+        <v>626</v>
+      </c>
+      <c r="N121" t="s">
         <v>627</v>
       </c>
-      <c r="N121" t="s">
-        <v>628</v>
-      </c>
       <c r="T121" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U121" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V121" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W121" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X121" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y121" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B122" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C122">
         <v>26.9</v>
@@ -54703,42 +54692,42 @@
         <v>240</v>
       </c>
       <c r="L122" t="s">
+        <v>628</v>
+      </c>
+      <c r="M122" t="s">
         <v>629</v>
-      </c>
-      <c r="M122" t="s">
-        <v>630</v>
       </c>
       <c r="N122" t="s">
         <v>240</v>
       </c>
       <c r="O122" t="s">
+        <v>628</v>
+      </c>
+      <c r="P122" t="s">
         <v>629</v>
       </c>
-      <c r="P122" t="s">
-        <v>630</v>
-      </c>
       <c r="T122" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U122" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V122" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W122" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X122" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y122" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="123" spans="1:25">
       <c r="B123" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C123">
         <v>26.9</v>
@@ -54777,22 +54766,22 @@
         <v>-0.2</v>
       </c>
       <c r="T123" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U123" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V123" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W123" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X123" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y123" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="1:25">
@@ -54815,45 +54804,45 @@
         <v>-0.1</v>
       </c>
       <c r="T124" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U124" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V124" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W124" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X124" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y124" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B125" t="s">
         <v>240</v>
       </c>
       <c r="D125" t="s">
+        <v>616</v>
+      </c>
+      <c r="E125" t="s">
         <v>617</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
+        <v>594</v>
+      </c>
+      <c r="G125" t="s">
         <v>618</v>
       </c>
-      <c r="F125" t="s">
-        <v>595</v>
-      </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>619</v>
-      </c>
-      <c r="H125" t="s">
-        <v>620</v>
       </c>
       <c r="K125">
         <v>24</v>
@@ -54874,27 +54863,27 @@
         <v>0</v>
       </c>
       <c r="T125" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U125" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V125" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W125" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X125" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y125" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="126" spans="1:25">
       <c r="B126" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C126">
         <v>28.7</v>
@@ -54930,27 +54919,27 @@
         <v>-0.1</v>
       </c>
       <c r="T126" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U126" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V126" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W126" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X126" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y126" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="127" spans="1:25">
       <c r="B127" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C127">
         <v>28.7</v>
@@ -54980,22 +54969,22 @@
         <v>-0.2</v>
       </c>
       <c r="T127" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U127" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V127" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W127" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X127" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y127" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="128" spans="1:25">
@@ -55018,42 +55007,42 @@
         <v>-0.2</v>
       </c>
       <c r="T128" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U128" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V128" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W128" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X128" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y128" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="129" spans="1:25">
       <c r="A129" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D129" t="s">
+        <v>616</v>
+      </c>
+      <c r="E129" t="s">
         <v>617</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
+        <v>594</v>
+      </c>
+      <c r="G129" t="s">
         <v>618</v>
       </c>
-      <c r="F129" t="s">
-        <v>595</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>619</v>
-      </c>
-      <c r="H129" t="s">
-        <v>620</v>
       </c>
       <c r="K129">
         <v>28</v>
@@ -55074,27 +55063,27 @@
         <v>-0.1</v>
       </c>
       <c r="T129" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U129" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V129" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W129" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X129" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y129" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="130" spans="1:25">
       <c r="B130" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C130">
         <v>28.7</v>
@@ -55127,27 +55116,27 @@
         <v>-0.3</v>
       </c>
       <c r="T130" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U130" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V130" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W130" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X130" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y130" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="131" spans="1:25">
       <c r="C131" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D131">
         <v>-24.875</v>
@@ -55174,27 +55163,27 @@
         <v>-0.4</v>
       </c>
       <c r="T131" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U131" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V131" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W131" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X131" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y131" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="132" spans="1:25">
       <c r="B132" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C132">
         <v>30.1</v>
@@ -55224,22 +55213,22 @@
         <v>-0.3</v>
       </c>
       <c r="T132" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U132" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V132" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W132" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X132" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y132" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="133" spans="1:25">
@@ -55262,27 +55251,27 @@
         <v>-0.3</v>
       </c>
       <c r="T133" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U133" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V133" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W133" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X133" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y133" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K134">
         <v>33</v>
@@ -55303,22 +55292,22 @@
         <v>-0.3</v>
       </c>
       <c r="T134" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U134" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V134" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W134" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X134" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y134" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="135" spans="1:25">
@@ -55344,27 +55333,27 @@
         <v>-0.3</v>
       </c>
       <c r="T135" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U135" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V135" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W135" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X135" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y135" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -55409,22 +55398,22 @@
         <v>-0.2</v>
       </c>
       <c r="T136" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U136" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V136" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W136" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X136" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y136" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="137" spans="1:25">
@@ -55474,22 +55463,22 @@
         <v>-0.2</v>
       </c>
       <c r="T137" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U137" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V137" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W137" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X137" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y137" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="138" spans="1:25">
@@ -55539,22 +55528,22 @@
         <v>-0.1</v>
       </c>
       <c r="T138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="139" spans="1:25">
@@ -55604,22 +55593,22 @@
         <v>0</v>
       </c>
       <c r="T139" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U139" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V139" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W139" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X139" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y139" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="140" spans="1:25">
@@ -55669,22 +55658,22 @@
         <v>0.3</v>
       </c>
       <c r="T140" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U140" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V140" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W140" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X140" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y140" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="141" spans="1:25">
@@ -55692,27 +55681,27 @@
         <v>502</v>
       </c>
       <c r="T141" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U141" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V141" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W141" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X141" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y141" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -55730,22 +55719,22 @@
         <v>4</v>
       </c>
       <c r="T142" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U142" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V142" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W142" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X142" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y142" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="143" spans="1:25">
@@ -55768,22 +55757,22 @@
         <v>1.5</v>
       </c>
       <c r="T143" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U143" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V143" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W143" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X143" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y143" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="144" spans="1:25">
@@ -55806,22 +55795,22 @@
         <v>1.5</v>
       </c>
       <c r="T144" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U144" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V144" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W144" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X144" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y144" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="145" spans="1:25">
@@ -55844,22 +55833,22 @@
         <v>1.55</v>
       </c>
       <c r="T145" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U145" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V145" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W145" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X145" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y145" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="146" spans="1:25">
@@ -55882,53 +55871,53 @@
         <v>1.67</v>
       </c>
       <c r="T146" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U146" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V146" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W146" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X146" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y146" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="147" spans="1:25">
       <c r="A147" t="s">
+        <v>633</v>
+      </c>
+      <c r="D147" t="s">
         <v>634</v>
       </c>
-      <c r="D147" t="s">
-        <v>635</v>
-      </c>
       <c r="T147" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U147" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V147" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W147" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X147" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y147" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="148" spans="1:25">
       <c r="A148" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -55943,22 +55932,22 @@
         <v>1</v>
       </c>
       <c r="T148" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U148" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V148" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W148" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X148" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y148" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="149" spans="1:25">
@@ -55978,22 +55967,22 @@
         <v>0.72</v>
       </c>
       <c r="T149" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U149" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V149" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W149" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X149" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y149" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="150" spans="1:25">
@@ -56013,22 +56002,22 @@
         <v>0.9</v>
       </c>
       <c r="T150" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U150" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V150" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W150" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X150" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y150" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="151" spans="1:25">
@@ -56048,22 +56037,22 @@
         <v>1.71</v>
       </c>
       <c r="T151" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U151" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V151" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W151" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X151" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y151" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="152" spans="1:25">
@@ -56083,53 +56072,53 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="T152" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U152" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V152" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W152" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X152" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y152" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="153" spans="1:25">
       <c r="A153" t="s">
+        <v>635</v>
+      </c>
+      <c r="E153" t="s">
         <v>636</v>
       </c>
-      <c r="E153" t="s">
-        <v>637</v>
-      </c>
       <c r="T153" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U153" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V153" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W153" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X153" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y153" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="154" spans="1:25">
       <c r="A154" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -56144,22 +56133,22 @@
         <v>0</v>
       </c>
       <c r="T154" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U154" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V154" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W154" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X154" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y154" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="155" spans="1:25">
@@ -56179,22 +56168,22 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="T155" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U155" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V155" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W155" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X155" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y155" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="156" spans="1:25">
@@ -56214,22 +56203,22 @@
         <v>0.91</v>
       </c>
       <c r="T156" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U156" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V156" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W156" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X156" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y156" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="157" spans="1:25">
@@ -56249,22 +56238,22 @@
         <v>1.68</v>
       </c>
       <c r="T157" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U157" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V157" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W157" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X157" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y157" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="158" spans="1:25">
@@ -56284,70 +56273,70 @@
         <v>1.93</v>
       </c>
       <c r="T158" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U158" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V158" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W158" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X158" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y158" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="159" spans="1:25">
       <c r="T159" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U159" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V159" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W159" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X159" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y159" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="160" spans="1:25">
       <c r="A160" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T160" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U160" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V160" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W160" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X160" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y160" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="161" spans="1:25">
       <c r="A161" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -56362,66 +56351,66 @@
         <v>2</v>
       </c>
       <c r="T161" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U161" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V161" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W161" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X161" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y161" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="162" spans="1:25">
       <c r="B162" t="s">
+        <v>628</v>
+      </c>
+      <c r="C162" t="s">
         <v>629</v>
       </c>
-      <c r="C162" t="s">
-        <v>630</v>
-      </c>
       <c r="D162" t="s">
+        <v>628</v>
+      </c>
+      <c r="E162" t="s">
         <v>629</v>
       </c>
-      <c r="E162" t="s">
-        <v>630</v>
-      </c>
       <c r="F162" t="s">
+        <v>628</v>
+      </c>
+      <c r="G162" t="s">
         <v>629</v>
       </c>
-      <c r="G162" t="s">
-        <v>630</v>
-      </c>
       <c r="H162" t="s">
+        <v>628</v>
+      </c>
+      <c r="I162" t="s">
         <v>629</v>
       </c>
-      <c r="I162" t="s">
-        <v>630</v>
-      </c>
       <c r="T162" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U162" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V162" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W162" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X162" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y162" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="163" spans="1:25">
@@ -56453,22 +56442,22 @@
         <v>1</v>
       </c>
       <c r="T163" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U163" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V163" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W163" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X163" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y163" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="164" spans="1:25">
@@ -56500,22 +56489,22 @@
         <v>1</v>
       </c>
       <c r="T164" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U164" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V164" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W164" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X164" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y164" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="165" spans="1:25">
@@ -56547,22 +56536,22 @@
         <v>1</v>
       </c>
       <c r="T165" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U165" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V165" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W165" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X165" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y165" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="166" spans="1:25">
@@ -56594,22 +56583,22 @@
         <v>1</v>
       </c>
       <c r="T166" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U166" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V166" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W166" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X166" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y166" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="167" spans="1:25">
@@ -56641,22 +56630,22 @@
         <v>1</v>
       </c>
       <c r="T167" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U167" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V167" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W167" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X167" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y167" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="168" spans="1:25">
@@ -56688,22 +56677,22 @@
         <v>1</v>
       </c>
       <c r="T168" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U168" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V168" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W168" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X168" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y168" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="169" spans="1:25">
@@ -56735,22 +56724,22 @@
         <v>1</v>
       </c>
       <c r="T169" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U169" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V169" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W169" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X169" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y169" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="170" spans="1:25">
@@ -56782,22 +56771,22 @@
         <v>1</v>
       </c>
       <c r="T170" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U170" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V170" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W170" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X170" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y170" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="171" spans="1:25">
@@ -56829,22 +56818,22 @@
         <v>1</v>
       </c>
       <c r="T171" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U171" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V171" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W171" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X171" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y171" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="172" spans="1:25">
@@ -56876,22 +56865,22 @@
         <v>1</v>
       </c>
       <c r="T172" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U172" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V172" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W172" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X172" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y172" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="173" spans="1:25">
@@ -56923,22 +56912,22 @@
         <v>1</v>
       </c>
       <c r="T173" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U173" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V173" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W173" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X173" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y173" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="174" spans="1:25">
@@ -56970,22 +56959,22 @@
         <v>1</v>
       </c>
       <c r="T174" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U174" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V174" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W174" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X174" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y174" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="175" spans="1:25">
@@ -57017,22 +57006,22 @@
         <v>1</v>
       </c>
       <c r="T175" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U175" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V175" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W175" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X175" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y175" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="176" spans="1:25">
@@ -57064,22 +57053,22 @@
         <v>1</v>
       </c>
       <c r="T176" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U176" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V176" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W176" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X176" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y176" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="177" spans="1:25">
@@ -57111,482 +57100,482 @@
         <v>1</v>
       </c>
       <c r="T177" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U177" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V177" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W177" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X177" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y177" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="178" spans="1:25">
       <c r="T178" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U178" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V178" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W178" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X178" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y178" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="179" spans="1:25">
       <c r="T179" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U179" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V179" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W179" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X179" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y179" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="180" spans="1:25">
       <c r="T180" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U180" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V180" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W180" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X180" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y180" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="181" spans="1:25">
       <c r="T181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y181" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="182" spans="1:25">
       <c r="T182" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U182" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V182" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W182" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X182" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y182" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="183" spans="1:25">
       <c r="T183" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U183" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V183" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W183" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X183" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y183" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="184" spans="1:25">
       <c r="T184" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U184" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V184" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W184" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X184" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y184" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="185" spans="1:25">
       <c r="T185" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U185" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V185" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W185" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X185" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y185" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="186" spans="1:25">
       <c r="T186" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U186" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V186" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W186" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X186" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y186" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="187" spans="1:25">
       <c r="T187" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U187" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V187" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W187" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X187" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y187" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="188" spans="1:25">
       <c r="T188" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U188" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V188" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W188" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X188" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y188" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="189" spans="1:25">
       <c r="T189" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U189" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V189" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W189" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X189" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y189" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="190" spans="1:25">
       <c r="T190" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U190" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V190" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W190" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X190" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y190" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="191" spans="1:25">
       <c r="T191" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U191" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V191" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W191" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X191" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y191" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="192" spans="1:25">
       <c r="T192" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U192" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V192" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W192" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X192" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y192" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="193" spans="20:25">
       <c r="T193" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U193" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V193" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W193" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X193" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y193" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="194" spans="20:25">
       <c r="T194" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U194" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V194" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W194" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X194" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y194" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="195" spans="20:25">
       <c r="T195" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U195" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V195" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W195" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X195" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y195" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="196" spans="20:25">
       <c r="T196" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U196" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V196" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W196" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X196" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y196" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="197" spans="20:25">
       <c r="T197" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U197" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V197" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W197" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X197" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y197" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="198" spans="20:25">
       <c r="T198" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U198" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V198" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W198" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X198" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y198" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="199" spans="20:25">
       <c r="T199" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U199" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V199" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W199" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X199" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y199" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="200" spans="20:25">
       <c r="T200" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U200" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="V200" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="W200" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="X200" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y200" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -57727,7 +57716,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>Sheet1!P343&amp;"/"&amp;Sheet1!Q343</f>
@@ -58246,7 +58235,7 @@
         <v>3D</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -58314,7 +58303,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B40" s="4" t="str">
         <f>Sheet1!Q456&amp;"/"&amp;Sheet1!Q457</f>
@@ -58737,12 +58726,12 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/MUSCMammoHologic.xlsx
+++ b/MUSCMammoHologic.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="721">
   <si>
     <t>Medical University of South Carolina</t>
   </si>
@@ -3034,7 +3034,16 @@
     <t>EI* = EI - DC offset (50)</t>
   </si>
   <si>
-    <t>Revision 2.3-20190920</t>
+    <t>CNR Correction (Affirm Prone Biopsy)</t>
+  </si>
+  <si>
+    <t>Standard biopsy</t>
+  </si>
+  <si>
+    <t>Tomo biopsy</t>
+  </si>
+  <si>
+    <t>Revision 2.4-20200207</t>
   </si>
 </sst>
 </file>
@@ -7238,96 +7247,126 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="40" fillId="0" borderId="85" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="40" fillId="0" borderId="86" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="126" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="10" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="10" borderId="126" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="126" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="126" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="128" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="129" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="130" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="126" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="126" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="126" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="126" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="126" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="128" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="129" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="130" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="125" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="97" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="126" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="126" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="10" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="8" fillId="10" borderId="126" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="8" fillId="10" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="8" fillId="10" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="8" fillId="10" borderId="126" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7337,6 +7376,27 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="126" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7358,33 +7418,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="109" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="138" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="136" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="138" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="136" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="138" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="136" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="136" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="138" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="136" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="136" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7397,44 +7475,74 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="138" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="136" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="138" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="136" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="138" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="136" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="138" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="136" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="37" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7445,70 +7553,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="149" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7519,42 +7564,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="85" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="86" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -7566,1105 +7575,78 @@
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
-  <dxfs count="469">
+  <dxfs count="132">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial1"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -9754,2286 +8736,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-        <name val="Arial1"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -20351,40 +17053,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25">
-      <c r="A1" s="628" t="s">
+      <c r="A1" s="612" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="628"/>
-      <c r="C1" s="628"/>
-      <c r="D1" s="628"/>
-      <c r="E1" s="628"/>
-      <c r="F1" s="628"/>
-      <c r="G1" s="628"/>
-      <c r="H1" s="628"/>
-      <c r="I1" s="628"/>
-      <c r="J1" s="628"/>
-      <c r="K1" s="628"/>
-      <c r="L1" s="628"/>
-      <c r="M1" s="628"/>
-      <c r="N1" s="628"/>
+      <c r="B1" s="612"/>
+      <c r="C1" s="612"/>
+      <c r="D1" s="612"/>
+      <c r="E1" s="612"/>
+      <c r="F1" s="612"/>
+      <c r="G1" s="612"/>
+      <c r="H1" s="612"/>
+      <c r="I1" s="612"/>
+      <c r="J1" s="612"/>
+      <c r="K1" s="612"/>
+      <c r="L1" s="612"/>
+      <c r="M1" s="612"/>
+      <c r="N1" s="612"/>
     </row>
     <row r="2" spans="1:15" ht="26.25">
-      <c r="A2" s="628" t="s">
+      <c r="A2" s="612" t="s">
         <v>644</v>
       </c>
-      <c r="B2" s="628"/>
-      <c r="C2" s="628"/>
-      <c r="D2" s="628"/>
-      <c r="E2" s="628"/>
-      <c r="F2" s="628"/>
-      <c r="G2" s="628"/>
-      <c r="H2" s="628"/>
-      <c r="I2" s="628"/>
-      <c r="J2" s="628"/>
-      <c r="K2" s="628"/>
-      <c r="L2" s="628"/>
-      <c r="M2" s="628"/>
-      <c r="N2" s="628"/>
+      <c r="B2" s="612"/>
+      <c r="C2" s="612"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="612"/>
+      <c r="F2" s="612"/>
+      <c r="G2" s="612"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="612"/>
+      <c r="J2" s="612"/>
+      <c r="K2" s="612"/>
+      <c r="L2" s="612"/>
+      <c r="M2" s="612"/>
+      <c r="N2" s="612"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1">
       <c r="A3" s="32"/>
@@ -20407,47 +17109,47 @@
         <v>408</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" s="622" t="s">
+      <c r="C4" s="613" t="s">
         <v>707</v>
       </c>
-      <c r="D4" s="623"/>
-      <c r="E4" s="623"/>
-      <c r="F4" s="623"/>
-      <c r="G4" s="623"/>
-      <c r="H4" s="624"/>
+      <c r="D4" s="614"/>
+      <c r="E4" s="614"/>
+      <c r="F4" s="614"/>
+      <c r="G4" s="614"/>
+      <c r="H4" s="615"/>
       <c r="I4" s="34"/>
       <c r="J4" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="K4" s="629"/>
-      <c r="L4" s="630"/>
-      <c r="M4" s="630"/>
-      <c r="N4" s="631"/>
+      <c r="K4" s="616"/>
+      <c r="L4" s="617"/>
+      <c r="M4" s="617"/>
+      <c r="N4" s="618"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>410</v>
       </c>
       <c r="B5" s="33"/>
-      <c r="C5" s="622" t="s">
+      <c r="C5" s="613" t="s">
         <v>708</v>
       </c>
-      <c r="D5" s="623"/>
-      <c r="E5" s="623"/>
-      <c r="F5" s="623"/>
-      <c r="G5" s="623"/>
-      <c r="H5" s="624"/>
+      <c r="D5" s="614"/>
+      <c r="E5" s="614"/>
+      <c r="F5" s="614"/>
+      <c r="G5" s="614"/>
+      <c r="H5" s="615"/>
       <c r="I5" s="34"/>
       <c r="J5" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="K5" s="629">
+      <c r="K5" s="616">
         <f>Sheet1!P7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="630"/>
-      <c r="M5" s="630"/>
-      <c r="N5" s="631"/>
+      <c r="L5" s="617"/>
+      <c r="M5" s="617"/>
+      <c r="N5" s="618"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" customHeight="1">
       <c r="A6" s="33" t="s">
@@ -20455,21 +17157,21 @@
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="622" t="s">
+      <c r="D6" s="613" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="623"/>
-      <c r="F6" s="623"/>
-      <c r="G6" s="623"/>
-      <c r="H6" s="624"/>
+      <c r="E6" s="614"/>
+      <c r="F6" s="614"/>
+      <c r="G6" s="614"/>
+      <c r="H6" s="615"/>
       <c r="I6" s="34"/>
       <c r="J6" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="K6" s="622"/>
-      <c r="L6" s="623"/>
-      <c r="M6" s="623"/>
-      <c r="N6" s="624"/>
+      <c r="K6" s="613"/>
+      <c r="L6" s="614"/>
+      <c r="M6" s="614"/>
+      <c r="N6" s="615"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="A7" s="33" t="s">
@@ -20477,23 +17179,23 @@
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="622" t="s">
+      <c r="D7" s="613" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="623"/>
-      <c r="F7" s="623"/>
-      <c r="G7" s="623"/>
-      <c r="H7" s="624"/>
+      <c r="E7" s="614"/>
+      <c r="F7" s="614"/>
+      <c r="G7" s="614"/>
+      <c r="H7" s="615"/>
       <c r="I7" s="34"/>
       <c r="J7" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="K7" s="622" t="s">
+      <c r="K7" s="613" t="s">
         <v>638</v>
       </c>
-      <c r="L7" s="623"/>
-      <c r="M7" s="623"/>
-      <c r="N7" s="624"/>
+      <c r="L7" s="614"/>
+      <c r="M7" s="614"/>
+      <c r="N7" s="615"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1">
       <c r="A8" s="33" t="s">
@@ -20501,25 +17203,25 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="625" t="str">
+      <c r="D8" s="619" t="str">
         <f>Sheet1!K16</f>
         <v/>
       </c>
-      <c r="E8" s="626"/>
-      <c r="F8" s="626"/>
-      <c r="G8" s="626"/>
-      <c r="H8" s="627"/>
+      <c r="E8" s="620"/>
+      <c r="F8" s="620"/>
+      <c r="G8" s="620"/>
+      <c r="H8" s="621"/>
       <c r="I8" s="34"/>
       <c r="J8" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="K8" s="622" t="str">
+      <c r="K8" s="613" t="str">
         <f>Sheet1!R14</f>
         <v/>
       </c>
-      <c r="L8" s="623"/>
-      <c r="M8" s="623"/>
-      <c r="N8" s="624"/>
+      <c r="L8" s="614"/>
+      <c r="M8" s="614"/>
+      <c r="N8" s="615"/>
     </row>
     <row r="9" spans="1:15" ht="11.25" customHeight="1">
       <c r="A9" s="36"/>
@@ -20533,13 +17235,13 @@
       <c r="A10" s="36" t="s">
         <v>645</v>
       </c>
-      <c r="D10" s="609" t="s">
+      <c r="D10" s="623" t="s">
         <v>709</v>
       </c>
-      <c r="E10" s="610"/>
-      <c r="F10" s="610"/>
-      <c r="G10" s="610"/>
-      <c r="H10" s="611"/>
+      <c r="E10" s="624"/>
+      <c r="F10" s="624"/>
+      <c r="G10" s="624"/>
+      <c r="H10" s="625"/>
       <c r="I10" s="38" t="s">
         <v>646</v>
       </c>
@@ -20565,25 +17267,25 @@
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="612" t="s">
+      <c r="D12" s="626" t="s">
         <v>421</v>
       </c>
-      <c r="E12" s="612"/>
-      <c r="F12" s="612"/>
-      <c r="G12" s="612" t="s">
+      <c r="E12" s="626"/>
+      <c r="F12" s="626"/>
+      <c r="G12" s="626" t="s">
         <v>416</v>
       </c>
-      <c r="H12" s="612"/>
-      <c r="I12" s="612" t="s">
+      <c r="H12" s="626"/>
+      <c r="I12" s="626" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="612"/>
-      <c r="K12" s="612" t="s">
+      <c r="J12" s="626"/>
+      <c r="K12" s="626" t="s">
         <v>419</v>
       </c>
-      <c r="L12" s="612"/>
-      <c r="M12" s="612"/>
-      <c r="N12" s="612"/>
+      <c r="L12" s="626"/>
+      <c r="M12" s="626"/>
+      <c r="N12" s="626"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
       <c r="A13" s="33"/>
@@ -20591,63 +17293,63 @@
       <c r="C13" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="D13" s="613" t="s">
+      <c r="D13" s="627" t="s">
         <v>682</v>
       </c>
-      <c r="E13" s="614"/>
-      <c r="F13" s="615"/>
-      <c r="G13" s="613" t="s">
+      <c r="E13" s="628"/>
+      <c r="F13" s="629"/>
+      <c r="G13" s="627" t="s">
         <v>683</v>
       </c>
-      <c r="H13" s="615"/>
-      <c r="I13" s="616"/>
-      <c r="J13" s="617"/>
-      <c r="K13" s="613" t="s">
+      <c r="H13" s="629"/>
+      <c r="I13" s="630"/>
+      <c r="J13" s="631"/>
+      <c r="K13" s="627" t="s">
         <v>684</v>
       </c>
-      <c r="L13" s="614"/>
-      <c r="M13" s="614"/>
-      <c r="N13" s="615"/>
+      <c r="L13" s="628"/>
+      <c r="M13" s="628"/>
+      <c r="N13" s="629"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1">
       <c r="C14" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="D14" s="618" t="s">
+      <c r="D14" s="632" t="s">
         <v>682</v>
       </c>
-      <c r="E14" s="619"/>
-      <c r="F14" s="620"/>
-      <c r="G14" s="618" t="s">
+      <c r="E14" s="633"/>
+      <c r="F14" s="634"/>
+      <c r="G14" s="632" t="s">
         <v>685</v>
       </c>
-      <c r="H14" s="620"/>
-      <c r="I14" s="609"/>
-      <c r="J14" s="611"/>
-      <c r="K14" s="618" t="s">
+      <c r="H14" s="634"/>
+      <c r="I14" s="623"/>
+      <c r="J14" s="625"/>
+      <c r="K14" s="632" t="s">
         <v>686</v>
       </c>
-      <c r="L14" s="619"/>
-      <c r="M14" s="619"/>
-      <c r="N14" s="620"/>
+      <c r="L14" s="633"/>
+      <c r="M14" s="633"/>
+      <c r="N14" s="634"/>
     </row>
     <row r="15" spans="1:15" s="41" customFormat="1" ht="36" customHeight="1">
-      <c r="A15" s="621" t="s">
+      <c r="A15" s="635" t="s">
         <v>647</v>
       </c>
-      <c r="B15" s="621"/>
-      <c r="C15" s="621"/>
-      <c r="D15" s="621"/>
-      <c r="E15" s="621"/>
-      <c r="F15" s="621"/>
-      <c r="G15" s="621"/>
-      <c r="H15" s="621"/>
-      <c r="I15" s="621"/>
-      <c r="J15" s="621"/>
-      <c r="K15" s="621"/>
-      <c r="L15" s="621"/>
-      <c r="M15" s="621"/>
-      <c r="N15" s="621"/>
+      <c r="B15" s="635"/>
+      <c r="C15" s="635"/>
+      <c r="D15" s="635"/>
+      <c r="E15" s="635"/>
+      <c r="F15" s="635"/>
+      <c r="G15" s="635"/>
+      <c r="H15" s="635"/>
+      <c r="I15" s="635"/>
+      <c r="J15" s="635"/>
+      <c r="K15" s="635"/>
+      <c r="L15" s="635"/>
+      <c r="M15" s="635"/>
+      <c r="N15" s="635"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" customHeight="1">
       <c r="A16" s="36" t="s">
@@ -20709,46 +17411,46 @@
       <c r="L18" s="57"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="608" t="s">
+      <c r="A19" s="622" t="s">
         <v>426</v>
       </c>
-      <c r="B19" s="608"/>
-      <c r="C19" s="608"/>
-      <c r="D19" s="608"/>
-      <c r="E19" s="608"/>
-      <c r="F19" s="608"/>
-      <c r="G19" s="608"/>
-      <c r="H19" s="608"/>
-      <c r="I19" s="608"/>
-      <c r="J19" s="608"/>
-      <c r="K19" s="608"/>
-      <c r="L19" s="608"/>
-      <c r="M19" s="608"/>
-      <c r="N19" s="608"/>
+      <c r="B19" s="622"/>
+      <c r="C19" s="622"/>
+      <c r="D19" s="622"/>
+      <c r="E19" s="622"/>
+      <c r="F19" s="622"/>
+      <c r="G19" s="622"/>
+      <c r="H19" s="622"/>
+      <c r="I19" s="622"/>
+      <c r="J19" s="622"/>
+      <c r="K19" s="622"/>
+      <c r="L19" s="622"/>
+      <c r="M19" s="622"/>
+      <c r="N19" s="622"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="606" t="s">
+      <c r="A20" s="638" t="s">
         <v>427</v>
       </c>
-      <c r="B20" s="606"/>
-      <c r="C20" s="606"/>
-      <c r="D20" s="606"/>
-      <c r="E20" s="606"/>
-      <c r="F20" s="606"/>
-      <c r="G20" s="606"/>
-      <c r="H20" s="606"/>
-      <c r="I20" s="606"/>
-      <c r="J20" s="606"/>
-      <c r="K20" s="606"/>
-      <c r="L20" s="606"/>
-      <c r="M20" s="606"/>
-      <c r="N20" s="606"/>
+      <c r="B20" s="638"/>
+      <c r="C20" s="638"/>
+      <c r="D20" s="638"/>
+      <c r="E20" s="638"/>
+      <c r="F20" s="638"/>
+      <c r="G20" s="638"/>
+      <c r="H20" s="638"/>
+      <c r="I20" s="638"/>
+      <c r="J20" s="638"/>
+      <c r="K20" s="638"/>
+      <c r="L20" s="638"/>
+      <c r="M20" s="638"/>
+      <c r="N20" s="638"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
-      <c r="M21" s="607" t="s">
+      <c r="M21" s="639" t="s">
         <v>428</v>
       </c>
-      <c r="N21" s="607"/>
+      <c r="N21" s="639"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="58" t="s">
@@ -20765,8 +17467,8 @@
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="603"/>
-      <c r="N22" s="604"/>
+      <c r="M22" s="636"/>
+      <c r="N22" s="637"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="58" t="s">
@@ -20783,8 +17485,8 @@
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
-      <c r="M23" s="603"/>
-      <c r="N23" s="604"/>
+      <c r="M23" s="636"/>
+      <c r="N23" s="637"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="58" t="s">
@@ -20801,8 +17503,8 @@
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
-      <c r="M24" s="603"/>
-      <c r="N24" s="604"/>
+      <c r="M24" s="636"/>
+      <c r="N24" s="637"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="58" t="s">
@@ -20819,8 +17521,8 @@
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
-      <c r="M25" s="603"/>
-      <c r="N25" s="604"/>
+      <c r="M25" s="636"/>
+      <c r="N25" s="637"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="A26" s="58" t="s">
@@ -20837,8 +17539,8 @@
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
-      <c r="M26" s="603"/>
-      <c r="N26" s="604"/>
+      <c r="M26" s="636"/>
+      <c r="N26" s="637"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="A27" s="58" t="s">
@@ -20855,8 +17557,8 @@
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
-      <c r="M27" s="603"/>
-      <c r="N27" s="604"/>
+      <c r="M27" s="636"/>
+      <c r="N27" s="637"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="A28" s="58" t="s">
@@ -20873,8 +17575,8 @@
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
-      <c r="M28" s="603"/>
-      <c r="N28" s="604"/>
+      <c r="M28" s="636"/>
+      <c r="N28" s="637"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="58" t="s">
@@ -20906,8 +17608,8 @@
       <c r="L30" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="M30" s="603"/>
-      <c r="N30" s="604"/>
+      <c r="M30" s="636"/>
+      <c r="N30" s="637"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="A31" s="33"/>
@@ -20929,8 +17631,8 @@
       <c r="L31" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="M31" s="603"/>
-      <c r="N31" s="604"/>
+      <c r="M31" s="636"/>
+      <c r="N31" s="637"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
@@ -20947,8 +17649,8 @@
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
-      <c r="M32" s="603"/>
-      <c r="N32" s="604"/>
+      <c r="M32" s="636"/>
+      <c r="N32" s="637"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="33" t="s">
@@ -20993,8 +17695,8 @@
       </c>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
-      <c r="M34" s="603"/>
-      <c r="N34" s="604"/>
+      <c r="M34" s="636"/>
+      <c r="N34" s="637"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="C35" s="63" t="s">
@@ -21016,8 +17718,8 @@
         <v/>
       </c>
       <c r="L35" s="37"/>
-      <c r="M35" s="603"/>
-      <c r="N35" s="604"/>
+      <c r="M35" s="636"/>
+      <c r="N35" s="637"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="33" t="s">
@@ -21055,8 +17757,8 @@
       <c r="J37" s="67"/>
       <c r="K37" s="72"/>
       <c r="L37" s="72"/>
-      <c r="M37" s="603"/>
-      <c r="N37" s="604"/>
+      <c r="M37" s="636"/>
+      <c r="N37" s="637"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="33"/>
@@ -21096,8 +17798,8 @@
       <c r="J39" s="67"/>
       <c r="K39" s="72"/>
       <c r="L39" s="72"/>
-      <c r="M39" s="603"/>
-      <c r="N39" s="604"/>
+      <c r="M39" s="636"/>
+      <c r="N39" s="637"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="33" t="s">
@@ -21114,8 +17816,8 @@
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
-      <c r="M40" s="603"/>
-      <c r="N40" s="604"/>
+      <c r="M40" s="636"/>
+      <c r="N40" s="637"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="33" t="s">
@@ -21132,8 +17834,8 @@
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
-      <c r="M41" s="603"/>
-      <c r="N41" s="604"/>
+      <c r="M41" s="636"/>
+      <c r="N41" s="637"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="33" t="s">
@@ -21150,8 +17852,8 @@
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
-      <c r="M42" s="603"/>
-      <c r="N42" s="604"/>
+      <c r="M42" s="636"/>
+      <c r="N42" s="637"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="58" t="s">
@@ -21168,8 +17870,8 @@
       <c r="J43" s="58"/>
       <c r="K43" s="58"/>
       <c r="L43" s="33"/>
-      <c r="M43" s="603"/>
-      <c r="N43" s="605"/>
+      <c r="M43" s="636"/>
+      <c r="N43" s="641"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="33" t="s">
@@ -21186,8 +17888,8 @@
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
-      <c r="M44" s="603"/>
-      <c r="N44" s="604"/>
+      <c r="M44" s="636"/>
+      <c r="N44" s="637"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="33" t="s">
@@ -21204,8 +17906,8 @@
       <c r="J45" s="33"/>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
-      <c r="M45" s="603"/>
-      <c r="N45" s="604"/>
+      <c r="M45" s="636"/>
+      <c r="N45" s="637"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="33" t="s">
@@ -21222,8 +17924,8 @@
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
       <c r="L46" s="33"/>
-      <c r="M46" s="603"/>
-      <c r="N46" s="604"/>
+      <c r="M46" s="636"/>
+      <c r="N46" s="637"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="33"/>
@@ -21242,37 +17944,49 @@
       <c r="N47" s="72"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A48" s="602" t="s">
+      <c r="A48" s="640" t="s">
         <v>669</v>
       </c>
-      <c r="B48" s="602"/>
-      <c r="C48" s="602"/>
-      <c r="D48" s="602"/>
-      <c r="E48" s="602"/>
-      <c r="F48" s="602"/>
-      <c r="G48" s="602"/>
-      <c r="H48" s="602"/>
-      <c r="I48" s="602"/>
-      <c r="J48" s="602"/>
-      <c r="K48" s="602"/>
-      <c r="L48" s="602"/>
-      <c r="M48" s="602"/>
-      <c r="N48" s="602"/>
+      <c r="B48" s="640"/>
+      <c r="C48" s="640"/>
+      <c r="D48" s="640"/>
+      <c r="E48" s="640"/>
+      <c r="F48" s="640"/>
+      <c r="G48" s="640"/>
+      <c r="H48" s="640"/>
+      <c r="I48" s="640"/>
+      <c r="J48" s="640"/>
+      <c r="K48" s="640"/>
+      <c r="L48" s="640"/>
+      <c r="M48" s="640"/>
+      <c r="N48" s="640"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
     <mergeCell ref="A19:N19"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D12:F12"/>
@@ -21288,63 +18002,51 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="A15:N15"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="M22:N28 M32:N32 M37:N37 M39:N40 M42:N42 M44:N45 M43">
-    <cfRule type="cellIs" dxfId="468" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41">
-    <cfRule type="cellIs" dxfId="467" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:N34">
-    <cfRule type="cellIs" dxfId="466" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:N31">
-    <cfRule type="cellIs" dxfId="465" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:N35">
-    <cfRule type="cellIs" dxfId="464" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:N30">
-    <cfRule type="cellIs" dxfId="463" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46:N46">
-    <cfRule type="cellIs" dxfId="462" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21587,69 +18289,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1">
-      <c r="A1" s="642" t="s">
+      <c r="A1" s="645" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="642"/>
-      <c r="C1" s="642"/>
-      <c r="D1" s="642"/>
-      <c r="E1" s="642"/>
-      <c r="F1" s="642"/>
-      <c r="G1" s="642"/>
-      <c r="H1" s="642"/>
-      <c r="I1" s="642"/>
-      <c r="J1" s="642"/>
-      <c r="K1" s="642"/>
-      <c r="L1" s="642"/>
+      <c r="B1" s="645"/>
+      <c r="C1" s="645"/>
+      <c r="D1" s="645"/>
+      <c r="E1" s="645"/>
+      <c r="F1" s="645"/>
+      <c r="G1" s="645"/>
+      <c r="H1" s="645"/>
+      <c r="I1" s="645"/>
+      <c r="J1" s="645"/>
+      <c r="K1" s="645"/>
+      <c r="L1" s="645"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="643" t="s">
+      <c r="A2" s="646" t="s">
         <v>670</v>
       </c>
-      <c r="B2" s="644"/>
-      <c r="C2" s="644"/>
-      <c r="D2" s="644"/>
-      <c r="E2" s="644"/>
-      <c r="F2" s="644"/>
-      <c r="G2" s="644"/>
-      <c r="H2" s="644"/>
-      <c r="I2" s="644"/>
-      <c r="J2" s="644"/>
-      <c r="K2" s="644"/>
-      <c r="L2" s="644"/>
+      <c r="B2" s="647"/>
+      <c r="C2" s="647"/>
+      <c r="D2" s="647"/>
+      <c r="E2" s="647"/>
+      <c r="F2" s="647"/>
+      <c r="G2" s="647"/>
+      <c r="H2" s="647"/>
+      <c r="I2" s="647"/>
+      <c r="J2" s="647"/>
+      <c r="K2" s="647"/>
+      <c r="L2" s="647"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:12" ht="24" customHeight="1">
-      <c r="A4" s="645" t="s">
+      <c r="A4" s="648" t="s">
         <v>442</v>
       </c>
-      <c r="B4" s="645"/>
-      <c r="C4" s="645"/>
-      <c r="D4" s="645"/>
-      <c r="E4" s="645"/>
-      <c r="F4" s="645"/>
-      <c r="G4" s="645"/>
-      <c r="H4" s="645"/>
-      <c r="I4" s="645"/>
-      <c r="J4" s="645"/>
-      <c r="K4" s="645"/>
-      <c r="L4" s="645"/>
+      <c r="B4" s="648"/>
+      <c r="C4" s="648"/>
+      <c r="D4" s="648"/>
+      <c r="E4" s="648"/>
+      <c r="F4" s="648"/>
+      <c r="G4" s="648"/>
+      <c r="H4" s="648"/>
+      <c r="I4" s="648"/>
+      <c r="J4" s="648"/>
+      <c r="K4" s="648"/>
+      <c r="L4" s="648"/>
     </row>
     <row r="5" spans="1:12" ht="42" customHeight="1">
-      <c r="A5" s="646" t="s">
+      <c r="A5" s="649" t="s">
         <v>671</v>
       </c>
-      <c r="B5" s="646"/>
-      <c r="C5" s="646"/>
-      <c r="D5" s="646"/>
-      <c r="E5" s="646"/>
-      <c r="F5" s="646"/>
-      <c r="G5" s="646"/>
-      <c r="H5" s="646"/>
-      <c r="I5" s="646"/>
-      <c r="J5" s="646"/>
-      <c r="K5" s="646"/>
-      <c r="L5" s="646"/>
+      <c r="B5" s="649"/>
+      <c r="C5" s="649"/>
+      <c r="D5" s="649"/>
+      <c r="E5" s="649"/>
+      <c r="F5" s="649"/>
+      <c r="G5" s="649"/>
+      <c r="H5" s="649"/>
+      <c r="I5" s="649"/>
+      <c r="J5" s="649"/>
+      <c r="K5" s="649"/>
+      <c r="L5" s="649"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="75" t="s">
@@ -21684,9 +18386,9 @@
       <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="J8" s="647"/>
-      <c r="K8" s="647"/>
-      <c r="L8" s="647"/>
+      <c r="J8" s="650"/>
+      <c r="K8" s="650"/>
+      <c r="L8" s="650"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="37"/>
@@ -21695,11 +18397,11 @@
         <v>443</v>
       </c>
       <c r="I9" s="54"/>
-      <c r="J9" s="648" t="s">
+      <c r="J9" s="651" t="s">
         <v>428</v>
       </c>
-      <c r="K9" s="648"/>
-      <c r="L9" s="648"/>
+      <c r="K9" s="651"/>
+      <c r="L9" s="651"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="84" t="s">
@@ -21711,9 +18413,9 @@
       <c r="H10" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J10" s="632"/>
-      <c r="K10" s="633"/>
-      <c r="L10" s="634"/>
+      <c r="J10" s="642"/>
+      <c r="K10" s="643"/>
+      <c r="L10" s="644"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="87" t="s">
@@ -21725,9 +18427,9 @@
       <c r="H11" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J11" s="632"/>
-      <c r="K11" s="633"/>
-      <c r="L11" s="634"/>
+      <c r="J11" s="642"/>
+      <c r="K11" s="643"/>
+      <c r="L11" s="644"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="87" t="s">
@@ -21739,9 +18441,9 @@
       <c r="H12" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J12" s="632"/>
-      <c r="K12" s="633"/>
-      <c r="L12" s="634"/>
+      <c r="J12" s="642"/>
+      <c r="K12" s="643"/>
+      <c r="L12" s="644"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="87" t="s">
@@ -21753,9 +18455,9 @@
       <c r="H13" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J13" s="632"/>
-      <c r="K13" s="633"/>
-      <c r="L13" s="634"/>
+      <c r="J13" s="642"/>
+      <c r="K13" s="643"/>
+      <c r="L13" s="644"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="87" t="s">
@@ -21767,9 +18469,9 @@
       <c r="H14" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J14" s="632"/>
-      <c r="K14" s="633"/>
-      <c r="L14" s="634"/>
+      <c r="J14" s="642"/>
+      <c r="K14" s="643"/>
+      <c r="L14" s="644"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="87" t="s">
@@ -21781,9 +18483,9 @@
       <c r="H15" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="J15" s="632"/>
-      <c r="K15" s="633"/>
-      <c r="L15" s="634"/>
+      <c r="J15" s="642"/>
+      <c r="K15" s="643"/>
+      <c r="L15" s="644"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="87" t="s">
@@ -21795,9 +18497,9 @@
       <c r="H16" s="86" t="s">
         <v>456</v>
       </c>
-      <c r="J16" s="632"/>
-      <c r="K16" s="633"/>
-      <c r="L16" s="634"/>
+      <c r="J16" s="642"/>
+      <c r="K16" s="643"/>
+      <c r="L16" s="644"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="87" t="s">
@@ -21809,9 +18511,9 @@
       <c r="H17" s="86" t="s">
         <v>459</v>
       </c>
-      <c r="J17" s="632"/>
-      <c r="K17" s="633"/>
-      <c r="L17" s="634"/>
+      <c r="J17" s="642"/>
+      <c r="K17" s="643"/>
+      <c r="L17" s="644"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="84" t="s">
@@ -21823,9 +18525,9 @@
       <c r="H18" s="86" t="s">
         <v>462</v>
       </c>
-      <c r="J18" s="632"/>
-      <c r="K18" s="633"/>
-      <c r="L18" s="634"/>
+      <c r="J18" s="642"/>
+      <c r="K18" s="643"/>
+      <c r="L18" s="644"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="84" t="s">
@@ -21837,9 +18539,9 @@
       <c r="H19" s="89" t="s">
         <v>465</v>
       </c>
-      <c r="J19" s="632"/>
-      <c r="K19" s="633"/>
-      <c r="L19" s="634"/>
+      <c r="J19" s="642"/>
+      <c r="K19" s="643"/>
+      <c r="L19" s="644"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="90" t="s">
@@ -21856,9 +18558,9 @@
       <c r="H20" s="91" t="s">
         <v>465</v>
       </c>
-      <c r="J20" s="632"/>
-      <c r="K20" s="633"/>
-      <c r="L20" s="634"/>
+      <c r="J20" s="642"/>
+      <c r="K20" s="643"/>
+      <c r="L20" s="644"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="84" t="s">
@@ -21870,9 +18572,9 @@
       <c r="H21" s="89" t="s">
         <v>677</v>
       </c>
-      <c r="J21" s="632"/>
-      <c r="K21" s="633"/>
-      <c r="L21" s="634"/>
+      <c r="J21" s="642"/>
+      <c r="K21" s="643"/>
+      <c r="L21" s="644"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="84" t="s">
@@ -21884,58 +18586,58 @@
       <c r="H22" s="86" t="s">
         <v>680</v>
       </c>
-      <c r="J22" s="632"/>
-      <c r="K22" s="633"/>
-      <c r="L22" s="634"/>
+      <c r="J22" s="642"/>
+      <c r="K22" s="643"/>
+      <c r="L22" s="644"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:12" ht="24" customHeight="1">
-      <c r="A24" s="635" t="s">
+      <c r="A24" s="652" t="s">
         <v>468</v>
       </c>
-      <c r="B24" s="635"/>
-      <c r="C24" s="635"/>
-      <c r="D24" s="635"/>
-      <c r="E24" s="635"/>
-      <c r="F24" s="635"/>
-      <c r="G24" s="635"/>
-      <c r="H24" s="635"/>
-      <c r="I24" s="635"/>
-      <c r="J24" s="635"/>
-      <c r="K24" s="635"/>
-      <c r="L24" s="635"/>
+      <c r="B24" s="652"/>
+      <c r="C24" s="652"/>
+      <c r="D24" s="652"/>
+      <c r="E24" s="652"/>
+      <c r="F24" s="652"/>
+      <c r="G24" s="652"/>
+      <c r="H24" s="652"/>
+      <c r="I24" s="652"/>
+      <c r="J24" s="652"/>
+      <c r="K24" s="652"/>
+      <c r="L24" s="652"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1"/>
     <row r="26" spans="1:12" ht="241.5" customHeight="1">
-      <c r="A26" s="636"/>
-      <c r="B26" s="637"/>
-      <c r="C26" s="637"/>
-      <c r="D26" s="637"/>
-      <c r="E26" s="637"/>
-      <c r="F26" s="637"/>
-      <c r="G26" s="637"/>
-      <c r="H26" s="637"/>
-      <c r="I26" s="637"/>
-      <c r="J26" s="637"/>
-      <c r="K26" s="637"/>
-      <c r="L26" s="638"/>
+      <c r="A26" s="653"/>
+      <c r="B26" s="654"/>
+      <c r="C26" s="654"/>
+      <c r="D26" s="654"/>
+      <c r="E26" s="654"/>
+      <c r="F26" s="654"/>
+      <c r="G26" s="654"/>
+      <c r="H26" s="654"/>
+      <c r="I26" s="654"/>
+      <c r="J26" s="654"/>
+      <c r="K26" s="654"/>
+      <c r="L26" s="655"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1"/>
     <row r="28" spans="1:12" ht="204.75" customHeight="1" thickBot="1">
-      <c r="A28" s="639" t="s">
+      <c r="A28" s="656" t="s">
         <v>681</v>
       </c>
-      <c r="B28" s="640"/>
-      <c r="C28" s="640"/>
-      <c r="D28" s="640"/>
-      <c r="E28" s="640"/>
-      <c r="F28" s="640"/>
-      <c r="G28" s="640"/>
-      <c r="H28" s="640"/>
-      <c r="I28" s="640"/>
-      <c r="J28" s="640"/>
-      <c r="K28" s="640"/>
-      <c r="L28" s="641"/>
+      <c r="B28" s="657"/>
+      <c r="C28" s="657"/>
+      <c r="D28" s="657"/>
+      <c r="E28" s="657"/>
+      <c r="F28" s="657"/>
+      <c r="G28" s="657"/>
+      <c r="H28" s="657"/>
+      <c r="I28" s="657"/>
+      <c r="J28" s="657"/>
+      <c r="K28" s="657"/>
+      <c r="L28" s="658"/>
     </row>
     <row r="33" spans="2:12" ht="18" customHeight="1">
       <c r="B33" s="33"/>
@@ -21952,6 +18654,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -21964,24 +18676,14 @@
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
   </mergeCells>
   <conditionalFormatting sqref="J22:L22 J20 J10:L19">
-    <cfRule type="cellIs" dxfId="461" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:L21">
-    <cfRule type="cellIs" dxfId="460" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22528,13 +19230,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="651" t="s">
+      <c r="A1" s="674" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="652"/>
-      <c r="C1" s="652"/>
-      <c r="D1" s="652"/>
-      <c r="E1" s="652"/>
+      <c r="B1" s="675"/>
+      <c r="C1" s="675"/>
+      <c r="D1" s="675"/>
+      <c r="E1" s="675"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="92"/>
@@ -22547,23 +19249,23 @@
       <c r="A3" s="93" t="s">
         <v>470</v>
       </c>
-      <c r="B3" s="653" t="str">
+      <c r="B3" s="676" t="str">
         <f>'QC Test Summary-Hologic'!C4</f>
         <v>HCC Breast Imaging Program</v>
       </c>
-      <c r="C3" s="653"/>
-      <c r="D3" s="653"/>
-      <c r="E3" s="653"/>
+      <c r="C3" s="676"/>
+      <c r="D3" s="676"/>
+      <c r="E3" s="676"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1">
       <c r="A4" s="93" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="654" t="str">
+      <c r="B4" s="677" t="str">
         <f>Sheet1!R17</f>
         <v/>
       </c>
-      <c r="C4" s="654"/>
+      <c r="C4" s="677"/>
       <c r="D4" s="94" t="s">
         <v>23</v>
       </c>
@@ -22593,11 +19295,11 @@
       <c r="A6" s="93" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="654" t="str">
+      <c r="B6" s="677" t="str">
         <f>Sheet1!X7</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="C6" s="654"/>
+      <c r="C6" s="677"/>
       <c r="D6" s="94" t="s">
         <v>475</v>
       </c>
@@ -22610,8 +19312,8 @@
       <c r="A7" s="93" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="654"/>
-      <c r="C7" s="654"/>
+      <c r="B7" s="677"/>
+      <c r="C7" s="677"/>
       <c r="D7" s="94" t="s">
         <v>477</v>
       </c>
@@ -22639,7 +19341,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" thickTop="1">
-      <c r="A10" s="649" t="s">
+      <c r="A10" s="673" t="s">
         <v>482</v>
       </c>
       <c r="B10" s="101" t="s">
@@ -22654,7 +19356,7 @@
       <c r="E10" s="104"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A11" s="650"/>
+      <c r="A11" s="669"/>
       <c r="B11" s="105" t="s">
         <v>486</v>
       </c>
@@ -22667,7 +19369,7 @@
       <c r="E11" s="108"/>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="660" t="s">
+      <c r="A12" s="664" t="s">
         <v>488</v>
       </c>
       <c r="B12" s="109" t="s">
@@ -22682,7 +19384,7 @@
       <c r="E12" s="112"/>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="661"/>
+      <c r="A13" s="665"/>
       <c r="B13" s="113" t="s">
         <v>492</v>
       </c>
@@ -22695,7 +19397,7 @@
       <c r="E13" s="116"/>
     </row>
     <row r="14" spans="1:5" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A14" s="662"/>
+      <c r="A14" s="666"/>
       <c r="B14" s="117" t="s">
         <v>494</v>
       </c>
@@ -22708,7 +19410,7 @@
       <c r="E14" s="119"/>
     </row>
     <row r="15" spans="1:5" ht="56.25">
-      <c r="A15" s="663" t="s">
+      <c r="A15" s="667" t="s">
         <v>496</v>
       </c>
       <c r="B15" s="120" t="s">
@@ -22723,7 +19425,7 @@
       <c r="E15" s="122"/>
     </row>
     <row r="16" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="664"/>
+      <c r="A16" s="668"/>
       <c r="B16" s="105" t="s">
         <v>499</v>
       </c>
@@ -22736,7 +19438,7 @@
       <c r="E16" s="124"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A17" s="655" t="s">
+      <c r="A17" s="659" t="s">
         <v>502</v>
       </c>
       <c r="B17" s="125" t="s">
@@ -22751,7 +19453,7 @@
       <c r="E17" s="126"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A18" s="650"/>
+      <c r="A18" s="669"/>
       <c r="B18" s="127" t="s">
         <v>505</v>
       </c>
@@ -22764,7 +19466,7 @@
       <c r="E18" s="108"/>
     </row>
     <row r="19" spans="1:5" ht="33.75">
-      <c r="A19" s="665" t="s">
+      <c r="A19" s="670" t="s">
         <v>507</v>
       </c>
       <c r="B19" s="125" t="s">
@@ -22779,7 +19481,7 @@
       <c r="E19" s="126"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A20" s="666"/>
+      <c r="A20" s="671"/>
       <c r="B20" s="129" t="s">
         <v>510</v>
       </c>
@@ -22792,7 +19494,7 @@
       <c r="E20" s="131"/>
     </row>
     <row r="21" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A21" s="667"/>
+      <c r="A21" s="672"/>
       <c r="B21" s="127" t="s">
         <v>512</v>
       </c>
@@ -22805,7 +19507,7 @@
       <c r="E21" s="108"/>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A22" s="655" t="s">
+      <c r="A22" s="659" t="s">
         <v>514</v>
       </c>
       <c r="B22" s="125" t="s">
@@ -22820,7 +19522,7 @@
       <c r="E22" s="126"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A23" s="650"/>
+      <c r="A23" s="669"/>
       <c r="B23" s="105" t="s">
         <v>517</v>
       </c>
@@ -22833,7 +19535,7 @@
       <c r="E23" s="124"/>
     </row>
     <row r="24" spans="1:5" ht="33.75">
-      <c r="A24" s="665" t="s">
+      <c r="A24" s="670" t="s">
         <v>519</v>
       </c>
       <c r="B24" s="125" t="s">
@@ -22848,7 +19550,7 @@
       <c r="E24" s="126"/>
     </row>
     <row r="25" spans="1:5" ht="45.75" customHeight="1">
-      <c r="A25" s="666"/>
+      <c r="A25" s="671"/>
       <c r="B25" s="129" t="s">
         <v>522</v>
       </c>
@@ -22861,7 +19563,7 @@
       <c r="E25" s="131"/>
     </row>
     <row r="26" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A26" s="666"/>
+      <c r="A26" s="671"/>
       <c r="B26" s="132" t="s">
         <v>524</v>
       </c>
@@ -22874,7 +19576,7 @@
       <c r="E26" s="131"/>
     </row>
     <row r="27" spans="1:5" ht="22.5">
-      <c r="A27" s="666"/>
+      <c r="A27" s="671"/>
       <c r="B27" s="132" t="s">
         <v>526</v>
       </c>
@@ -22887,7 +19589,7 @@
       <c r="E27" s="131"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="667"/>
+      <c r="A28" s="672"/>
       <c r="B28" s="133" t="s">
         <v>528</v>
       </c>
@@ -22900,7 +19602,7 @@
       <c r="E28" s="124"/>
     </row>
     <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="655" t="s">
+      <c r="A29" s="659" t="s">
         <v>530</v>
       </c>
       <c r="B29" s="134" t="s">
@@ -22915,7 +19617,7 @@
       <c r="E29" s="126"/>
     </row>
     <row r="30" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A30" s="656"/>
+      <c r="A30" s="660"/>
       <c r="B30" s="132" t="s">
         <v>533</v>
       </c>
@@ -22928,7 +19630,7 @@
       <c r="E30" s="131"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A31" s="657"/>
+      <c r="A31" s="661"/>
       <c r="B31" s="133" t="s">
         <v>535</v>
       </c>
@@ -22941,7 +19643,7 @@
       <c r="E31" s="124"/>
     </row>
     <row r="32" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A32" s="655" t="s">
+      <c r="A32" s="659" t="s">
         <v>537</v>
       </c>
       <c r="B32" s="134" t="s">
@@ -22956,7 +19658,7 @@
       <c r="E32" s="126"/>
     </row>
     <row r="33" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A33" s="656"/>
+      <c r="A33" s="660"/>
       <c r="B33" s="132" t="s">
         <v>540</v>
       </c>
@@ -22969,7 +19671,7 @@
       <c r="E33" s="131"/>
     </row>
     <row r="34" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A34" s="657"/>
+      <c r="A34" s="661"/>
       <c r="B34" s="133" t="s">
         <v>541</v>
       </c>
@@ -23057,13 +19759,13 @@
       <c r="E39" s="108"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="658" t="s">
+      <c r="A40" s="662" t="s">
         <v>694</v>
       </c>
-      <c r="B40" s="659"/>
-      <c r="C40" s="659"/>
-      <c r="D40" s="659"/>
-      <c r="E40" s="659"/>
+      <c r="B40" s="663"/>
+      <c r="C40" s="663"/>
+      <c r="D40" s="663"/>
+      <c r="E40" s="663"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="143"/>
@@ -23760,6 +20462,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A40:E40"/>
@@ -23769,12 +20477,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E10 JA10 SW10 ACS10 AMO10 AWK10 BGG10 BQC10 BZY10 CJU10 CTQ10 DDM10 DNI10 DXE10 EHA10 EQW10 FAS10 FKO10 FUK10 GEG10 GOC10 GXY10 HHU10 HRQ10 IBM10 ILI10 IVE10 JFA10 JOW10 JYS10 KIO10 KSK10 LCG10 LMC10 LVY10 MFU10 MPQ10 MZM10 NJI10 NTE10 ODA10 OMW10 OWS10 PGO10 PQK10 QAG10 QKC10 QTY10 RDU10 RNQ10 RXM10 SHI10 SRE10 TBA10 TKW10 TUS10 UEO10 UOK10 UYG10 VIC10 VRY10 WBU10 WLQ10 WVM10 E65546 JA65546 SW65546 ACS65546 AMO65546 AWK65546 BGG65546 BQC65546 BZY65546 CJU65546 CTQ65546 DDM65546 DNI65546 DXE65546 EHA65546 EQW65546 FAS65546 FKO65546 FUK65546 GEG65546 GOC65546 GXY65546 HHU65546 HRQ65546 IBM65546 ILI65546 IVE65546 JFA65546 JOW65546 JYS65546 KIO65546 KSK65546 LCG65546 LMC65546 LVY65546 MFU65546 MPQ65546 MZM65546 NJI65546 NTE65546 ODA65546 OMW65546 OWS65546 PGO65546 PQK65546 QAG65546 QKC65546 QTY65546 RDU65546 RNQ65546 RXM65546 SHI65546 SRE65546 TBA65546 TKW65546 TUS65546 UEO65546 UOK65546 UYG65546 VIC65546 VRY65546 WBU65546 WLQ65546 WVM65546 E131082 JA131082 SW131082 ACS131082 AMO131082 AWK131082 BGG131082 BQC131082 BZY131082 CJU131082 CTQ131082 DDM131082 DNI131082 DXE131082 EHA131082 EQW131082 FAS131082 FKO131082 FUK131082 GEG131082 GOC131082 GXY131082 HHU131082 HRQ131082 IBM131082 ILI131082 IVE131082 JFA131082 JOW131082 JYS131082 KIO131082 KSK131082 LCG131082 LMC131082 LVY131082 MFU131082 MPQ131082 MZM131082 NJI131082 NTE131082 ODA131082 OMW131082 OWS131082 PGO131082 PQK131082 QAG131082 QKC131082 QTY131082 RDU131082 RNQ131082 RXM131082 SHI131082 SRE131082 TBA131082 TKW131082 TUS131082 UEO131082 UOK131082 UYG131082 VIC131082 VRY131082 WBU131082 WLQ131082 WVM131082 E196618 JA196618 SW196618 ACS196618 AMO196618 AWK196618 BGG196618 BQC196618 BZY196618 CJU196618 CTQ196618 DDM196618 DNI196618 DXE196618 EHA196618 EQW196618 FAS196618 FKO196618 FUK196618 GEG196618 GOC196618 GXY196618 HHU196618 HRQ196618 IBM196618 ILI196618 IVE196618 JFA196618 JOW196618 JYS196618 KIO196618 KSK196618 LCG196618 LMC196618 LVY196618 MFU196618 MPQ196618 MZM196618 NJI196618 NTE196618 ODA196618 OMW196618 OWS196618 PGO196618 PQK196618 QAG196618 QKC196618 QTY196618 RDU196618 RNQ196618 RXM196618 SHI196618 SRE196618 TBA196618 TKW196618 TUS196618 UEO196618 UOK196618 UYG196618 VIC196618 VRY196618 WBU196618 WLQ196618 WVM196618 E262154 JA262154 SW262154 ACS262154 AMO262154 AWK262154 BGG262154 BQC262154 BZY262154 CJU262154 CTQ262154 DDM262154 DNI262154 DXE262154 EHA262154 EQW262154 FAS262154 FKO262154 FUK262154 GEG262154 GOC262154 GXY262154 HHU262154 HRQ262154 IBM262154 ILI262154 IVE262154 JFA262154 JOW262154 JYS262154 KIO262154 KSK262154 LCG262154 LMC262154 LVY262154 MFU262154 MPQ262154 MZM262154 NJI262154 NTE262154 ODA262154 OMW262154 OWS262154 PGO262154 PQK262154 QAG262154 QKC262154 QTY262154 RDU262154 RNQ262154 RXM262154 SHI262154 SRE262154 TBA262154 TKW262154 TUS262154 UEO262154 UOK262154 UYG262154 VIC262154 VRY262154 WBU262154 WLQ262154 WVM262154 E327690 JA327690 SW327690 ACS327690 AMO327690 AWK327690 BGG327690 BQC327690 BZY327690 CJU327690 CTQ327690 DDM327690 DNI327690 DXE327690 EHA327690 EQW327690 FAS327690 FKO327690 FUK327690 GEG327690 GOC327690 GXY327690 HHU327690 HRQ327690 IBM327690 ILI327690 IVE327690 JFA327690 JOW327690 JYS327690 KIO327690 KSK327690 LCG327690 LMC327690 LVY327690 MFU327690 MPQ327690 MZM327690 NJI327690 NTE327690 ODA327690 OMW327690 OWS327690 PGO327690 PQK327690 QAG327690 QKC327690 QTY327690 RDU327690 RNQ327690 RXM327690 SHI327690 SRE327690 TBA327690 TKW327690 TUS327690 UEO327690 UOK327690 UYG327690 VIC327690 VRY327690 WBU327690 WLQ327690 WVM327690 E393226 JA393226 SW393226 ACS393226 AMO393226 AWK393226 BGG393226 BQC393226 BZY393226 CJU393226 CTQ393226 DDM393226 DNI393226 DXE393226 EHA393226 EQW393226 FAS393226 FKO393226 FUK393226 GEG393226 GOC393226 GXY393226 HHU393226 HRQ393226 IBM393226 ILI393226 IVE393226 JFA393226 JOW393226 JYS393226 KIO393226 KSK393226 LCG393226 LMC393226 LVY393226 MFU393226 MPQ393226 MZM393226 NJI393226 NTE393226 ODA393226 OMW393226 OWS393226 PGO393226 PQK393226 QAG393226 QKC393226 QTY393226 RDU393226 RNQ393226 RXM393226 SHI393226 SRE393226 TBA393226 TKW393226 TUS393226 UEO393226 UOK393226 UYG393226 VIC393226 VRY393226 WBU393226 WLQ393226 WVM393226 E458762 JA458762 SW458762 ACS458762 AMO458762 AWK458762 BGG458762 BQC458762 BZY458762 CJU458762 CTQ458762 DDM458762 DNI458762 DXE458762 EHA458762 EQW458762 FAS458762 FKO458762 FUK458762 GEG458762 GOC458762 GXY458762 HHU458762 HRQ458762 IBM458762 ILI458762 IVE458762 JFA458762 JOW458762 JYS458762 KIO458762 KSK458762 LCG458762 LMC458762 LVY458762 MFU458762 MPQ458762 MZM458762 NJI458762 NTE458762 ODA458762 OMW458762 OWS458762 PGO458762 PQK458762 QAG458762 QKC458762 QTY458762 RDU458762 RNQ458762 RXM458762 SHI458762 SRE458762 TBA458762 TKW458762 TUS458762 UEO458762 UOK458762 UYG458762 VIC458762 VRY458762 WBU458762 WLQ458762 WVM458762 E524298 JA524298 SW524298 ACS524298 AMO524298 AWK524298 BGG524298 BQC524298 BZY524298 CJU524298 CTQ524298 DDM524298 DNI524298 DXE524298 EHA524298 EQW524298 FAS524298 FKO524298 FUK524298 GEG524298 GOC524298 GXY524298 HHU524298 HRQ524298 IBM524298 ILI524298 IVE524298 JFA524298 JOW524298 JYS524298 KIO524298 KSK524298 LCG524298 LMC524298 LVY524298 MFU524298 MPQ524298 MZM524298 NJI524298 NTE524298 ODA524298 OMW524298 OWS524298 PGO524298 PQK524298 QAG524298 QKC524298 QTY524298 RDU524298 RNQ524298 RXM524298 SHI524298 SRE524298 TBA524298 TKW524298 TUS524298 UEO524298 UOK524298 UYG524298 VIC524298 VRY524298 WBU524298 WLQ524298 WVM524298 E589834 JA589834 SW589834 ACS589834 AMO589834 AWK589834 BGG589834 BQC589834 BZY589834 CJU589834 CTQ589834 DDM589834 DNI589834 DXE589834 EHA589834 EQW589834 FAS589834 FKO589834 FUK589834 GEG589834 GOC589834 GXY589834 HHU589834 HRQ589834 IBM589834 ILI589834 IVE589834 JFA589834 JOW589834 JYS589834 KIO589834 KSK589834 LCG589834 LMC589834 LVY589834 MFU589834 MPQ589834 MZM589834 NJI589834 NTE589834 ODA589834 OMW589834 OWS589834 PGO589834 PQK589834 QAG589834 QKC589834 QTY589834 RDU589834 RNQ589834 RXM589834 SHI589834 SRE589834 TBA589834 TKW589834 TUS589834 UEO589834 UOK589834 UYG589834 VIC589834 VRY589834 WBU589834 WLQ589834 WVM589834 E655370 JA655370 SW655370 ACS655370 AMO655370 AWK655370 BGG655370 BQC655370 BZY655370 CJU655370 CTQ655370 DDM655370 DNI655370 DXE655370 EHA655370 EQW655370 FAS655370 FKO655370 FUK655370 GEG655370 GOC655370 GXY655370 HHU655370 HRQ655370 IBM655370 ILI655370 IVE655370 JFA655370 JOW655370 JYS655370 KIO655370 KSK655370 LCG655370 LMC655370 LVY655370 MFU655370 MPQ655370 MZM655370 NJI655370 NTE655370 ODA655370 OMW655370 OWS655370 PGO655370 PQK655370 QAG655370 QKC655370 QTY655370 RDU655370 RNQ655370 RXM655370 SHI655370 SRE655370 TBA655370 TKW655370 TUS655370 UEO655370 UOK655370 UYG655370 VIC655370 VRY655370 WBU655370 WLQ655370 WVM655370 E720906 JA720906 SW720906 ACS720906 AMO720906 AWK720906 BGG720906 BQC720906 BZY720906 CJU720906 CTQ720906 DDM720906 DNI720906 DXE720906 EHA720906 EQW720906 FAS720906 FKO720906 FUK720906 GEG720906 GOC720906 GXY720906 HHU720906 HRQ720906 IBM720906 ILI720906 IVE720906 JFA720906 JOW720906 JYS720906 KIO720906 KSK720906 LCG720906 LMC720906 LVY720906 MFU720906 MPQ720906 MZM720906 NJI720906 NTE720906 ODA720906 OMW720906 OWS720906 PGO720906 PQK720906 QAG720906 QKC720906 QTY720906 RDU720906 RNQ720906 RXM720906 SHI720906 SRE720906 TBA720906 TKW720906 TUS720906 UEO720906 UOK720906 UYG720906 VIC720906 VRY720906 WBU720906 WLQ720906 WVM720906 E786442 JA786442 SW786442 ACS786442 AMO786442 AWK786442 BGG786442 BQC786442 BZY786442 CJU786442 CTQ786442 DDM786442 DNI786442 DXE786442 EHA786442 EQW786442 FAS786442 FKO786442 FUK786442 GEG786442 GOC786442 GXY786442 HHU786442 HRQ786442 IBM786442 ILI786442 IVE786442 JFA786442 JOW786442 JYS786442 KIO786442 KSK786442 LCG786442 LMC786442 LVY786442 MFU786442 MPQ786442 MZM786442 NJI786442 NTE786442 ODA786442 OMW786442 OWS786442 PGO786442 PQK786442 QAG786442 QKC786442 QTY786442 RDU786442 RNQ786442 RXM786442 SHI786442 SRE786442 TBA786442 TKW786442 TUS786442 UEO786442 UOK786442 UYG786442 VIC786442 VRY786442 WBU786442 WLQ786442 WVM786442 E851978 JA851978 SW851978 ACS851978 AMO851978 AWK851978 BGG851978 BQC851978 BZY851978 CJU851978 CTQ851978 DDM851978 DNI851978 DXE851978 EHA851978 EQW851978 FAS851978 FKO851978 FUK851978 GEG851978 GOC851978 GXY851978 HHU851978 HRQ851978 IBM851978 ILI851978 IVE851978 JFA851978 JOW851978 JYS851978 KIO851978 KSK851978 LCG851978 LMC851978 LVY851978 MFU851978 MPQ851978 MZM851978 NJI851978 NTE851978 ODA851978 OMW851978 OWS851978 PGO851978 PQK851978 QAG851978 QKC851978 QTY851978 RDU851978 RNQ851978 RXM851978 SHI851978 SRE851978 TBA851978 TKW851978 TUS851978 UEO851978 UOK851978 UYG851978 VIC851978 VRY851978 WBU851978 WLQ851978 WVM851978 E917514 JA917514 SW917514 ACS917514 AMO917514 AWK917514 BGG917514 BQC917514 BZY917514 CJU917514 CTQ917514 DDM917514 DNI917514 DXE917514 EHA917514 EQW917514 FAS917514 FKO917514 FUK917514 GEG917514 GOC917514 GXY917514 HHU917514 HRQ917514 IBM917514 ILI917514 IVE917514 JFA917514 JOW917514 JYS917514 KIO917514 KSK917514 LCG917514 LMC917514 LVY917514 MFU917514 MPQ917514 MZM917514 NJI917514 NTE917514 ODA917514 OMW917514 OWS917514 PGO917514 PQK917514 QAG917514 QKC917514 QTY917514 RDU917514 RNQ917514 RXM917514 SHI917514 SRE917514 TBA917514 TKW917514 TUS917514 UEO917514 UOK917514 UYG917514 VIC917514 VRY917514 WBU917514 WLQ917514 WVM917514 E983050 JA983050 SW983050 ACS983050 AMO983050 AWK983050 BGG983050 BQC983050 BZY983050 CJU983050 CTQ983050 DDM983050 DNI983050 DXE983050 EHA983050 EQW983050 FAS983050 FKO983050 FUK983050 GEG983050 GOC983050 GXY983050 HHU983050 HRQ983050 IBM983050 ILI983050 IVE983050 JFA983050 JOW983050 JYS983050 KIO983050 KSK983050 LCG983050 LMC983050 LVY983050 MFU983050 MPQ983050 MZM983050 NJI983050 NTE983050 ODA983050 OMW983050 OWS983050 PGO983050 PQK983050 QAG983050 QKC983050 QTY983050 RDU983050 RNQ983050 RXM983050 SHI983050 SRE983050 TBA983050 TKW983050 TUS983050 UEO983050 UOK983050 UYG983050 VIC983050 VRY983050 WBU983050 WLQ983050 WVM983050"/>
@@ -25787,9 +22489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N152" sqref="N152"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -25824,7 +22524,7 @@
       <c r="M1" s="154"/>
       <c r="N1" s="155"/>
       <c r="O1" s="156" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="P1" s="157"/>
       <c r="Q1" s="157"/>
@@ -26227,21 +22927,21 @@
       <c r="E10" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="684" t="str">
+      <c r="F10" s="686" t="str">
         <f>IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="G10" s="684"/>
+      <c r="G10" s="686"/>
       <c r="H10" s="155"/>
       <c r="I10" s="155"/>
       <c r="J10" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="684" t="str">
+      <c r="K10" s="686" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="L10" s="684"/>
+      <c r="L10" s="686"/>
       <c r="M10" s="201"/>
       <c r="N10" s="155"/>
       <c r="O10" s="165"/>
@@ -26311,21 +23011,21 @@
       <c r="E11" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="686" t="str">
+      <c r="F11" s="687" t="str">
         <f>IF(R11="","",R11)</f>
         <v/>
       </c>
-      <c r="G11" s="686"/>
+      <c r="G11" s="687"/>
       <c r="H11" s="155"/>
       <c r="I11" s="155"/>
       <c r="J11" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="684" t="str">
+      <c r="K11" s="686" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="L11" s="684"/>
+      <c r="L11" s="686"/>
       <c r="M11" s="201"/>
       <c r="N11" s="155"/>
       <c r="O11" s="165"/>
@@ -26395,21 +23095,21 @@
       <c r="E12" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="686" t="str">
+      <c r="F12" s="687" t="str">
         <f>IF(R12="","",R12)</f>
         <v/>
       </c>
-      <c r="G12" s="686"/>
+      <c r="G12" s="687"/>
       <c r="H12" s="155"/>
       <c r="I12" s="155"/>
       <c r="J12" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="685" t="str">
+      <c r="K12" s="688" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="L12" s="685"/>
+      <c r="L12" s="688"/>
       <c r="M12" s="201"/>
       <c r="N12" s="155"/>
       <c r="O12" s="165"/>
@@ -26479,21 +23179,21 @@
       <c r="E13" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="686" t="str">
+      <c r="F13" s="687" t="str">
         <f>IF(R13="","",R13)</f>
         <v/>
       </c>
-      <c r="G13" s="686"/>
+      <c r="G13" s="687"/>
       <c r="H13" s="155"/>
       <c r="I13" s="155"/>
       <c r="J13" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="684" t="str">
+      <c r="K13" s="686" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="L13" s="684"/>
+      <c r="L13" s="686"/>
       <c r="M13" s="201"/>
       <c r="N13" s="155"/>
       <c r="O13" s="165"/>
@@ -26703,21 +23403,21 @@
       <c r="E16" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="684" t="str">
+      <c r="F16" s="686" t="str">
         <f>IF(R17="","",R17)</f>
         <v/>
       </c>
-      <c r="G16" s="684"/>
+      <c r="G16" s="686"/>
       <c r="H16" s="155"/>
       <c r="I16" s="155"/>
       <c r="J16" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="685" t="str">
+      <c r="K16" s="688" t="str">
         <f>IF(V17="","",V17)</f>
         <v/>
       </c>
-      <c r="L16" s="685"/>
+      <c r="L16" s="688"/>
       <c r="M16" s="201"/>
       <c r="N16" s="155"/>
       <c r="O16" s="165"/>
@@ -26779,21 +23479,21 @@
       <c r="E17" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="684" t="str">
+      <c r="F17" s="686" t="str">
         <f>IF(R18="","",R18)</f>
         <v/>
       </c>
-      <c r="G17" s="684"/>
+      <c r="G17" s="686"/>
       <c r="H17" s="155"/>
       <c r="I17" s="155"/>
       <c r="J17" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="684" t="str">
+      <c r="K17" s="686" t="str">
         <f>IF(V18="","",V18)</f>
         <v/>
       </c>
-      <c r="L17" s="684"/>
+      <c r="L17" s="686"/>
       <c r="M17" s="201"/>
       <c r="N17" s="155"/>
       <c r="O17" s="165"/>
@@ -26863,21 +23563,21 @@
       <c r="E18" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="684" t="str">
+      <c r="F18" s="686" t="str">
         <f>IF(R19="","",R19)</f>
         <v/>
       </c>
-      <c r="G18" s="684"/>
+      <c r="G18" s="686"/>
       <c r="H18" s="155"/>
       <c r="I18" s="155"/>
       <c r="J18" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="684" t="str">
+      <c r="K18" s="686" t="str">
         <f>IF(V19="","",V19)</f>
         <v/>
       </c>
-      <c r="L18" s="684"/>
+      <c r="L18" s="686"/>
       <c r="M18" s="201"/>
       <c r="N18" s="155"/>
       <c r="O18" s="165"/>
@@ -27081,21 +23781,21 @@
       <c r="E21" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="684" t="str">
+      <c r="F21" s="686" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G21" s="684"/>
+      <c r="G21" s="686"/>
       <c r="H21" s="155"/>
       <c r="I21" s="155"/>
       <c r="J21" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="684" t="str">
+      <c r="K21" s="686" t="str">
         <f>IF(V21="","",V21)</f>
         <v/>
       </c>
-      <c r="L21" s="684"/>
+      <c r="L21" s="686"/>
       <c r="M21" s="201"/>
       <c r="N21" s="155"/>
       <c r="O21" s="165"/>
@@ -27162,19 +23862,19 @@
       <c r="E22" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="685" t="str">
+      <c r="F22" s="688" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G22" s="685"/>
+      <c r="G22" s="688"/>
       <c r="H22" s="155"/>
       <c r="I22" s="155"/>
       <c r="J22" s="171"/>
-      <c r="K22" s="684" t="str">
+      <c r="K22" s="686" t="str">
         <f>IF(V22="","",V22)</f>
         <v/>
       </c>
-      <c r="L22" s="684"/>
+      <c r="L22" s="686"/>
       <c r="M22" s="201"/>
       <c r="N22" s="155"/>
       <c r="O22" s="165"/>
@@ -27249,11 +23949,11 @@
       <c r="J23" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="684" t="str">
+      <c r="K23" s="686" t="str">
         <f>IF(V24="","",V24)</f>
         <v/>
       </c>
-      <c r="L23" s="684"/>
+      <c r="L23" s="686"/>
       <c r="M23" s="201"/>
       <c r="N23" s="155"/>
       <c r="O23" s="165"/>
@@ -27318,19 +24018,19 @@
       <c r="E24" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="684" t="str">
+      <c r="F24" s="686" t="str">
         <f>IF(R25="","",R25)</f>
         <v/>
       </c>
-      <c r="G24" s="684"/>
+      <c r="G24" s="686"/>
       <c r="H24" s="155"/>
       <c r="I24" s="155"/>
       <c r="J24" s="155"/>
-      <c r="K24" s="684" t="str">
+      <c r="K24" s="686" t="str">
         <f>IF(V25="","",V25)</f>
         <v/>
       </c>
-      <c r="L24" s="684"/>
+      <c r="L24" s="686"/>
       <c r="M24" s="201"/>
       <c r="N24" s="155"/>
       <c r="O24" s="165"/>
@@ -27397,19 +24097,19 @@
       <c r="E25" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="684" t="str">
+      <c r="F25" s="686" t="str">
         <f>IF(R26="","",R26)</f>
         <v/>
       </c>
-      <c r="G25" s="684"/>
+      <c r="G25" s="686"/>
       <c r="H25" s="155"/>
       <c r="I25" s="155"/>
       <c r="J25" s="216"/>
-      <c r="K25" s="684" t="str">
+      <c r="K25" s="686" t="str">
         <f>IF(V26="","",V26)</f>
         <v/>
       </c>
-      <c r="L25" s="684"/>
+      <c r="L25" s="686"/>
       <c r="M25" s="201"/>
       <c r="N25" s="155"/>
       <c r="O25" s="165"/>
@@ -27477,11 +24177,11 @@
       <c r="E26" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="684" t="str">
+      <c r="F26" s="686" t="str">
         <f>IF(R27="","",R27)</f>
         <v/>
       </c>
-      <c r="G26" s="684"/>
+      <c r="G26" s="686"/>
       <c r="H26" s="155"/>
       <c r="I26" s="208" t="s">
         <v>32</v>
@@ -27563,11 +24263,11 @@
       <c r="J27" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="684" t="str">
+      <c r="K27" s="686" t="str">
         <f>IF(V28="","",V28)</f>
         <v/>
       </c>
-      <c r="L27" s="684"/>
+      <c r="L27" s="686"/>
       <c r="M27" s="201"/>
       <c r="N27" s="155"/>
       <c r="O27" s="165"/>
@@ -27628,21 +24328,21 @@
       <c r="E28" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="684" t="str">
+      <c r="F28" s="686" t="str">
         <f>IF(R29="","",R29)</f>
         <v/>
       </c>
-      <c r="G28" s="684"/>
+      <c r="G28" s="686"/>
       <c r="H28" s="155"/>
       <c r="I28" s="216"/>
       <c r="J28" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="684" t="str">
+      <c r="K28" s="686" t="str">
         <f>IF(V29="","",V29)</f>
         <v/>
       </c>
-      <c r="L28" s="684"/>
+      <c r="L28" s="686"/>
       <c r="M28" s="201"/>
       <c r="N28" s="155"/>
       <c r="O28" s="165"/>
@@ -27709,11 +24409,11 @@
       <c r="E29" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="684" t="str">
+      <c r="F29" s="686" t="str">
         <f>IF(R30="","",R30)</f>
         <v/>
       </c>
-      <c r="G29" s="684"/>
+      <c r="G29" s="686"/>
       <c r="H29" s="155"/>
       <c r="I29" s="208" t="s">
         <v>36</v>
@@ -27721,11 +24421,11 @@
       <c r="J29" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="684" t="str">
+      <c r="K29" s="686" t="str">
         <f>IF(V32="","",V32)</f>
         <v/>
       </c>
-      <c r="L29" s="684"/>
+      <c r="L29" s="686"/>
       <c r="M29" s="201"/>
       <c r="N29" s="155"/>
       <c r="O29" s="165"/>
@@ -27795,21 +24495,21 @@
       <c r="E30" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="684" t="str">
+      <c r="F30" s="686" t="str">
         <f>IF(R31="","",R31)</f>
         <v/>
       </c>
-      <c r="G30" s="684"/>
+      <c r="G30" s="686"/>
       <c r="H30" s="155"/>
       <c r="I30" s="155"/>
       <c r="J30" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="684" t="str">
+      <c r="K30" s="686" t="str">
         <f>IF(V33="","",V33)</f>
         <v/>
       </c>
-      <c r="L30" s="684"/>
+      <c r="L30" s="686"/>
       <c r="M30" s="201"/>
       <c r="N30" s="155"/>
       <c r="O30" s="165"/>
@@ -28149,21 +24849,21 @@
       <c r="C35" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="681" t="s">
+      <c r="D35" s="689" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="681"/>
-      <c r="F35" s="681"/>
-      <c r="G35" s="682" t="s">
+      <c r="E35" s="689"/>
+      <c r="F35" s="689"/>
+      <c r="G35" s="690" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="682"/>
-      <c r="I35" s="682"/>
-      <c r="J35" s="681" t="s">
+      <c r="H35" s="690"/>
+      <c r="I35" s="690"/>
+      <c r="J35" s="689" t="s">
         <v>44</v>
       </c>
-      <c r="K35" s="681"/>
-      <c r="L35" s="681"/>
+      <c r="K35" s="689"/>
+      <c r="L35" s="689"/>
       <c r="M35" s="201"/>
       <c r="N35" s="155"/>
       <c r="O35" s="222"/>
@@ -28223,15 +24923,15 @@
       <c r="C36" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="681"/>
-      <c r="E36" s="681"/>
-      <c r="F36" s="681"/>
-      <c r="G36" s="682"/>
-      <c r="H36" s="682"/>
-      <c r="I36" s="682"/>
-      <c r="J36" s="681"/>
-      <c r="K36" s="681"/>
-      <c r="L36" s="681"/>
+      <c r="D36" s="689"/>
+      <c r="E36" s="689"/>
+      <c r="F36" s="689"/>
+      <c r="G36" s="690"/>
+      <c r="H36" s="690"/>
+      <c r="I36" s="690"/>
+      <c r="J36" s="689"/>
+      <c r="K36" s="689"/>
+      <c r="L36" s="689"/>
       <c r="M36" s="201"/>
       <c r="N36" s="155"/>
       <c r="O36" s="155"/>
@@ -28897,10 +25597,10 @@
       <c r="I44" s="155"/>
       <c r="J44" s="155"/>
       <c r="K44" s="155"/>
-      <c r="L44" s="683" t="s">
+      <c r="L44" s="691" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="683"/>
+      <c r="M44" s="691"/>
       <c r="N44" s="155"/>
       <c r="O44" s="165"/>
       <c r="P44" s="155"/>
@@ -31995,21 +28695,21 @@
       <c r="O97" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="P97" s="681" t="s">
+      <c r="P97" s="689" t="s">
         <v>42</v>
       </c>
-      <c r="Q97" s="681"/>
-      <c r="R97" s="681"/>
-      <c r="S97" s="682" t="s">
+      <c r="Q97" s="689"/>
+      <c r="R97" s="689"/>
+      <c r="S97" s="690" t="s">
         <v>43</v>
       </c>
-      <c r="T97" s="682"/>
-      <c r="U97" s="682"/>
-      <c r="V97" s="681" t="s">
+      <c r="T97" s="690"/>
+      <c r="U97" s="690"/>
+      <c r="V97" s="689" t="s">
         <v>44</v>
       </c>
-      <c r="W97" s="681"/>
-      <c r="X97" s="681"/>
+      <c r="W97" s="689"/>
+      <c r="X97" s="689"/>
       <c r="Y97" s="167"/>
       <c r="AA97" s="261"/>
       <c r="AB97" s="261"/>
@@ -32044,15 +28744,15 @@
       <c r="O98" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="P98" s="681"/>
-      <c r="Q98" s="681"/>
-      <c r="R98" s="681"/>
-      <c r="S98" s="682"/>
-      <c r="T98" s="682"/>
-      <c r="U98" s="682"/>
-      <c r="V98" s="681"/>
-      <c r="W98" s="681"/>
-      <c r="X98" s="681"/>
+      <c r="P98" s="689"/>
+      <c r="Q98" s="689"/>
+      <c r="R98" s="689"/>
+      <c r="S98" s="690"/>
+      <c r="T98" s="690"/>
+      <c r="U98" s="690"/>
+      <c r="V98" s="689"/>
+      <c r="W98" s="689"/>
+      <c r="X98" s="689"/>
       <c r="Y98" s="167"/>
       <c r="AA98" s="208" t="s">
         <v>394</v>
@@ -32507,21 +29207,21 @@
       <c r="O105" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="P105" s="681" t="s">
+      <c r="P105" s="689" t="s">
         <v>42</v>
       </c>
-      <c r="Q105" s="681"/>
-      <c r="R105" s="681"/>
-      <c r="S105" s="682" t="s">
+      <c r="Q105" s="689"/>
+      <c r="R105" s="689"/>
+      <c r="S105" s="690" t="s">
         <v>43</v>
       </c>
-      <c r="T105" s="682"/>
-      <c r="U105" s="682"/>
-      <c r="V105" s="681" t="s">
+      <c r="T105" s="690"/>
+      <c r="U105" s="690"/>
+      <c r="V105" s="689" t="s">
         <v>44</v>
       </c>
-      <c r="W105" s="681"/>
-      <c r="X105" s="681"/>
+      <c r="W105" s="689"/>
+      <c r="X105" s="689"/>
       <c r="Y105" s="167"/>
       <c r="AA105" s="171" t="s">
         <v>274</v>
@@ -32556,15 +29256,15 @@
       <c r="O106" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="P106" s="681"/>
-      <c r="Q106" s="681"/>
-      <c r="R106" s="681"/>
-      <c r="S106" s="682"/>
-      <c r="T106" s="682"/>
-      <c r="U106" s="682"/>
-      <c r="V106" s="681"/>
-      <c r="W106" s="681"/>
-      <c r="X106" s="681"/>
+      <c r="P106" s="689"/>
+      <c r="Q106" s="689"/>
+      <c r="R106" s="689"/>
+      <c r="S106" s="690"/>
+      <c r="T106" s="690"/>
+      <c r="U106" s="690"/>
+      <c r="V106" s="689"/>
+      <c r="W106" s="689"/>
+      <c r="X106" s="689"/>
       <c r="Y106" s="167"/>
       <c r="AA106" s="171" t="s">
         <v>277</v>
@@ -34408,7 +31108,7 @@
       <c r="J147" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="K147" s="706" t="str">
+      <c r="K147" s="610" t="str">
         <f>IF(O132="","",IF(O132=1,"YES",IF(O132=3,"NA","")))</f>
         <v/>
       </c>
@@ -34481,7 +31181,7 @@
       <c r="J148" s="171" t="s">
         <v>185</v>
       </c>
-      <c r="K148" s="707" t="str">
+      <c r="K148" s="611" t="str">
         <f>IF(O133="","",IF(O133=1,"YES",IF(O133=3,"NA","")))</f>
         <v/>
       </c>
@@ -34526,7 +31226,7 @@
       <c r="J149" s="171" t="s">
         <v>173</v>
       </c>
-      <c r="K149" s="707" t="str">
+      <c r="K149" s="611" t="str">
         <f>IF(S132="","",S132)</f>
         <v/>
       </c>
@@ -35419,7 +32119,7 @@
       <c r="D166" s="171" t="s">
         <v>705</v>
       </c>
-      <c r="E166" s="696" t="str">
+      <c r="E166" s="602" t="str">
         <f>Q154</f>
         <v/>
       </c>
@@ -35439,7 +32139,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J166" s="697" t="str">
+      <c r="J166" s="603" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -35472,27 +32172,27 @@
       <c r="D167" s="322" t="s">
         <v>180</v>
       </c>
-      <c r="E167" s="698" t="str">
+      <c r="E167" s="604" t="str">
         <f t="shared" ref="E167:J167" si="36">Q155</f>
         <v/>
       </c>
-      <c r="F167" s="699" t="str">
+      <c r="F167" s="605" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G167" s="699" t="str">
+      <c r="G167" s="605" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H167" s="699" t="str">
+      <c r="H167" s="605" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I167" s="699" t="str">
+      <c r="I167" s="605" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J167" s="700" t="str">
+      <c r="J167" s="606" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -35501,17 +32201,17 @@
       <c r="M167" s="164"/>
       <c r="N167" s="155"/>
       <c r="O167" s="165"/>
-      <c r="P167" s="673" t="s">
+      <c r="P167" s="692" t="s">
         <v>187</v>
       </c>
-      <c r="Q167" s="673"/>
-      <c r="R167" s="673"/>
-      <c r="S167" s="673"/>
+      <c r="Q167" s="692"/>
+      <c r="R167" s="692"/>
+      <c r="S167" s="692"/>
       <c r="T167" s="324"/>
-      <c r="U167" s="673" t="s">
+      <c r="U167" s="692" t="s">
         <v>188</v>
       </c>
-      <c r="V167" s="673"/>
+      <c r="V167" s="692"/>
       <c r="W167" s="155"/>
       <c r="X167" s="155"/>
       <c r="Y167" s="167"/>
@@ -35551,10 +32251,10 @@
         <v>192</v>
       </c>
       <c r="T168" s="324"/>
-      <c r="U168" s="678" t="s">
+      <c r="U168" s="693" t="s">
         <v>193</v>
       </c>
-      <c r="V168" s="678"/>
+      <c r="V168" s="693"/>
       <c r="W168" s="155"/>
       <c r="X168" s="155"/>
       <c r="Y168" s="167"/>
@@ -35583,11 +32283,11 @@
       <c r="R169" s="327"/>
       <c r="S169" s="328"/>
       <c r="T169" s="324"/>
-      <c r="U169" s="679" t="str">
+      <c r="U169" s="694" t="str">
         <f>IF(OR(R166=2,R166=3),"NA",IF(OR(P169="",Q169="",R169="",S169=""),"",AVERAGE(P169:S169)))</f>
         <v/>
       </c>
-      <c r="V169" s="679"/>
+      <c r="V169" s="694"/>
       <c r="W169" s="155"/>
       <c r="X169" s="171" t="s">
         <v>180</v>
@@ -35665,17 +32365,17 @@
       </c>
       <c r="B172" s="199"/>
       <c r="C172" s="155"/>
-      <c r="D172" s="673" t="s">
+      <c r="D172" s="692" t="s">
         <v>187</v>
       </c>
-      <c r="E172" s="673"/>
-      <c r="F172" s="673"/>
-      <c r="G172" s="673"/>
+      <c r="E172" s="692"/>
+      <c r="F172" s="692"/>
+      <c r="G172" s="692"/>
       <c r="H172" s="324"/>
-      <c r="I172" s="673" t="s">
+      <c r="I172" s="692" t="s">
         <v>188</v>
       </c>
-      <c r="J172" s="673"/>
+      <c r="J172" s="692"/>
       <c r="K172" s="155"/>
       <c r="L172" s="155"/>
       <c r="M172" s="201"/>
@@ -35716,27 +32416,27 @@
         <v>192</v>
       </c>
       <c r="H173" s="324"/>
-      <c r="I173" s="678" t="s">
+      <c r="I173" s="693" t="s">
         <v>193</v>
       </c>
-      <c r="J173" s="678"/>
+      <c r="J173" s="693"/>
       <c r="K173" s="155"/>
       <c r="L173" s="155"/>
       <c r="M173" s="201"/>
       <c r="N173" s="155"/>
       <c r="O173" s="165"/>
-      <c r="P173" s="675" t="s">
+      <c r="P173" s="695" t="s">
         <v>196</v>
       </c>
-      <c r="Q173" s="676" t="s">
+      <c r="Q173" s="682" t="s">
         <v>197</v>
       </c>
-      <c r="R173" s="676"/>
-      <c r="S173" s="676"/>
+      <c r="R173" s="682"/>
+      <c r="S173" s="682"/>
       <c r="T173" s="331" t="s">
         <v>710</v>
       </c>
-      <c r="U173" s="680" t="s">
+      <c r="U173" s="685" t="s">
         <v>198</v>
       </c>
       <c r="V173" s="245"/>
@@ -35767,11 +32467,11 @@
         <v/>
       </c>
       <c r="H174" s="324"/>
-      <c r="I174" s="674" t="str">
+      <c r="I174" s="698" t="str">
         <f>IF(U169="","",U169)</f>
         <v/>
       </c>
-      <c r="J174" s="674"/>
+      <c r="J174" s="698"/>
       <c r="K174" s="155"/>
       <c r="L174" s="171" t="s">
         <v>180</v>
@@ -35782,7 +32482,7 @@
       </c>
       <c r="N174" s="155"/>
       <c r="O174" s="165"/>
-      <c r="P174" s="675" t="s">
+      <c r="P174" s="695" t="s">
         <v>196</v>
       </c>
       <c r="Q174" s="331" t="s">
@@ -35797,7 +32497,7 @@
       <c r="T174" s="331" t="s">
         <v>202</v>
       </c>
-      <c r="U174" s="680" t="s">
+      <c r="U174" s="685" t="s">
         <v>196</v>
       </c>
       <c r="V174" s="245"/>
@@ -35948,14 +32648,14 @@
         <f>IF(P172="","",P172)</f>
         <v>65</v>
       </c>
-      <c r="D179" s="671" t="s">
+      <c r="D179" s="699" t="s">
         <v>219</v>
       </c>
-      <c r="E179" s="671"/>
-      <c r="F179" s="671"/>
-      <c r="G179" s="671"/>
-      <c r="H179" s="671"/>
-      <c r="I179" s="671"/>
+      <c r="E179" s="699"/>
+      <c r="F179" s="699"/>
+      <c r="G179" s="699"/>
+      <c r="H179" s="699"/>
+      <c r="I179" s="699"/>
       <c r="J179" s="245"/>
       <c r="K179" s="245"/>
       <c r="L179" s="245"/>
@@ -35981,18 +32681,18 @@
       </c>
       <c r="B180" s="199"/>
       <c r="C180" s="216"/>
-      <c r="D180" s="675" t="s">
+      <c r="D180" s="695" t="s">
         <v>196</v>
       </c>
-      <c r="E180" s="676" t="s">
+      <c r="E180" s="682" t="s">
         <v>197</v>
       </c>
-      <c r="F180" s="676"/>
-      <c r="G180" s="676"/>
+      <c r="F180" s="682"/>
+      <c r="G180" s="682"/>
       <c r="H180" s="331" t="s">
         <v>710</v>
       </c>
-      <c r="I180" s="677" t="s">
+      <c r="I180" s="700" t="s">
         <v>198</v>
       </c>
       <c r="J180" s="245"/>
@@ -36018,7 +32718,7 @@
       </c>
       <c r="B181" s="199"/>
       <c r="C181" s="216"/>
-      <c r="D181" s="675" t="s">
+      <c r="D181" s="695" t="s">
         <v>196</v>
       </c>
       <c r="E181" s="331" t="s">
@@ -36033,7 +32733,7 @@
       <c r="H181" s="331" t="s">
         <v>202</v>
       </c>
-      <c r="I181" s="677" t="s">
+      <c r="I181" s="700" t="s">
         <v>202</v>
       </c>
       <c r="J181" s="245"/>
@@ -36042,14 +32742,14 @@
       <c r="M181" s="201"/>
       <c r="N181" s="155"/>
       <c r="O181" s="350"/>
-      <c r="P181" s="689" t="s">
+      <c r="P181" s="680" t="s">
         <v>209</v>
       </c>
-      <c r="Q181" s="690"/>
-      <c r="R181" s="690"/>
-      <c r="S181" s="690"/>
-      <c r="T181" s="690"/>
-      <c r="U181" s="676"/>
+      <c r="Q181" s="681"/>
+      <c r="R181" s="681"/>
+      <c r="S181" s="681"/>
+      <c r="T181" s="681"/>
+      <c r="U181" s="682"/>
       <c r="V181" s="245"/>
       <c r="W181" s="245"/>
       <c r="X181" s="245"/>
@@ -36096,15 +32796,15 @@
       <c r="P182" s="355" t="s">
         <v>196</v>
       </c>
-      <c r="Q182" s="692" t="s">
+      <c r="Q182" s="684" t="s">
         <v>197</v>
       </c>
-      <c r="R182" s="690"/>
-      <c r="S182" s="676"/>
+      <c r="R182" s="681"/>
+      <c r="S182" s="682"/>
       <c r="T182" s="546" t="s">
         <v>710</v>
       </c>
-      <c r="U182" s="680" t="s">
+      <c r="U182" s="685" t="s">
         <v>198</v>
       </c>
       <c r="V182" s="245"/>
@@ -36165,7 +32865,7 @@
       <c r="T183" s="335" t="s">
         <v>202</v>
       </c>
-      <c r="U183" s="680" t="s">
+      <c r="U183" s="685" t="s">
         <v>196</v>
       </c>
       <c r="V183" s="245"/>
@@ -36524,14 +33224,14 @@
       </c>
       <c r="B189" s="377"/>
       <c r="C189" s="216"/>
-      <c r="D189" s="671" t="s">
+      <c r="D189" s="699" t="s">
         <v>224</v>
       </c>
-      <c r="E189" s="671"/>
-      <c r="F189" s="671"/>
-      <c r="G189" s="671"/>
-      <c r="H189" s="671"/>
-      <c r="I189" s="671"/>
+      <c r="E189" s="699"/>
+      <c r="F189" s="699"/>
+      <c r="G189" s="699"/>
+      <c r="H189" s="699"/>
+      <c r="I189" s="699"/>
       <c r="J189" s="245"/>
       <c r="K189" s="245"/>
       <c r="L189" s="245"/>
@@ -36873,7 +33573,7 @@
       <c r="T195" s="546" t="s">
         <v>710</v>
       </c>
-      <c r="U195" s="680" t="s">
+      <c r="U195" s="685" t="s">
         <v>198</v>
       </c>
       <c r="V195" s="245"/>
@@ -36918,7 +33618,7 @@
       <c r="T196" s="335" t="s">
         <v>202</v>
       </c>
-      <c r="U196" s="680" t="s">
+      <c r="U196" s="685" t="s">
         <v>196</v>
       </c>
       <c r="V196" s="245"/>
@@ -37189,14 +33889,14 @@
       </c>
       <c r="N204" s="155"/>
       <c r="O204" s="350"/>
-      <c r="P204" s="691" t="s">
+      <c r="P204" s="683" t="s">
         <v>209</v>
       </c>
-      <c r="Q204" s="691"/>
-      <c r="R204" s="691"/>
-      <c r="S204" s="691"/>
-      <c r="T204" s="691"/>
-      <c r="U204" s="691"/>
+      <c r="Q204" s="683"/>
+      <c r="R204" s="683"/>
+      <c r="S204" s="683"/>
+      <c r="T204" s="683"/>
+      <c r="U204" s="683"/>
       <c r="V204" s="245"/>
       <c r="W204" s="245"/>
       <c r="X204" s="245"/>
@@ -37226,15 +33926,15 @@
       <c r="P205" s="355" t="s">
         <v>196</v>
       </c>
-      <c r="Q205" s="692" t="s">
+      <c r="Q205" s="684" t="s">
         <v>197</v>
       </c>
-      <c r="R205" s="690"/>
-      <c r="S205" s="676"/>
+      <c r="R205" s="681"/>
+      <c r="S205" s="682"/>
       <c r="T205" s="546" t="s">
         <v>710</v>
       </c>
-      <c r="U205" s="680" t="s">
+      <c r="U205" s="685" t="s">
         <v>198</v>
       </c>
       <c r="V205" s="245"/>
@@ -37280,7 +33980,7 @@
       <c r="T206" s="335" t="s">
         <v>202</v>
       </c>
-      <c r="U206" s="680" t="s">
+      <c r="U206" s="685" t="s">
         <v>196</v>
       </c>
       <c r="V206" s="245"/>
@@ -39992,21 +36692,21 @@
       </c>
       <c r="B259" s="199"/>
       <c r="C259" s="155"/>
-      <c r="D259" s="672" t="s">
+      <c r="D259" s="697" t="s">
         <v>263</v>
       </c>
-      <c r="E259" s="672"/>
+      <c r="E259" s="697"/>
       <c r="F259" s="216"/>
-      <c r="G259" s="672" t="s">
+      <c r="G259" s="697" t="s">
         <v>264</v>
       </c>
-      <c r="H259" s="672"/>
+      <c r="H259" s="697"/>
       <c r="I259" s="155"/>
       <c r="J259" s="216"/>
-      <c r="K259" s="668" t="s">
+      <c r="K259" s="701" t="s">
         <v>265</v>
       </c>
-      <c r="L259" s="668"/>
+      <c r="L259" s="701"/>
       <c r="M259" s="246"/>
       <c r="N259" s="155"/>
       <c r="O259" s="165"/>
@@ -40865,7 +37565,7 @@
       <c r="D276" s="171" t="s">
         <v>269</v>
       </c>
-      <c r="E276" s="701" t="str">
+      <c r="E276" s="607" t="str">
         <f>IF(Q277="","",Q277)</f>
         <v/>
       </c>
@@ -41632,7 +38332,7 @@
       <c r="D290" s="171" t="s">
         <v>269</v>
       </c>
-      <c r="E290" s="701">
+      <c r="E290" s="607">
         <f>IF(Q292="","",Q292)</f>
         <v>0</v>
       </c>
@@ -42378,14 +39078,14 @@
       <c r="B305" s="377"/>
       <c r="C305" s="245"/>
       <c r="D305" s="245"/>
-      <c r="E305" s="669" t="str">
+      <c r="E305" s="702" t="str">
         <f>O311&amp;" "&amp;P312&amp;" "&amp;Q312</f>
         <v xml:space="preserve">Combo Mode 2D Target/Filter: </v>
       </c>
-      <c r="F305" s="669"/>
-      <c r="G305" s="669"/>
-      <c r="H305" s="669"/>
-      <c r="I305" s="669"/>
+      <c r="F305" s="702"/>
+      <c r="G305" s="702"/>
+      <c r="H305" s="702"/>
+      <c r="I305" s="702"/>
       <c r="J305" s="245"/>
       <c r="K305" s="245"/>
       <c r="L305" s="245"/>
@@ -42884,14 +39584,14 @@
       <c r="B316" s="377"/>
       <c r="C316" s="245"/>
       <c r="D316" s="245"/>
-      <c r="E316" s="670" t="str">
+      <c r="E316" s="703" t="str">
         <f>O323&amp;" "&amp;P324&amp;" "&amp;Q324</f>
         <v xml:space="preserve">Combo Mode 3D Target/Filter: </v>
       </c>
-      <c r="F316" s="670"/>
-      <c r="G316" s="670"/>
-      <c r="H316" s="670"/>
-      <c r="I316" s="670"/>
+      <c r="F316" s="703"/>
+      <c r="G316" s="703"/>
+      <c r="H316" s="703"/>
+      <c r="I316" s="703"/>
       <c r="J316" s="245"/>
       <c r="K316" s="245"/>
       <c r="L316" s="245"/>
@@ -43989,8 +40689,8 @@
       <c r="S338" s="171" t="s">
         <v>305</v>
       </c>
-      <c r="T338" s="687"/>
-      <c r="U338" s="687"/>
+      <c r="T338" s="678"/>
+      <c r="U338" s="678"/>
       <c r="V338" s="155"/>
       <c r="W338" s="155"/>
       <c r="X338" s="155"/>
@@ -44032,8 +40732,8 @@
       <c r="S339" s="171" t="s">
         <v>307</v>
       </c>
-      <c r="T339" s="688"/>
-      <c r="U339" s="688"/>
+      <c r="T339" s="679"/>
+      <c r="U339" s="679"/>
       <c r="V339" s="155"/>
       <c r="W339" s="155"/>
       <c r="X339" s="155"/>
@@ -44172,7 +40872,7 @@
       <c r="C343" s="468" t="s">
         <v>304</v>
       </c>
-      <c r="D343" s="702" t="str">
+      <c r="D343" s="608" t="str">
         <f>IF(P338="","",P338)</f>
         <v>Piranha</v>
       </c>
@@ -44182,11 +40882,11 @@
       <c r="H343" s="468" t="s">
         <v>305</v>
       </c>
-      <c r="I343" s="703" t="str">
+      <c r="I343" s="704" t="str">
         <f>IF(T338="","",T338)</f>
         <v/>
       </c>
-      <c r="J343" s="703"/>
+      <c r="J343" s="704"/>
       <c r="K343" s="191"/>
       <c r="L343" s="191"/>
       <c r="M343" s="193"/>
@@ -44248,11 +40948,11 @@
       <c r="H344" s="322" t="s">
         <v>307</v>
       </c>
-      <c r="I344" s="704" t="str">
+      <c r="I344" s="696" t="str">
         <f>IF(T339="","",T339)</f>
         <v/>
       </c>
-      <c r="J344" s="704"/>
+      <c r="J344" s="696"/>
       <c r="K344" s="216"/>
       <c r="L344" s="155"/>
       <c r="M344" s="201"/>
@@ -44504,7 +41204,7 @@
       <c r="C348" s="171" t="s">
         <v>178</v>
       </c>
-      <c r="D348" s="705">
+      <c r="D348" s="609">
         <f>IF(S343="","",S343)</f>
         <v>50</v>
       </c>
@@ -44513,7 +41213,7 @@
       <c r="G348" s="171" t="s">
         <v>178</v>
       </c>
-      <c r="H348" s="705">
+      <c r="H348" s="609">
         <f>IF(S354="","",S354)</f>
         <v>50</v>
       </c>
@@ -44522,7 +41222,7 @@
       <c r="K348" s="171" t="s">
         <v>178</v>
       </c>
-      <c r="L348" s="705">
+      <c r="L348" s="609">
         <f>IF(S364="","",S364)</f>
         <v>50</v>
       </c>
@@ -50542,27 +47242,45 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="T338:U338"/>
-    <mergeCell ref="T339:U339"/>
-    <mergeCell ref="P181:U181"/>
-    <mergeCell ref="P204:U204"/>
-    <mergeCell ref="Q205:S205"/>
-    <mergeCell ref="Q182:S182"/>
-    <mergeCell ref="U182:U183"/>
-    <mergeCell ref="U195:U196"/>
-    <mergeCell ref="U205:U206"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="E305:I305"/>
+    <mergeCell ref="E316:I316"/>
+    <mergeCell ref="D189:I189"/>
+    <mergeCell ref="I343:J343"/>
+    <mergeCell ref="I344:J344"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="D172:G172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="D179:I179"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:G180"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="U168:V168"/>
+    <mergeCell ref="U169:V169"/>
+    <mergeCell ref="P173:P174"/>
+    <mergeCell ref="Q173:S173"/>
+    <mergeCell ref="U173:U174"/>
+    <mergeCell ref="V97:X98"/>
+    <mergeCell ref="P105:R106"/>
+    <mergeCell ref="S105:U106"/>
+    <mergeCell ref="V105:X106"/>
+    <mergeCell ref="P167:S167"/>
+    <mergeCell ref="U167:V167"/>
+    <mergeCell ref="S97:U98"/>
+    <mergeCell ref="D35:F36"/>
+    <mergeCell ref="G35:I36"/>
+    <mergeCell ref="J35:L36"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="P97:R98"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="K30:L30"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="K18:L18"/>
@@ -50576,551 +47294,533 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D35:F36"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="J35:L36"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="P97:R98"/>
-    <mergeCell ref="V97:X98"/>
-    <mergeCell ref="P105:R106"/>
-    <mergeCell ref="S105:U106"/>
-    <mergeCell ref="V105:X106"/>
-    <mergeCell ref="P167:S167"/>
-    <mergeCell ref="U167:V167"/>
-    <mergeCell ref="S97:U98"/>
-    <mergeCell ref="U168:V168"/>
-    <mergeCell ref="U169:V169"/>
-    <mergeCell ref="P173:P174"/>
-    <mergeCell ref="Q173:S173"/>
-    <mergeCell ref="U173:U174"/>
-    <mergeCell ref="I344:J344"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="G259:H259"/>
-    <mergeCell ref="D172:G172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="D179:I179"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:G180"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K259:L259"/>
-    <mergeCell ref="E305:I305"/>
-    <mergeCell ref="E316:I316"/>
-    <mergeCell ref="D189:I189"/>
-    <mergeCell ref="I343:J343"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="T338:U338"/>
+    <mergeCell ref="T339:U339"/>
+    <mergeCell ref="P181:U181"/>
+    <mergeCell ref="P204:U204"/>
+    <mergeCell ref="Q205:S205"/>
+    <mergeCell ref="Q182:S182"/>
+    <mergeCell ref="U182:U183"/>
+    <mergeCell ref="U195:U196"/>
+    <mergeCell ref="U205:U206"/>
   </mergeCells>
   <conditionalFormatting sqref="P188:U189">
-    <cfRule type="cellIs" dxfId="222" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="127" operator="lessThan">
       <formula>0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="128" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="128" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P207:U210">
-    <cfRule type="cellIs" dxfId="220" priority="124" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="124" operator="between">
       <formula>0.02</formula>
       <formula>-0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="125" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="125" operator="lessThan">
       <formula>-0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="126" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P211:U211">
-    <cfRule type="cellIs" dxfId="217" priority="121" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="121" operator="lessThan">
       <formula>-0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="122" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="122" operator="greaterThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="123" operator="between">
       <formula>-0.01</formula>
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W236:W243">
-    <cfRule type="cellIs" dxfId="214" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="119" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="120" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W251:W257">
-    <cfRule type="cellIs" dxfId="212" priority="117" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="117" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="118" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V265">
-    <cfRule type="cellIs" dxfId="210" priority="30" operator="notBetween">
+    <cfRule type="cellIs" dxfId="110" priority="30" operator="notBetween">
       <formula>$X$265</formula>
       <formula>$Y$265</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="116" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="116" operator="between">
       <formula>$X$265</formula>
       <formula>$Y$265</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V266">
-    <cfRule type="cellIs" dxfId="208" priority="29" operator="notBetween">
+    <cfRule type="cellIs" dxfId="108" priority="29" operator="notBetween">
       <formula>$X$266</formula>
       <formula>$Y$266</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="115" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="115" operator="between">
       <formula>$X$266</formula>
       <formula>$Y$266</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V267">
-    <cfRule type="cellIs" dxfId="206" priority="28" operator="notBetween">
+    <cfRule type="cellIs" dxfId="106" priority="28" operator="notBetween">
       <formula>$X$267</formula>
       <formula>$Y$267</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="114" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="114" operator="between">
       <formula>$X$267</formula>
       <formula>$Y$267</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V269">
-    <cfRule type="cellIs" dxfId="204" priority="27" operator="notBetween">
+    <cfRule type="cellIs" dxfId="104" priority="27" operator="notBetween">
       <formula>$X$269</formula>
       <formula>$Y$269</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="113" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="113" operator="between">
       <formula>$X$269</formula>
       <formula>$Y$269</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V270">
-    <cfRule type="cellIs" dxfId="202" priority="26" operator="notBetween">
+    <cfRule type="cellIs" dxfId="102" priority="26" operator="notBetween">
       <formula>$X$270</formula>
       <formula>$Y$270</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="112" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="112" operator="between">
       <formula>$X$270</formula>
       <formula>$Y$270</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V271">
-    <cfRule type="cellIs" dxfId="200" priority="25" operator="notBetween">
+    <cfRule type="cellIs" dxfId="100" priority="25" operator="notBetween">
       <formula>$X$271</formula>
       <formula>$Y$271</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="111" operator="between">
       <formula>$X$271</formula>
       <formula>$Y$271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V272">
-    <cfRule type="cellIs" dxfId="198" priority="24" operator="notBetween">
+    <cfRule type="cellIs" dxfId="98" priority="24" operator="notBetween">
       <formula>$X$272</formula>
       <formula>$Y$272</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="110" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="110" operator="between">
       <formula>$X$272</formula>
       <formula>$Y$272</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X283 X298 X318 X330">
-    <cfRule type="cellIs" dxfId="196" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="109" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X288">
-    <cfRule type="cellIs" dxfId="195" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="43" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="108" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="108" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X335">
-    <cfRule type="cellIs" dxfId="193" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="107" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T381:X381">
-    <cfRule type="cellIs" dxfId="192" priority="104" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="104" operator="lessThan">
       <formula>-0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="105" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="105" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="106" operator="between">
       <formula>0.02</formula>
       <formula>-0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W393">
-    <cfRule type="cellIs" dxfId="189" priority="102" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="102" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="103" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="103" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U427 P446 R446 Q437:R437 U437:V437">
-    <cfRule type="cellIs" dxfId="187" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="87" operator="lessThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="88" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="86" priority="88" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U428 Q438:R438 U438:V438 P447 R447">
-    <cfRule type="cellIs" dxfId="185" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="86" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="84" priority="86" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U429 Q439:R439 U439:V439 P448 R448">
-    <cfRule type="cellIs" dxfId="183" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="84" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="84" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T446">
-    <cfRule type="cellIs" dxfId="181" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="greaterThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T447:T448">
-    <cfRule type="cellIs" dxfId="179" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="79" operator="lessThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="80" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="78" priority="80" operator="greaterThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T458">
-    <cfRule type="cellIs" dxfId="177" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="77" operator="lessThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="78" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="76" priority="78" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V459">
-    <cfRule type="cellIs" dxfId="175" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="74" operator="lessThan">
       <formula>-0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="75" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="75" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="76" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="76" operator="between">
       <formula>0.15</formula>
       <formula>-0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T343">
-    <cfRule type="cellIs" dxfId="172" priority="71" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="between">
       <formula>$R$343*0.95</formula>
       <formula>$R$343*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T344">
-    <cfRule type="cellIs" dxfId="171" priority="70" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="between">
       <formula>$R$344*0.95</formula>
       <formula>$R$344*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T345">
-    <cfRule type="cellIs" dxfId="170" priority="69" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="69" operator="between">
       <formula>$R$345*0.95</formula>
       <formula>$R$345*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T346">
-    <cfRule type="cellIs" dxfId="169" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="68" operator="between">
       <formula>$R$346*0.95</formula>
       <formula>$R$346*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T347">
-    <cfRule type="cellIs" dxfId="168" priority="67" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="67" operator="between">
       <formula>$R$347*0.95</formula>
       <formula>$R$347*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T348">
-    <cfRule type="cellIs" dxfId="167" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="66" operator="between">
       <formula>$R$348*0.95</formula>
       <formula>$R$348*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T349">
-    <cfRule type="cellIs" dxfId="166" priority="65" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="65" operator="between">
       <formula>$R$349*0.95</formula>
       <formula>$R$349*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T354">
-    <cfRule type="cellIs" dxfId="165" priority="64" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="between">
       <formula>$R$354*0.95</formula>
       <formula>$R$354*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T355">
-    <cfRule type="cellIs" dxfId="164" priority="63" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="63" operator="between">
       <formula>$R$355*0.95</formula>
       <formula>$R$355*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T356">
-    <cfRule type="cellIs" dxfId="163" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="62" operator="between">
       <formula>$R$356*0.95</formula>
       <formula>$R$356*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T357">
-    <cfRule type="cellIs" dxfId="162" priority="61" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="between">
       <formula>$R$357*0.95</formula>
       <formula>$R$357*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T358">
-    <cfRule type="cellIs" dxfId="161" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="60" operator="between">
       <formula>$R$358*0.95</formula>
       <formula>$R$358*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T359">
-    <cfRule type="cellIs" dxfId="160" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="59" operator="between">
       <formula>$R$359*0.95</formula>
       <formula>$R$359*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T364">
-    <cfRule type="cellIs" dxfId="159" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="between">
       <formula>$R$364*0.95</formula>
       <formula>$R$364*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T365">
-    <cfRule type="cellIs" dxfId="158" priority="57" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="57" operator="between">
       <formula>$R$365*0.95</formula>
       <formula>$R$365*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T366">
-    <cfRule type="cellIs" dxfId="157" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="56" operator="between">
       <formula>$R$366*0.95</formula>
       <formula>$R$366*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T367">
-    <cfRule type="cellIs" dxfId="156" priority="55" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="between">
       <formula>$R$367*0.95</formula>
       <formula>$R$367*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T368">
-    <cfRule type="cellIs" dxfId="155" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="54" operator="between">
       <formula>$R$368*0.95</formula>
       <formula>$R$368*1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R123:R130">
-    <cfRule type="cellIs" dxfId="154" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="51" operator="lessThan">
       <formula>-0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="53" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="between">
       <formula>0.5</formula>
       <formula>-0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U169:V169">
-    <cfRule type="cellIs" dxfId="151" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="lessThan">
       <formula>160</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="greaterThan">
       <formula>160</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q142:V142">
-    <cfRule type="cellIs" dxfId="149" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="16" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q227:T227">
-    <cfRule type="cellIs" dxfId="145" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X283 X298 X318 X330 X335">
-    <cfRule type="cellIs" dxfId="143" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q407:X407 Q420:U420">
-    <cfRule type="cellIs" dxfId="142" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q154:V154">
-    <cfRule type="cellIs" dxfId="140" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="39" operator="lessThan">
       <formula>0.07</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="greaterThan">
       <formula>0.07</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q155:V155">
-    <cfRule type="cellIs" dxfId="138" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X303">
-    <cfRule type="cellIs" dxfId="136" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X322">
-    <cfRule type="cellIs" dxfId="134" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X334">
-    <cfRule type="cellIs" dxfId="132" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="lessThan">
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
       <formula>0.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45:L49 L51:L63">
-    <cfRule type="cellIs" dxfId="130" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:M49 M51:M63">
-    <cfRule type="cellIs" dxfId="129" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L72:L104">
-    <cfRule type="cellIs" dxfId="128" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:M104">
-    <cfRule type="cellIs" dxfId="127" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M174 K142">
-    <cfRule type="cellIs" dxfId="126" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165:J165">
-    <cfRule type="cellIs" dxfId="125" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E167:J167">
-    <cfRule type="cellIs" dxfId="124" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I174:J174">
-    <cfRule type="cellIs" dxfId="123" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="lessThan">
       <formula>160</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y169">
-    <cfRule type="cellIs" dxfId="122" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188:I188 D195:I195">
-    <cfRule type="cellIs" dxfId="120" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W258 W244">
-    <cfRule type="cellIs" dxfId="119" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K253 J233 J219">
-    <cfRule type="cellIs" dxfId="117" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L282 L296 L310 L321">
-    <cfRule type="cellIs" dxfId="116" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W458:W459">
-    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K333:K334">
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E358 I358 M358 D374:G374 D397:K397 D405:H405">
-    <cfRule type="cellIs" dxfId="112" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51152,9 +47852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD200"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
@@ -51170,39 +47868,39 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B2" s="695" t="s">
+      <c r="B2" s="707" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="695"/>
-      <c r="D2" s="695"/>
-      <c r="E2" s="695"/>
-      <c r="F2" s="695"/>
-      <c r="G2" s="695"/>
-      <c r="H2" s="695"/>
-      <c r="I2" s="695"/>
-      <c r="J2" s="695"/>
-      <c r="L2" s="695" t="s">
+      <c r="C2" s="707"/>
+      <c r="D2" s="707"/>
+      <c r="E2" s="707"/>
+      <c r="F2" s="707"/>
+      <c r="G2" s="707"/>
+      <c r="H2" s="707"/>
+      <c r="I2" s="707"/>
+      <c r="J2" s="707"/>
+      <c r="L2" s="707" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="695"/>
-      <c r="N2" s="695"/>
-      <c r="O2" s="695"/>
-      <c r="P2" s="695"/>
-      <c r="Q2" s="695"/>
-      <c r="R2" s="695"/>
-      <c r="S2" s="695"/>
-      <c r="T2" s="695"/>
-      <c r="V2" s="695" t="s">
+      <c r="M2" s="707"/>
+      <c r="N2" s="707"/>
+      <c r="O2" s="707"/>
+      <c r="P2" s="707"/>
+      <c r="Q2" s="707"/>
+      <c r="R2" s="707"/>
+      <c r="S2" s="707"/>
+      <c r="T2" s="707"/>
+      <c r="V2" s="707" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="695"/>
-      <c r="X2" s="695"/>
-      <c r="Y2" s="695"/>
-      <c r="Z2" s="695"/>
-      <c r="AA2" s="695"/>
-      <c r="AB2" s="695"/>
-      <c r="AC2" s="695"/>
-      <c r="AD2" s="695"/>
+      <c r="W2" s="707"/>
+      <c r="X2" s="707"/>
+      <c r="Y2" s="707"/>
+      <c r="Z2" s="707"/>
+      <c r="AA2" s="707"/>
+      <c r="AB2" s="707"/>
+      <c r="AC2" s="707"/>
+      <c r="AD2" s="707"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" thickTop="1">
       <c r="A3" s="15" t="s">
@@ -52663,36 +49361,36 @@
     </row>
     <row r="26" spans="1:30" ht="16.5" thickTop="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="693" t="s">
+      <c r="B26" s="705" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="693"/>
-      <c r="D26" s="693"/>
-      <c r="E26" s="693"/>
-      <c r="F26" s="693"/>
-      <c r="G26" s="693"/>
-      <c r="H26" s="693"/>
-      <c r="I26" s="693"/>
-      <c r="J26" s="693"/>
-      <c r="K26" s="693"/>
-      <c r="L26" s="693"/>
-      <c r="M26" s="694"/>
+      <c r="C26" s="705"/>
+      <c r="D26" s="705"/>
+      <c r="E26" s="705"/>
+      <c r="F26" s="705"/>
+      <c r="G26" s="705"/>
+      <c r="H26" s="705"/>
+      <c r="I26" s="705"/>
+      <c r="J26" s="705"/>
+      <c r="K26" s="705"/>
+      <c r="L26" s="705"/>
+      <c r="M26" s="706"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="693" t="s">
+      <c r="O26" s="705" t="s">
         <v>49</v>
       </c>
-      <c r="P26" s="693"/>
-      <c r="Q26" s="693"/>
-      <c r="R26" s="693"/>
-      <c r="S26" s="693"/>
-      <c r="T26" s="693"/>
-      <c r="U26" s="693"/>
-      <c r="V26" s="693"/>
-      <c r="W26" s="693"/>
-      <c r="X26" s="693"/>
-      <c r="Y26" s="693"/>
-      <c r="Z26" s="693"/>
-      <c r="AA26" s="694"/>
+      <c r="P26" s="705"/>
+      <c r="Q26" s="705"/>
+      <c r="R26" s="705"/>
+      <c r="S26" s="705"/>
+      <c r="T26" s="705"/>
+      <c r="U26" s="705"/>
+      <c r="V26" s="705"/>
+      <c r="W26" s="705"/>
+      <c r="X26" s="705"/>
+      <c r="Y26" s="705"/>
+      <c r="Z26" s="705"/>
+      <c r="AA26" s="706"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="18" t="s">
@@ -54528,33 +51226,33 @@
     </row>
     <row r="51" spans="1:26" ht="16.5" thickTop="1">
       <c r="A51" s="15"/>
-      <c r="B51" s="693" t="s">
+      <c r="B51" s="705" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="693"/>
-      <c r="D51" s="693"/>
-      <c r="E51" s="693"/>
-      <c r="F51" s="693"/>
-      <c r="G51" s="693"/>
-      <c r="H51" s="693"/>
-      <c r="I51" s="693"/>
-      <c r="J51" s="693"/>
-      <c r="K51" s="693"/>
-      <c r="L51" s="693"/>
-      <c r="M51" s="693"/>
-      <c r="N51" s="693"/>
-      <c r="O51" s="693"/>
-      <c r="P51" s="693"/>
-      <c r="Q51" s="693"/>
-      <c r="R51" s="693"/>
-      <c r="S51" s="693"/>
-      <c r="T51" s="693"/>
-      <c r="U51" s="693"/>
-      <c r="V51" s="693"/>
-      <c r="W51" s="693"/>
-      <c r="X51" s="693"/>
-      <c r="Y51" s="693"/>
-      <c r="Z51" s="694"/>
+      <c r="C51" s="705"/>
+      <c r="D51" s="705"/>
+      <c r="E51" s="705"/>
+      <c r="F51" s="705"/>
+      <c r="G51" s="705"/>
+      <c r="H51" s="705"/>
+      <c r="I51" s="705"/>
+      <c r="J51" s="705"/>
+      <c r="K51" s="705"/>
+      <c r="L51" s="705"/>
+      <c r="M51" s="705"/>
+      <c r="N51" s="705"/>
+      <c r="O51" s="705"/>
+      <c r="P51" s="705"/>
+      <c r="Q51" s="705"/>
+      <c r="R51" s="705"/>
+      <c r="S51" s="705"/>
+      <c r="T51" s="705"/>
+      <c r="U51" s="705"/>
+      <c r="V51" s="705"/>
+      <c r="W51" s="705"/>
+      <c r="X51" s="705"/>
+      <c r="Y51" s="705"/>
+      <c r="Z51" s="706"/>
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="18" t="s">
@@ -57337,11 +54035,11 @@
         <f>"DGN values (mrad/R) for "&amp;Sheet1!$T$277&amp;" kV and HVL="&amp;ROUND(Sheet1!$X$280,2)&amp;" mm Al"</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G104" s="695" t="s">
+      <c r="G104" s="707" t="s">
         <v>441</v>
       </c>
-      <c r="H104" s="695"/>
-      <c r="I104" s="695"/>
+      <c r="H104" s="707"/>
+      <c r="I104" s="707"/>
       <c r="T104" t="s">
         <v>597</v>
       </c>
@@ -60444,6 +57142,9 @@
       </c>
     </row>
     <row r="179" spans="1:25">
+      <c r="A179" t="s">
+        <v>717</v>
+      </c>
       <c r="T179" t="s">
         <v>597</v>
       </c>
@@ -60464,6 +57165,14 @@
       </c>
     </row>
     <row r="180" spans="1:25">
+      <c r="B180" s="707" t="s">
+        <v>718</v>
+      </c>
+      <c r="C180" s="707"/>
+      <c r="E180" s="707" t="s">
+        <v>719</v>
+      </c>
+      <c r="F180" s="707"/>
       <c r="T180" t="s">
         <v>597</v>
       </c>
@@ -60484,6 +57193,24 @@
       </c>
     </row>
     <row r="181" spans="1:25">
+      <c r="A181" t="s">
+        <v>632</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>632</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
       <c r="T181" t="s">
         <v>597</v>
       </c>
@@ -60504,6 +57231,24 @@
       </c>
     </row>
     <row r="182" spans="1:25">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182">
+        <v>0.71</v>
+      </c>
+      <c r="C182">
+        <v>0.69</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>0.88</v>
+      </c>
+      <c r="F182">
+        <v>0.65</v>
+      </c>
       <c r="T182" t="s">
         <v>597</v>
       </c>
@@ -60524,6 +57269,24 @@
       </c>
     </row>
     <row r="183" spans="1:25">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183">
+        <v>0.94</v>
+      </c>
+      <c r="C183">
+        <v>0.98</v>
+      </c>
+      <c r="D183">
+        <v>4</v>
+      </c>
+      <c r="E183">
+        <v>0.94</v>
+      </c>
+      <c r="F183">
+        <v>0.96</v>
+      </c>
       <c r="T183" t="s">
         <v>597</v>
       </c>
@@ -60544,6 +57307,24 @@
       </c>
     </row>
     <row r="184" spans="1:25">
+      <c r="A184">
+        <v>6</v>
+      </c>
+      <c r="B184">
+        <v>1.3</v>
+      </c>
+      <c r="C184">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D184">
+        <v>6</v>
+      </c>
+      <c r="E184">
+        <v>1.53</v>
+      </c>
+      <c r="F184">
+        <v>1.61</v>
+      </c>
       <c r="T184" t="s">
         <v>597</v>
       </c>
@@ -60564,6 +57345,24 @@
       </c>
     </row>
     <row r="185" spans="1:25">
+      <c r="A185">
+        <v>8</v>
+      </c>
+      <c r="B185">
+        <v>1.71</v>
+      </c>
+      <c r="C185">
+        <v>1.53</v>
+      </c>
+      <c r="D185">
+        <v>8</v>
+      </c>
+      <c r="E185">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F185">
+        <v>2.91</v>
+      </c>
       <c r="T185" t="s">
         <v>597</v>
       </c>
@@ -60884,7 +57683,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="E180:F180"/>
     <mergeCell ref="B51:Z51"/>
     <mergeCell ref="G104:I104"/>
     <mergeCell ref="B2:J2"/>
@@ -61853,50 +58654,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="459" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>21.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
       <formula>24</formula>
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="456" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>21.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
       <formula>25.35</formula>
       <formula>31.55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="6" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="453" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>21.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
       <formula>24</formula>
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="450" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="lessThan">
       <formula>21.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="between">
       <formula>25.35</formula>
       <formula>31.55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThanOrEqual">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
